--- a/excel/insights/throughtputInsights.xlsx
+++ b/excel/insights/throughtputInsights.xlsx
@@ -1389,6 +1389,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1413,13 +1414,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1483,7 +1483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1496,23 +1496,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1616,7 +1608,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Throughput</a:t>
+              <a:t>Mean Throughput</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1680,6 +1672,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1789,6 +1782,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1860,11 +1854,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25683197"/>
-        <c:axId val="52367138"/>
+        <c:axId val="77592485"/>
+        <c:axId val="40190851"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25683197"/>
+        <c:axId val="77592485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1879,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Interarriva time</a:t>
+                  <a:t>Interarrival time [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1920,7 +1914,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52367138"/>
+        <c:crossAx val="40190851"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1928,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52367138"/>
+        <c:axId val="40190851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +1952,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>throughput</a:t>
+                  <a:t>Mean Throughput [packets/slot]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1971,7 +1965,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1993,7 +1987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25683197"/>
+        <c:crossAx val="77592485"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2034,7 +2028,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -2052,9 +2046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2062,8 +2056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="62274960" y="570960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="62363880" y="570960"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2083,11 +2077,11 @@
   </sheetPr>
   <dimension ref="B2:BS82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BX44" activeCellId="0" sqref="BX44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BR34" activeCellId="0" sqref="BR34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.31"/>
@@ -2154,7 +2148,6 @@
       <c r="B4" s="0" t="n">
         <v>0.050225210289252</v>
       </c>
-      <c r="C4" s="3"/>
       <c r="H4" s="2"/>
       <c r="J4" s="1"/>
       <c r="O4" s="0" t="s">
@@ -2163,7 +2156,7 @@
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R4" s="0" t="s">
@@ -2196,7 +2189,7 @@
       <c r="AF4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AH4" s="0" t="s">
@@ -2211,7 +2204,7 @@
       <c r="AN4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AP4" s="0" t="s">
@@ -2226,7 +2219,7 @@
       <c r="AV4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="AW4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AX4" s="0" t="s">
@@ -2241,7 +2234,7 @@
       <c r="BD4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BE4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BF4" s="0" t="s">
@@ -2293,11 +2286,11 @@
       <c r="B6" s="0" t="n">
         <v>0.050071526240499</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="4" t="n">
         <f aca="false">C3-H3</f>
         <v>0.0500077396061252</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="4" t="n">
         <f aca="false">C3+H3</f>
         <v>0.0500147114980615</v>
       </c>
@@ -2321,11 +2314,11 @@
         <f aca="false">T5+S6</f>
         <v>1.197860844357</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="2" t="n">
         <f aca="false">T6/$T$40</f>
         <v>0.0285174137008354</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="V6" s="2" t="n">
         <f aca="false">ABS(S6-$S$41)</f>
         <v>0.00226886979217</v>
       </c>
@@ -2348,11 +2341,11 @@
         <f aca="false">AB5+AA6</f>
         <v>0.74850342262798</v>
       </c>
-      <c r="AC6" s="6" t="n">
+      <c r="AC6" s="2" t="n">
         <f aca="false">AB6/$AB$40</f>
         <v>0.0285087929431138</v>
       </c>
-      <c r="AD6" s="6" t="n">
+      <c r="AD6" s="2" t="n">
         <f aca="false">ABS(AA6-$AA$41)</f>
         <v>0.00164450954712914</v>
       </c>
@@ -2375,11 +2368,11 @@
         <f aca="false">AJ5+AI6</f>
         <v>0.54580784651806</v>
       </c>
-      <c r="AK6" s="6" t="n">
+      <c r="AK6" s="2" t="n">
         <f aca="false">AJ6/$AJ$40</f>
         <v>0.0285851240680872</v>
       </c>
-      <c r="AL6" s="6" t="n">
+      <c r="AL6" s="2" t="n">
         <f aca="false">ABS(AI6-$AI$41)</f>
         <v>0.000261503484135006</v>
       </c>
@@ -2402,11 +2395,11 @@
         <f aca="false">AR5+AQ6</f>
         <v>0.42680060336779</v>
       </c>
-      <c r="AS6" s="6" t="n">
+      <c r="AS6" s="2" t="n">
         <f aca="false">AR6/$AR$40</f>
         <v>0.0284478496899765</v>
       </c>
-      <c r="AT6" s="6" t="n">
+      <c r="AT6" s="2" t="n">
         <f aca="false">ABS(AQ6-$AQ$41)</f>
         <v>0.00185404316115401</v>
       </c>
@@ -2429,11 +2422,11 @@
         <f aca="false">AZ5+AY6</f>
         <v>0.35293226007131</v>
       </c>
-      <c r="BA6" s="6" t="n">
+      <c r="BA6" s="2" t="n">
         <f aca="false">AZ6/$AZ$40</f>
         <v>0.0285586301301958</v>
       </c>
-      <c r="BB6" s="6" t="n">
+      <c r="BB6" s="2" t="n">
         <f aca="false">ABS(AY6-$AY$41)</f>
         <v>0.000158165247039987</v>
       </c>
@@ -2456,11 +2449,11 @@
         <f aca="false">BH5+BG6</f>
         <v>0.2988617906718</v>
       </c>
-      <c r="BI6" s="6" t="n">
+      <c r="BI6" s="2" t="n">
         <f aca="false">BH6/$BH$40</f>
         <v>0.0284553497388477</v>
       </c>
-      <c r="BJ6" s="6" t="n">
+      <c r="BJ6" s="2" t="n">
         <f aca="false">ABS(BG6-$BG$41)</f>
         <v>0.00121915661141403</v>
       </c>
@@ -2491,7 +2484,7 @@
       <c r="P7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R7" s="0" t="s">
@@ -2504,11 +2497,11 @@
         <f aca="false">T6+S7</f>
         <v>2.3962153724049</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="2" t="n">
         <f aca="false">T7/$T$40</f>
         <v>0.0570465805048105</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="V7" s="2" t="n">
         <f aca="false">ABS(S7-$S$41)</f>
         <v>0.00177518610127003</v>
       </c>
@@ -2531,11 +2524,11 @@
         <f aca="false">AB6+AA7</f>
         <v>1.49710579252022</v>
       </c>
-      <c r="AC7" s="6" t="n">
+      <c r="AC7" s="2" t="n">
         <f aca="false">AB7/$AB$40</f>
         <v>0.0570213545624738</v>
       </c>
-      <c r="AD7" s="6" t="n">
+      <c r="AD7" s="2" t="n">
         <f aca="false">ABS(AA7-$AA$41)</f>
         <v>0.00154556228286906</v>
       </c>
@@ -2558,11 +2551,11 @@
         <f aca="false">AJ6+AI7</f>
         <v>1.09237042908376</v>
       </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AK7" s="2" t="n">
         <f aca="false">AJ7/$AJ$40</f>
         <v>0.0572097752769037</v>
       </c>
-      <c r="AL7" s="6" t="n">
+      <c r="AL7" s="2" t="n">
         <f aca="false">ABS(AI7-$AI$41)</f>
         <v>0.00101623953177499</v>
       </c>
@@ -2585,11 +2578,11 @@
         <f aca="false">AR6+AQ7</f>
         <v>0.85402857470677</v>
       </c>
-      <c r="AS7" s="6" t="n">
+      <c r="AS7" s="2" t="n">
         <f aca="false">AR7/$AR$40</f>
         <v>0.0569241850468214</v>
       </c>
-      <c r="AT7" s="6" t="n">
+      <c r="AT7" s="2" t="n">
         <f aca="false">ABS(AQ7-$AQ$41)</f>
         <v>0.00142667518996403</v>
       </c>
@@ -2612,11 +2605,11 @@
         <f aca="false">AZ6+AY7</f>
         <v>0.70610346725951</v>
       </c>
-      <c r="BA7" s="6" t="n">
+      <c r="BA7" s="2" t="n">
         <f aca="false">AZ7/$AZ$40</f>
         <v>0.0571365954221322</v>
       </c>
-      <c r="BB7" s="6" t="n">
+      <c r="BB7" s="2" t="n">
         <f aca="false">ABS(AY7-$AY$41)</f>
         <v>8.07818698499996E-005</v>
       </c>
@@ -2639,11 +2632,11 @@
         <f aca="false">BH6+BG7</f>
         <v>0.59800884420122</v>
       </c>
-      <c r="BI7" s="6" t="n">
+      <c r="BI7" s="2" t="n">
         <f aca="false">BH7/$BH$40</f>
         <v>0.0569378600403182</v>
       </c>
-      <c r="BJ7" s="6" t="n">
+      <c r="BJ7" s="2" t="n">
         <f aca="false">ABS(BG7-$BG$41)</f>
         <v>0.000933893753794046</v>
       </c>
@@ -2651,17 +2644,17 @@
         <f aca="false">1/35+BK6</f>
         <v>0.0571428571428571</v>
       </c>
-      <c r="BN7" s="7" t="s">
+      <c r="BN7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BO7" s="7"/>
+      <c r="BO7" s="5"/>
       <c r="BP7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="BQ7" s="6" t="n">
+      <c r="BQ7" s="2" t="n">
         <v>1.20012971414917</v>
       </c>
-      <c r="BR7" s="6" t="n">
+      <c r="BR7" s="2" t="n">
         <v>0.000128911648938</v>
       </c>
       <c r="BS7" s="0" t="n">
@@ -2672,7 +2665,7 @@
       <c r="B8" s="0" t="n">
         <v>0.049898894843269</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="O8" s="0" t="s">
         <v>42</v>
       </c>
@@ -2692,11 +2685,11 @@
         <f aca="false">T7+S8</f>
         <v>3.5946583214123</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="2" t="n">
         <f aca="false">T8/$T$40</f>
         <v>0.0855778523421822</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="V8" s="2" t="n">
         <f aca="false">ABS(S8-$S$41)</f>
         <v>0.00168676514177002</v>
       </c>
@@ -2719,11 +2712,11 @@
         <f aca="false">AB7+AA8</f>
         <v>2.24617553034155</v>
       </c>
-      <c r="AC8" s="6" t="n">
+      <c r="AC8" s="2" t="n">
         <f aca="false">AB8/$AB$40</f>
         <v>0.0855517171632534</v>
       </c>
-      <c r="AD8" s="6" t="n">
+      <c r="AD8" s="2" t="n">
         <f aca="false">ABS(AA8-$AA$41)</f>
         <v>0.00107819435377909</v>
       </c>
@@ -2746,11 +2739,11 @@
         <f aca="false">AJ7+AI8</f>
         <v>1.63820459136359</v>
       </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AK8" s="2" t="n">
         <f aca="false">AJ8/$AJ$40</f>
         <v>0.0857962775577079</v>
       </c>
-      <c r="AL8" s="6" t="n">
+      <c r="AL8" s="2" t="n">
         <f aca="false">ABS(AI8-$AI$41)</f>
         <v>0.00028781924590493</v>
       </c>
@@ -2773,11 +2766,11 @@
         <f aca="false">AR7+AQ8</f>
         <v>1.28146286161805</v>
       </c>
-      <c r="AS8" s="6" t="n">
+      <c r="AS8" s="2" t="n">
         <f aca="false">AR8/$AR$40</f>
         <v>0.085414272104913</v>
       </c>
-      <c r="AT8" s="6" t="n">
+      <c r="AT8" s="2" t="n">
         <f aca="false">ABS(AQ8-$AQ$41)</f>
         <v>0.00122035961766404</v>
       </c>
@@ -2800,11 +2793,11 @@
         <f aca="false">AZ7+AY8</f>
         <v>1.05983783174965</v>
       </c>
-      <c r="BA8" s="6" t="n">
+      <c r="BA8" s="2" t="n">
         <f aca="false">AZ8/$AZ$40</f>
         <v>0.0857601303683925</v>
       </c>
-      <c r="BB8" s="6" t="n">
+      <c r="BB8" s="2" t="n">
         <f aca="false">ABS(AY8-$AY$41)</f>
         <v>0.000643939171790009</v>
       </c>
@@ -2827,11 +2820,11 @@
         <f aca="false">BH7+BG8</f>
         <v>0.89718221349241</v>
       </c>
-      <c r="BI8" s="6" t="n">
+      <c r="BI8" s="2" t="n">
         <f aca="false">BH8/$BH$40</f>
         <v>0.0854228759287462</v>
       </c>
-      <c r="BJ8" s="6" t="n">
+      <c r="BJ8" s="2" t="n">
         <f aca="false">ABS(BG8-$BG$41)</f>
         <v>0.000907577992024067</v>
       </c>
@@ -2839,15 +2832,15 @@
         <f aca="false">1/35+BK7</f>
         <v>0.0857142857142857</v>
       </c>
-      <c r="BN8" s="7"/>
-      <c r="BO8" s="7"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
       <c r="BP8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="BQ8" s="6" t="n">
+      <c r="BQ8" s="2" t="n">
         <v>0.750147932175109</v>
       </c>
-      <c r="BR8" s="8" t="n">
+      <c r="BR8" s="6" t="n">
         <v>9.34370223213494E-005</v>
       </c>
       <c r="BS8" s="0" t="n">
@@ -2864,7 +2857,7 @@
       <c r="P9" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R9" s="0" t="s">
@@ -2877,11 +2870,11 @@
         <f aca="false">T8+S9</f>
         <v>4.793182322966</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="2" t="n">
         <f aca="false">T9/$T$40</f>
         <v>0.114111053793503</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="2" t="n">
         <f aca="false">ABS(S9-$S$41)</f>
         <v>0.00160571259547004</v>
       </c>
@@ -2904,11 +2897,11 @@
         <f aca="false">AB8+AA9</f>
         <v>2.99528000496842</v>
       </c>
-      <c r="AC9" s="6" t="n">
+      <c r="AC9" s="2" t="n">
         <f aca="false">AB9/$AB$40</f>
         <v>0.114083402809949</v>
       </c>
-      <c r="AD9" s="6" t="n">
+      <c r="AD9" s="2" t="n">
         <f aca="false">ABS(AA9-$AA$41)</f>
         <v>0.00104345754823909</v>
       </c>
@@ -2931,11 +2924,11 @@
         <f aca="false">AJ8+AI9</f>
         <v>2.18477664760353</v>
       </c>
-      <c r="AK9" s="6" t="n">
+      <c r="AK9" s="2" t="n">
         <f aca="false">AJ9/$AJ$40</f>
         <v>0.114421424923103</v>
       </c>
-      <c r="AL9" s="6" t="n">
+      <c r="AL9" s="2" t="n">
         <f aca="false">ABS(AI9-$AI$41)</f>
         <v>0.00102571320601497</v>
       </c>
@@ -2958,11 +2951,11 @@
         <f aca="false">AR8+AQ9</f>
         <v>1.70927714812933</v>
       </c>
-      <c r="AS9" s="6" t="n">
+      <c r="AS9" s="2" t="n">
         <f aca="false">AR9/$AR$40</f>
         <v>0.113929687551526</v>
       </c>
-      <c r="AT9" s="6" t="n">
+      <c r="AT9" s="2" t="n">
         <f aca="false">ABS(AQ9-$AQ$41)</f>
         <v>0.000840360017664021</v>
       </c>
@@ -2985,11 +2978,11 @@
         <f aca="false">AZ8+AY9</f>
         <v>1.41325324920711</v>
       </c>
-      <c r="BA9" s="6" t="n">
+      <c r="BA9" s="2" t="n">
         <f aca="false">AZ9/$AZ$40</f>
         <v>0.114357856706691</v>
       </c>
-      <c r="BB9" s="6" t="n">
+      <c r="BB9" s="2" t="n">
         <f aca="false">ABS(AY9-$AY$41)</f>
         <v>0.000324992139110025</v>
       </c>
@@ -3012,11 +3005,11 @@
         <f aca="false">BH8+BG9</f>
         <v>1.19647347739634</v>
       </c>
-      <c r="BI9" s="6" t="n">
+      <c r="BI9" s="2" t="n">
         <f aca="false">BH9/$BH$40</f>
         <v>0.113919116846745</v>
       </c>
-      <c r="BJ9" s="6" t="n">
+      <c r="BJ9" s="2" t="n">
         <f aca="false">ABS(BG9-$BG$41)</f>
         <v>0.000789683379284034</v>
       </c>
@@ -3024,15 +3017,15 @@
         <f aca="false">1/35+BK8</f>
         <v>0.114285714285714</v>
       </c>
-      <c r="BN9" s="7"/>
-      <c r="BO9" s="7"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
       <c r="BP9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="BQ9" s="6" t="n">
+      <c r="BQ9" s="2" t="n">
         <v>0.545546343033925</v>
       </c>
-      <c r="BR9" s="8" t="n">
+      <c r="BR9" s="6" t="n">
         <v>1.48579902907392E-005</v>
       </c>
       <c r="BS9" s="0" t="n">
@@ -3062,11 +3055,11 @@
         <f aca="false">T9+S10</f>
         <v>5.9918431664809</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="U10" s="2" t="n">
         <f aca="false">T10/$T$40</f>
         <v>0.142647513034606</v>
       </c>
-      <c r="V10" s="6" t="n">
+      <c r="V10" s="2" t="n">
         <f aca="false">ABS(S10-$S$41)</f>
         <v>0.00146887063427004</v>
       </c>
@@ -3089,11 +3082,11 @@
         <f aca="false">AB9+AA10</f>
         <v>3.74450132157756</v>
       </c>
-      <c r="AC10" s="6" t="n">
+      <c r="AC10" s="2" t="n">
         <f aca="false">AB10/$AB$40</f>
         <v>0.142619538702</v>
       </c>
-      <c r="AD10" s="6" t="n">
+      <c r="AD10" s="2" t="n">
         <f aca="false">ABS(AA10-$AA$41)</f>
         <v>0.000926615565969069</v>
       </c>
@@ -3116,11 +3109,11 @@
         <f aca="false">AJ9+AI10</f>
         <v>2.73089607274098</v>
       </c>
-      <c r="AK10" s="6" t="n">
+      <c r="AK10" s="2" t="n">
         <f aca="false">AJ10/$AJ$40</f>
         <v>0.143022867029762</v>
       </c>
-      <c r="AL10" s="6" t="n">
+      <c r="AL10" s="2" t="n">
         <f aca="false">ABS(AI10-$AI$41)</f>
         <v>0.000573082103525024</v>
       </c>
@@ -3143,11 +3136,11 @@
         <f aca="false">AR9+AQ10</f>
         <v>2.13714196090321</v>
       </c>
-      <c r="AS10" s="6" t="n">
+      <c r="AS10" s="2" t="n">
         <f aca="false">AR10/$AR$40</f>
         <v>0.142448470761709</v>
       </c>
-      <c r="AT10" s="6" t="n">
+      <c r="AT10" s="2" t="n">
         <f aca="false">ABS(AQ10-$AQ$41)</f>
         <v>0.000789833755064029</v>
       </c>
@@ -3170,11 +3163,11 @@
         <f aca="false">AZ9+AY10</f>
         <v>1.76596235161858</v>
       </c>
-      <c r="BA10" s="6" t="n">
+      <c r="BA10" s="2" t="n">
         <f aca="false">AZ10/$AZ$40</f>
         <v>0.142898429329004</v>
       </c>
-      <c r="BB10" s="6" t="n">
+      <c r="BB10" s="2" t="n">
         <f aca="false">ABS(AY10-$AY$41)</f>
         <v>0.000381322906879977</v>
       </c>
@@ -3197,11 +3190,11 @@
         <f aca="false">BH9+BG10</f>
         <v>1.49578263601828</v>
       </c>
-      <c r="BI10" s="6" t="n">
+      <c r="BI10" s="2" t="n">
         <f aca="false">BH10/$BH$40</f>
         <v>0.142417061563875</v>
       </c>
-      <c r="BJ10" s="6" t="n">
+      <c r="BJ10" s="2" t="n">
         <f aca="false">ABS(BG10-$BG$41)</f>
         <v>0.000771788661274031</v>
       </c>
@@ -3209,15 +3202,15 @@
         <f aca="false">1/35+BK9</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
       <c r="BP10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="BQ10" s="6" t="n">
+      <c r="BQ10" s="2" t="n">
         <v>0.428654646528944</v>
       </c>
-      <c r="BR10" s="6" t="n">
+      <c r="BR10" s="2" t="n">
         <v>0.000105342211321</v>
       </c>
       <c r="BS10" s="0" t="n">
@@ -3234,7 +3227,7 @@
       <c r="P11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="0" t="s">
@@ -3247,11 +3240,11 @@
         <f aca="false">T10+S11</f>
         <v>7.190640851957</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="U11" s="2" t="n">
         <f aca="false">T11/$T$40</f>
         <v>0.171187230065491</v>
       </c>
-      <c r="V11" s="6" t="n">
+      <c r="V11" s="2" t="n">
         <f aca="false">ABS(S11-$S$41)</f>
         <v>0.00133202867307003</v>
       </c>
@@ -3274,11 +3267,11 @@
         <f aca="false">AB10+AA11</f>
         <v>4.4938384275385</v>
       </c>
-      <c r="AC11" s="6" t="n">
+      <c r="AC11" s="2" t="n">
         <f aca="false">AB11/$AB$40</f>
         <v>0.171160084747105</v>
       </c>
-      <c r="AD11" s="6" t="n">
+      <c r="AD11" s="2" t="n">
         <f aca="false">ABS(AA11-$AA$41)</f>
         <v>0.000810826214169058</v>
       </c>
@@ -3301,11 +3294,11 @@
         <f aca="false">AJ10+AI11</f>
         <v>3.27696918213771</v>
       </c>
-      <c r="AK11" s="6" t="n">
+      <c r="AK11" s="2" t="n">
         <f aca="false">AJ11/$AJ$40</f>
         <v>0.171621883482038</v>
       </c>
-      <c r="AL11" s="6" t="n">
+      <c r="AL11" s="2" t="n">
         <f aca="false">ABS(AI11-$AI$41)</f>
         <v>0.00052676636280502</v>
       </c>
@@ -3328,11 +3321,11 @@
         <f aca="false">AR10+AQ11</f>
         <v>2.56504361574357</v>
       </c>
-      <c r="AS11" s="6" t="n">
+      <c r="AS11" s="2" t="n">
         <f aca="false">AR11/$AR$40</f>
         <v>0.170969709632828</v>
       </c>
-      <c r="AT11" s="6" t="n">
+      <c r="AT11" s="2" t="n">
         <f aca="false">ABS(AQ11-$AQ$41)</f>
         <v>0.000752991688584004</v>
       </c>
@@ -3355,11 +3348,11 @@
         <f aca="false">AZ10+AY11</f>
         <v>2.11908197991371</v>
       </c>
-      <c r="BA11" s="6" t="n">
+      <c r="BA11" s="2" t="n">
         <f aca="false">AZ11/$AZ$40</f>
         <v>0.171472220951667</v>
       </c>
-      <c r="BB11" s="6" t="n">
+      <c r="BB11" s="2" t="n">
         <f aca="false">ABS(AY11-$AY$41)</f>
         <v>2.92029767799962E-005</v>
       </c>
@@ -3382,11 +3375,11 @@
         <f aca="false">BH10+BG11</f>
         <v>1.79532021545241</v>
       </c>
-      <c r="BI11" s="6" t="n">
+      <c r="BI11" s="2" t="n">
         <f aca="false">BH11/$BH$40</f>
         <v>0.170936754775799</v>
       </c>
-      <c r="BJ11" s="6" t="n">
+      <c r="BJ11" s="2" t="n">
         <f aca="false">ABS(BG11-$BG$41)</f>
         <v>0.000543367849084042</v>
       </c>
@@ -3394,15 +3387,15 @@
         <f aca="false">1/35+BK10</f>
         <v>0.171428571428571</v>
       </c>
-      <c r="BN11" s="7"/>
-      <c r="BO11" s="7"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
       <c r="BP11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="BQ11" s="6" t="n">
+      <c r="BQ11" s="2" t="n">
         <v>0.35309042531835</v>
       </c>
-      <c r="BR11" s="8" t="n">
+      <c r="BR11" s="6" t="n">
         <v>8.98656364988923E-006</v>
       </c>
       <c r="BS11" s="0" t="n">
@@ -3432,11 +3425,11 @@
         <f aca="false">T11+S12</f>
         <v>8.3896522214187</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="U12" s="2" t="n">
         <f aca="false">T12/$T$40</f>
         <v>0.199732034260421</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="V12" s="2" t="n">
         <f aca="false">ABS(S12-$S$41)</f>
         <v>0.00111834468747007</v>
       </c>
@@ -3459,11 +3452,11 @@
         <f aca="false">AB11+AA12</f>
         <v>5.24321132293545</v>
       </c>
-      <c r="AC12" s="6" t="n">
+      <c r="AC12" s="2" t="n">
         <f aca="false">AB12/$AB$40</f>
         <v>0.199701993930427</v>
       </c>
-      <c r="AD12" s="6" t="n">
+      <c r="AD12" s="2" t="n">
         <f aca="false">ABS(AA12-$AA$41)</f>
         <v>0.000775036778159155</v>
       </c>
@@ -3486,11 +3479,11 @@
         <f aca="false">AJ11+AI12</f>
         <v>3.82255176573499</v>
       </c>
-      <c r="AK12" s="6" t="n">
+      <c r="AK12" s="2" t="n">
         <f aca="false">AJ12/$AJ$40</f>
         <v>0.200195210049266</v>
       </c>
-      <c r="AL12" s="6" t="n">
+      <c r="AL12" s="2" t="n">
         <f aca="false">ABS(AI12-$AI$41)</f>
         <v>3.6240563354939E-005</v>
       </c>
@@ -3513,11 +3506,11 @@
         <f aca="false">AR11+AQ12</f>
         <v>2.99294527058393</v>
       </c>
-      <c r="AS12" s="6" t="n">
+      <c r="AS12" s="2" t="n">
         <f aca="false">AR12/$AR$40</f>
         <v>0.199490948503948</v>
       </c>
-      <c r="AT12" s="6" t="n">
+      <c r="AT12" s="2" t="n">
         <f aca="false">ABS(AQ12-$AQ$41)</f>
         <v>0.000752991688584004</v>
       </c>
@@ -3540,11 +3533,11 @@
         <f aca="false">AZ11+AY12</f>
         <v>2.47284266016563</v>
       </c>
-      <c r="BA12" s="6" t="n">
+      <c r="BA12" s="2" t="n">
         <f aca="false">AZ12/$AZ$40</f>
         <v>0.200097885321027</v>
       </c>
-      <c r="BB12" s="6" t="n">
+      <c r="BB12" s="2" t="n">
         <f aca="false">ABS(AY12-$AY$41)</f>
         <v>0.00067025493356998</v>
       </c>
@@ -3567,11 +3560,11 @@
         <f aca="false">BH11+BG12</f>
         <v>2.09497674212975</v>
       </c>
-      <c r="BI12" s="6" t="n">
+      <c r="BI12" s="2" t="n">
         <f aca="false">BH12/$BH$40</f>
         <v>0.199467773240773</v>
       </c>
-      <c r="BJ12" s="6" t="n">
+      <c r="BJ12" s="2" t="n">
         <f aca="false">ABS(BG12-$BG$41)</f>
         <v>0.000424420605874054</v>
       </c>
@@ -3579,15 +3572,15 @@
         <f aca="false">1/35+BK11</f>
         <v>0.2</v>
       </c>
-      <c r="BN12" s="7"/>
-      <c r="BO12" s="7"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
       <c r="BP12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="BQ12" s="6" t="n">
+      <c r="BQ12" s="2" t="n">
         <v>0.300080947283214</v>
       </c>
-      <c r="BR12" s="8" t="n">
+      <c r="BR12" s="6" t="n">
         <v>6.92695057397411E-005</v>
       </c>
       <c r="BS12" s="0" t="n">
@@ -3604,7 +3597,7 @@
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="0" t="s">
@@ -3617,11 +3610,11 @@
         <f aca="false">T12+S13</f>
         <v>9.5887930644283</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="U13" s="2" t="n">
         <f aca="false">T13/$T$40</f>
         <v>0.228279920825684</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="V13" s="2" t="n">
         <f aca="false">ABS(S13-$S$41)</f>
         <v>0.000988871139570025</v>
       </c>
@@ -3644,11 +3637,11 @@
         <f aca="false">AB12+AA13</f>
         <v>5.99258948148476</v>
       </c>
-      <c r="AC13" s="6" t="n">
+      <c r="AC13" s="2" t="n">
         <f aca="false">AB13/$AB$40</f>
         <v>0.228244103575251</v>
       </c>
-      <c r="AD13" s="6" t="n">
+      <c r="AD13" s="2" t="n">
         <f aca="false">ABS(AA13-$AA$41)</f>
         <v>0.000769773625799108</v>
       </c>
@@ -3671,11 +3664,11 @@
         <f aca="false">AJ12+AI13</f>
         <v>4.36821434924806</v>
       </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AK13" s="2" t="n">
         <f aca="false">AJ13/$AJ$40</f>
         <v>0.228772726383154</v>
       </c>
-      <c r="AL13" s="6" t="n">
+      <c r="AL13" s="2" t="n">
         <f aca="false">ABS(AI13-$AI$41)</f>
         <v>0.000116240479144936</v>
       </c>
@@ -3698,11 +3691,11 @@
         <f aca="false">AR12+AQ13</f>
         <v>3.42091850429632</v>
       </c>
-      <c r="AS13" s="6" t="n">
+      <c r="AS13" s="2" t="n">
         <f aca="false">AR13/$AR$40</f>
         <v>0.22801695837346</v>
       </c>
-      <c r="AT13" s="6" t="n">
+      <c r="AT13" s="2" t="n">
         <f aca="false">ABS(AQ13-$AQ$41)</f>
         <v>0.000681412816554039</v>
       </c>
@@ -3725,11 +3718,11 @@
         <f aca="false">AZ12+AY13</f>
         <v>2.82512439460591</v>
       </c>
-      <c r="BA13" s="6" t="n">
+      <c r="BA13" s="2" t="n">
         <f aca="false">AZ13/$AZ$40</f>
         <v>0.228603876112209</v>
       </c>
-      <c r="BB13" s="6" t="n">
+      <c r="BB13" s="2" t="n">
         <f aca="false">ABS(AY13-$AY$41)</f>
         <v>0.000808690878070006</v>
       </c>
@@ -3752,11 +3745,11 @@
         <f aca="false">BH12+BG13</f>
         <v>2.39463958458992</v>
       </c>
-      <c r="BI13" s="6" t="n">
+      <c r="BI13" s="2" t="n">
         <f aca="false">BH13/$BH$40</f>
         <v>0.227999393046616</v>
       </c>
-      <c r="BJ13" s="6" t="n">
+      <c r="BJ13" s="2" t="n">
         <f aca="false">ABS(BG13-$BG$41)</f>
         <v>0.000418104823044052</v>
       </c>
@@ -3764,17 +3757,17 @@
         <f aca="false">1/35+BK12</f>
         <v>0.228571428571429</v>
       </c>
-      <c r="BN13" s="7" t="s">
+      <c r="BN13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BO13" s="7"/>
+      <c r="BO13" s="5"/>
       <c r="BP13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="BQ13" s="6" t="n">
+      <c r="BQ13" s="2" t="n">
         <v>0.200098826963642</v>
       </c>
-      <c r="BR13" s="8" t="n">
+      <c r="BR13" s="6" t="n">
         <v>1.4179597864715E-005</v>
       </c>
       <c r="BS13" s="0" t="n">
@@ -3804,11 +3797,11 @@
         <f aca="false">T13+S14</f>
         <v>10.787969696874</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="2" t="n">
         <f aca="false">T14/$T$40</f>
         <v>0.256828659428276</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="V14" s="2" t="n">
         <f aca="false">ABS(S14-$S$41)</f>
         <v>0.000953081703469971</v>
       </c>
@@ -3831,11 +3824,11 @@
         <f aca="false">AB13+AA14</f>
         <v>6.74207711360304</v>
       </c>
-      <c r="AC14" s="6" t="n">
+      <c r="AC14" s="2" t="n">
         <f aca="false">AB14/$AB$40</f>
         <v>0.256790382819327</v>
       </c>
-      <c r="AD14" s="6" t="n">
+      <c r="AD14" s="2" t="n">
         <f aca="false">ABS(AA14-$AA$41)</f>
         <v>0.000660300056829155</v>
       </c>
@@ -3858,11 +3851,11 @@
         <f aca="false">AJ13+AI14</f>
         <v>4.91359482779492</v>
       </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AK14" s="2" t="n">
         <f aca="false">AJ14/$AJ$40</f>
         <v>0.257335468276713</v>
       </c>
-      <c r="AL14" s="6" t="n">
+      <c r="AL14" s="2" t="n">
         <f aca="false">ABS(AI14-$AI$41)</f>
         <v>0.000165864487065015</v>
       </c>
@@ -3885,11 +3878,11 @@
         <f aca="false">AR13+AQ14</f>
         <v>3.84892858007519</v>
       </c>
-      <c r="AS14" s="6" t="n">
+      <c r="AS14" s="2" t="n">
         <f aca="false">AR14/$AR$40</f>
         <v>0.256545423903909</v>
       </c>
-      <c r="AT14" s="6" t="n">
+      <c r="AT14" s="2" t="n">
         <f aca="false">ABS(AQ14-$AQ$41)</f>
         <v>0.000644570750074014</v>
       </c>
@@ -3912,11 +3905,11 @@
         <f aca="false">AZ13+AY14</f>
         <v>3.17752086576752</v>
       </c>
-      <c r="BA14" s="6" t="n">
+      <c r="BA14" s="2" t="n">
         <f aca="false">AZ14/$AZ$40</f>
         <v>0.257119151188103</v>
       </c>
-      <c r="BB14" s="6" t="n">
+      <c r="BB14" s="2" t="n">
         <f aca="false">ABS(AY14-$AY$41)</f>
         <v>0.000693954156740007</v>
       </c>
@@ -3939,11 +3932,11 @@
         <f aca="false">BH13+BG14</f>
         <v>2.69432769018139</v>
       </c>
-      <c r="BI14" s="6" t="n">
+      <c r="BI14" s="2" t="n">
         <f aca="false">BH14/$BH$40</f>
         <v>0.256533418215939</v>
       </c>
-      <c r="BJ14" s="6" t="n">
+      <c r="BJ14" s="2" t="n">
         <f aca="false">ABS(BG14-$BG$41)</f>
         <v>0.000392841691744028</v>
       </c>
@@ -3951,15 +3944,15 @@
         <f aca="false">1/35+BK13</f>
         <v>0.257142857142857</v>
       </c>
-      <c r="BN14" s="7"/>
-      <c r="BO14" s="7"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
       <c r="BP14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="BQ14" s="6" t="n">
+      <c r="BQ14" s="2" t="n">
         <v>0.125053793176459</v>
       </c>
-      <c r="BR14" s="8" t="n">
+      <c r="BR14" s="6" t="n">
         <v>1.2306756305239E-005</v>
       </c>
       <c r="BS14" s="0" t="n">
@@ -3976,7 +3969,7 @@
       <c r="P15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="0" t="s">
@@ -3989,11 +3982,11 @@
         <f aca="false">T14+S15</f>
         <v>11.9872915923246</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="2" t="n">
         <f aca="false">T15/$T$40</f>
         <v>0.28538085630002</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="V15" s="2" t="n">
         <f aca="false">ABS(S15-$S$41)</f>
         <v>0.000807818698570051</v>
       </c>
@@ -4016,11 +4009,11 @@
         <f aca="false">AB14+AA15</f>
         <v>7.49174579816232</v>
       </c>
-      <c r="AC15" s="6" t="n">
+      <c r="AC15" s="2" t="n">
         <f aca="false">AB15/$AB$40</f>
         <v>0.285343557939088</v>
       </c>
-      <c r="AD15" s="6" t="n">
+      <c r="AD15" s="2" t="n">
         <f aca="false">ABS(AA15-$AA$41)</f>
         <v>0.00047924761582907</v>
       </c>
@@ -4043,11 +4036,11 @@
         <f aca="false">AJ14+AI15</f>
         <v>5.45974056869414</v>
       </c>
-      <c r="AK15" s="6" t="n">
+      <c r="AK15" s="2" t="n">
         <f aca="false">AJ15/$AJ$40</f>
         <v>0.285938288596089</v>
       </c>
-      <c r="AL15" s="6" t="n">
+      <c r="AL15" s="2" t="n">
         <f aca="false">ABS(AI15-$AI$41)</f>
         <v>0.000599397865294948</v>
       </c>
@@ -4070,11 +4063,11 @@
         <f aca="false">AR14+AQ15</f>
         <v>4.27710602409893</v>
       </c>
-      <c r="AS15" s="6" t="n">
+      <c r="AS15" s="2" t="n">
         <f aca="false">AR15/$AR$40</f>
         <v>0.285085045151185</v>
       </c>
-      <c r="AT15" s="6" t="n">
+      <c r="AT15" s="2" t="n">
         <f aca="false">ABS(AQ15-$AQ$41)</f>
         <v>0.000477202505204055</v>
       </c>
@@ -4097,11 +4090,11 @@
         <f aca="false">AZ14+AY15</f>
         <v>3.53107101992525</v>
       </c>
-      <c r="BA15" s="6" t="n">
+      <c r="BA15" s="2" t="n">
         <f aca="false">AZ15/$AZ$40</f>
         <v>0.285727780172669</v>
       </c>
-      <c r="BB15" s="6" t="n">
+      <c r="BB15" s="2" t="n">
         <f aca="false">ABS(AY15-$AY$41)</f>
         <v>0.000459728839380003</v>
       </c>
@@ -4124,11 +4117,11 @@
         <f aca="false">BH14+BG15</f>
         <v>2.99401895366427</v>
       </c>
-      <c r="BI15" s="6" t="n">
+      <c r="BI15" s="2" t="n">
         <f aca="false">BH15/$BH$40</f>
         <v>0.285067744055696</v>
       </c>
-      <c r="BJ15" s="6" t="n">
+      <c r="BJ15" s="2" t="n">
         <f aca="false">ABS(BG15-$BG$41)</f>
         <v>0.000389683800334051</v>
       </c>
@@ -4136,15 +4129,15 @@
         <f aca="false">1/35+BK14</f>
         <v>0.285714285714286</v>
       </c>
-      <c r="BN15" s="7"/>
-      <c r="BO15" s="7"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
       <c r="BP15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="BQ15" s="6" t="n">
+      <c r="BQ15" s="2" t="n">
         <v>0.090931423079705</v>
       </c>
-      <c r="BR15" s="8" t="n">
+      <c r="BR15" s="6" t="n">
         <v>1.19957552431995E-006</v>
       </c>
       <c r="BS15" s="0" t="n">
@@ -4174,11 +4167,11 @@
         <f aca="false">T15+S16</f>
         <v>13.186984013701</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="2" t="n">
         <f aca="false">T16/$T$40</f>
         <v>0.3139418742641</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="2" t="n">
         <f aca="false">ABS(S16-$S$41)</f>
         <v>0.000437292772770048</v>
       </c>
@@ -4201,11 +4194,11 @@
         <f aca="false">AB15+AA16</f>
         <v>8.2414723773975</v>
       </c>
-      <c r="AC16" s="6" t="n">
+      <c r="AC16" s="2" t="n">
         <f aca="false">AB16/$AB$40</f>
         <v>0.313898938135375</v>
       </c>
-      <c r="AD16" s="6" t="n">
+      <c r="AD16" s="2" t="n">
         <f aca="false">ABS(AA16-$AA$41)</f>
         <v>0.000421352939929065</v>
       </c>
@@ -4228,11 +4221,11 @@
         <f aca="false">AJ15+AI16</f>
         <v>6.005483152123</v>
       </c>
-      <c r="AK16" s="6" t="n">
+      <c r="AK16" s="2" t="n">
         <f aca="false">AJ16/$AJ$40</f>
         <v>0.314519994696638</v>
       </c>
-      <c r="AL16" s="6" t="n">
+      <c r="AL16" s="2" t="n">
         <f aca="false">ABS(AI16-$AI$41)</f>
         <v>0.000196240394934932</v>
       </c>
@@ -4255,11 +4248,11 @@
         <f aca="false">AR15+AQ16</f>
         <v>4.70530873125398</v>
       </c>
-      <c r="AS16" s="6" t="n">
+      <c r="AS16" s="2" t="n">
         <f aca="false">AR16/$AR$40</f>
         <v>0.313626350280247</v>
       </c>
-      <c r="AT16" s="6" t="n">
+      <c r="AT16" s="2" t="n">
         <f aca="false">ABS(AQ16-$AQ$41)</f>
         <v>0.000451939373894039</v>
       </c>
@@ -4282,11 +4275,11 @@
         <f aca="false">AZ15+AY16</f>
         <v>3.8842369639611</v>
       </c>
-      <c r="BA16" s="6" t="n">
+      <c r="BA16" s="2" t="n">
         <f aca="false">AZ16/$AZ$40</f>
         <v>0.314305319579986</v>
       </c>
-      <c r="BB16" s="6" t="n">
+      <c r="BB16" s="2" t="n">
         <f aca="false">ABS(AY16-$AY$41)</f>
         <v>7.55187175000005E-005</v>
       </c>
@@ -4309,11 +4302,11 @@
         <f aca="false">BH15+BG16</f>
         <v>3.29371232240809</v>
       </c>
-      <c r="BI16" s="6" t="n">
+      <c r="BI16" s="2" t="n">
         <f aca="false">BH16/$BH$40</f>
         <v>0.31360227034241</v>
       </c>
-      <c r="BJ16" s="6" t="n">
+      <c r="BJ16" s="2" t="n">
         <f aca="false">ABS(BG16-$BG$41)</f>
         <v>0.000387578539394029</v>
       </c>
@@ -4321,15 +4314,15 @@
         <f aca="false">1/35+BK15</f>
         <v>0.314285714285714</v>
       </c>
-      <c r="BN16" s="7"/>
-      <c r="BO16" s="7"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
       <c r="BP16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="BQ16" s="6" t="n">
+      <c r="BQ16" s="2" t="n">
         <v>0.071466571388572</v>
       </c>
-      <c r="BR16" s="8" t="n">
+      <c r="BR16" s="6" t="n">
         <v>2.85471634035466E-005</v>
       </c>
       <c r="BS16" s="0" t="n">
@@ -4346,7 +4339,7 @@
       <c r="P17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="0" t="s">
@@ -4359,11 +4352,11 @@
         <f aca="false">T16+S17</f>
         <v>14.3867048561001</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="U17" s="2" t="n">
         <f aca="false">T17/$T$40</f>
         <v>0.342503568846057</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="V17" s="2" t="n">
         <f aca="false">ABS(S17-$S$41)</f>
         <v>0.000408871750070094</v>
       </c>
@@ -4386,11 +4379,11 @@
         <f aca="false">AB16+AA17</f>
         <v>8.99124632500387</v>
       </c>
-      <c r="AC17" s="6" t="n">
+      <c r="AC17" s="2" t="n">
         <f aca="false">AB17/$AB$40</f>
         <v>0.342456122485186</v>
       </c>
-      <c r="AD17" s="6" t="n">
+      <c r="AD17" s="2" t="n">
         <f aca="false">ABS(AA17-$AA$41)</f>
         <v>0.000373984568739161</v>
       </c>
@@ -4413,11 +4406,11 @@
         <f aca="false">AJ16+AI17</f>
         <v>6.55136257751308</v>
       </c>
-      <c r="AK17" s="6" t="n">
+      <c r="AK17" s="2" t="n">
         <f aca="false">AJ17/$AJ$40</f>
         <v>0.343108867503315</v>
       </c>
-      <c r="AL17" s="6" t="n">
+      <c r="AL17" s="2" t="n">
         <f aca="false">ABS(AI17-$AI$41)</f>
         <v>0.000333082356155034</v>
       </c>
@@ -4440,11 +4433,11 @@
         <f aca="false">AR16+AQ17</f>
         <v>5.13358091202011</v>
       </c>
-      <c r="AS17" s="6" t="n">
+      <c r="AS17" s="2" t="n">
         <f aca="false">AR17/$AR$40</f>
         <v>0.342172286084219</v>
       </c>
-      <c r="AT17" s="6" t="n">
+      <c r="AT17" s="2" t="n">
         <f aca="false">ABS(AQ17-$AQ$41)</f>
         <v>0.000382465762814033</v>
       </c>
@@ -4467,11 +4460,11 @@
         <f aca="false">AZ16+AY17</f>
         <v>4.2358555412047</v>
       </c>
-      <c r="BA17" s="6" t="n">
+      <c r="BA17" s="2" t="n">
         <f aca="false">AZ17/$AZ$40</f>
         <v>0.342757648909067</v>
       </c>
-      <c r="BB17" s="6" t="n">
+      <c r="BB17" s="2" t="n">
         <f aca="false">ABS(AY17-$AY$41)</f>
         <v>0.00147184807474998</v>
       </c>
@@ -4494,11 +4487,11 @@
         <f aca="false">BH16+BG17</f>
         <v>3.59344463847934</v>
       </c>
-      <c r="BI17" s="6" t="n">
+      <c r="BI17" s="2" t="n">
         <f aca="false">BH17/$BH$40</f>
         <v>0.342140504897822</v>
       </c>
-      <c r="BJ17" s="6" t="n">
+      <c r="BJ17" s="2" t="n">
         <f aca="false">ABS(BG17-$BG$41)</f>
         <v>0.000348631211964046</v>
       </c>
@@ -4506,15 +4499,15 @@
         <f aca="false">1/35+BK16</f>
         <v>0.342857142857143</v>
       </c>
-      <c r="BN17" s="7"/>
-      <c r="BO17" s="7"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
       <c r="BP17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="BQ17" s="6" t="n">
+      <c r="BQ17" s="2" t="n">
         <v>0.058839877912911</v>
       </c>
-      <c r="BR17" s="8" t="n">
+      <c r="BR17" s="6" t="n">
         <v>2.51534924759723E-006</v>
       </c>
       <c r="BS17" s="0" t="n">
@@ -4544,11 +4537,11 @@
         <f aca="false">T17+S18</f>
         <v>15.5866120140926</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="U18" s="2" t="n">
         <f aca="false">T18/$T$40</f>
         <v>0.371069699034104</v>
       </c>
-      <c r="V18" s="6" t="n">
+      <c r="V18" s="2" t="n">
         <f aca="false">ABS(S18-$S$41)</f>
         <v>0.000222556156669995</v>
       </c>
@@ -4571,11 +4564,11 @@
         <f aca="false">AB17+AA18</f>
         <v>9.74106658835096</v>
       </c>
-      <c r="AC18" s="6" t="n">
+      <c r="AC18" s="2" t="n">
         <f aca="false">AB18/$AB$40</f>
         <v>0.371015070896217</v>
       </c>
-      <c r="AD18" s="6" t="n">
+      <c r="AD18" s="2" t="n">
         <f aca="false">ABS(AA18-$AA$41)</f>
         <v>0.000327668828019156</v>
       </c>
@@ -4598,11 +4591,11 @@
         <f aca="false">AJ17+AI18</f>
         <v>7.09631884598017</v>
       </c>
-      <c r="AK18" s="6" t="n">
+      <c r="AK18" s="2" t="n">
         <f aca="false">AJ18/$AJ$40</f>
         <v>0.371649392607874</v>
       </c>
-      <c r="AL18" s="6" t="n">
+      <c r="AL18" s="2" t="n">
         <f aca="false">ABS(AI18-$AI$41)</f>
         <v>0.000590074566835019</v>
       </c>
@@ -4625,11 +4618,11 @@
         <f aca="false">AR17+AQ18</f>
         <v>5.56192782954967</v>
       </c>
-      <c r="AS18" s="6" t="n">
+      <c r="AS18" s="2" t="n">
         <f aca="false">AR18/$AR$40</f>
         <v>0.370723203371805</v>
       </c>
-      <c r="AT18" s="6" t="n">
+      <c r="AT18" s="2" t="n">
         <f aca="false">ABS(AQ18-$AQ$41)</f>
         <v>0.000307728999384027</v>
       </c>
@@ -4652,11 +4645,11 @@
         <f aca="false">AZ17+AY18</f>
         <v>4.58952780049706</v>
       </c>
-      <c r="BA18" s="6" t="n">
+      <c r="BA18" s="2" t="n">
         <f aca="false">AZ18/$AZ$40</f>
         <v>0.371376158416813</v>
       </c>
-      <c r="BB18" s="6" t="n">
+      <c r="BB18" s="2" t="n">
         <f aca="false">ABS(AY18-$AY$41)</f>
         <v>0.000581833974010015</v>
       </c>
@@ -4679,11 +4672,11 @@
         <f aca="false">BH17+BG18</f>
         <v>3.89324011237884</v>
       </c>
-      <c r="BI18" s="6" t="n">
+      <c r="BI18" s="2" t="n">
         <f aca="false">BH18/$BH$40</f>
         <v>0.370684752861932</v>
       </c>
-      <c r="BJ18" s="6" t="n">
+      <c r="BJ18" s="2" t="n">
         <f aca="false">ABS(BG18-$BG$41)</f>
         <v>0.000285473383714041</v>
       </c>
@@ -4691,15 +4684,15 @@
         <f aca="false">1/35+BK17</f>
         <v>0.371428571428571</v>
       </c>
-      <c r="BN18" s="7"/>
-      <c r="BO18" s="7"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
       <c r="BP18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="BQ18" s="6" t="n">
+      <c r="BQ18" s="2" t="n">
         <v>0.050011225552093</v>
       </c>
-      <c r="BR18" s="8" t="n">
+      <c r="BR18" s="6" t="n">
         <v>3.48594596813201E-006</v>
       </c>
       <c r="BS18" s="0" t="n">
@@ -4716,7 +4709,7 @@
       <c r="P19" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R19" s="0" t="s">
@@ -4729,11 +4722,11 @@
         <f aca="false">T18+S19</f>
         <v>16.7866696982424</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="U19" s="2" t="n">
         <f aca="false">T19/$T$40</f>
         <v>0.399639412790911</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="V19" s="2" t="n">
         <f aca="false">ABS(S19-$S$41)</f>
         <v>7.20299993699491E-005</v>
       </c>
@@ -4756,11 +4749,11 @@
         <f aca="false">AB18+AA19</f>
         <v>10.4909763252881</v>
       </c>
-      <c r="AC19" s="6" t="n">
+      <c r="AC19" s="2" t="n">
         <f aca="false">AB19/$AB$40</f>
         <v>0.399577427152791</v>
       </c>
-      <c r="AD19" s="6" t="n">
+      <c r="AD19" s="2" t="n">
         <f aca="false">ABS(AA19-$AA$41)</f>
         <v>0.000238195237989069</v>
       </c>
@@ -4783,11 +4776,11 @@
         <f aca="false">AJ18+AI19</f>
         <v>7.64200985051595</v>
       </c>
-      <c r="AK19" s="6" t="n">
+      <c r="AK19" s="2" t="n">
         <f aca="false">AJ19/$AJ$40</f>
         <v>0.400228397411496</v>
       </c>
-      <c r="AL19" s="6" t="n">
+      <c r="AL19" s="2" t="n">
         <f aca="false">ABS(AI19-$AI$41)</f>
         <v>0.000144661501854992</v>
       </c>
@@ -4810,11 +4803,11 @@
         <f aca="false">AR18+AQ19</f>
         <v>5.99049474684765</v>
       </c>
-      <c r="AS19" s="6" t="n">
+      <c r="AS19" s="2" t="n">
         <f aca="false">AR19/$AR$40</f>
         <v>0.399288784463272</v>
       </c>
-      <c r="AT19" s="6" t="n">
+      <c r="AT19" s="2" t="n">
         <f aca="false">ABS(AQ19-$AQ$41)</f>
         <v>8.77292309640065E-005</v>
       </c>
@@ -4837,11 +4830,11 @@
         <f aca="false">AZ18+AY19</f>
         <v>4.94292111271463</v>
       </c>
-      <c r="BA19" s="6" t="n">
+      <c r="BA19" s="2" t="n">
         <f aca="false">AZ19/$AZ$40</f>
         <v>0.399972096039708</v>
       </c>
-      <c r="BB19" s="6" t="n">
+      <c r="BB19" s="2" t="n">
         <f aca="false">ABS(AY19-$AY$41)</f>
         <v>0.000302886899219978</v>
       </c>
@@ -4864,11 +4857,11 @@
         <f aca="false">BH18+BG19</f>
         <v>4.19309453358471</v>
       </c>
-      <c r="BI19" s="6" t="n">
+      <c r="BI19" s="2" t="n">
         <f aca="false">BH19/$BH$40</f>
         <v>0.399234613340828</v>
       </c>
-      <c r="BJ19" s="6" t="n">
+      <c r="BJ19" s="2" t="n">
         <f aca="false">ABS(BG19-$BG$41)</f>
         <v>0.000226526077344025</v>
       </c>
@@ -4900,11 +4893,11 @@
         <f aca="false">T19+S20</f>
         <v>17.9868010665252</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="2" t="n">
         <f aca="false">T20/$T$40</f>
         <v>0.428210880742217</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="V20" s="2" t="n">
         <f aca="false">ABS(S20-$S$41)</f>
         <v>1.65413363006905E-006</v>
       </c>
@@ -4927,11 +4920,11 @@
         <f aca="false">AB19+AA20</f>
         <v>11.240912377987</v>
       </c>
-      <c r="AC20" s="6" t="n">
+      <c r="AC20" s="2" t="n">
         <f aca="false">AB20/$AB$40</f>
         <v>0.428140785716878</v>
       </c>
-      <c r="AD20" s="6" t="n">
+      <c r="AD20" s="2" t="n">
         <f aca="false">ABS(AA20-$AA$41)</f>
         <v>0.000211879476219146</v>
       </c>
@@ -4954,11 +4947,11 @@
         <f aca="false">AJ19+AI20</f>
         <v>8.18611875145395</v>
       </c>
-      <c r="AK20" s="6" t="n">
+      <c r="AK20" s="2" t="n">
         <f aca="false">AJ20/$AJ$40</f>
         <v>0.42872454406656</v>
       </c>
-      <c r="AL20" s="6" t="n">
+      <c r="AL20" s="2" t="n">
         <f aca="false">ABS(AI20-$AI$41)</f>
         <v>0.001437442095925</v>
       </c>
@@ -4981,11 +4974,11 @@
         <f aca="false">AR19+AQ20</f>
         <v>6.41907324308081</v>
       </c>
-      <c r="AS20" s="6" t="n">
+      <c r="AS20" s="2" t="n">
         <f aca="false">AR20/$AR$40</f>
         <v>0.42785513733389</v>
       </c>
-      <c r="AT20" s="6" t="n">
+      <c r="AT20" s="2" t="n">
         <f aca="false">ABS(AQ20-$AQ$41)</f>
         <v>7.61502957840054E-005</v>
       </c>
@@ -5008,11 +5001,11 @@
         <f aca="false">AZ19+AY20</f>
         <v>5.29579232021862</v>
       </c>
-      <c r="BA20" s="6" t="n">
+      <c r="BA20" s="2" t="n">
         <f aca="false">AZ20/$AZ$40</f>
         <v>0.428525785908313</v>
       </c>
-      <c r="BB20" s="6" t="n">
+      <c r="BB20" s="2" t="n">
         <f aca="false">ABS(AY20-$AY$41)</f>
         <v>0.000219217814360018</v>
       </c>
@@ -5035,11 +5028,11 @@
         <f aca="false">BH19+BG20</f>
         <v>4.49296053372576</v>
       </c>
-      <c r="BI20" s="6" t="n">
+      <c r="BI20" s="2" t="n">
         <f aca="false">BH20/$BH$40</f>
         <v>0.427785576277985</v>
       </c>
-      <c r="BJ20" s="6" t="n">
+      <c r="BJ20" s="2" t="n">
         <f aca="false">ABS(BG20-$BG$41)</f>
         <v>0.000214947142164024</v>
       </c>
@@ -5058,7 +5051,7 @@
       <c r="P21" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="0" t="s">
@@ -5071,11 +5064,11 @@
         <f aca="false">T20+S21</f>
         <v>19.1869471716346</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="U21" s="2" t="n">
         <f aca="false">T21/$T$40</f>
         <v>0.456782699532422</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="V21" s="2" t="n">
         <f aca="false">ABS(S21-$S$41)</f>
         <v>1.63909602299839E-005</v>
       </c>
@@ -5098,11 +5091,11 @@
         <f aca="false">AB20+AA21</f>
         <v>11.9909168516665</v>
       </c>
-      <c r="AC21" s="6" t="n">
+      <c r="AC21" s="2" t="n">
         <f aca="false">AB21/$AB$40</f>
         <v>0.456706750280496</v>
       </c>
-      <c r="AD21" s="6" t="n">
+      <c r="AD21" s="2" t="n">
         <f aca="false">ABS(AA21-$AA$41)</f>
         <v>0.000143458495609039</v>
       </c>
@@ -5125,11 +5118,11 @@
         <f aca="false">AJ20+AI21</f>
         <v>8.73047502055261</v>
       </c>
-      <c r="AK21" s="6" t="n">
+      <c r="AK21" s="2" t="n">
         <f aca="false">AJ21/$AJ$40</f>
         <v>0.457233645921166</v>
       </c>
-      <c r="AL21" s="6" t="n">
+      <c r="AL21" s="2" t="n">
         <f aca="false">ABS(AI21-$AI$41)</f>
         <v>0.00119007393526505</v>
       </c>
@@ -5152,11 +5145,11 @@
         <f aca="false">AR20+AQ21</f>
         <v>6.84791279167076</v>
       </c>
-      <c r="AS21" s="6" t="n">
+      <c r="AS21" s="2" t="n">
         <f aca="false">AR21/$AR$40</f>
         <v>0.456438890316291</v>
       </c>
-      <c r="AT21" s="6" t="n">
+      <c r="AT21" s="2" t="n">
         <f aca="false">ABS(AQ21-$AQ$41)</f>
         <v>0.000184902061005965</v>
       </c>
@@ -5179,11 +5172,11 @@
         <f aca="false">AZ20+AY21</f>
         <v>5.64846247530267</v>
       </c>
-      <c r="BA21" s="6" t="n">
+      <c r="BA21" s="2" t="n">
         <f aca="false">AZ21/$AZ$40</f>
         <v>0.45706320698444</v>
       </c>
-      <c r="BB21" s="6" t="n">
+      <c r="BB21" s="2" t="n">
         <f aca="false">ABS(AY21-$AY$41)</f>
         <v>0.000420270234300024</v>
       </c>
@@ -5206,11 +5199,11 @@
         <f aca="false">BH20+BG21</f>
         <v>4.79283284964964</v>
       </c>
-      <c r="BI21" s="6" t="n">
+      <c r="BI21" s="2" t="n">
         <f aca="false">BH21/$BH$40</f>
         <v>0.456337140556012</v>
       </c>
-      <c r="BJ21" s="6" t="n">
+      <c r="BJ21" s="2" t="n">
         <f aca="false">ABS(BG21-$BG$41)</f>
         <v>0.000208631359334077</v>
       </c>
@@ -5242,11 +5235,11 @@
         <f aca="false">T21+S22</f>
         <v>20.3872353818575</v>
       </c>
-      <c r="U22" s="6" t="n">
+      <c r="U22" s="2" t="n">
         <f aca="false">T22/$T$40</f>
         <v>0.485357901412016</v>
       </c>
-      <c r="V22" s="6" t="n">
+      <c r="V22" s="2" t="n">
         <f aca="false">ABS(S22-$S$41)</f>
         <v>0.000158496073729975</v>
       </c>
@@ -5269,11 +5262,11 @@
         <f aca="false">AB21+AA22</f>
         <v>12.7409234306069</v>
       </c>
-      <c r="AC22" s="6" t="n">
+      <c r="AC22" s="2" t="n">
         <f aca="false">AB22/$AB$40</f>
         <v>0.485272795028715</v>
       </c>
-      <c r="AD22" s="6" t="n">
+      <c r="AD22" s="2" t="n">
         <f aca="false">ABS(AA22-$AA$41)</f>
         <v>0.000141353234669128</v>
       </c>
@@ -5296,11 +5289,11 @@
         <f aca="false">AJ21+AI22</f>
         <v>9.27642181429283</v>
       </c>
-      <c r="AK22" s="6" t="n">
+      <c r="AK22" s="2" t="n">
         <f aca="false">AJ22/$AJ$40</f>
         <v>0.4858260469524</v>
       </c>
-      <c r="AL22" s="6" t="n">
+      <c r="AL22" s="2" t="n">
         <f aca="false">ABS(AI22-$AI$41)</f>
         <v>0.000400450706295019</v>
       </c>
@@ -5323,11 +5316,11 @@
         <f aca="false">AR21+AQ22</f>
         <v>7.27679549811002</v>
       </c>
-      <c r="AS22" s="6" t="n">
+      <c r="AS22" s="2" t="n">
         <f aca="false">AR22/$AR$40</f>
         <v>0.485025519930074</v>
       </c>
-      <c r="AT22" s="6" t="n">
+      <c r="AT22" s="2" t="n">
         <f aca="false">ABS(AQ22-$AQ$41)</f>
         <v>0.000228059910315992</v>
       </c>
@@ -5350,11 +5343,11 @@
         <f aca="false">AZ21+AY22</f>
         <v>6.0021431556388</v>
       </c>
-      <c r="BA22" s="6" t="n">
+      <c r="BA22" s="2" t="n">
         <f aca="false">AZ22/$AZ$40</f>
         <v>0.485682397907578</v>
       </c>
-      <c r="BB22" s="6" t="n">
+      <c r="BB22" s="2" t="n">
         <f aca="false">ABS(AY22-$AY$41)</f>
         <v>0.000590255017779984</v>
       </c>
@@ -5377,11 +5370,11 @@
         <f aca="false">BH21+BG22</f>
         <v>5.09274832342283</v>
       </c>
-      <c r="BI22" s="6" t="n">
+      <c r="BI22" s="2" t="n">
         <f aca="false">BH22/$BH$40</f>
         <v>0.48489281399665</v>
       </c>
-      <c r="BJ22" s="6" t="n">
+      <c r="BJ22" s="2" t="n">
         <f aca="false">ABS(BG22-$BG$41)</f>
         <v>0.00016547351002405</v>
       </c>
@@ -5400,7 +5393,7 @@
       <c r="P23" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="0" t="s">
@@ -5413,11 +5406,11 @@
         <f aca="false">T22+S23</f>
         <v>21.5875425394289</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="U23" s="2" t="n">
         <f aca="false">T23/$T$40</f>
         <v>0.513933554370195</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="V23" s="2" t="n">
         <f aca="false">ABS(S23-$S$41)</f>
         <v>0.000177443422229917</v>
       </c>
@@ -5440,11 +5433,11 @@
         <f aca="false">AB22+AA23</f>
         <v>13.4910952725313</v>
       </c>
-      <c r="AC23" s="6" t="n">
+      <c r="AC23" s="2" t="n">
         <f aca="false">AB23/$AB$40</f>
         <v>0.513845134268112</v>
       </c>
-      <c r="AD23" s="6" t="n">
+      <c r="AD23" s="2" t="n">
         <f aca="false">ABS(AA23-$AA$41)</f>
         <v>2.39097492709117E-005</v>
       </c>
@@ -5467,11 +5460,11 @@
         <f aca="false">AJ22+AI23</f>
         <v>9.82275913393776</v>
       </c>
-      <c r="AK23" s="6" t="n">
+      <c r="AK23" s="2" t="n">
         <f aca="false">AJ23/$AJ$40</f>
         <v>0.514438900660357</v>
       </c>
-      <c r="AL23" s="6" t="n">
+      <c r="AL23" s="2" t="n">
         <f aca="false">ABS(AI23-$AI$41)</f>
         <v>0.000790976611005023</v>
       </c>
@@ -5494,11 +5487,11 @@
         <f aca="false">AR22+AQ23</f>
         <v>7.70569294137587</v>
       </c>
-      <c r="AS23" s="6" t="n">
+      <c r="AS23" s="2" t="n">
         <f aca="false">AR23/$AR$40</f>
         <v>0.513613131808233</v>
       </c>
-      <c r="AT23" s="6" t="n">
+      <c r="AT23" s="2" t="n">
         <f aca="false">ABS(AQ23-$AQ$41)</f>
         <v>0.00024279673690597</v>
       </c>
@@ -5521,11 +5514,11 @@
         <f aca="false">AZ22+AY23</f>
         <v>6.35532699439265</v>
       </c>
-      <c r="BA23" s="6" t="n">
+      <c r="BA23" s="2" t="n">
         <f aca="false">AZ23/$AZ$40</f>
         <v>0.514261385322602</v>
       </c>
-      <c r="BB23" s="6" t="n">
+      <c r="BB23" s="2" t="n">
         <f aca="false">ABS(AY23-$AY$41)</f>
         <v>9.34134355000116E-005</v>
       </c>
@@ -5548,11 +5541,11 @@
         <f aca="false">BH22+BG23</f>
         <v>5.39275432341651</v>
       </c>
-      <c r="BI23" s="6" t="n">
+      <c r="BI23" s="2" t="n">
         <f aca="false">BH23/$BH$40</f>
         <v>0.513457106656423</v>
       </c>
-      <c r="BJ23" s="6" t="n">
+      <c r="BJ23" s="2" t="n">
         <f aca="false">ABS(BG23-$BG$41)</f>
         <v>7.49472895340553E-005</v>
       </c>
@@ -5584,11 +5577,11 @@
         <f aca="false">T23+S24</f>
         <v>22.7878496970003</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="U24" s="2" t="n">
         <f aca="false">T24/$T$40</f>
         <v>0.542509207328375</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="V24" s="2" t="n">
         <f aca="false">ABS(S24-$S$41)</f>
         <v>0.000177443422229917</v>
       </c>
@@ -5611,11 +5604,11 @@
         <f aca="false">AB23+AA24</f>
         <v>14.2413913248512</v>
       </c>
-      <c r="AC24" s="6" t="n">
+      <c r="AC24" s="2" t="n">
         <f aca="false">AB24/$AB$40</f>
         <v>0.542422204398967</v>
       </c>
-      <c r="AD24" s="6" t="n">
+      <c r="AD24" s="2" t="n">
         <f aca="false">ABS(AA24-$AA$41)</f>
         <v>0.000148120144830899</v>
       </c>
@@ -5638,11 +5631,11 @@
         <f aca="false">AJ23+AI24</f>
         <v>10.3679627705655</v>
       </c>
-      <c r="AK24" s="6" t="n">
+      <c r="AK24" s="2" t="n">
         <f aca="false">AJ24/$AJ$40</f>
         <v>0.542992380964457</v>
       </c>
-      <c r="AL24" s="6" t="n">
+      <c r="AL24" s="2" t="n">
         <f aca="false">ABS(AI24-$AI$41)</f>
         <v>0.000342706406175064</v>
       </c>
@@ -5665,11 +5658,11 @@
         <f aca="false">AR23+AQ24</f>
         <v>8.1346345951215</v>
       </c>
-      <c r="AS24" s="6" t="n">
+      <c r="AS24" s="2" t="n">
         <f aca="false">AR24/$AR$40</f>
         <v>0.542203690479515</v>
       </c>
-      <c r="AT24" s="6" t="n">
+      <c r="AT24" s="2" t="n">
         <f aca="false">ABS(AQ24-$AQ$41)</f>
         <v>0.000287007216685953</v>
       </c>
@@ -5692,11 +5685,11 @@
         <f aca="false">AZ23+AY24</f>
         <v>6.70735504488944</v>
       </c>
-      <c r="BA24" s="6" t="n">
+      <c r="BA24" s="2" t="n">
         <f aca="false">AZ24/$AZ$40</f>
         <v>0.542746848475108</v>
       </c>
-      <c r="BB24" s="6" t="n">
+      <c r="BB24" s="2" t="n">
         <f aca="false">ABS(AY24-$AY$41)</f>
         <v>0.00106237482156002</v>
       </c>
@@ -5719,11 +5712,11 @@
         <f aca="false">BH23+BG24</f>
         <v>5.69276137604067</v>
       </c>
-      <c r="BI24" s="6" t="n">
+      <c r="BI24" s="2" t="n">
         <f aca="false">BH24/$BH$40</f>
         <v>0.542021499539674</v>
       </c>
-      <c r="BJ24" s="6" t="n">
+      <c r="BJ24" s="2" t="n">
         <f aca="false">ABS(BG24-$BG$41)</f>
         <v>7.38946590540523E-005</v>
       </c>
@@ -5742,7 +5735,7 @@
       <c r="P25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="0" t="s">
@@ -5755,11 +5748,11 @@
         <f aca="false">T24+S25</f>
         <v>23.9882136966171</v>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="U25" s="2" t="n">
         <f aca="false">T25/$T$40</f>
         <v>0.571086213522309</v>
       </c>
-      <c r="V25" s="6" t="n">
+      <c r="V25" s="2" t="n">
         <f aca="false">ABS(S25-$S$41)</f>
         <v>0.000234285467630047</v>
       </c>
@@ -5782,11 +5775,11 @@
         <f aca="false">AB24+AA25</f>
         <v>14.991783166544</v>
       </c>
-      <c r="AC25" s="6" t="n">
+      <c r="AC25" s="2" t="n">
         <f aca="false">AB25/$AB$40</f>
         <v>0.571002922929168</v>
       </c>
-      <c r="AD25" s="6" t="n">
+      <c r="AD25" s="2" t="n">
         <f aca="false">ABS(AA25-$AA$41)</f>
         <v>0.000243909517690932</v>
       </c>
@@ -5809,11 +5802,11 @@
         <f aca="false">AJ24+AI25</f>
         <v>10.9138190380852</v>
       </c>
-      <c r="AK25" s="6" t="n">
+      <c r="AK25" s="2" t="n">
         <f aca="false">AJ25/$AJ$40</f>
         <v>0.571580040943944</v>
       </c>
-      <c r="AL25" s="6" t="n">
+      <c r="AL25" s="2" t="n">
         <f aca="false">ABS(AI25-$AI$41)</f>
         <v>0.000309924485795032</v>
       </c>
@@ -5836,11 +5829,11 @@
         <f aca="false">AR24+AQ25</f>
         <v>8.56360151199843</v>
       </c>
-      <c r="AS25" s="6" t="n">
+      <c r="AS25" s="2" t="n">
         <f aca="false">AR25/$AR$40</f>
         <v>0.570795933032583</v>
       </c>
-      <c r="AT25" s="6" t="n">
+      <c r="AT25" s="2" t="n">
         <f aca="false">ABS(AQ25-$AQ$41)</f>
         <v>0.000312270347985977</v>
       </c>
@@ -5863,11 +5856,11 @@
         <f aca="false">AZ24+AY25</f>
         <v>7.06106730413969</v>
       </c>
-      <c r="BA25" s="6" t="n">
+      <c r="BA25" s="2" t="n">
         <f aca="false">AZ25/$AZ$40</f>
         <v>0.571368594705964</v>
       </c>
-      <c r="BB25" s="6" t="n">
+      <c r="BB25" s="2" t="n">
         <f aca="false">ABS(AY25-$AY$41)</f>
         <v>0.000621833931900018</v>
       </c>
@@ -5890,11 +5883,11 @@
         <f aca="false">BH24+BG25</f>
         <v>5.99278632338283</v>
       </c>
-      <c r="BI25" s="6" t="n">
+      <c r="BI25" s="2" t="n">
         <f aca="false">BH25/$BH$40</f>
         <v>0.570587596222057</v>
       </c>
-      <c r="BJ25" s="6" t="n">
+      <c r="BJ25" s="2" t="n">
         <f aca="false">ABS(BG25-$BG$41)</f>
         <v>5.59999410540413E-005</v>
       </c>
@@ -5926,11 +5919,11 @@
         <f aca="false">T25+S26</f>
         <v>25.1886429593231</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="U26" s="2" t="n">
         <f aca="false">T26/$T$40</f>
         <v>0.599664773431371</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="V26" s="2" t="n">
         <f aca="false">ABS(S26-$S$41)</f>
         <v>0.000299548556830009</v>
       </c>
@@ -5953,11 +5946,11 @@
         <f aca="false">AB25+AA26</f>
         <v>15.7421897450634</v>
       </c>
-      <c r="AC26" s="6" t="n">
+      <c r="AC26" s="2" t="n">
         <f aca="false">AB26/$AB$40</f>
         <v>0.599584202751575</v>
       </c>
-      <c r="AD26" s="6" t="n">
+      <c r="AD26" s="2" t="n">
         <f aca="false">ABS(AA26-$AA$41)</f>
         <v>0.000258646344280855</v>
       </c>
@@ -5980,11 +5973,11 @@
         <f aca="false">AJ25+AI26</f>
         <v>11.4588437275329</v>
       </c>
-      <c r="AK26" s="6" t="n">
+      <c r="AK26" s="2" t="n">
         <f aca="false">AJ26/$AJ$40</f>
         <v>0.600124149401567</v>
       </c>
-      <c r="AL26" s="6" t="n">
+      <c r="AL26" s="2" t="n">
         <f aca="false">ABS(AI26-$AI$41)</f>
         <v>0.000521653586225024</v>
       </c>
@@ -6007,11 +6000,11 @@
         <f aca="false">AR25+AQ26</f>
         <v>8.99263369196456</v>
       </c>
-      <c r="AS26" s="6" t="n">
+      <c r="AS26" s="2" t="n">
         <f aca="false">AR26/$AR$40</f>
         <v>0.599392525613597</v>
       </c>
-      <c r="AT26" s="6" t="n">
+      <c r="AT26" s="2" t="n">
         <f aca="false">ABS(AQ26-$AQ$41)</f>
         <v>0.000377533437185995</v>
       </c>
@@ -6034,11 +6027,11 @@
         <f aca="false">AZ25+AY26</f>
         <v>7.41425324815449</v>
       </c>
-      <c r="BA26" s="6" t="n">
+      <c r="BA26" s="2" t="n">
         <f aca="false">AZ26/$AZ$40</f>
         <v>0.599947752474837</v>
       </c>
-      <c r="BB26" s="6" t="n">
+      <c r="BB26" s="2" t="n">
         <f aca="false">ABS(AY26-$AY$41)</f>
         <v>9.55186964500254E-005</v>
       </c>
@@ -6061,11 +6054,11 @@
         <f aca="false">BH25+BG26</f>
         <v>6.2929775863394</v>
       </c>
-      <c r="BI26" s="6" t="n">
+      <c r="BI26" s="2" t="n">
         <f aca="false">BH26/$BH$40</f>
         <v>0.599169528214013</v>
       </c>
-      <c r="BJ26" s="6" t="n">
+      <c r="BJ26" s="2" t="n">
         <f aca="false">ABS(BG26-$BG$41)</f>
         <v>0.000110315673355954</v>
       </c>
@@ -6084,7 +6077,7 @@
       <c r="P27" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="0" t="s">
@@ -6097,11 +6090,11 @@
         <f aca="false">T26+S27</f>
         <v>26.3891595903582</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="U27" s="2" t="n">
         <f aca="false">T27/$T$40</f>
         <v>0.62824541331391</v>
       </c>
-      <c r="V27" s="6" t="n">
+      <c r="V27" s="2" t="n">
         <f aca="false">ABS(S27-$S$41)</f>
         <v>0.000386916885930066</v>
       </c>
@@ -6124,11 +6117,11 @@
         <f aca="false">AB26+AA27</f>
         <v>16.4926026393656</v>
       </c>
-      <c r="AC27" s="6" t="n">
+      <c r="AC27" s="2" t="n">
         <f aca="false">AB27/$AB$40</f>
         <v>0.628165723127785</v>
       </c>
-      <c r="AD27" s="6" t="n">
+      <c r="AD27" s="2" t="n">
         <f aca="false">ABS(AA27-$AA$41)</f>
         <v>0.000264962127110913</v>
       </c>
@@ -6151,11 +6144,11 @@
         <f aca="false">AJ26+AI27</f>
         <v>12.0050978893707</v>
       </c>
-      <c r="AK27" s="6" t="n">
+      <c r="AK27" s="2" t="n">
         <f aca="false">AJ27/$AJ$40</f>
         <v>0.628732647957338</v>
       </c>
-      <c r="AL27" s="6" t="n">
+      <c r="AL27" s="2" t="n">
         <f aca="false">ABS(AI27-$AI$41)</f>
         <v>0.000707818803795002</v>
       </c>
@@ -6178,11 +6171,11 @@
         <f aca="false">AR26+AQ27</f>
         <v>9.42168376664869</v>
       </c>
-      <c r="AS27" s="6" t="n">
+      <c r="AS27" s="2" t="n">
         <f aca="false">AR27/$AR$40</f>
         <v>0.627990310944208</v>
       </c>
-      <c r="AT27" s="6" t="n">
+      <c r="AT27" s="2" t="n">
         <f aca="false">ABS(AQ27-$AQ$41)</f>
         <v>0.000395428155185951</v>
       </c>
@@ -6205,11 +6198,11 @@
         <f aca="false">AZ26+AY27</f>
         <v>7.76804234942912</v>
       </c>
-      <c r="BA27" s="6" t="n">
+      <c r="BA27" s="2" t="n">
         <f aca="false">AZ27/$AZ$40</f>
         <v>0.628575716621144</v>
       </c>
-      <c r="BB27" s="6" t="n">
+      <c r="BB27" s="2" t="n">
         <f aca="false">ABS(AY27-$AY$41)</f>
         <v>0.000698675956279982</v>
       </c>
@@ -6232,11 +6225,11 @@
         <f aca="false">BH26+BG27</f>
         <v>6.59322779660234</v>
       </c>
-      <c r="BI27" s="6" t="n">
+      <c r="BI27" s="2" t="n">
         <f aca="false">BH27/$BH$40</f>
         <v>0.627757072720754</v>
       </c>
-      <c r="BJ27" s="6" t="n">
+      <c r="BJ27" s="2" t="n">
         <f aca="false">ABS(BG27-$BG$41)</f>
         <v>0.00016926297972597</v>
       </c>
@@ -6268,11 +6261,11 @@
         <f aca="false">T27+S28</f>
         <v>27.5897435897435</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="U28" s="2" t="n">
         <f aca="false">T28/$T$40</f>
         <v>0.65682765703142</v>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="V28" s="2" t="n">
         <f aca="false">ABS(S28-$S$41)</f>
         <v>0.000454285236130003</v>
       </c>
@@ -6295,11 +6288,11 @@
         <f aca="false">AB27+AA28</f>
         <v>17.2430492178429</v>
       </c>
-      <c r="AC28" s="6" t="n">
+      <c r="AC28" s="2" t="n">
         <f aca="false">AB28/$AB$40</f>
         <v>0.656748526457611</v>
       </c>
-      <c r="AD28" s="6" t="n">
+      <c r="AD28" s="2" t="n">
         <f aca="false">ABS(AA28-$AA$41)</f>
         <v>0.000298646302180905</v>
       </c>
@@ -6322,11 +6315,11 @@
         <f aca="false">AJ27+AI28</f>
         <v>12.5502457365834</v>
       </c>
-      <c r="AK28" s="6" t="n">
+      <c r="AK28" s="2" t="n">
         <f aca="false">AJ28/$AJ$40</f>
         <v>0.657283206450477</v>
       </c>
-      <c r="AL28" s="6" t="n">
+      <c r="AL28" s="2" t="n">
         <f aca="false">ABS(AI28-$AI$41)</f>
         <v>0.000398495821135048</v>
       </c>
@@ -6349,11 +6342,11 @@
         <f aca="false">AR27+AQ28</f>
         <v>9.85075910446412</v>
       </c>
-      <c r="AS28" s="6" t="n">
+      <c r="AS28" s="2" t="n">
         <f aca="false">AR28/$AR$40</f>
         <v>0.656589780156604</v>
       </c>
-      <c r="AT28" s="6" t="n">
+      <c r="AT28" s="2" t="n">
         <f aca="false">ABS(AQ28-$AQ$41)</f>
         <v>0.000420691286485975</v>
       </c>
@@ -6376,11 +6369,11 @@
         <f aca="false">AZ27+AY28</f>
         <v>8.12063355722785</v>
       </c>
-      <c r="BA28" s="6" t="n">
+      <c r="BA28" s="2" t="n">
         <f aca="false">AZ28/$AZ$40</f>
         <v>0.657106749427973</v>
       </c>
-      <c r="BB28" s="6" t="n">
+      <c r="BB28" s="2" t="n">
         <f aca="false">ABS(AY28-$AY$41)</f>
         <v>0.00049921751962001</v>
       </c>
@@ -6403,11 +6396,11 @@
         <f aca="false">BH27+BG28</f>
         <v>6.89356537519436</v>
       </c>
-      <c r="BI28" s="6" t="n">
+      <c r="BI28" s="2" t="n">
         <f aca="false">BH28/$BH$40</f>
         <v>0.656352935776195</v>
       </c>
-      <c r="BJ28" s="6" t="n">
+      <c r="BJ28" s="2" t="n">
         <f aca="false">ABS(BG28-$BG$41)</f>
         <v>0.000256631308805932</v>
       </c>
@@ -6426,7 +6419,7 @@
       <c r="P29" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R29" s="0" t="s">
@@ -6439,11 +6432,11 @@
         <f aca="false">T28+S29</f>
         <v>28.7903717996085</v>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="U29" s="2" t="n">
         <f aca="false">T29/$T$40</f>
         <v>0.685410953265627</v>
       </c>
-      <c r="V29" s="6" t="n">
+      <c r="V29" s="2" t="n">
         <f aca="false">ABS(S29-$S$41)</f>
         <v>0.00049849571583005</v>
       </c>
@@ -6466,11 +6459,11 @@
         <f aca="false">AB28+AA29</f>
         <v>17.9935379015391</v>
       </c>
-      <c r="AC29" s="6" t="n">
+      <c r="AC29" s="2" t="n">
         <f aca="false">AB29/$AB$40</f>
         <v>0.685332933479457</v>
       </c>
-      <c r="AD29" s="6" t="n">
+      <c r="AD29" s="2" t="n">
         <f aca="false">ABS(AA29-$AA$41)</f>
         <v>0.000340751521010874</v>
       </c>
@@ -6493,11 +6486,11 @@
         <f aca="false">AJ28+AI29</f>
         <v>13.0950356894361</v>
       </c>
-      <c r="AK29" s="6" t="n">
+      <c r="AK29" s="2" t="n">
         <f aca="false">AJ29/$AJ$40</f>
         <v>0.685815021250662</v>
       </c>
-      <c r="AL29" s="6" t="n">
+      <c r="AL29" s="2" t="n">
         <f aca="false">ABS(AI29-$AI$41)</f>
         <v>0.00075639018124507</v>
       </c>
@@ -6520,11 +6513,11 @@
         <f aca="false">AR28+AQ29</f>
         <v>10.2798481264757</v>
       </c>
-      <c r="AS29" s="6" t="n">
+      <c r="AS29" s="2" t="n">
         <f aca="false">AR29/$AR$40</f>
         <v>0.685190161471634</v>
       </c>
-      <c r="AT29" s="6" t="n">
+      <c r="AT29" s="2" t="n">
         <f aca="false">ABS(AQ29-$AQ$41)</f>
         <v>0.00043437548261599</v>
       </c>
@@ -6547,11 +6540,11 @@
         <f aca="false">AZ28+AY29</f>
         <v>8.47457634255123</v>
       </c>
-      <c r="BA29" s="6" t="n">
+      <c r="BA29" s="2" t="n">
         <f aca="false">AZ29/$AZ$40</f>
         <v>0.68574714940518</v>
       </c>
-      <c r="BB29" s="6" t="n">
+      <c r="BB29" s="2" t="n">
         <f aca="false">ABS(AY29-$AY$41)</f>
         <v>0.000852360005030028</v>
       </c>
@@ -6574,11 +6567,11 @@
         <f aca="false">BH28+BG29</f>
         <v>7.19397979581076</v>
       </c>
-      <c r="BI29" s="6" t="n">
+      <c r="BI29" s="2" t="n">
         <f aca="false">BH29/$BH$40</f>
         <v>0.684956115145553</v>
       </c>
-      <c r="BJ29" s="6" t="n">
+      <c r="BJ29" s="2" t="n">
         <f aca="false">ABS(BG29-$BG$41)</f>
         <v>0.000333473333185952</v>
       </c>
@@ -6610,11 +6603,11 @@
         <f aca="false">T29+S30</f>
         <v>29.9910989567378</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="U30" s="2" t="n">
         <f aca="false">T30/$T$40</f>
         <v>0.713996605132447</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="V30" s="2" t="n">
         <f aca="false">ABS(S30-$S$41)</f>
         <v>0.00059744298012987</v>
       </c>
@@ -6637,11 +6630,11 @@
         <f aca="false">AB29+AA30</f>
         <v>18.7440907956939</v>
       </c>
-      <c r="AC30" s="6" t="n">
+      <c r="AC30" s="2" t="n">
         <f aca="false">AB30/$AB$40</f>
         <v>0.713919786131633</v>
       </c>
-      <c r="AD30" s="6" t="n">
+      <c r="AD30" s="2" t="n">
         <f aca="false">ABS(AA30-$AA$41)</f>
         <v>0.000404961979740937</v>
       </c>
@@ -6664,11 +6657,11 @@
         <f aca="false">AJ29+AI30</f>
         <v>13.6414035353647</v>
       </c>
-      <c r="AK30" s="6" t="n">
+      <c r="AK30" s="2" t="n">
         <f aca="false">AJ30/$AJ$40</f>
         <v>0.714429473685371</v>
       </c>
-      <c r="AL30" s="6" t="n">
+      <c r="AL30" s="2" t="n">
         <f aca="false">ABS(AI30-$AI$41)</f>
         <v>0.000821502894654991</v>
       </c>
@@ -6691,11 +6684,11 @@
         <f aca="false">AR29+AQ30</f>
         <v>10.7089403063787</v>
       </c>
-      <c r="AS30" s="6" t="n">
+      <c r="AS30" s="2" t="n">
         <f aca="false">AR30/$AR$40</f>
         <v>0.713790753271888</v>
       </c>
-      <c r="AT30" s="6" t="n">
+      <c r="AT30" s="2" t="n">
         <f aca="false">ABS(AQ30-$AQ$41)</f>
         <v>0.000437533374025967</v>
       </c>
@@ -6718,11 +6711,11 @@
         <f aca="false">AZ29+AY30</f>
         <v>8.82883386438542</v>
       </c>
-      <c r="BA30" s="6" t="n">
+      <c r="BA30" s="2" t="n">
         <f aca="false">AZ30/$AZ$40</f>
         <v>0.714413017282654</v>
       </c>
-      <c r="BB30" s="6" t="n">
+      <c r="BB30" s="2" t="n">
         <f aca="false">ABS(AY30-$AY$41)</f>
         <v>0.00116709651584002</v>
       </c>
@@ -6745,11 +6738,11 @@
         <f aca="false">BH29+BG30</f>
         <v>7.49441211114516</v>
       </c>
-      <c r="BI30" s="6" t="n">
+      <c r="BI30" s="2" t="n">
         <f aca="false">BH30/$BH$40</f>
         <v>0.713560998314041</v>
       </c>
-      <c r="BJ30" s="6" t="n">
+      <c r="BJ30" s="2" t="n">
         <f aca="false">ABS(BG30-$BG$41)</f>
         <v>0.000351368051185963</v>
       </c>
@@ -6768,7 +6761,7 @@
       <c r="P31" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="0" t="s">
@@ -6781,11 +6774,11 @@
         <f aca="false">T30+S31</f>
         <v>31.1919366400666</v>
       </c>
-      <c r="U31" s="6" t="n">
+      <c r="U31" s="2" t="n">
         <f aca="false">T31/$T$40</f>
         <v>0.742584888291016</v>
       </c>
-      <c r="V31" s="6" t="n">
+      <c r="V31" s="2" t="n">
         <f aca="false">ABS(S31-$S$41)</f>
         <v>0.000707969179629897</v>
       </c>
@@ -6808,11 +6801,11 @@
         <f aca="false">AB30+AA31</f>
         <v>19.4947710581357</v>
       </c>
-      <c r="AC31" s="6" t="n">
+      <c r="AC31" s="2" t="n">
         <f aca="false">AB31/$AB$40</f>
         <v>0.742511489952168</v>
       </c>
-      <c r="AD31" s="6" t="n">
+      <c r="AD31" s="2" t="n">
         <f aca="false">ABS(AA31-$AA$41)</f>
         <v>0.000532330266720837</v>
       </c>
@@ -6835,11 +6828,11 @@
         <f aca="false">AJ30+AI31</f>
         <v>14.1863787511803</v>
       </c>
-      <c r="AK31" s="6" t="n">
+      <c r="AK31" s="2" t="n">
         <f aca="false">AJ31/$AJ$40</f>
         <v>0.742970991103086</v>
       </c>
-      <c r="AL31" s="6" t="n">
+      <c r="AL31" s="2" t="n">
         <f aca="false">ABS(AI31-$AI$41)</f>
         <v>0.000571127218365053</v>
       </c>
@@ -6862,11 +6855,11 @@
         <f aca="false">AR30+AQ31</f>
         <v>11.1380524862606</v>
       </c>
-      <c r="AS31" s="6" t="n">
+      <c r="AS31" s="2" t="n">
         <f aca="false">AR31/$AR$40</f>
         <v>0.742392678145222</v>
       </c>
-      <c r="AT31" s="6" t="n">
+      <c r="AT31" s="2" t="n">
         <f aca="false">ABS(AQ31-$AQ$41)</f>
         <v>0.000457533352975992</v>
       </c>
@@ -6889,11 +6882,11 @@
         <f aca="false">AZ30+AY31</f>
         <v>9.18247138687224</v>
       </c>
-      <c r="BA31" s="6" t="n">
+      <c r="BA31" s="2" t="n">
         <f aca="false">AZ31/$AZ$40</f>
         <v>0.743028715951909</v>
       </c>
-      <c r="BB31" s="6" t="n">
+      <c r="BB31" s="2" t="n">
         <f aca="false">ABS(AY31-$AY$41)</f>
         <v>0.000547097168470012</v>
       </c>
@@ -6916,11 +6909,11 @@
         <f aca="false">BH30+BG31</f>
         <v>7.79489600537264</v>
       </c>
-      <c r="BI31" s="6" t="n">
+      <c r="BI31" s="2" t="n">
         <f aca="false">BH31/$BH$40</f>
         <v>0.742170792432968</v>
       </c>
-      <c r="BJ31" s="6" t="n">
+      <c r="BJ31" s="2" t="n">
         <f aca="false">ABS(BG31-$BG$41)</f>
         <v>0.000402946944265958</v>
       </c>
@@ -6952,11 +6945,11 @@
         <f aca="false">T31+S32</f>
         <v>32.3928522180502</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="U32" s="2" t="n">
         <f aca="false">T32/$T$40</f>
         <v>0.771175025883767</v>
       </c>
-      <c r="V32" s="6" t="n">
+      <c r="V32" s="2" t="n">
         <f aca="false">ABS(S32-$S$41)</f>
         <v>0.000785863834430023</v>
       </c>
@@ -6979,11 +6972,11 @@
         <f aca="false">AB31+AA32</f>
         <v>20.245452373208</v>
       </c>
-      <c r="AC32" s="6" t="n">
+      <c r="AC32" s="2" t="n">
         <f aca="false">AB32/$AB$40</f>
         <v>0.771103233865004</v>
       </c>
-      <c r="AD32" s="6" t="n">
+      <c r="AD32" s="2" t="n">
         <f aca="false">ABS(AA32-$AA$41)</f>
         <v>0.000533382897190959</v>
       </c>
@@ -7006,11 +6999,11 @@
         <f aca="false">AJ31+AI32</f>
         <v>14.7304581784651</v>
       </c>
-      <c r="AK32" s="6" t="n">
+      <c r="AK32" s="2" t="n">
         <f aca="false">AJ32/$AJ$40</f>
         <v>0.771465594159906</v>
       </c>
-      <c r="AL32" s="6" t="n">
+      <c r="AL32" s="2" t="n">
         <f aca="false">ABS(AI32-$AI$41)</f>
         <v>0.00146691574911506</v>
       </c>
@@ -7033,11 +7026,11 @@
         <f aca="false">AR31+AQ32</f>
         <v>11.5672457186888</v>
       </c>
-      <c r="AS32" s="6" t="n">
+      <c r="AS32" s="2" t="n">
         <f aca="false">AR32/$AR$40</f>
         <v>0.771000005472617</v>
       </c>
-      <c r="AT32" s="6" t="n">
+      <c r="AT32" s="2" t="n">
         <f aca="false">ABS(AQ32-$AQ$41)</f>
         <v>0.000538585899235999</v>
       </c>
@@ -7060,11 +7053,11 @@
         <f aca="false">AZ31+AY32</f>
         <v>9.53542575218343</v>
       </c>
-      <c r="BA32" s="6" t="n">
+      <c r="BA32" s="2" t="n">
         <f aca="false">AZ32/$AZ$40</f>
         <v>0.771589134797507</v>
       </c>
-      <c r="BB32" s="6" t="n">
+      <c r="BB32" s="2" t="n">
         <f aca="false">ABS(AY32-$AY$41)</f>
         <v>0.000136060007159988</v>
       </c>
@@ -7087,11 +7080,11 @@
         <f aca="false">BH31+BG32</f>
         <v>8.09549884684333</v>
       </c>
-      <c r="BI32" s="6" t="n">
+      <c r="BI32" s="2" t="n">
         <f aca="false">BH32/$BH$40</f>
         <v>0.770791911804943</v>
       </c>
-      <c r="BJ32" s="6" t="n">
+      <c r="BJ32" s="2" t="n">
         <f aca="false">ABS(BG32-$BG$41)</f>
         <v>0.000521894187475946</v>
       </c>
@@ -7110,7 +7103,7 @@
       <c r="P33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="0" t="s">
@@ -7123,11 +7116,11 @@
         <f aca="false">T32+S33</f>
         <v>33.593777269708</v>
       </c>
-      <c r="U33" s="6" t="n">
+      <c r="U33" s="2" t="n">
         <f aca="false">T33/$T$40</f>
         <v>0.79976538901581</v>
       </c>
-      <c r="V33" s="6" t="n">
+      <c r="V33" s="2" t="n">
         <f aca="false">ABS(S33-$S$41)</f>
         <v>0.000795337508630034</v>
       </c>
@@ -7150,11 +7143,11 @@
         <f aca="false">AB32+AA33</f>
         <v>20.9961568461507</v>
       </c>
-      <c r="AC33" s="6" t="n">
+      <c r="AC33" s="2" t="n">
         <f aca="false">AB33/$AB$40</f>
         <v>0.799695859808451</v>
       </c>
-      <c r="AD33" s="6" t="n">
+      <c r="AD33" s="2" t="n">
         <f aca="false">ABS(AA33-$AA$41)</f>
         <v>0.000556540767550851</v>
       </c>
@@ -7177,11 +7170,11 @@
         <f aca="false">AJ32+AI33</f>
         <v>15.2761554987837</v>
       </c>
-      <c r="AK33" s="6" t="n">
+      <c r="AK33" s="2" t="n">
         <f aca="false">AJ33/$AJ$40</f>
         <v>0.800044929734581</v>
       </c>
-      <c r="AL33" s="6" t="n">
+      <c r="AL33" s="2" t="n">
         <f aca="false">ABS(AI33-$AI$41)</f>
         <v>0.000150977284684939</v>
       </c>
@@ -7204,11 +7197,11 @@
         <f aca="false">AR32+AQ33</f>
         <v>11.9964473721607</v>
       </c>
-      <c r="AS33" s="6" t="n">
+      <c r="AS33" s="2" t="n">
         <f aca="false">AR33/$AR$40</f>
         <v>0.799607894093939</v>
       </c>
-      <c r="AT33" s="6" t="n">
+      <c r="AT33" s="2" t="n">
         <f aca="false">ABS(AQ33-$AQ$41)</f>
         <v>0.000547006942995976</v>
       </c>
@@ -7231,11 +7224,11 @@
         <f aca="false">AZ32+AY33</f>
         <v>9.88840327536498</v>
       </c>
-      <c r="BA33" s="6" t="n">
+      <c r="BA33" s="2" t="n">
         <f aca="false">AZ33/$AZ$40</f>
         <v>0.800151427535433</v>
       </c>
-      <c r="BB33" s="6" t="n">
+      <c r="BB33" s="2" t="n">
         <f aca="false">ABS(AY33-$AY$41)</f>
         <v>0.000112902136799986</v>
       </c>
@@ -7258,11 +7251,11 @@
         <f aca="false">BH32+BG33</f>
         <v>8.39616695140322</v>
       </c>
-      <c r="BI33" s="6" t="n">
+      <c r="BI33" s="2" t="n">
         <f aca="false">BH33/$BH$40</f>
         <v>0.799419245032574</v>
       </c>
-      <c r="BJ33" s="6" t="n">
+      <c r="BJ33" s="2" t="n">
         <f aca="false">ABS(BG33-$BG$41)</f>
         <v>0.000587157276675965</v>
       </c>
@@ -7294,11 +7287,11 @@
         <f aca="false">T33+S34</f>
         <v>34.7947086371487</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="U34" s="2" t="n">
         <f aca="false">T34/$T$40</f>
         <v>0.828355902507384</v>
       </c>
-      <c r="V34" s="6" t="n">
+      <c r="V34" s="2" t="n">
         <f aca="false">ABS(S34-$S$41)</f>
         <v>0.000801653291530036</v>
       </c>
@@ -7321,11 +7314,11 @@
         <f aca="false">AB33+AA34</f>
         <v>21.7470318452296</v>
       </c>
-      <c r="AC34" s="6" t="n">
+      <c r="AC34" s="2" t="n">
         <f aca="false">AB34/$AB$40</f>
         <v>0.828294980704579</v>
       </c>
-      <c r="AD34" s="6" t="n">
+      <c r="AD34" s="2" t="n">
         <f aca="false">ABS(AA34-$AA$41)</f>
         <v>0.000727066903840834</v>
       </c>
@@ -7348,11 +7341,11 @@
         <f aca="false">AJ33+AI34</f>
         <v>15.8226486077383</v>
       </c>
-      <c r="AK34" s="6" t="n">
+      <c r="AK34" s="2" t="n">
         <f aca="false">AJ34/$AJ$40</f>
         <v>0.828665942461824</v>
       </c>
-      <c r="AL34" s="6" t="n">
+      <c r="AL34" s="2" t="n">
         <f aca="false">ABS(AI34-$AI$41)</f>
         <v>0.000946765920694981</v>
       </c>
@@ -7375,11 +7368,11 @@
         <f aca="false">AR33+AQ34</f>
         <v>12.4257100782</v>
       </c>
-      <c r="AS34" s="6" t="n">
+      <c r="AS34" s="2" t="n">
         <f aca="false">AR34/$AR$40</f>
         <v>0.828219852096244</v>
       </c>
-      <c r="AT34" s="6" t="n">
+      <c r="AT34" s="2" t="n">
         <f aca="false">ABS(AQ34-$AQ$41)</f>
         <v>0.00060805951031595</v>
       </c>
@@ -7402,11 +7395,11 @@
         <f aca="false">AZ33+AY34</f>
         <v>10.2406492203693</v>
       </c>
-      <c r="BA34" s="6" t="n">
+      <c r="BA34" s="2" t="n">
         <f aca="false">AZ34/$AZ$40</f>
         <v>0.8286545223112</v>
       </c>
-      <c r="BB34" s="6" t="n">
+      <c r="BB34" s="2" t="n">
         <f aca="false">ABS(AY34-$AY$41)</f>
         <v>0.000844480314080021</v>
       </c>
@@ -7429,11 +7422,11 @@
         <f aca="false">BH33+BG34</f>
         <v>8.69688031907336</v>
       </c>
-      <c r="BI34" s="6" t="n">
+      <c r="BI34" s="2" t="n">
         <f aca="false">BH34/$BH$40</f>
         <v>0.828050887869772</v>
       </c>
-      <c r="BJ34" s="6" t="n">
+      <c r="BJ34" s="2" t="n">
         <f aca="false">ABS(BG34-$BG$41)</f>
         <v>0.000632420386925958</v>
       </c>
@@ -7452,7 +7445,7 @@
       <c r="P35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="0" t="s">
@@ -7465,11 +7458,11 @@
         <f aca="false">T34+S35</f>
         <v>35.9956494782636</v>
       </c>
-      <c r="U35" s="6" t="n">
+      <c r="U35" s="2" t="n">
         <f aca="false">T35/$T$40</f>
         <v>0.856946641538249</v>
       </c>
-      <c r="V35" s="6" t="n">
+      <c r="V35" s="2" t="n">
         <f aca="false">ABS(S35-$S$41)</f>
         <v>0.000811126965730047</v>
       </c>
@@ -7492,11 +7485,11 @@
         <f aca="false">AB34+AA35</f>
         <v>22.4980100020947</v>
       </c>
-      <c r="AC35" s="6" t="n">
+      <c r="AC35" s="2" t="n">
         <f aca="false">AB35/$AB$40</f>
         <v>0.856898030646154</v>
       </c>
-      <c r="AD35" s="6" t="n">
+      <c r="AD35" s="2" t="n">
         <f aca="false">ABS(AA35-$AA$41)</f>
         <v>0.000830224689990944</v>
       </c>
@@ -7519,11 +7512,11 @@
         <f aca="false">AJ34+AI35</f>
         <v>16.3678396128004</v>
       </c>
-      <c r="AK35" s="6" t="n">
+      <c r="AK35" s="2" t="n">
         <f aca="false">AJ35/$AJ$40</f>
         <v>0.85721876122382</v>
       </c>
-      <c r="AL35" s="6" t="n">
+      <c r="AL35" s="2" t="n">
         <f aca="false">ABS(AI35-$AI$41)</f>
         <v>0.000355337971824965</v>
       </c>
@@ -7546,11 +7539,11 @@
         <f aca="false">AR34+AQ35</f>
         <v>12.854979100022</v>
       </c>
-      <c r="AS35" s="6" t="n">
+      <c r="AS35" s="2" t="n">
         <f aca="false">AR35/$AR$40</f>
         <v>0.856832231068994</v>
       </c>
-      <c r="AT35" s="6" t="n">
+      <c r="AT35" s="2" t="n">
         <f aca="false">ABS(AQ35-$AQ$41)</f>
         <v>0.00061437529313596</v>
       </c>
@@ -7573,11 +7566,11 @@
         <f aca="false">AZ34+AY35</f>
         <v>10.5946309530201</v>
       </c>
-      <c r="BA35" s="6" t="n">
+      <c r="BA35" s="2" t="n">
         <f aca="false">AZ35/$AZ$40</f>
         <v>0.857298073834594</v>
       </c>
-      <c r="BB35" s="6" t="n">
+      <c r="BB35" s="2" t="n">
         <f aca="false">ABS(AY35-$AY$41)</f>
         <v>0.000891307332460012</v>
       </c>
@@ -7600,11 +7593,11 @@
         <f aca="false">BH34+BG35</f>
         <v>8.99759894989585</v>
       </c>
-      <c r="BI35" s="6" t="n">
+      <c r="BI35" s="2" t="n">
         <f aca="false">BH35/$BH$40</f>
         <v>0.856683031824362</v>
       </c>
-      <c r="BJ35" s="6" t="n">
+      <c r="BJ35" s="2" t="n">
         <f aca="false">ABS(BG35-$BG$41)</f>
         <v>0.000637683539275957</v>
       </c>
@@ -7636,11 +7629,11 @@
         <f aca="false">T35+S36</f>
         <v>37.1969766347613</v>
       </c>
-      <c r="U36" s="6" t="n">
+      <c r="U36" s="2" t="n">
         <f aca="false">T36/$T$40</f>
         <v>0.885546577560269</v>
       </c>
-      <c r="V36" s="6" t="n">
+      <c r="V36" s="2" t="n">
         <f aca="false">ABS(S36-$S$41)</f>
         <v>0.00119744234852992</v>
       </c>
@@ -7663,11 +7656,11 @@
         <f aca="false">AB35+AA36</f>
         <v>23.249073422028</v>
       </c>
-      <c r="AC36" s="6" t="n">
+      <c r="AC36" s="2" t="n">
         <f aca="false">AB36/$AB$40</f>
         <v>0.88550432806407</v>
       </c>
-      <c r="AD36" s="6" t="n">
+      <c r="AD36" s="2" t="n">
         <f aca="false">ABS(AA36-$AA$41)</f>
         <v>0.000915487758130884</v>
       </c>
@@ -7690,11 +7683,11 @@
         <f aca="false">AJ35+AI36</f>
         <v>16.912361144883</v>
       </c>
-      <c r="AK36" s="6" t="n">
+      <c r="AK36" s="2" t="n">
         <f aca="false">AJ36/$AJ$40</f>
         <v>0.885736518254289</v>
       </c>
-      <c r="AL36" s="6" t="n">
+      <c r="AL36" s="2" t="n">
         <f aca="false">ABS(AI36-$AI$41)</f>
         <v>0.00102481095132501</v>
       </c>
@@ -7717,11 +7710,11 @@
         <f aca="false">AR35+AQ36</f>
         <v>13.2844186479804</v>
       </c>
-      <c r="AS36" s="6" t="n">
+      <c r="AS36" s="2" t="n">
         <f aca="false">AR36/$AR$40</f>
         <v>0.885455976243796</v>
       </c>
-      <c r="AT36" s="6" t="n">
+      <c r="AT36" s="2" t="n">
         <f aca="false">ABS(AQ36-$AQ$41)</f>
         <v>0.000784901429425999</v>
       </c>
@@ -7744,11 +7737,11 @@
         <f aca="false">AZ35+AY36</f>
         <v>10.9474674237185</v>
       </c>
-      <c r="BA36" s="6" t="n">
+      <c r="BA36" s="2" t="n">
         <f aca="false">AZ36/$AZ$40</f>
         <v>0.885848952864708</v>
       </c>
-      <c r="BB36" s="6" t="n">
+      <c r="BB36" s="2" t="n">
         <f aca="false">ABS(AY36-$AY$41)</f>
         <v>0.000253954619900021</v>
       </c>
@@ -7771,11 +7764,11 @@
         <f aca="false">BH35+BG36</f>
         <v>9.29835968593718</v>
       </c>
-      <c r="BI36" s="6" t="n">
+      <c r="BI36" s="2" t="n">
         <f aca="false">BH36/$BH$40</f>
         <v>0.885319184718084</v>
       </c>
-      <c r="BJ36" s="6" t="n">
+      <c r="BJ36" s="2" t="n">
         <f aca="false">ABS(BG36-$BG$41)</f>
         <v>0.000679788758115973</v>
       </c>
@@ -7794,7 +7787,7 @@
       <c r="P37" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="0" t="s">
@@ -7807,11 +7800,11 @@
         <f aca="false">T36+S37</f>
         <v>38.3983374754341</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="U37" s="2" t="n">
         <f aca="false">T37/$T$40</f>
         <v>0.914147315499775</v>
       </c>
-      <c r="V37" s="6" t="n">
+      <c r="V37" s="2" t="n">
         <f aca="false">ABS(S37-$S$41)</f>
         <v>0.00123112652363</v>
       </c>
@@ -7834,11 +7827,11 @@
         <f aca="false">AB36+AA37</f>
         <v>24.0004915784299</v>
       </c>
-      <c r="AC37" s="6" t="n">
+      <c r="AC37" s="2" t="n">
         <f aca="false">AB37/$AB$40</f>
         <v>0.914124136587252</v>
       </c>
-      <c r="AD37" s="6" t="n">
+      <c r="AD37" s="2" t="n">
         <f aca="false">ABS(AA37-$AA$41)</f>
         <v>0.00127022422683087</v>
       </c>
@@ -7861,11 +7854,11 @@
         <f aca="false">AJ36+AI37</f>
         <v>17.4583068859928</v>
       </c>
-      <c r="AK37" s="6" t="n">
+      <c r="AK37" s="2" t="n">
         <f aca="false">AJ37/$AJ$40</f>
         <v>0.914328864157015</v>
       </c>
-      <c r="AL37" s="6" t="n">
+      <c r="AL37" s="2" t="n">
         <f aca="false">ABS(AI37-$AI$41)</f>
         <v>0.000399398075825008</v>
       </c>
@@ -7888,11 +7881,11 @@
         <f aca="false">AR36+AQ37</f>
         <v>13.7139624063554</v>
       </c>
-      <c r="AS37" s="6" t="n">
+      <c r="AS37" s="2" t="n">
         <f aca="false">AR37/$AR$40</f>
         <v>0.914086667430962</v>
       </c>
-      <c r="AT37" s="6" t="n">
+      <c r="AT37" s="2" t="n">
         <f aca="false">ABS(AQ37-$AQ$41)</f>
         <v>0.000889111846045953</v>
       </c>
@@ -7915,11 +7908,11 @@
         <f aca="false">AZ36+AY37</f>
         <v>11.2996670529821</v>
       </c>
-      <c r="BA37" s="6" t="n">
+      <c r="BA37" s="2" t="n">
         <f aca="false">AZ37/$AZ$40</f>
         <v>0.914348299855821</v>
       </c>
-      <c r="BB37" s="6" t="n">
+      <c r="BB37" s="2" t="n">
         <f aca="false">ABS(AY37-$AY$41)</f>
         <v>0.000890796054800025</v>
       </c>
@@ -7942,11 +7935,11 @@
         <f aca="false">BH36+BG37</f>
         <v>9.59913094828322</v>
       </c>
-      <c r="BI37" s="6" t="n">
+      <c r="BI37" s="2" t="n">
         <f aca="false">BH37/$BH$40</f>
         <v>0.91395633984659</v>
       </c>
-      <c r="BJ37" s="6" t="n">
+      <c r="BJ37" s="2" t="n">
         <f aca="false">ABS(BG37-$BG$41)</f>
         <v>0.000690315062825964</v>
       </c>
@@ -7962,7 +7955,7 @@
       <c r="P38" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="0" t="s">
@@ -7975,11 +7968,11 @@
         <f aca="false">T37+S38</f>
         <v>39.6000572630975</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="U38" s="2" t="n">
         <f aca="false">T38/$T$40</f>
         <v>0.94275659887248</v>
       </c>
-      <c r="V38" s="6" t="n">
+      <c r="V38" s="2" t="n">
         <f aca="false">ABS(S38-$S$41)</f>
         <v>0.00159007351423002</v>
       </c>
@@ -8002,11 +7995,11 @@
         <f aca="false">AB37+AA38</f>
         <v>24.7519255242889</v>
       </c>
-      <c r="AC38" s="6" t="n">
+      <c r="AC38" s="2" t="n">
         <f aca="false">AB38/$AB$40</f>
         <v>0.942744546494941</v>
       </c>
-      <c r="AD38" s="6" t="n">
+      <c r="AD38" s="2" t="n">
         <f aca="false">ABS(AA38-$AA$41)</f>
         <v>0.00128601368389092</v>
       </c>
@@ -8029,11 +8022,11 @@
         <f aca="false">AJ37+AI38</f>
         <v>18.002532628913</v>
       </c>
-      <c r="AK38" s="6" t="n">
+      <c r="AK38" s="2" t="n">
         <f aca="false">AJ38/$AJ$40</f>
         <v>0.942831130076543</v>
       </c>
-      <c r="AL38" s="6" t="n">
+      <c r="AL38" s="2" t="n">
         <f aca="false">ABS(AI38-$AI$41)</f>
         <v>0.00132060011365498</v>
       </c>
@@ -8056,11 +8049,11 @@
         <f aca="false">AR37+AQ38</f>
         <v>14.1435598488844</v>
       </c>
-      <c r="AS38" s="6" t="n">
+      <c r="AS38" s="2" t="n">
         <f aca="false">AR38/$AR$40</f>
         <v>0.942720936866922</v>
       </c>
-      <c r="AT38" s="6" t="n">
+      <c r="AT38" s="2" t="n">
         <f aca="false">ABS(AQ38-$AQ$41)</f>
         <v>0.000942796000065971</v>
       </c>
@@ -8083,11 +8076,11 @@
         <f aca="false">AZ37+AY38</f>
         <v>11.6526572077293</v>
       </c>
-      <c r="BA38" s="6" t="n">
+      <c r="BA38" s="2" t="n">
         <f aca="false">AZ38/$AZ$40</f>
         <v>0.942911614716835</v>
       </c>
-      <c r="BB38" s="6" t="n">
+      <c r="BB38" s="2" t="n">
         <f aca="false">ABS(AY38-$AY$41)</f>
         <v>0.000100270571139982</v>
       </c>
@@ -8110,11 +8103,11 @@
         <f aca="false">BH37+BG38</f>
         <v>9.90025484183702</v>
       </c>
-      <c r="BI38" s="6" t="n">
+      <c r="BI38" s="2" t="n">
         <f aca="false">BH38/$BH$40</f>
         <v>0.94262706984033</v>
       </c>
-      <c r="BJ38" s="6" t="n">
+      <c r="BJ38" s="2" t="n">
         <f aca="false">ABS(BG38-$BG$41)</f>
         <v>0.00104294627058593</v>
       </c>
@@ -8143,11 +8136,11 @@
         <f aca="false">T38+S39</f>
         <v>40.8021412609038</v>
       </c>
-      <c r="U39" s="6" t="n">
+      <c r="U39" s="2" t="n">
         <f aca="false">T39/$T$40</f>
         <v>0.97137455297799</v>
       </c>
-      <c r="V39" s="6" t="n">
+      <c r="V39" s="2" t="n">
         <f aca="false">ABS(S39-$S$41)</f>
         <v>0.00195428365713002</v>
       </c>
@@ -8170,11 +8163,11 @@
         <f aca="false">AB38+AA39</f>
         <v>25.5033773648659</v>
       </c>
-      <c r="AC39" s="6" t="n">
+      <c r="AC39" s="2" t="n">
         <f aca="false">AB39/$AB$40</f>
         <v>0.971365637971739</v>
       </c>
-      <c r="AD39" s="6" t="n">
+      <c r="AD39" s="2" t="n">
         <f aca="false">ABS(AA39-$AA$41)</f>
         <v>0.00130390840190087</v>
       </c>
@@ -8197,11 +8190,11 @@
         <f aca="false">AJ38+AI39</f>
         <v>18.5487320539663</v>
       </c>
-      <c r="AK39" s="6" t="n">
+      <c r="AK39" s="2" t="n">
         <f aca="false">AJ39/$AJ$40</f>
         <v>0.971436761949862</v>
       </c>
-      <c r="AL39" s="6" t="n">
+      <c r="AL39" s="2" t="n">
         <f aca="false">ABS(AI39-$AI$41)</f>
         <v>0.000653082019315021</v>
       </c>
@@ -8224,11 +8217,11 @@
         <f aca="false">AR38+AQ39</f>
         <v>14.5731951861104</v>
       </c>
-      <c r="AS39" s="6" t="n">
+      <c r="AS39" s="2" t="n">
         <f aca="false">AR39/$AR$40</f>
         <v>0.97135773212556</v>
       </c>
-      <c r="AT39" s="6" t="n">
+      <c r="AT39" s="2" t="n">
         <f aca="false">ABS(AQ39-$AQ$41)</f>
         <v>0.000980690697015951</v>
       </c>
@@ -8251,11 +8244,11 @@
         <f aca="false">AZ38+AY39</f>
         <v>12.0046999950527</v>
       </c>
-      <c r="BA39" s="6" t="n">
+      <c r="BA39" s="2" t="n">
         <f aca="false">AZ39/$AZ$40</f>
         <v>0.971398270346275</v>
       </c>
-      <c r="BB39" s="6" t="n">
+      <c r="BB39" s="2" t="n">
         <f aca="false">ABS(AY39-$AY$41)</f>
         <v>0.00104763799496999</v>
       </c>
@@ -8278,11 +8271,11 @@
         <f aca="false">BH38+BG39</f>
         <v>10.2014492616324</v>
       </c>
-      <c r="BI39" s="6" t="n">
+      <c r="BI39" s="2" t="n">
         <f aca="false">BH39/$BH$40</f>
         <v>0.971304514807117</v>
       </c>
-      <c r="BJ39" s="6" t="n">
+      <c r="BJ39" s="2" t="n">
         <f aca="false">ABS(BG39-$BG$41)</f>
         <v>0.00111347251213595</v>
       </c>
@@ -8298,7 +8291,7 @@
       <c r="P40" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R40" s="0" t="s">
@@ -8311,11 +8304,11 @@
         <f aca="false">T39+S40</f>
         <v>42.0045399952209</v>
       </c>
-      <c r="U40" s="6" t="n">
+      <c r="U40" s="2" t="n">
         <f aca="false">T40/$T$40</f>
         <v>1</v>
       </c>
-      <c r="V40" s="6" t="n">
+      <c r="V40" s="2" t="n">
         <f aca="false">ABS(S40-$S$41)</f>
         <v>0.00226902016793007</v>
       </c>
@@ -8338,11 +8331,11 @@
         <f aca="false">AB39+AA40</f>
         <v>26.2551776261288</v>
       </c>
-      <c r="AC40" s="6" t="n">
+      <c r="AC40" s="2" t="n">
         <f aca="false">AB40/$AB$40</f>
         <v>1</v>
       </c>
-      <c r="AD40" s="6" t="n">
+      <c r="AD40" s="2" t="n">
         <f aca="false">ABS(AA40-$AA$41)</f>
         <v>0.00165232908777091</v>
       </c>
@@ -8365,11 +8358,11 @@
         <f aca="false">AJ39+AI40</f>
         <v>19.0941220061874</v>
       </c>
-      <c r="AK40" s="6" t="n">
+      <c r="AK40" s="2" t="n">
         <f aca="false">AJ40/$AJ$40</f>
         <v>1</v>
       </c>
-      <c r="AL40" s="6" t="n">
+      <c r="AL40" s="2" t="n">
         <f aca="false">ABS(AI40-$AI$41)</f>
         <v>0.000156390812825036</v>
       </c>
@@ -8392,11 +8385,11 @@
         <f aca="false">AR39+AQ40</f>
         <v>15.0029126285131</v>
       </c>
-      <c r="AS40" s="6" t="n">
+      <c r="AS40" s="2" t="n">
         <f aca="false">AR40/$AR$40</f>
         <v>1</v>
       </c>
-      <c r="AT40" s="6" t="n">
+      <c r="AT40" s="2" t="n">
         <f aca="false">ABS(AQ40-$AQ$41)</f>
         <v>0.00106279587374597</v>
       </c>
@@ -8419,11 +8412,11 @@
         <f aca="false">AZ39+AY40</f>
         <v>12.3581648861422</v>
       </c>
-      <c r="BA40" s="6" t="n">
+      <c r="BA40" s="2" t="n">
         <f aca="false">AZ40/$AZ$40</f>
         <v>1</v>
       </c>
-      <c r="BB40" s="6" t="n">
+      <c r="BB40" s="2" t="n">
         <f aca="false">ABS(AY40-$AY$41)</f>
         <v>0.000374465771240007</v>
       </c>
@@ -8446,11 +8439,11 @@
         <f aca="false">BH39+BG40</f>
         <v>10.5028331549125</v>
       </c>
-      <c r="BI40" s="6" t="n">
+      <c r="BI40" s="2" t="n">
         <f aca="false">BH40/$BH$40</f>
         <v>1</v>
       </c>
-      <c r="BJ40" s="6" t="n">
+      <c r="BJ40" s="2" t="n">
         <f aca="false">ABS(BG40-$BG$41)</f>
         <v>0.00130294599689595</v>
       </c>
@@ -8460,85 +8453,85 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S41" s="6" t="n">
+      <c r="S41" s="2" t="n">
         <v>1.20012971414917</v>
       </c>
       <c r="U41" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="9" t="n">
+      <c r="V41" s="7" t="n">
         <f aca="false">SUM(V6:V40)/(35*2*S41)</f>
         <v>0.000360587209089266</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="AA41" s="6" t="n">
+      <c r="X41" s="3"/>
+      <c r="AA41" s="2" t="n">
         <v>0.750147932175109</v>
       </c>
-      <c r="AC41" s="4" t="s">
+      <c r="AC41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AD41" s="9" t="n">
+      <c r="AD41" s="7" t="n">
         <f aca="false">SUM(AD6:AD40)/(35*2*AA41)</f>
         <v>0.000441490685570712</v>
       </c>
-      <c r="AI41" s="6" t="n">
+      <c r="AI41" s="2" t="n">
         <v>0.545546343033925</v>
       </c>
-      <c r="AK41" s="4" t="s">
+      <c r="AK41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL41" s="9" t="n">
+      <c r="AL41" s="7" t="n">
         <f aca="false">SUM(AL6:AL40)/(35*2*AI41)</f>
         <v>0.000539322200498958</v>
       </c>
-      <c r="AQ41" s="6" t="n">
+      <c r="AQ41" s="2" t="n">
         <v>0.428654646528944</v>
       </c>
-      <c r="AS41" s="4" t="s">
+      <c r="AS41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AT41" s="9" t="n">
+      <c r="AT41" s="7" t="n">
         <f aca="false">SUM(AT6:AT40)/(35*2*AQ41)</f>
         <v>0.000716291237538187</v>
       </c>
-      <c r="AY41" s="6" t="n">
+      <c r="AY41" s="2" t="n">
         <v>0.35309042531835</v>
       </c>
-      <c r="BA41" s="4" t="s">
+      <c r="BA41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BB41" s="9" t="n">
+      <c r="BB41" s="7" t="n">
         <f aca="false">SUM(BB6:BB40)/(35*2*AY41)</f>
         <v>0.00073644941915046</v>
       </c>
-      <c r="BG41" s="6" t="n">
+      <c r="BG41" s="2" t="n">
         <v>0.300080947283214</v>
       </c>
-      <c r="BI41" s="4" t="s">
+      <c r="BI41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BJ41" s="9" t="n">
+      <c r="BJ41" s="7" t="n">
         <f aca="false">SUM(BJ6:BJ40)/(35*2*BG41)</f>
         <v>0.000840975206514998</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S42" s="6" t="n">
+      <c r="S42" s="2" t="n">
         <v>0.000128911648938</v>
       </c>
-      <c r="AA42" s="8" t="n">
+      <c r="AA42" s="6" t="n">
         <v>9.34370223213494E-005</v>
       </c>
-      <c r="AI42" s="8" t="n">
+      <c r="AI42" s="6" t="n">
         <v>1.48579902907392E-005</v>
       </c>
-      <c r="AQ42" s="6" t="n">
+      <c r="AQ42" s="2" t="n">
         <v>0.000105342211321</v>
       </c>
-      <c r="AY42" s="8" t="n">
+      <c r="AY42" s="6" t="n">
         <v>8.98656364988923E-006</v>
       </c>
-      <c r="BG42" s="8" t="n">
+      <c r="BG42" s="6" t="n">
         <v>6.92695057397411E-005</v>
       </c>
     </row>
@@ -8549,7 +8542,7 @@
       <c r="P45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="R45" s="0" t="s">
@@ -8567,7 +8560,7 @@
       <c r="X45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Y45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Z45" s="0" t="s">
@@ -8585,7 +8578,7 @@
       <c r="AF45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AG45" s="4" t="s">
+      <c r="AG45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AH45" s="0" t="s">
@@ -8603,7 +8596,7 @@
       <c r="AN45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AO45" s="4" t="s">
+      <c r="AO45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AP45" s="0" t="s">
@@ -8621,7 +8614,7 @@
       <c r="AV45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AW45" s="4" t="s">
+      <c r="AW45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AX45" s="0" t="s">
@@ -8639,7 +8632,7 @@
       <c r="BD45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="BE45" s="4" t="s">
+      <c r="BE45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="BF45" s="0" t="s">
@@ -8672,11 +8665,11 @@
         <f aca="false">S46+T45</f>
         <v>0.19984926331656</v>
       </c>
-      <c r="U46" s="6" t="n">
+      <c r="U46" s="2" t="n">
         <f aca="false">T46/$T$80</f>
         <v>0.0285357942300143</v>
       </c>
-      <c r="V46" s="6" t="n">
+      <c r="V46" s="2" t="n">
         <f aca="false">ABS(S46-$S$81)</f>
         <v>0.000249563647082007</v>
       </c>
@@ -8699,11 +8692,11 @@
         <f aca="false">AA46+AB45</f>
         <v>0.12527039445222</v>
       </c>
-      <c r="AC46" s="6" t="n">
+      <c r="AC46" s="2" t="n">
         <f aca="false">AB46/$AB$80</f>
         <v>0.0286209161377127</v>
       </c>
-      <c r="AD46" s="6" t="n">
+      <c r="AD46" s="2" t="n">
         <f aca="false">ABS(AA46-$AA$81)</f>
         <v>0.00021660127576098</v>
       </c>
@@ -8726,11 +8719,11 @@
         <f aca="false">AI46+AJ45</f>
         <v>0.090952535839436</v>
       </c>
-      <c r="AK46" s="6" t="n">
+      <c r="AK46" s="2" t="n">
         <f aca="false">AJ46/$AJ$80</f>
         <v>0.0285780623805802</v>
       </c>
-      <c r="AL46" s="6" t="n">
+      <c r="AL46" s="2" t="n">
         <f aca="false">ABS(AI46-$AI$81)</f>
         <v>2.1112759731004E-005</v>
       </c>
@@ -8753,11 +8746,11 @@
         <f aca="false">AQ46+AR45</f>
         <v>0.070964135827225</v>
       </c>
-      <c r="AS46" s="6" t="n">
+      <c r="AS46" s="2" t="n">
         <f aca="false">AR46/$AR$80</f>
         <v>0.0283705612082147</v>
       </c>
-      <c r="AT46" s="6" t="n">
+      <c r="AT46" s="2" t="n">
         <f aca="false">ABS(AQ46-$AQ$81)</f>
         <v>0.000502435561346992</v>
       </c>
@@ -8780,11 +8773,11 @@
         <f aca="false">AY46+AZ45</f>
         <v>0.058884148543002</v>
       </c>
-      <c r="BA46" s="6" t="n">
+      <c r="BA46" s="2" t="n">
         <f aca="false">AZ46/$AZ$80</f>
         <v>0.0285929254743851</v>
       </c>
-      <c r="BB46" s="6" t="n">
+      <c r="BB46" s="2" t="n">
         <f aca="false">ABS(AY46-$AY$81)</f>
         <v>4.42706300909992E-005</v>
       </c>
@@ -8807,11 +8800,11 @@
         <f aca="false">BH45+BG46</f>
         <v>0.05007257887097</v>
       </c>
-      <c r="BI46" s="6" t="n">
+      <c r="BI46" s="2" t="n">
         <f aca="false">BH46/$BH$80</f>
         <v>0.028606479741412</v>
       </c>
-      <c r="BJ46" s="6" t="n">
+      <c r="BJ46" s="2" t="n">
         <f aca="false">ABS(BG46-$BG$81)</f>
         <v>6.13533188769944E-005</v>
       </c>
@@ -8836,11 +8829,11 @@
         <f aca="false">S47+T46</f>
         <v>0.39935957962149</v>
       </c>
-      <c r="U47" s="6" t="n">
+      <c r="U47" s="2" t="n">
         <f aca="false">T47/$T$80</f>
         <v>0.0570231913730529</v>
       </c>
-      <c r="V47" s="6" t="n">
+      <c r="V47" s="2" t="n">
         <f aca="false">ABS(S47-$S$81)</f>
         <v>0.000588510658712016</v>
       </c>
@@ -8863,11 +8856,11 @@
         <f aca="false">AA47+AB46</f>
         <v>0.24923763238144</v>
       </c>
-      <c r="AC47" s="6" t="n">
+      <c r="AC47" s="2" t="n">
         <f aca="false">AB47/$AB$80</f>
         <v>0.0569440960567267</v>
       </c>
-      <c r="AD47" s="6" t="n">
+      <c r="AD47" s="2" t="n">
         <f aca="false">ABS(AA47-$AA$81)</f>
         <v>0.00108655524723901</v>
       </c>
@@ -8890,11 +8883,11 @@
         <f aca="false">AI47+AJ46</f>
         <v>0.181898755896046</v>
       </c>
-      <c r="AK47" s="6" t="n">
+      <c r="AK47" s="2" t="n">
         <f aca="false">AJ47/$AJ$80</f>
         <v>0.0571541402883371</v>
       </c>
-      <c r="AL47" s="6" t="n">
+      <c r="AL47" s="2" t="n">
         <f aca="false">ABS(AI47-$AI$81)</f>
         <v>1.47969769049988E-005</v>
       </c>
@@ -8917,11 +8910,11 @@
         <f aca="false">AQ47+AR46</f>
         <v>0.141750377104866</v>
       </c>
-      <c r="AS47" s="6" t="n">
+      <c r="AS47" s="2" t="n">
         <f aca="false">AR47/$AR$80</f>
         <v>0.0566700024323875</v>
       </c>
-      <c r="AT47" s="6" t="n">
+      <c r="AT47" s="2" t="n">
         <f aca="false">ABS(AQ47-$AQ$81)</f>
         <v>0.000680330110930993</v>
       </c>
@@ -8944,11 +8937,11 @@
         <f aca="false">AY47+AZ46</f>
         <v>0.117914612721461</v>
       </c>
-      <c r="BA47" s="6" t="n">
+      <c r="BA47" s="2" t="n">
         <f aca="false">AZ47/$AZ$80</f>
         <v>0.057256898797196</v>
       </c>
-      <c r="BB47" s="6" t="n">
+      <c r="BB47" s="2" t="n">
         <f aca="false">ABS(AY47-$AY$81)</f>
         <v>0.000190586265548</v>
       </c>
@@ -8971,11 +8964,11 @@
         <f aca="false">BH46+BG47</f>
         <v>0.100297789160222</v>
       </c>
-      <c r="BI47" s="6" t="n">
+      <c r="BI47" s="2" t="n">
         <f aca="false">BH47/$BH$80</f>
         <v>0.0573001578591296</v>
       </c>
-      <c r="BJ47" s="6" t="n">
+      <c r="BJ47" s="2" t="n">
         <f aca="false">ABS(BG47-$BG$81)</f>
         <v>0.000213984737159001</v>
       </c>
@@ -9000,11 +8993,11 @@
         <f aca="false">S48+T47</f>
         <v>0.59925831657019</v>
       </c>
-      <c r="U48" s="6" t="n">
+      <c r="U48" s="2" t="n">
         <f aca="false">T48/$T$80</f>
         <v>0.0855660497741486</v>
       </c>
-      <c r="V48" s="6" t="n">
+      <c r="V48" s="2" t="n">
         <f aca="false">ABS(S48-$S$81)</f>
         <v>0.000200090014942006</v>
       </c>
@@ -9027,11 +9020,11 @@
         <f aca="false">AA48+AB47</f>
         <v>0.37441013219986</v>
       </c>
-      <c r="AC48" s="6" t="n">
+      <c r="AC48" s="2" t="n">
         <f aca="false">AB48/$AB$80</f>
         <v>0.0855426459033729</v>
       </c>
-      <c r="AD48" s="6" t="n">
+      <c r="AD48" s="2" t="n">
         <f aca="false">ABS(AA48-$AA$81)</f>
         <v>0.000118706641960981</v>
       </c>
@@ -9054,11 +9047,11 @@
         <f aca="false">AI48+AJ47</f>
         <v>0.272740765536036</v>
       </c>
-      <c r="AK48" s="6" t="n">
+      <c r="AK48" s="2" t="n">
         <f aca="false">AJ48/$AJ$80</f>
         <v>0.0856974743945124</v>
       </c>
-      <c r="AL48" s="6" t="n">
+      <c r="AL48" s="2" t="n">
         <f aca="false">ABS(AI48-$AI$81)</f>
         <v>8.9413439714997E-005</v>
       </c>
@@ -9081,11 +9074,11 @@
         <f aca="false">AQ48+AR47</f>
         <v>0.213469248979738</v>
       </c>
-      <c r="AS48" s="6" t="n">
+      <c r="AS48" s="2" t="n">
         <f aca="false">AR48/$AR$80</f>
         <v>0.0853422975373969</v>
       </c>
-      <c r="AT48" s="6" t="n">
+      <c r="AT48" s="2" t="n">
         <f aca="false">ABS(AQ48-$AQ$81)</f>
         <v>0.000252300486300011</v>
       </c>
@@ -9108,11 +9101,11 @@
         <f aca="false">AY48+AZ47</f>
         <v>0.177468234243965</v>
       </c>
-      <c r="BA48" s="6" t="n">
+      <c r="BA48" s="2" t="n">
         <f aca="false">AZ48/$AZ$80</f>
         <v>0.0861749065132991</v>
       </c>
-      <c r="BB48" s="6" t="n">
+      <c r="BB48" s="2" t="n">
         <f aca="false">ABS(AY48-$AY$81)</f>
         <v>0.000713743609593004</v>
       </c>
@@ -9135,11 +9128,11 @@
         <f aca="false">BH47+BG48</f>
         <v>0.150002999996842</v>
       </c>
-      <c r="BI48" s="6" t="n">
+      <c r="BI48" s="2" t="n">
         <f aca="false">BH48/$BH$80</f>
         <v>0.0856967601292942</v>
       </c>
-      <c r="BJ48" s="6" t="n">
+      <c r="BJ48" s="2" t="n">
         <f aca="false">ABS(BG48-$BG$81)</f>
         <v>0.000306014715473001</v>
       </c>
@@ -9164,11 +9157,11 @@
         <f aca="false">S49+T48</f>
         <v>0.8003654732995</v>
       </c>
-      <c r="U49" s="6" t="n">
+      <c r="U49" s="2" t="n">
         <f aca="false">T49/$T$80</f>
         <v>0.114281454311421</v>
       </c>
-      <c r="V49" s="6" t="n">
+      <c r="V49" s="2" t="n">
         <f aca="false">ABS(S49-$S$81)</f>
         <v>0.001008329765668</v>
       </c>
@@ -9191,11 +9184,11 @@
         <f aca="false">AA49+AB48</f>
         <v>0.49998894738005</v>
       </c>
-      <c r="AC49" s="6" t="n">
+      <c r="AC49" s="2" t="n">
         <f aca="false">AB49/$AB$80</f>
         <v>0.114234027882827</v>
       </c>
-      <c r="AD49" s="6" t="n">
+      <c r="AD49" s="2" t="n">
         <f aca="false">ABS(AA49-$AA$81)</f>
         <v>0.000525022003731002</v>
       </c>
@@ -9218,11 +9211,11 @@
         <f aca="false">AI49+AJ48</f>
         <v>0.363583827806497</v>
       </c>
-      <c r="AK49" s="6" t="n">
+      <c r="AK49" s="2" t="n">
         <f aca="false">AJ49/$AJ$80</f>
         <v>0.114241139246158</v>
       </c>
-      <c r="AL49" s="6" t="n">
+      <c r="AL49" s="2" t="n">
         <f aca="false">ABS(AI49-$AI$81)</f>
         <v>8.83608092440008E-005</v>
       </c>
@@ -9245,11 +9238,11 @@
         <f aca="false">AQ49+AR48</f>
         <v>0.28462496355267</v>
       </c>
-      <c r="AS49" s="6" t="n">
+      <c r="AS49" s="2" t="n">
         <f aca="false">AR49/$AR$80</f>
         <v>0.113789449497657</v>
       </c>
-      <c r="AT49" s="6" t="n">
+      <c r="AT49" s="2" t="n">
         <f aca="false">ABS(AQ49-$AQ$81)</f>
         <v>0.000310856815639998</v>
       </c>
@@ -9272,11 +9265,11 @@
         <f aca="false">AY49+AZ48</f>
         <v>0.236335540699432</v>
       </c>
-      <c r="BA49" s="6" t="n">
+      <c r="BA49" s="2" t="n">
         <f aca="false">AZ49/$AZ$80</f>
         <v>0.114759653818081</v>
       </c>
-      <c r="BB49" s="6" t="n">
+      <c r="BB49" s="2" t="n">
         <f aca="false">ABS(AY49-$AY$81)</f>
         <v>2.74285425560031E-005</v>
       </c>
@@ -9299,11 +9292,11 @@
         <f aca="false">BH48+BG49</f>
         <v>0.200074526237341</v>
       </c>
-      <c r="BI49" s="6" t="n">
+      <c r="BI49" s="2" t="n">
         <f aca="false">BH49/$BH$80</f>
         <v>0.114302638502594</v>
       </c>
-      <c r="BJ49" s="6" t="n">
+      <c r="BJ49" s="2" t="n">
         <f aca="false">ABS(BG49-$BG$81)</f>
         <v>6.03006884059981E-005</v>
       </c>
@@ -9328,11 +9321,11 @@
         <f aca="false">S50+T49</f>
         <v>1.00091894640111</v>
       </c>
-      <c r="U50" s="6" t="n">
+      <c r="U50" s="2" t="n">
         <f aca="false">T50/$T$80</f>
         <v>0.142917800253197</v>
       </c>
-      <c r="V50" s="6" t="n">
+      <c r="V50" s="2" t="n">
         <f aca="false">ABS(S50-$S$81)</f>
         <v>0.000454646137968001</v>
       </c>
@@ -9355,11 +9348,11 @@
         <f aca="false">AA50+AB49</f>
         <v>0.62539302590207</v>
       </c>
-      <c r="AC50" s="6" t="n">
+      <c r="AC50" s="2" t="n">
         <f aca="false">AB50/$AB$80</f>
         <v>0.142885487235219</v>
       </c>
-      <c r="AD50" s="6" t="n">
+      <c r="AD50" s="2" t="n">
         <f aca="false">ABS(AA50-$AA$81)</f>
         <v>0.000350285345561002</v>
       </c>
@@ -9382,11 +9375,11 @@
         <f aca="false">AI50+AJ49</f>
         <v>0.454695310847041</v>
       </c>
-      <c r="AK50" s="6" t="n">
+      <c r="AK50" s="2" t="n">
         <f aca="false">AJ50/$AJ$80</f>
         <v>0.142869144192787</v>
       </c>
-      <c r="AL50" s="6" t="n">
+      <c r="AL50" s="2" t="n">
         <f aca="false">ABS(AI50-$AI$81)</f>
         <v>0.000180059960839002</v>
       </c>
@@ -9409,11 +9402,11 @@
         <f aca="false">AQ50+AR49</f>
         <v>0.356201730313968</v>
       </c>
-      <c r="AS50" s="6" t="n">
+      <c r="AS50" s="2" t="n">
         <f aca="false">AR50/$AR$80</f>
         <v>0.142404932781094</v>
       </c>
-      <c r="AT50" s="6" t="n">
+      <c r="AT50" s="2" t="n">
         <f aca="false">ABS(AQ50-$AQ$81)</f>
         <v>0.00011019537272601</v>
       </c>
@@ -9436,11 +9429,11 @@
         <f aca="false">AY50+AZ49</f>
         <v>0.295528109970412</v>
       </c>
-      <c r="BA50" s="6" t="n">
+      <c r="BA50" s="2" t="n">
         <f aca="false">AZ50/$AZ$80</f>
         <v>0.143502342023321</v>
       </c>
-      <c r="BB50" s="6" t="n">
+      <c r="BB50" s="2" t="n">
         <f aca="false">ABS(AY50-$AY$81)</f>
         <v>0.000352691358069</v>
       </c>
@@ -9463,11 +9456,11 @@
         <f aca="false">BH49+BG50</f>
         <v>0.250408157465098</v>
       </c>
-      <c r="BI50" s="6" t="n">
+      <c r="BI50" s="2" t="n">
         <f aca="false">BH50/$BH$80</f>
         <v>0.143058257535895</v>
       </c>
-      <c r="BJ50" s="6" t="n">
+      <c r="BJ50" s="2" t="n">
         <f aca="false">ABS(BG50-$BG$81)</f>
         <v>0.000322405675664002</v>
       </c>
@@ -9492,11 +9485,11 @@
         <f aca="false">S51+T50</f>
         <v>1.2012776828656</v>
       </c>
-      <c r="U51" s="6" t="n">
+      <c r="U51" s="2" t="n">
         <f aca="false">T51/$T$80</f>
         <v>0.17152634041519</v>
       </c>
-      <c r="V51" s="6" t="n">
+      <c r="V51" s="2" t="n">
         <f aca="false">ABS(S51-$S$81)</f>
         <v>0.000259909500848005</v>
       </c>
@@ -9519,11 +9512,11 @@
         <f aca="false">AA51+AB50</f>
         <v>0.7504097364108</v>
       </c>
-      <c r="AC51" s="6" t="n">
+      <c r="AC51" s="2" t="n">
         <f aca="false">AB51/$AB$80</f>
         <v>0.171448443414365</v>
       </c>
-      <c r="AD51" s="6" t="n">
+      <c r="AD51" s="2" t="n">
         <f aca="false">ABS(AA51-$AA$81)</f>
         <v>3.70826677290048E-005</v>
       </c>
@@ -9546,11 +9539,11 @@
         <f aca="false">AI51+AJ50</f>
         <v>0.544716268719717</v>
       </c>
-      <c r="AK51" s="6" t="n">
+      <c r="AK51" s="2" t="n">
         <f aca="false">AJ51/$AJ$80</f>
         <v>0.171154496831954</v>
       </c>
-      <c r="AL51" s="6" t="n">
+      <c r="AL51" s="2" t="n">
         <f aca="false">ABS(AI51-$AI$81)</f>
         <v>0.00091046520702899</v>
       </c>
@@ -9573,11 +9566,11 @@
         <f aca="false">AQ51+AR50</f>
         <v>0.427512181566125</v>
       </c>
-      <c r="AS51" s="6" t="n">
+      <c r="AS51" s="2" t="n">
         <f aca="false">AR51/$AR$80</f>
         <v>0.170913946502622</v>
       </c>
-      <c r="AT51" s="6" t="n">
+      <c r="AT51" s="2" t="n">
         <f aca="false">ABS(AQ51-$AQ$81)</f>
         <v>0.000156120136415</v>
       </c>
@@ -9600,11 +9593,11 @@
         <f aca="false">AY51+AZ50</f>
         <v>0.354026995761059</v>
       </c>
-      <c r="BA51" s="6" t="n">
+      <c r="BA51" s="2" t="n">
         <f aca="false">AZ51/$AZ$80</f>
         <v>0.171908191868038</v>
       </c>
-      <c r="BB51" s="6" t="n">
+      <c r="BB51" s="2" t="n">
         <f aca="false">ABS(AY51-$AY$81)</f>
         <v>0.000340992122263996</v>
       </c>
@@ -9627,11 +9620,11 @@
         <f aca="false">BH50+BG51</f>
         <v>0.300307052308367</v>
       </c>
-      <c r="BI51" s="6" t="n">
+      <c r="BI51" s="2" t="n">
         <f aca="false">BH51/$BH$80</f>
         <v>0.171565511538751</v>
       </c>
-      <c r="BJ51" s="6" t="n">
+      <c r="BJ51" s="2" t="n">
         <f aca="false">ABS(BG51-$BG$81)</f>
         <v>0.000112330708824</v>
       </c>
@@ -9656,11 +9649,11 @@
         <f aca="false">S52+T51</f>
         <v>1.40115326194394</v>
       </c>
-      <c r="U52" s="6" t="n">
+      <c r="U52" s="2" t="n">
         <f aca="false">T52/$T$80</f>
         <v>0.200065892183014</v>
       </c>
-      <c r="V52" s="6" t="n">
+      <c r="V52" s="2" t="n">
         <f aca="false">ABS(S52-$S$81)</f>
         <v>0.000223247885302008</v>
       </c>
@@ -9683,11 +9676,11 @@
         <f aca="false">AA52+AB51</f>
         <v>0.8757748676054</v>
       </c>
-      <c r="AC52" s="6" t="n">
+      <c r="AC52" s="2" t="n">
         <f aca="false">AB52/$AB$80</f>
         <v>0.200091004349882</v>
       </c>
-      <c r="AD52" s="6" t="n">
+      <c r="AD52" s="2" t="n">
         <f aca="false">ABS(AA52-$AA$81)</f>
         <v>0.000311338018140983</v>
       </c>
@@ -9710,11 +9703,11 @@
         <f aca="false">AI52+AJ51</f>
         <v>0.635789857063308</v>
       </c>
-      <c r="AK52" s="6" t="n">
+      <c r="AK52" s="2" t="n">
         <f aca="false">AJ52/$AJ$80</f>
         <v>0.199770594941645</v>
       </c>
-      <c r="AL52" s="6" t="n">
+      <c r="AL52" s="2" t="n">
         <f aca="false">ABS(AI52-$AI$81)</f>
         <v>0.00014216526388601</v>
       </c>
@@ -9737,11 +9730,11 @@
         <f aca="false">AQ52+AR51</f>
         <v>0.498824738079223</v>
       </c>
-      <c r="AS52" s="6" t="n">
+      <c r="AS52" s="2" t="n">
         <f aca="false">AR52/$AR$80</f>
         <v>0.199423801880766</v>
       </c>
-      <c r="AT52" s="6" t="n">
+      <c r="AT52" s="2" t="n">
         <f aca="false">ABS(AQ52-$AQ$81)</f>
         <v>0.000154014875473993</v>
       </c>
@@ -9764,11 +9757,11 @@
         <f aca="false">AY52+AZ51</f>
         <v>0.412465881614863</v>
       </c>
-      <c r="BA52" s="6" t="n">
+      <c r="BA52" s="2" t="n">
         <f aca="false">AZ52/$AZ$80</f>
         <v>0.200284906983544</v>
       </c>
-      <c r="BB52" s="6" t="n">
+      <c r="BB52" s="2" t="n">
         <f aca="false">ABS(AY52-$AY$81)</f>
         <v>0.000400992059107</v>
       </c>
@@ -9791,11 +9784,11 @@
         <f aca="false">BH51+BG52</f>
         <v>0.35005015784194</v>
       </c>
-      <c r="BI52" s="6" t="n">
+      <c r="BI52" s="2" t="n">
         <f aca="false">BH52/$BH$80</f>
         <v>0.199983763060964</v>
       </c>
-      <c r="BJ52" s="6" t="n">
+      <c r="BJ52" s="2" t="n">
         <f aca="false">ABS(BG52-$BG$81)</f>
         <v>0.000268120018520002</v>
       </c>
@@ -9820,11 +9813,11 @@
         <f aca="false">S53+T52</f>
         <v>1.6019004190522</v>
       </c>
-      <c r="U53" s="6" t="n">
+      <c r="U53" s="2" t="n">
         <f aca="false">T53/$T$80</f>
         <v>0.228729893603063</v>
       </c>
-      <c r="V53" s="6" t="n">
+      <c r="V53" s="2" t="n">
         <f aca="false">ABS(S53-$S$81)</f>
         <v>0.000648330144617987</v>
       </c>
@@ -9847,11 +9840,11 @@
         <f aca="false">AA53+AB52</f>
         <v>1.00065473615291</v>
       </c>
-      <c r="AC53" s="6" t="n">
+      <c r="AC53" s="2" t="n">
         <f aca="false">AB53/$AB$80</f>
         <v>0.228622695821087</v>
       </c>
-      <c r="AD53" s="6" t="n">
+      <c r="AD53" s="2" t="n">
         <f aca="false">ABS(AA53-$AA$81)</f>
         <v>0.00017392462894901</v>
       </c>
@@ -9874,11 +9867,11 @@
         <f aca="false">AI53+AJ52</f>
         <v>0.726745550794157</v>
       </c>
-      <c r="AK53" s="6" t="n">
+      <c r="AK53" s="2" t="n">
         <f aca="false">AJ53/$AJ$80</f>
         <v>0.228349649558637</v>
       </c>
-      <c r="AL53" s="6" t="n">
+      <c r="AL53" s="2" t="n">
         <f aca="false">ABS(AI53-$AI$81)</f>
         <v>2.42706511440066E-005</v>
       </c>
@@ -9901,11 +9894,11 @@
         <f aca="false">AQ53+AR52</f>
         <v>0.570915188510328</v>
       </c>
-      <c r="AS53" s="6" t="n">
+      <c r="AS53" s="2" t="n">
         <f aca="false">AR53/$AR$80</f>
         <v>0.228244649378479</v>
       </c>
-      <c r="AT53" s="6" t="n">
+      <c r="AT53" s="2" t="n">
         <f aca="false">ABS(AQ53-$AQ$81)</f>
         <v>0.000623879042532999</v>
       </c>
@@ -9928,11 +9921,11 @@
         <f aca="false">AY53+AZ52</f>
         <v>0.471299503895261</v>
       </c>
-      <c r="BA53" s="6" t="n">
+      <c r="BA53" s="2" t="n">
         <f aca="false">AZ53/$AZ$80</f>
         <v>0.22885329794912</v>
       </c>
-      <c r="BB53" s="6" t="n">
+      <c r="BB53" s="2" t="n">
         <f aca="false">ABS(AY53-$AY$81)</f>
         <v>6.25563251299699E-006</v>
       </c>
@@ -9955,11 +9948,11 @@
         <f aca="false">BH52+BG53</f>
         <v>0.399694316111247</v>
       </c>
-      <c r="BI53" s="6" t="n">
+      <c r="BI53" s="2" t="n">
         <f aca="false">BH53/$BH$80</f>
         <v>0.228345485980607</v>
       </c>
-      <c r="BJ53" s="6" t="n">
+      <c r="BJ53" s="2" t="n">
         <f aca="false">ABS(BG53-$BG$81)</f>
         <v>0.000367067282786002</v>
       </c>
@@ -9984,11 +9977,11 @@
         <f aca="false">S54+T53</f>
         <v>1.80186652435104</v>
       </c>
-      <c r="U54" s="6" t="n">
+      <c r="U54" s="2" t="n">
         <f aca="false">T54/$T$80</f>
         <v>0.257282371300949</v>
       </c>
-      <c r="V54" s="6" t="n">
+      <c r="V54" s="2" t="n">
         <f aca="false">ABS(S54-$S$81)</f>
         <v>0.000132721664801994</v>
       </c>
@@ -10011,11 +10004,11 @@
         <f aca="false">AA54+AB53</f>
         <v>1.12557986781067</v>
       </c>
-      <c r="AC54" s="6" t="n">
+      <c r="AC54" s="2" t="n">
         <f aca="false">AB54/$AB$80</f>
         <v>0.257164728695687</v>
       </c>
-      <c r="AD54" s="6" t="n">
+      <c r="AD54" s="2" t="n">
         <f aca="false">ABS(AA54-$AA$81)</f>
         <v>0.000128661518699016</v>
       </c>
@@ -10038,11 +10031,11 @@
         <f aca="false">AI54+AJ53</f>
         <v>0.817691770850767</v>
       </c>
-      <c r="AK54" s="6" t="n">
+      <c r="AK54" s="2" t="n">
         <f aca="false">AJ54/$AJ$80</f>
         <v>0.256925727466393</v>
       </c>
-      <c r="AL54" s="6" t="n">
+      <c r="AL54" s="2" t="n">
         <f aca="false">ABS(AI54-$AI$81)</f>
         <v>1.47969769049988E-005</v>
       </c>
@@ -10065,11 +10058,11 @@
         <f aca="false">AQ54+AR53</f>
         <v>0.642303534417332</v>
       </c>
-      <c r="AS54" s="6" t="n">
+      <c r="AS54" s="2" t="n">
         <f aca="false">AR54/$AR$80</f>
         <v>0.256784804394794</v>
       </c>
-      <c r="AT54" s="6" t="n">
+      <c r="AT54" s="2" t="n">
         <f aca="false">ABS(AQ54-$AQ$81)</f>
         <v>7.8225481567995E-005</v>
       </c>
@@ -10092,11 +10085,11 @@
         <f aca="false">AY54+AZ53</f>
         <v>0.530367862770673</v>
       </c>
-      <c r="BA54" s="6" t="n">
+      <c r="BA54" s="2" t="n">
         <f aca="false">AZ54/$AZ$80</f>
         <v>0.257535672153538</v>
       </c>
-      <c r="BB54" s="6" t="n">
+      <c r="BB54" s="2" t="n">
         <f aca="false">ABS(AY54-$AY$81)</f>
         <v>0.000228480962500999</v>
       </c>
@@ -10119,11 +10112,11 @@
         <f aca="false">BH53+BG54</f>
         <v>0.449746895003269</v>
       </c>
-      <c r="BI54" s="6" t="n">
+      <c r="BI54" s="2" t="n">
         <f aca="false">BH54/$BH$80</f>
         <v>0.256940539727882</v>
       </c>
-      <c r="BJ54" s="6" t="n">
+      <c r="BJ54" s="2" t="n">
         <f aca="false">ABS(BG54-$BG$81)</f>
         <v>4.13533399290025E-005</v>
       </c>
@@ -10148,11 +10141,11 @@
         <f aca="false">S55+T54</f>
         <v>2.00180315599669</v>
       </c>
-      <c r="U55" s="6" t="n">
+      <c r="U55" s="2" t="n">
         <f aca="false">T55/$T$80</f>
         <v>0.285830640556489</v>
       </c>
-      <c r="V55" s="6" t="n">
+      <c r="V55" s="2" t="n">
         <f aca="false">ABS(S55-$S$81)</f>
         <v>0.000162195317991998</v>
       </c>
@@ -10175,11 +10168,11 @@
         <f aca="false">AA55+AB54</f>
         <v>1.25053447312161</v>
       </c>
-      <c r="AC55" s="6" t="n">
+      <c r="AC55" s="2" t="n">
         <f aca="false">AB55/$AB$80</f>
         <v>0.285713495507382</v>
       </c>
-      <c r="AD55" s="6" t="n">
+      <c r="AD55" s="2" t="n">
         <f aca="false">ABS(AA55-$AA$81)</f>
         <v>9.91878655190043E-005</v>
       </c>
@@ -10202,11 +10195,11 @@
         <f aca="false">AI55+AJ54</f>
         <v>0.908363254354469</v>
       </c>
-      <c r="AK55" s="6" t="n">
+      <c r="AK55" s="2" t="n">
         <f aca="false">AJ55/$AJ$80</f>
         <v>0.285415480806344</v>
       </c>
-      <c r="AL55" s="6" t="n">
+      <c r="AL55" s="2" t="n">
         <f aca="false">ABS(AI55-$AI$81)</f>
         <v>0.000259939576002996</v>
       </c>
@@ -10229,11 +10222,11 @@
         <f aca="false">AQ55+AR54</f>
         <v>0.713772932870597</v>
       </c>
-      <c r="AS55" s="6" t="n">
+      <c r="AS55" s="2" t="n">
         <f aca="false">AR55/$AR$80</f>
         <v>0.285357363190821</v>
       </c>
-      <c r="AT55" s="6" t="n">
+      <c r="AT55" s="2" t="n">
         <f aca="false">ABS(AQ55-$AQ$81)</f>
         <v>2.82706469301175E-006</v>
       </c>
@@ -10256,11 +10249,11 @@
         <f aca="false">AY55+AZ54</f>
         <v>0.589655168784035</v>
       </c>
-      <c r="BA55" s="6" t="n">
+      <c r="BA55" s="2" t="n">
         <f aca="false">AZ55/$AZ$80</f>
         <v>0.286324362562794</v>
       </c>
-      <c r="BB55" s="6" t="n">
+      <c r="BB55" s="2" t="n">
         <f aca="false">ABS(AY55-$AY$81)</f>
         <v>0.000447428100451001</v>
       </c>
@@ -10283,11 +10276,11 @@
         <f aca="false">BH54+BG55</f>
         <v>0.499524737342382</v>
       </c>
-      <c r="BI55" s="6" t="n">
+      <c r="BI55" s="2" t="n">
         <f aca="false">BH55/$BH$80</f>
         <v>0.285378636397806</v>
       </c>
-      <c r="BJ55" s="6" t="n">
+      <c r="BJ55" s="2" t="n">
         <f aca="false">ABS(BG55-$BG$81)</f>
         <v>0.000233383212979998</v>
       </c>
@@ -10312,11 +10305,11 @@
         <f aca="false">S56+T55</f>
         <v>2.20177136655647</v>
       </c>
-      <c r="U56" s="6" t="n">
+      <c r="U56" s="2" t="n">
         <f aca="false">T56/$T$80</f>
         <v>0.314383418857399</v>
       </c>
-      <c r="V56" s="6" t="n">
+      <c r="V56" s="2" t="n">
         <f aca="false">ABS(S56-$S$81)</f>
         <v>0.000130616403861999</v>
       </c>
@@ -10339,11 +10332,11 @@
         <f aca="false">AA56+AB55</f>
         <v>1.37578170970347</v>
       </c>
-      <c r="AC56" s="6" t="n">
+      <c r="AC56" s="2" t="n">
         <f aca="false">AB56/$AB$80</f>
         <v>0.31432912069452</v>
       </c>
-      <c r="AD56" s="6" t="n">
+      <c r="AD56" s="2" t="n">
         <f aca="false">ABS(AA56-$AA$81)</f>
         <v>0.000193443405400978</v>
       </c>
@@ -10366,11 +10359,11 @@
         <f aca="false">AI56+AJ55</f>
         <v>0.99880421178504</v>
       </c>
-      <c r="AK56" s="6" t="n">
+      <c r="AK56" s="2" t="n">
         <f aca="false">AJ56/$AJ$80</f>
         <v>0.31383280088825</v>
       </c>
-      <c r="AL56" s="6" t="n">
+      <c r="AL56" s="2" t="n">
         <f aca="false">ABS(AI56-$AI$81)</f>
         <v>0.000490465649133992</v>
       </c>
@@ -10393,11 +10386,11 @@
         <f aca="false">AQ56+AR55</f>
         <v>0.784986542119429</v>
       </c>
-      <c r="AS56" s="6" t="n">
+      <c r="AS56" s="2" t="n">
         <f aca="false">AR56/$AR$80</f>
         <v>0.313827660708018</v>
       </c>
-      <c r="AT56" s="6" t="n">
+      <c r="AT56" s="2" t="n">
         <f aca="false">ABS(AQ56-$AQ$81)</f>
         <v>0.000252962139739993</v>
       </c>
@@ -10420,11 +10413,11 @@
         <f aca="false">AY56+AZ55</f>
         <v>0.648764580247812</v>
       </c>
-      <c r="BA56" s="6" t="n">
+      <c r="BA56" s="2" t="n">
         <f aca="false">AZ56/$AZ$80</f>
         <v>0.315026671055618</v>
       </c>
-      <c r="BB56" s="6" t="n">
+      <c r="BB56" s="2" t="n">
         <f aca="false">ABS(AY56-$AY$81)</f>
         <v>0.000269533550866001</v>
       </c>
@@ -10447,11 +10440,11 @@
         <f aca="false">BH55+BG56</f>
         <v>0.549462579513074</v>
       </c>
-      <c r="BI56" s="6" t="n">
+      <c r="BI56" s="2" t="n">
         <f aca="false">BH56/$BH$80</f>
         <v>0.313908141020823</v>
       </c>
-      <c r="BJ56" s="6" t="n">
+      <c r="BJ56" s="2" t="n">
         <f aca="false">ABS(BG56-$BG$81)</f>
         <v>7.33833814009974E-005</v>
       </c>
@@ -10476,11 +10469,11 @@
         <f aca="false">S57+T56</f>
         <v>2.40089115695669</v>
       </c>
-      <c r="U57" s="6" t="n">
+      <c r="U57" s="2" t="n">
         <f aca="false">T57/$T$80</f>
         <v>0.342815054139357</v>
       </c>
-      <c r="V57" s="6" t="n">
+      <c r="V57" s="2" t="n">
         <f aca="false">ABS(S57-$S$81)</f>
         <v>0.00097903656342202</v>
       </c>
@@ -10503,11 +10496,11 @@
         <f aca="false">AA57+AB56</f>
         <v>1.50062999933685</v>
       </c>
-      <c r="AC57" s="6" t="n">
+      <c r="AC57" s="2" t="n">
         <f aca="false">AB57/$AB$80</f>
         <v>0.342853597233122</v>
       </c>
-      <c r="AD57" s="6" t="n">
+      <c r="AD57" s="2" t="n">
         <f aca="false">ABS(AA57-$AA$81)</f>
         <v>0.000205503543079008</v>
       </c>
@@ -10530,11 +10523,11 @@
         <f aca="false">AI57+AJ56</f>
         <v>1.08963358985938</v>
       </c>
-      <c r="AK57" s="6" t="n">
+      <c r="AK57" s="2" t="n">
         <f aca="false">AJ57/$AJ$80</f>
         <v>0.342372166048779</v>
       </c>
-      <c r="AL57" s="6" t="n">
+      <c r="AL57" s="2" t="n">
         <f aca="false">ABS(AI57-$AI$81)</f>
         <v>0.000102045005365994</v>
       </c>
@@ -10557,11 +10550,11 @@
         <f aca="false">AQ57+AR56</f>
         <v>0.856210677672971</v>
       </c>
-      <c r="AS57" s="6" t="n">
+      <c r="AS57" s="2" t="n">
         <f aca="false">AR57/$AR$80</f>
         <v>0.342302166508295</v>
       </c>
-      <c r="AT57" s="6" t="n">
+      <c r="AT57" s="2" t="n">
         <f aca="false">ABS(AQ57-$AQ$81)</f>
         <v>0.000242435835029989</v>
       </c>
@@ -10584,11 +10577,11 @@
         <f aca="false">AY57+AZ56</f>
         <v>0.70733399228001</v>
       </c>
-      <c r="BA57" s="6" t="n">
+      <c r="BA57" s="2" t="n">
         <f aca="false">AZ57/$AZ$80</f>
         <v>0.343466766985548</v>
       </c>
-      <c r="BB57" s="6" t="n">
+      <c r="BB57" s="2" t="n">
         <f aca="false">ABS(AY57-$AY$81)</f>
         <v>0.000270465880713</v>
       </c>
@@ -10611,11 +10604,11 @@
         <f aca="false">BH56+BG57</f>
         <v>0.599290948114791</v>
       </c>
-      <c r="BI57" s="6" t="n">
+      <c r="BI57" s="2" t="n">
         <f aca="false">BH57/$BH$80</f>
         <v>0.342375103360145</v>
       </c>
-      <c r="BJ57" s="6" t="n">
+      <c r="BJ57" s="2" t="n">
         <f aca="false">ABS(BG57-$BG$81)</f>
         <v>0.000182856950376002</v>
       </c>
@@ -10640,11 +10633,11 @@
         <f aca="false">S58+T57</f>
         <v>2.60118147244057</v>
       </c>
-      <c r="U58" s="6" t="n">
+      <c r="U58" s="2" t="n">
         <f aca="false">T58/$T$80</f>
         <v>0.371413824703046</v>
       </c>
-      <c r="V58" s="6" t="n">
+      <c r="V58" s="2" t="n">
         <f aca="false">ABS(S58-$S$81)</f>
         <v>0.000191488520237981</v>
       </c>
@@ -10667,11 +10660,11 @@
         <f aca="false">AA58+AB57</f>
         <v>1.62571302556524</v>
       </c>
-      <c r="AC58" s="6" t="n">
+      <c r="AC58" s="2" t="n">
         <f aca="false">AB58/$AB$80</f>
         <v>0.37143170477073</v>
       </c>
-      <c r="AD58" s="6" t="n">
+      <c r="AD58" s="2" t="n">
         <f aca="false">ABS(AA58-$AA$81)</f>
         <v>2.92330519309769E-005</v>
       </c>
@@ -10694,11 +10687,11 @@
         <f aca="false">AI58+AJ57</f>
         <v>1.18032191545062</v>
       </c>
-      <c r="AK58" s="6" t="n">
+      <c r="AK58" s="2" t="n">
         <f aca="false">AJ58/$AJ$80</f>
         <v>0.370867211316258</v>
       </c>
-      <c r="AL58" s="6" t="n">
+      <c r="AL58" s="2" t="n">
         <f aca="false">ABS(AI58-$AI$81)</f>
         <v>0.000243097488468999</v>
       </c>
@@ -10721,11 +10714,11 @@
         <f aca="false">AQ58+AR57</f>
         <v>0.927467444771111</v>
       </c>
-      <c r="AS58" s="6" t="n">
+      <c r="AS58" s="2" t="n">
         <f aca="false">AR58/$AR$80</f>
         <v>0.370789717986118</v>
       </c>
-      <c r="AT58" s="6" t="n">
+      <c r="AT58" s="2" t="n">
         <f aca="false">ABS(AQ58-$AQ$81)</f>
         <v>0.000209804290432006</v>
       </c>
@@ -10748,11 +10741,11 @@
         <f aca="false">AY58+AZ57</f>
         <v>0.765823404396418</v>
       </c>
-      <c r="BA58" s="6" t="n">
+      <c r="BA58" s="2" t="n">
         <f aca="false">AZ58/$AZ$80</f>
         <v>0.371868016609863</v>
       </c>
-      <c r="BB58" s="6" t="n">
+      <c r="BB58" s="2" t="n">
         <f aca="false">ABS(AY58-$AY$81)</f>
         <v>0.000350465796502997</v>
       </c>
@@ -10775,11 +10768,11 @@
         <f aca="false">BH57+BG58</f>
         <v>0.649193000849472</v>
       </c>
-      <c r="BI58" s="6" t="n">
+      <c r="BI58" s="2" t="n">
         <f aca="false">BH58/$BH$80</f>
         <v>0.370884161467338</v>
       </c>
-      <c r="BJ58" s="6" t="n">
+      <c r="BJ58" s="2" t="n">
         <f aca="false">ABS(BG58-$BG$81)</f>
         <v>0.000109172817411997</v>
       </c>
@@ -10804,11 +10797,11 @@
         <f aca="false">S59+T58</f>
         <v>2.80149494579481</v>
       </c>
-      <c r="U59" s="6" t="n">
+      <c r="U59" s="2" t="n">
         <f aca="false">T59/$T$80</f>
         <v>0.400015901900007</v>
       </c>
-      <c r="V59" s="6" t="n">
+      <c r="V59" s="2" t="n">
         <f aca="false">ABS(S59-$S$81)</f>
         <v>0.000214646390597983</v>
       </c>
@@ -10831,11 +10824,11 @@
         <f aca="false">AA59+AB58</f>
         <v>1.75086763066566</v>
       </c>
-      <c r="AC59" s="6" t="n">
+      <c r="AC59" s="2" t="n">
         <f aca="false">AB59/$AB$80</f>
         <v>0.40002616615557</v>
       </c>
-      <c r="AD59" s="6" t="n">
+      <c r="AD59" s="2" t="n">
         <f aca="false">ABS(AA59-$AA$81)</f>
         <v>0.000100811923960997</v>
       </c>
@@ -10858,11 +10851,11 @@
         <f aca="false">AI59+AJ58</f>
         <v>1.27193339796484</v>
       </c>
-      <c r="AK59" s="6" t="n">
+      <c r="AK59" s="2" t="n">
         <f aca="false">AJ59/$AJ$80</f>
         <v>0.399652320361386</v>
       </c>
-      <c r="AL59" s="6" t="n">
+      <c r="AL59" s="2" t="n">
         <f aca="false">ABS(AI59-$AI$81)</f>
         <v>0.000680059434523997</v>
       </c>
@@ -10885,11 +10878,11 @@
         <f aca="false">AQ59+AR58</f>
         <v>0.99880315915457</v>
       </c>
-      <c r="AS59" s="6" t="n">
+      <c r="AS59" s="2" t="n">
         <f aca="false">AR59/$AR$80</f>
         <v>0.399308831587036</v>
       </c>
-      <c r="AT59" s="6" t="n">
+      <c r="AT59" s="2" t="n">
         <f aca="false">ABS(AQ59-$AQ$81)</f>
         <v>0.000130857005112991</v>
       </c>
@@ -10912,11 +10905,11 @@
         <f aca="false">AY59+AZ58</f>
         <v>0.824709658200361</v>
       </c>
-      <c r="BA59" s="6" t="n">
+      <c r="BA59" s="2" t="n">
         <f aca="false">AZ59/$AZ$80</f>
         <v>0.400461964355448</v>
       </c>
-      <c r="BB59" s="6" t="n">
+      <c r="BB59" s="2" t="n">
         <f aca="false">ABS(AY59-$AY$81)</f>
         <v>4.63758910319995E-005</v>
       </c>
@@ -10939,11 +10932,11 @@
         <f aca="false">BH58+BG59</f>
         <v>0.699419263769195</v>
       </c>
-      <c r="BI59" s="6" t="n">
+      <c r="BI59" s="2" t="n">
         <f aca="false">BH59/$BH$80</f>
         <v>0.399578440953168</v>
       </c>
-      <c r="BJ59" s="6" t="n">
+      <c r="BJ59" s="2" t="n">
         <f aca="false">ABS(BG59-$BG$81)</f>
         <v>0.000215037367630004</v>
       </c>
@@ -10968,11 +10961,11 @@
         <f aca="false">S60+T59</f>
         <v>3.00133684069808</v>
       </c>
-      <c r="U60" s="6" t="n">
+      <c r="U60" s="2" t="n">
         <f aca="false">T60/$T$80</f>
         <v>0.428550644019436</v>
       </c>
-      <c r="V60" s="6" t="n">
+      <c r="V60" s="2" t="n">
         <f aca="false">ABS(S60-$S$81)</f>
         <v>0.000256932060372</v>
       </c>
@@ -10995,11 +10988,11 @@
         <f aca="false">AA60+AB59</f>
         <v>1.87622855133838</v>
       </c>
-      <c r="AC60" s="6" t="n">
+      <c r="AC60" s="2" t="n">
         <f aca="false">AB60/$AB$80</f>
         <v>0.428667765100074</v>
       </c>
-      <c r="AD60" s="6" t="n">
+      <c r="AD60" s="2" t="n">
         <f aca="false">ABS(AA60-$AA$81)</f>
         <v>0.000307127496260995</v>
       </c>
@@ -11022,11 +11015,11 @@
         <f aca="false">AI60+AJ59</f>
         <v>1.36353540680484</v>
       </c>
-      <c r="AK60" s="6" t="n">
+      <c r="AK60" s="2" t="n">
         <f aca="false">AJ60/$AJ$80</f>
         <v>0.428434452697279</v>
       </c>
-      <c r="AL60" s="6" t="n">
+      <c r="AL60" s="2" t="n">
         <f aca="false">ABS(AI60-$AI$81)</f>
         <v>0.000670585760286002</v>
       </c>
@@ -11049,11 +11042,11 @@
         <f aca="false">AQ60+AR59</f>
         <v>1.07109781989703</v>
       </c>
-      <c r="AS60" s="6" t="n">
+      <c r="AS60" s="2" t="n">
         <f aca="false">AR60/$AR$80</f>
         <v>0.42821131977649</v>
       </c>
-      <c r="AT60" s="6" t="n">
+      <c r="AT60" s="2" t="n">
         <f aca="false">ABS(AQ60-$AQ$81)</f>
         <v>0.000828089353890005</v>
       </c>
@@ -11076,11 +11069,11 @@
         <f aca="false">AY60+AZ59</f>
         <v>0.883193807164415</v>
       </c>
-      <c r="BA60" s="6" t="n">
+      <c r="BA60" s="2" t="n">
         <f aca="false">AZ60/$AZ$80</f>
         <v>0.428860658301762</v>
       </c>
-      <c r="BB60" s="6" t="n">
+      <c r="BB60" s="2" t="n">
         <f aca="false">ABS(AY60-$AY$81)</f>
         <v>0.000355728948856999</v>
       </c>
@@ -11103,11 +11096,11 @@
         <f aca="false">BH59+BG60</f>
         <v>0.749275000763156</v>
       </c>
-      <c r="BI60" s="6" t="n">
+      <c r="BI60" s="2" t="n">
         <f aca="false">BH60/$BH$80</f>
         <v>0.428061038863414</v>
       </c>
-      <c r="BJ60" s="6" t="n">
+      <c r="BJ60" s="2" t="n">
         <f aca="false">ABS(BG60-$BG$81)</f>
         <v>0.000155488558132001</v>
       </c>
@@ -11132,11 +11125,11 @@
         <f aca="false">S61+T60</f>
         <v>3.20124715658196</v>
       </c>
-      <c r="U61" s="6" t="n">
+      <c r="U61" s="2" t="n">
         <f aca="false">T61/$T$80</f>
         <v>0.457095155737167</v>
       </c>
-      <c r="V61" s="6" t="n">
+      <c r="V61" s="2" t="n">
         <f aca="false">ABS(S61-$S$81)</f>
         <v>0.000188511079762005</v>
       </c>
@@ -11159,11 +11152,11 @@
         <f aca="false">AA61+AB60</f>
         <v>2.00170631399337</v>
       </c>
-      <c r="AC61" s="6" t="n">
+      <c r="AC61" s="2" t="n">
         <f aca="false">AB61/$AB$80</f>
         <v>0.457336059295205</v>
       </c>
-      <c r="AD61" s="6" t="n">
+      <c r="AD61" s="2" t="n">
         <f aca="false">ABS(AA61-$AA$81)</f>
         <v>0.000423969478530989</v>
       </c>
@@ -11186,11 +11179,11 @@
         <f aca="false">AI61+AJ60</f>
         <v>1.45533636280383</v>
       </c>
-      <c r="AK61" s="6" t="n">
+      <c r="AK61" s="2" t="n">
         <f aca="false">AJ61/$AJ$80</f>
         <v>0.457279095927101</v>
       </c>
-      <c r="AL61" s="6" t="n">
+      <c r="AL61" s="2" t="n">
         <f aca="false">ABS(AI61-$AI$81)</f>
         <v>0.000869532919288998</v>
       </c>
@@ -11213,11 +11206,11 @@
         <f aca="false">AQ61+AR60</f>
         <v>1.14239669221401</v>
       </c>
-      <c r="AS61" s="6" t="n">
+      <c r="AS61" s="2" t="n">
         <f aca="false">AR61/$AR$80</f>
         <v>0.45671570438663</v>
       </c>
-      <c r="AT61" s="6" t="n">
+      <c r="AT61" s="2" t="n">
         <f aca="false">ABS(AQ61-$AQ$81)</f>
         <v>0.000167699071595001</v>
       </c>
@@ -11240,11 +11233,11 @@
         <f aca="false">AY61+AZ60</f>
         <v>0.941889534853123</v>
       </c>
-      <c r="BA61" s="6" t="n">
+      <c r="BA61" s="2" t="n">
         <f aca="false">AZ61/$AZ$80</f>
         <v>0.457362090503714</v>
       </c>
-      <c r="BB61" s="6" t="n">
+      <c r="BB61" s="2" t="n">
         <f aca="false">ABS(AY61-$AY$81)</f>
         <v>0.000144150224202999</v>
       </c>
@@ -11267,11 +11260,11 @@
         <f aca="false">BH60+BG61</f>
         <v>0.799451790050746</v>
       </c>
-      <c r="BI61" s="6" t="n">
+      <c r="BI61" s="2" t="n">
         <f aca="false">BH61/$BH$80</f>
         <v>0.456727054047959</v>
       </c>
-      <c r="BJ61" s="6" t="n">
+      <c r="BJ61" s="2" t="n">
         <f aca="false">ABS(BG61-$BG$81)</f>
         <v>0.000165563735496997</v>
       </c>
@@ -11296,11 +11289,11 @@
         <f aca="false">S62+T61</f>
         <v>3.40173010344202</v>
       </c>
-      <c r="U62" s="6" t="n">
+      <c r="U62" s="2" t="n">
         <f aca="false">T62/$T$80</f>
         <v>0.485721431477617</v>
       </c>
-      <c r="V62" s="6" t="n">
+      <c r="V62" s="2" t="n">
         <f aca="false">ABS(S62-$S$81)</f>
         <v>0.000384119896417984</v>
       </c>
@@ -11323,11 +11316,11 @@
         <f aca="false">AA62+AB61</f>
         <v>2.12653565627827</v>
       </c>
-      <c r="AC62" s="6" t="n">
+      <c r="AC62" s="2" t="n">
         <f aca="false">AB62/$AB$80</f>
         <v>0.485856206874246</v>
       </c>
-      <c r="AD62" s="6" t="n">
+      <c r="AD62" s="2" t="n">
         <f aca="false">ABS(AA62-$AA$81)</f>
         <v>0.000224450891559008</v>
       </c>
@@ -11350,11 +11343,11 @@
         <f aca="false">AI62+AJ61</f>
         <v>1.54607205676626</v>
       </c>
-      <c r="AK62" s="6" t="n">
+      <c r="AK62" s="2" t="n">
         <f aca="false">AJ62/$AJ$80</f>
         <v>0.485789024740753</v>
       </c>
-      <c r="AL62" s="6" t="n">
+      <c r="AL62" s="2" t="n">
         <f aca="false">ABS(AI62-$AI$81)</f>
         <v>0.000195729117277998</v>
       </c>
@@ -11377,11 +11370,11 @@
         <f aca="false">AQ62+AR61</f>
         <v>1.21376714340301</v>
       </c>
-      <c r="AS62" s="6" t="n">
+      <c r="AS62" s="2" t="n">
         <f aca="false">AR62/$AR$80</f>
         <v>0.485248705321711</v>
       </c>
-      <c r="AT62" s="6" t="n">
+      <c r="AT62" s="2" t="n">
         <f aca="false">ABS(AQ62-$AQ$81)</f>
         <v>9.61201995729882E-005</v>
       </c>
@@ -11404,11 +11397,11 @@
         <f aca="false">AY62+AZ61</f>
         <v>1.00080315704931</v>
       </c>
-      <c r="BA62" s="6" t="n">
+      <c r="BA62" s="2" t="n">
         <f aca="false">AZ62/$AZ$80</f>
         <v>0.485969327774904</v>
       </c>
-      <c r="BB62" s="6" t="n">
+      <c r="BB62" s="2" t="n">
         <f aca="false">ABS(AY62-$AY$81)</f>
         <v>7.37442832760005E-005</v>
       </c>
@@ -11431,11 +11424,11 @@
         <f aca="false">BH61+BG62</f>
         <v>0.849687526644707</v>
       </c>
-      <c r="BI62" s="6" t="n">
+      <c r="BI62" s="2" t="n">
         <f aca="false">BH62/$BH$80</f>
         <v>0.485426745846801</v>
       </c>
-      <c r="BJ62" s="6" t="n">
+      <c r="BJ62" s="2" t="n">
         <f aca="false">ABS(BG62-$BG$81)</f>
         <v>0.000224511041867999</v>
       </c>
@@ -11460,11 +11453,11 @@
         <f aca="false">S63+T62</f>
         <v>3.60239199748213</v>
       </c>
-      <c r="U63" s="6" t="n">
+      <c r="U63" s="2" t="n">
         <f aca="false">T63/$T$80</f>
         <v>0.514373258475165</v>
       </c>
-      <c r="V63" s="6" t="n">
+      <c r="V63" s="2" t="n">
         <f aca="false">ABS(S63-$S$81)</f>
         <v>0.000563067076467999</v>
       </c>
@@ -11487,11 +11480,11 @@
         <f aca="false">AA63+AB62</f>
         <v>2.25117973560029</v>
       </c>
-      <c r="AC63" s="6" t="n">
+      <c r="AC63" s="2" t="n">
         <f aca="false">AB63/$AB$80</f>
         <v>0.51433402684869</v>
       </c>
-      <c r="AD63" s="6" t="n">
+      <c r="AD63" s="2" t="n">
         <f aca="false">ABS(AA63-$AA$81)</f>
         <v>0.000409713854439012</v>
       </c>
@@ -11514,11 +11507,11 @@
         <f aca="false">AI63+AJ62</f>
         <v>1.636687750855</v>
       </c>
-      <c r="AK63" s="6" t="n">
+      <c r="AK63" s="2" t="n">
         <f aca="false">AJ63/$AJ$80</f>
         <v>0.514261248570766</v>
       </c>
-      <c r="AL63" s="6" t="n">
+      <c r="AL63" s="2" t="n">
         <f aca="false">ABS(AI63-$AI$81)</f>
         <v>0.000315728990961994</v>
       </c>
@@ -11541,11 +11534,11 @@
         <f aca="false">AQ63+AR62</f>
         <v>1.28530917335877</v>
       </c>
-      <c r="AS63" s="6" t="n">
+      <c r="AS63" s="2" t="n">
         <f aca="false">AR63/$AR$80</f>
         <v>0.513850301270986</v>
       </c>
-      <c r="AT63" s="6" t="n">
+      <c r="AT63" s="2" t="n">
         <f aca="false">ABS(AQ63-$AQ$81)</f>
         <v>7.5458567186007E-005</v>
       </c>
@@ -11568,11 +11561,11 @@
         <f aca="false">AY63+AZ62</f>
         <v>1.0593799374948</v>
       </c>
-      <c r="BA63" s="6" t="n">
+      <c r="BA63" s="2" t="n">
         <f aca="false">AZ63/$AZ$80</f>
         <v>0.514413001654035</v>
       </c>
-      <c r="BB63" s="6" t="n">
+      <c r="BB63" s="2" t="n">
         <f aca="false">ABS(AY63-$AY$81)</f>
         <v>0.000263097467416998</v>
       </c>
@@ -11595,11 +11588,11 @@
         <f aca="false">BH62+BG63</f>
         <v>0.899439053222047</v>
       </c>
-      <c r="BI63" s="6" t="n">
+      <c r="BI63" s="2" t="n">
         <f aca="false">BH63/$BH$80</f>
         <v>0.513849808313913</v>
       </c>
-      <c r="BJ63" s="6" t="n">
+      <c r="BJ63" s="2" t="n">
         <f aca="false">ABS(BG63-$BG$81)</f>
         <v>0.000259698974753003</v>
       </c>
@@ -11624,11 +11617,11 @@
         <f aca="false">S64+T63</f>
         <v>3.8028707338203</v>
       </c>
-      <c r="U64" s="6" t="n">
+      <c r="U64" s="2" t="n">
         <f aca="false">T64/$T$80</f>
         <v>0.542998933009564</v>
       </c>
-      <c r="V64" s="6" t="n">
+      <c r="V64" s="2" t="n">
         <f aca="false">ABS(S64-$S$81)</f>
         <v>0.000379909374528004</v>
       </c>
@@ -11651,11 +11644,11 @@
         <f aca="false">AA64+AB63</f>
         <v>2.37627644602481</v>
       </c>
-      <c r="AC64" s="6" t="n">
+      <c r="AC64" s="2" t="n">
         <f aca="false">AB64/$AB$80</f>
         <v>0.542915260857093</v>
       </c>
-      <c r="AD64" s="6" t="n">
+      <c r="AD64" s="2" t="n">
         <f aca="false">ABS(AA64-$AA$81)</f>
         <v>4.29172480609918E-005</v>
       </c>
@@ -11678,11 +11671,11 @@
         <f aca="false">AI64+AJ63</f>
         <v>1.72784765489721</v>
       </c>
-      <c r="AK64" s="6" t="n">
+      <c r="AK64" s="2" t="n">
         <f aca="false">AJ64/$AJ$80</f>
         <v>0.542904467809039</v>
       </c>
-      <c r="AL64" s="6" t="n">
+      <c r="AL64" s="2" t="n">
         <f aca="false">ABS(AI64-$AI$81)</f>
         <v>0.000228480962500999</v>
       </c>
@@ -11705,11 +11698,11 @@
         <f aca="false">AQ64+AR63</f>
         <v>1.35699225579763</v>
       </c>
-      <c r="AS64" s="6" t="n">
+      <c r="AS64" s="2" t="n">
         <f aca="false">AR64/$AR$80</f>
         <v>0.542508288213525</v>
       </c>
-      <c r="AT64" s="6" t="n">
+      <c r="AT64" s="2" t="n">
         <f aca="false">ABS(AQ64-$AQ$81)</f>
         <v>0.000216511050289012</v>
       </c>
@@ -11732,11 +11725,11 @@
         <f aca="false">AY64+AZ63</f>
         <v>1.11789040222063</v>
       </c>
-      <c r="BA64" s="6" t="n">
+      <c r="BA64" s="2" t="n">
         <f aca="false">AZ64/$AZ$80</f>
         <v>0.542824473990354</v>
       </c>
-      <c r="BB64" s="6" t="n">
+      <c r="BB64" s="2" t="n">
         <f aca="false">ABS(AY64-$AY$81)</f>
         <v>0.000329413187083995</v>
       </c>
@@ -11759,11 +11752,11 @@
         <f aca="false">BH63+BG64</f>
         <v>0.949369526979443</v>
       </c>
-      <c r="BI64" s="6" t="n">
+      <c r="BI64" s="2" t="n">
         <f aca="false">BH64/$BH$80</f>
         <v>0.542375103360144</v>
       </c>
-      <c r="BJ64" s="6" t="n">
+      <c r="BJ64" s="2" t="n">
         <f aca="false">ABS(BG64-$BG$81)</f>
         <v>8.07517946969996E-005</v>
       </c>
@@ -11788,11 +11781,11 @@
         <f aca="false">S65+T64</f>
         <v>4.00288210222939</v>
       </c>
-      <c r="U65" s="6" t="n">
+      <c r="U65" s="2" t="n">
         <f aca="false">T65/$T$80</f>
         <v>0.571557873672482</v>
       </c>
-      <c r="V65" s="6" t="n">
+      <c r="V65" s="2" t="n">
         <f aca="false">ABS(S65-$S$81)</f>
         <v>8.74585545520001E-005</v>
       </c>
@@ -11815,11 +11808,11 @@
         <f aca="false">AA65+AB64</f>
         <v>2.50143736690805</v>
       </c>
-      <c r="AC65" s="6" t="n">
+      <c r="AC65" s="2" t="n">
         <f aca="false">AB65/$AB$80</f>
         <v>0.571511165228452</v>
       </c>
-      <c r="AD65" s="6" t="n">
+      <c r="AD65" s="2" t="n">
         <f aca="false">ABS(AA65-$AA$81)</f>
         <v>0.00010712770678098</v>
       </c>
@@ -11842,11 +11835,11 @@
         <f aca="false">AI65+AJ64</f>
         <v>1.81854334890174</v>
       </c>
-      <c r="AK65" s="6" t="n">
+      <c r="AK65" s="2" t="n">
         <f aca="false">AJ65/$AJ$80</f>
         <v>0.571401828294812</v>
       </c>
-      <c r="AL65" s="6" t="n">
+      <c r="AL65" s="2" t="n">
         <f aca="false">ABS(AI65-$AI$81)</f>
         <v>0.000235729075171998</v>
       </c>
@@ -11869,11 +11862,11 @@
         <f aca="false">AQ65+AR64</f>
         <v>1.42830375968025</v>
       </c>
-      <c r="AS65" s="6" t="n">
+      <c r="AS65" s="2" t="n">
         <f aca="false">AR65/$AR$80</f>
         <v>0.571017722763361</v>
       </c>
-      <c r="AT65" s="6" t="n">
+      <c r="AT65" s="2" t="n">
         <f aca="false">ABS(AQ65-$AQ$81)</f>
         <v>0.000155067505944989</v>
       </c>
@@ -11896,11 +11889,11 @@
         <f aca="false">AY65+AZ64</f>
         <v>1.17687244539743</v>
       </c>
-      <c r="BA65" s="6" t="n">
+      <c r="BA65" s="2" t="n">
         <f aca="false">AZ65/$AZ$80</f>
         <v>0.571464935075556</v>
       </c>
-      <c r="BB65" s="6" t="n">
+      <c r="BB65" s="2" t="n">
         <f aca="false">ABS(AY65-$AY$81)</f>
         <v>0.000142165263886003</v>
       </c>
@@ -11923,11 +11916,11 @@
         <f aca="false">BH64+BG65</f>
         <v>0.999685263489194</v>
       </c>
-      <c r="BI65" s="6" t="n">
+      <c r="BI65" s="2" t="n">
         <f aca="false">BH65/$BH$80</f>
         <v>0.571120499135533</v>
       </c>
-      <c r="BJ65" s="6" t="n">
+      <c r="BJ65" s="2" t="n">
         <f aca="false">ABS(BG65-$BG$81)</f>
         <v>0.000304510957658002</v>
       </c>
@@ -11952,11 +11945,11 @@
         <f aca="false">S66+T65</f>
         <v>4.20292294429166</v>
       </c>
-      <c r="U66" s="6" t="n">
+      <c r="U66" s="2" t="n">
         <f aca="false">T66/$T$80</f>
         <v>0.600121022777744</v>
       </c>
-      <c r="V66" s="6" t="n">
+      <c r="V66" s="2" t="n">
         <f aca="false">ABS(S66-$S$81)</f>
         <v>5.79849013720157E-005</v>
       </c>
@@ -11979,11 +11972,11 @@
         <f aca="false">AA66+AB65</f>
         <v>2.62641618271982</v>
       </c>
-      <c r="AC66" s="6" t="n">
+      <c r="AC66" s="2" t="n">
         <f aca="false">AB66/$AB$80</f>
         <v>0.600065463488474</v>
       </c>
-      <c r="AD66" s="6" t="n">
+      <c r="AD66" s="2" t="n">
         <f aca="false">ABS(AA66-$AA$81)</f>
         <v>7.49773646890051E-005</v>
       </c>
@@ -12006,11 +11999,11 @@
         <f aca="false">AI66+AJ65</f>
         <v>1.90932430597442</v>
       </c>
-      <c r="AK66" s="6" t="n">
+      <c r="AK66" s="2" t="n">
         <f aca="false">AJ66/$AJ$80</f>
         <v>0.599925979163697</v>
       </c>
-      <c r="AL66" s="6" t="n">
+      <c r="AL66" s="2" t="n">
         <f aca="false">ABS(AI66-$AI$81)</f>
         <v>0.000150466007027991</v>
       </c>
@@ -12033,11 +12026,11 @@
         <f aca="false">AQ66+AR65</f>
         <v>1.50029526284709</v>
       </c>
-      <c r="AS66" s="6" t="n">
+      <c r="AS66" s="2" t="n">
         <f aca="false">AR66/$AR$80</f>
         <v>0.599799012400127</v>
       </c>
-      <c r="AT66" s="6" t="n">
+      <c r="AT66" s="2" t="n">
         <f aca="false">ABS(AQ66-$AQ$81)</f>
         <v>0.000524931778266999</v>
       </c>
@@ -12060,11 +12053,11 @@
         <f aca="false">AY66+AZ65</f>
         <v>1.23572606765677</v>
       </c>
-      <c r="BA66" s="6" t="n">
+      <c r="BA66" s="2" t="n">
         <f aca="false">AZ66/$AZ$80</f>
         <v>0.600043037617536</v>
       </c>
-      <c r="BB66" s="6" t="n">
+      <c r="BB66" s="2" t="n">
         <f aca="false">ABS(AY66-$AY$81)</f>
         <v>1.37443464340026E-005</v>
       </c>
@@ -12087,11 +12080,11 @@
         <f aca="false">BH65+BG66</f>
         <v>1.04948836895961</v>
       </c>
-      <c r="BI66" s="6" t="n">
+      <c r="BI66" s="2" t="n">
         <f aca="false">BH66/$BH$80</f>
         <v>0.599573028640156</v>
       </c>
-      <c r="BJ66" s="6" t="n">
+      <c r="BJ66" s="2" t="n">
         <f aca="false">ABS(BG66-$BG$81)</f>
         <v>0.000208120081677997</v>
       </c>
@@ -12116,11 +12109,11 @@
         <f aca="false">S67+T66</f>
         <v>4.40329115443039</v>
       </c>
-      <c r="U67" s="6" t="n">
+      <c r="U67" s="2" t="n">
         <f aca="false">T67/$T$80</f>
         <v>0.628730915653347</v>
       </c>
-      <c r="V67" s="6" t="n">
+      <c r="V67" s="2" t="n">
         <f aca="false">ABS(S67-$S$81)</f>
         <v>0.000269383175087984</v>
       </c>
@@ -12143,11 +12136,11 @@
         <f aca="false">AA67+AB66</f>
         <v>2.75199605053049</v>
       </c>
-      <c r="AC67" s="6" t="n">
+      <c r="AC67" s="2" t="n">
         <f aca="false">AB67/$AB$80</f>
         <v>0.628757085965684</v>
       </c>
-      <c r="AD67" s="6" t="n">
+      <c r="AD67" s="2" t="n">
         <f aca="false">ABS(AA67-$AA$81)</f>
         <v>0.000526074634210977</v>
       </c>
@@ -12170,11 +12163,11 @@
         <f aca="false">AI67+AJ66</f>
         <v>2.00035999962105</v>
       </c>
-      <c r="AK67" s="6" t="n">
+      <c r="AK67" s="2" t="n">
         <f aca="false">AJ67/$AJ$80</f>
         <v>0.628530170436448</v>
       </c>
-      <c r="AL67" s="6" t="n">
+      <c r="AL67" s="2" t="n">
         <f aca="false">ABS(AI67-$AI$81)</f>
         <v>0.000104270566933004</v>
       </c>
@@ -12197,11 +12190,11 @@
         <f aca="false">AQ67+AR66</f>
         <v>1.57150045105216</v>
       </c>
-      <c r="AS67" s="6" t="n">
+      <c r="AS67" s="2" t="n">
         <f aca="false">AR67/$AR$80</f>
         <v>0.628265943290861</v>
       </c>
-      <c r="AT67" s="6" t="n">
+      <c r="AT67" s="2" t="n">
         <f aca="false">ABS(AQ67-$AQ$81)</f>
         <v>0.000261383183506991</v>
       </c>
@@ -12224,11 +12217,11 @@
         <f aca="false">AY67+AZ66</f>
         <v>1.29421337451224</v>
       </c>
-      <c r="BA67" s="6" t="n">
+      <c r="BA67" s="2" t="n">
         <f aca="false">AZ67/$AZ$80</f>
         <v>0.628443264970651</v>
       </c>
-      <c r="BB67" s="6" t="n">
+      <c r="BB67" s="2" t="n">
         <f aca="false">ABS(AY67-$AY$81)</f>
         <v>0.000352571057444996</v>
       </c>
@@ -12251,11 +12244,11 @@
         <f aca="false">BH66+BG67</f>
         <v>1.09931357966991</v>
       </c>
-      <c r="BI67" s="6" t="n">
+      <c r="BI67" s="2" t="n">
         <f aca="false">BH67/$BH$80</f>
         <v>0.62803818687514</v>
       </c>
-      <c r="BJ67" s="6" t="n">
+      <c r="BJ67" s="2" t="n">
         <f aca="false">ABS(BG67-$BG$81)</f>
         <v>0.000186014841787999</v>
       </c>
@@ -12280,11 +12273,11 @@
         <f aca="false">S68+T67</f>
         <v>4.60320673346662</v>
       </c>
-      <c r="U68" s="6" t="n">
+      <c r="U68" s="2" t="n">
         <f aca="false">T68/$T$80</f>
         <v>0.65727617887864</v>
       </c>
-      <c r="V68" s="6" t="n">
+      <c r="V68" s="2" t="n">
         <f aca="false">ABS(S68-$S$81)</f>
         <v>0.000183247927412006</v>
       </c>
@@ -12307,11 +12300,11 @@
         <f aca="false">AA68+AB67</f>
         <v>2.87688223486082</v>
       </c>
-      <c r="AC68" s="6" t="n">
+      <c r="AC68" s="2" t="n">
         <f aca="false">AB68/$AB$80</f>
         <v>0.657290220423408</v>
       </c>
-      <c r="AD68" s="6" t="n">
+      <c r="AD68" s="2" t="n">
         <f aca="false">ABS(AA68-$AA$81)</f>
         <v>0.000167608846129014</v>
       </c>
@@ -12334,11 +12327,11 @@
         <f aca="false">AI68+AJ67</f>
         <v>2.09095464110038</v>
       </c>
-      <c r="AK68" s="6" t="n">
+      <c r="AK68" s="2" t="n">
         <f aca="false">AJ68/$AJ$80</f>
         <v>0.656995779357051</v>
       </c>
-      <c r="AL68" s="6" t="n">
+      <c r="AL68" s="2" t="n">
         <f aca="false">ABS(AI68-$AI$81)</f>
         <v>0.00033678160037999</v>
       </c>
@@ -12361,11 +12354,11 @@
         <f aca="false">AQ68+AR67</f>
         <v>1.64256669203506</v>
       </c>
-      <c r="AS68" s="6" t="n">
+      <c r="AS68" s="2" t="n">
         <f aca="false">AR68/$AR$80</f>
         <v>0.656677324844946</v>
       </c>
-      <c r="AT68" s="6" t="n">
+      <c r="AT68" s="2" t="n">
         <f aca="false">ABS(AQ68-$AQ$81)</f>
         <v>0.00040033040566799</v>
       </c>
@@ -12388,11 +12381,11 @@
         <f aca="false">AY68+AZ67</f>
         <v>1.35295120741978</v>
       </c>
-      <c r="BA68" s="6" t="n">
+      <c r="BA68" s="2" t="n">
         <f aca="false">AZ68/$AZ$80</f>
         <v>0.65696514259661</v>
       </c>
-      <c r="BB68" s="6" t="n">
+      <c r="BB68" s="2" t="n">
         <f aca="false">ABS(AY68-$AY$81)</f>
         <v>0.000102045005367001</v>
       </c>
@@ -12415,11 +12408,11 @@
         <f aca="false">BH67+BG68</f>
         <v>1.14912089566221</v>
       </c>
-      <c r="BI68" s="6" t="n">
+      <c r="BI68" s="2" t="n">
         <f aca="false">BH68/$BH$80</f>
         <v>0.656493121852213</v>
       </c>
-      <c r="BJ68" s="6" t="n">
+      <c r="BJ68" s="2" t="n">
         <f aca="false">ABS(BG68-$BG$81)</f>
         <v>0.000203909559793998</v>
       </c>
@@ -12444,11 +12437,11 @@
         <f aca="false">S69+T68</f>
         <v>4.80346547003637</v>
       </c>
-      <c r="U69" s="6" t="n">
+      <c r="U69" s="2" t="n">
         <f aca="false">T69/$T$80</f>
         <v>0.685870440396958</v>
       </c>
-      <c r="V69" s="6" t="n">
+      <c r="V69" s="2" t="n">
         <f aca="false">ABS(S69-$S$81)</f>
         <v>0.000159909606107983</v>
       </c>
@@ -12471,11 +12464,11 @@
         <f aca="false">AA69+AB68</f>
         <v>3.00279052337841</v>
       </c>
-      <c r="AC69" s="6" t="n">
+      <c r="AC69" s="2" t="n">
         <f aca="false">AB69/$AB$80</f>
         <v>0.686056878199674</v>
       </c>
-      <c r="AD69" s="6" t="n">
+      <c r="AD69" s="2" t="n">
         <f aca="false">ABS(AA69-$AA$81)</f>
         <v>0.000854495341130995</v>
       </c>
@@ -12498,11 +12491,11 @@
         <f aca="false">AI69+AJ68</f>
         <v>2.18203138733538</v>
       </c>
-      <c r="AK69" s="6" t="n">
+      <c r="AK69" s="2" t="n">
         <f aca="false">AJ69/$AJ$80</f>
         <v>0.685612869703153</v>
       </c>
-      <c r="AL69" s="6" t="n">
+      <c r="AL69" s="2" t="n">
         <f aca="false">ABS(AI69-$AI$81)</f>
         <v>0.000145323155298999</v>
       </c>
@@ -12525,11 +12518,11 @@
         <f aca="false">AQ69+AR68</f>
         <v>1.71458030044179</v>
       </c>
-      <c r="AS69" s="6" t="n">
+      <c r="AS69" s="2" t="n">
         <f aca="false">AR69/$AR$80</f>
         <v>0.685467451876179</v>
       </c>
-      <c r="AT69" s="6" t="n">
+      <c r="AT69" s="2" t="n">
         <f aca="false">ABS(AQ69-$AQ$81)</f>
         <v>0.000547037018156005</v>
       </c>
@@ -12552,11 +12545,11 @@
         <f aca="false">AY69+AZ68</f>
         <v>1.41212377671181</v>
       </c>
-      <c r="BA69" s="6" t="n">
+      <c r="BA69" s="2" t="n">
         <f aca="false">AZ69/$AZ$80</f>
         <v>0.685698119225445</v>
       </c>
-      <c r="BB69" s="6" t="n">
+      <c r="BB69" s="2" t="n">
         <f aca="false">ABS(AY69-$AY$81)</f>
         <v>0.000332691379121001</v>
       </c>
@@ -12579,11 +12572,11 @@
         <f aca="false">BH68+BG69</f>
         <v>1.19915979035811</v>
       </c>
-      <c r="BI69" s="6" t="n">
+      <c r="BI69" s="2" t="n">
         <f aca="false">BH69/$BH$80</f>
         <v>0.685080357814026</v>
       </c>
-      <c r="BJ69" s="6" t="n">
+      <c r="BJ69" s="2" t="n">
         <f aca="false">ABS(BG69-$BG$81)</f>
         <v>2.7669143807002E-005</v>
       </c>
@@ -12608,11 +12601,11 @@
         <f aca="false">S70+T69</f>
         <v>5.00251052367316</v>
       </c>
-      <c r="U70" s="6" t="n">
+      <c r="U70" s="2" t="n">
         <f aca="false">T70/$T$80</f>
         <v>0.71429140427154</v>
       </c>
-      <c r="V70" s="6" t="n">
+      <c r="V70" s="2" t="n">
         <f aca="false">ABS(S70-$S$81)</f>
         <v>0.001053773326852</v>
       </c>
@@ -12635,11 +12628,11 @@
         <f aca="false">AA70+AB69</f>
         <v>3.12812197039794</v>
       </c>
-      <c r="AC70" s="6" t="n">
+      <c r="AC70" s="2" t="n">
         <f aca="false">AB70/$AB$80</f>
         <v>0.714691743207083</v>
       </c>
-      <c r="AD70" s="6" t="n">
+      <c r="AD70" s="2" t="n">
         <f aca="false">ABS(AA70-$AA$81)</f>
         <v>0.000277653843070991</v>
       </c>
@@ -12662,11 +12655,11 @@
         <f aca="false">AI70+AJ69</f>
         <v>2.27260181831388</v>
       </c>
-      <c r="AK70" s="6" t="n">
+      <c r="AK70" s="2" t="n">
         <f aca="false">AJ70/$AJ$80</f>
         <v>0.714070871477933</v>
       </c>
-      <c r="AL70" s="6" t="n">
+      <c r="AL70" s="2" t="n">
         <f aca="false">ABS(AI70-$AI$81)</f>
         <v>0.000360992101211002</v>
       </c>
@@ -12689,11 +12682,11 @@
         <f aca="false">AQ70+AR69</f>
         <v>1.78596969897927</v>
       </c>
-      <c r="AS70" s="6" t="n">
+      <c r="AS70" s="2" t="n">
         <f aca="false">AR70/$AR$80</f>
         <v>0.714008027720802</v>
       </c>
-      <c r="AT70" s="6" t="n">
+      <c r="AT70" s="2" t="n">
         <f aca="false">ABS(AQ70-$AQ$81)</f>
         <v>7.71728510969988E-005</v>
       </c>
@@ -12716,11 +12709,11 @@
         <f aca="false">AY70+AZ69</f>
         <v>1.47096582003598</v>
       </c>
-      <c r="BA70" s="6" t="n">
+      <c r="BA70" s="2" t="n">
         <f aca="false">AZ70/$AZ$80</f>
         <v>0.714270599275823</v>
       </c>
-      <c r="BB70" s="6" t="n">
+      <c r="BB70" s="2" t="n">
         <f aca="false">ABS(AY70-$AY$81)</f>
         <v>2.16541125400149E-006</v>
       </c>
@@ -12743,11 +12736,11 @@
         <f aca="false">BH69+BG70</f>
         <v>1.24941973745291</v>
       </c>
-      <c r="BI70" s="6" t="n">
+      <c r="BI70" s="2" t="n">
         <f aca="false">BH70/$BH$80</f>
         <v>0.713793881079456</v>
       </c>
-      <c r="BJ70" s="6" t="n">
+      <c r="BJ70" s="2" t="n">
         <f aca="false">ABS(BG70-$BG$81)</f>
         <v>0.000248721542700003</v>
       </c>
@@ -12772,11 +12765,11 @@
         <f aca="false">S71+T70</f>
         <v>5.20289662852989</v>
       </c>
-      <c r="U71" s="6" t="n">
+      <c r="U71" s="2" t="n">
         <f aca="false">T71/$T$80</f>
         <v>0.742903852272852</v>
       </c>
-      <c r="V71" s="6" t="n">
+      <c r="V71" s="2" t="n">
         <f aca="false">ABS(S71-$S$81)</f>
         <v>0.000287277893087995</v>
       </c>
@@ -12799,11 +12792,11 @@
         <f aca="false">AA71+AB70</f>
         <v>3.25265447089004</v>
       </c>
-      <c r="AC71" s="6" t="n">
+      <c r="AC71" s="2" t="n">
         <f aca="false">AB71/$AB$80</f>
         <v>0.743144070419667</v>
       </c>
-      <c r="AD71" s="6" t="n">
+      <c r="AD71" s="2" t="n">
         <f aca="false">ABS(AA71-$AA$81)</f>
         <v>0.000521292684359007</v>
       </c>
@@ -12826,11 +12819,11 @@
         <f aca="false">AI71+AJ70</f>
         <v>2.36367224876605</v>
       </c>
-      <c r="AK71" s="6" t="n">
+      <c r="AK71" s="2" t="n">
         <f aca="false">AJ71/$AJ$80</f>
         <v>0.742685977351211</v>
       </c>
-      <c r="AL71" s="6" t="n">
+      <c r="AL71" s="2" t="n">
         <f aca="false">ABS(AI71-$AI$81)</f>
         <v>0.000139007372473007</v>
       </c>
@@ -12853,11 +12846,11 @@
         <f aca="false">AQ71+AR70</f>
         <v>1.85779278127076</v>
       </c>
-      <c r="AS71" s="6" t="n">
+      <c r="AS71" s="2" t="n">
         <f aca="false">AR71/$AR$80</f>
         <v>0.742721984828298</v>
       </c>
-      <c r="AT71" s="6" t="n">
+      <c r="AT71" s="2" t="n">
         <f aca="false">ABS(AQ71-$AQ$81)</f>
         <v>0.000356510902920007</v>
       </c>
@@ -12880,11 +12873,11 @@
         <f aca="false">AY71+AZ70</f>
         <v>1.52948891632746</v>
       </c>
-      <c r="BA71" s="6" t="n">
+      <c r="BA71" s="2" t="n">
         <f aca="false">AZ71/$AZ$80</f>
         <v>0.742688205239344</v>
       </c>
-      <c r="BB71" s="6" t="n">
+      <c r="BB71" s="2" t="n">
         <f aca="false">ABS(AY71-$AY$81)</f>
         <v>0.000316781621432997</v>
       </c>
@@ -12907,11 +12900,11 @@
         <f aca="false">BH70+BG71</f>
         <v>1.29934600068842</v>
       </c>
-      <c r="BI71" s="6" t="n">
+      <c r="BI71" s="2" t="n">
         <f aca="false">BH71/$BH$80</f>
         <v>0.742316770653236</v>
       </c>
-      <c r="BJ71" s="6" t="n">
+      <c r="BJ71" s="2" t="n">
         <f aca="false">ABS(BG71-$BG$81)</f>
         <v>8.49623165809985E-005</v>
       </c>
@@ -12936,11 +12929,11 @@
         <f aca="false">S72+T71</f>
         <v>5.40261326040712</v>
       </c>
-      <c r="U72" s="6" t="n">
+      <c r="U72" s="2" t="n">
         <f aca="false">T72/$T$80</f>
         <v>0.771420708512311</v>
       </c>
-      <c r="V72" s="6" t="n">
+      <c r="V72" s="2" t="n">
         <f aca="false">ABS(S72-$S$81)</f>
         <v>0.000382195086412018</v>
       </c>
@@ -12963,11 +12956,11 @@
         <f aca="false">AA72+AB71</f>
         <v>3.37823749659212</v>
       </c>
-      <c r="AC72" s="6" t="n">
+      <c r="AC72" s="2" t="n">
         <f aca="false">AB72/$AB$80</f>
         <v>0.771836414390136</v>
       </c>
-      <c r="AD72" s="6" t="n">
+      <c r="AD72" s="2" t="n">
         <f aca="false">ABS(AA72-$AA$81)</f>
         <v>0.000529232525620982</v>
       </c>
@@ -12990,11 +12983,11 @@
         <f aca="false">AI72+AJ71</f>
         <v>2.45467636349856</v>
       </c>
-      <c r="AK72" s="6" t="n">
+      <c r="AK72" s="2" t="n">
         <f aca="false">AJ72/$AJ$80</f>
         <v>0.771280246259847</v>
       </c>
-      <c r="AL72" s="6" t="n">
+      <c r="AL72" s="2" t="n">
         <f aca="false">ABS(AI72-$AI$81)</f>
         <v>7.26916528060034E-005</v>
       </c>
@@ -13017,11 +13010,11 @@
         <f aca="false">AQ72+AR71</f>
         <v>1.9294474426869</v>
       </c>
-      <c r="AS72" s="6" t="n">
+      <c r="AS72" s="2" t="n">
         <f aca="false">AR72/$AR$80</f>
         <v>0.771368609406523</v>
       </c>
-      <c r="AT72" s="6" t="n">
+      <c r="AT72" s="2" t="n">
         <f aca="false">ABS(AQ72-$AQ$81)</f>
         <v>0.000188090027574001</v>
       </c>
@@ -13044,11 +13037,11 @@
         <f aca="false">AY72+AZ71</f>
         <v>1.58810569673085</v>
       </c>
-      <c r="BA72" s="6" t="n">
+      <c r="BA72" s="2" t="n">
         <f aca="false">AZ72/$AZ$80</f>
         <v>0.771151302271282</v>
       </c>
-      <c r="BB72" s="6" t="n">
+      <c r="BB72" s="2" t="n">
         <f aca="false">ABS(AY72-$AY$81)</f>
         <v>0.000223097509521999</v>
       </c>
@@ -13071,11 +13064,11 @@
         <f aca="false">BH71+BG72</f>
         <v>1.34948700054</v>
       </c>
-      <c r="BI72" s="6" t="n">
+      <c r="BI72" s="2" t="n">
         <f aca="false">BH72/$BH$80</f>
         <v>0.770962339321957</v>
       </c>
-      <c r="BJ72" s="6" t="n">
+      <c r="BJ72" s="2" t="n">
         <f aca="false">ABS(BG72-$BG$81)</f>
         <v>0.000129774299486005</v>
       </c>
@@ -13100,11 +13093,11 @@
         <f aca="false">S73+T72</f>
         <v>5.60289304958629</v>
       </c>
-      <c r="U73" s="6" t="n">
+      <c r="U73" s="2" t="n">
         <f aca="false">T73/$T$80</f>
         <v>0.800017976060877</v>
       </c>
-      <c r="V73" s="6" t="n">
+      <c r="V73" s="2" t="n">
         <f aca="false">ABS(S73-$S$81)</f>
         <v>0.000180962215527991</v>
       </c>
@@ -13127,11 +13120,11 @@
         <f aca="false">AA73+AB72</f>
         <v>3.50288052328367</v>
       </c>
-      <c r="AC73" s="6" t="n">
+      <c r="AC73" s="2" t="n">
         <f aca="false">AB73/$AB$80</f>
         <v>0.800313993866827</v>
       </c>
-      <c r="AD73" s="6" t="n">
+      <c r="AD73" s="2" t="n">
         <f aca="false">ABS(AA73-$AA$81)</f>
         <v>0.000410766484909009</v>
       </c>
@@ -13154,11 +13147,11 @@
         <f aca="false">AI73+AJ72</f>
         <v>2.54597310950199</v>
       </c>
-      <c r="AK73" s="6" t="n">
+      <c r="AK73" s="2" t="n">
         <f aca="false">AJ73/$AJ$80</f>
         <v>0.799966462409289</v>
       </c>
-      <c r="AL73" s="6" t="n">
+      <c r="AL73" s="2" t="n">
         <f aca="false">ABS(AI73-$AI$81)</f>
         <v>0.000365322923720004</v>
       </c>
@@ -13181,11 +13174,11 @@
         <f aca="false">AQ73+AR72</f>
         <v>2.0009736831856</v>
       </c>
-      <c r="AS73" s="6" t="n">
+      <c r="AS73" s="2" t="n">
         <f aca="false">AR73/$AR$80</f>
         <v>0.799963892931178</v>
       </c>
-      <c r="AT73" s="6" t="n">
+      <c r="AT73" s="2" t="n">
         <f aca="false">ABS(AQ73-$AQ$81)</f>
         <v>5.9669110122007E-005</v>
       </c>
@@ -13208,11 +13201,11 @@
         <f aca="false">AY73+AZ72</f>
         <v>1.64673721396083</v>
       </c>
-      <c r="BA73" s="6" t="n">
+      <c r="BA73" s="2" t="n">
         <f aca="false">AZ73/$AZ$80</f>
         <v>0.799621555201622</v>
       </c>
-      <c r="BB73" s="6" t="n">
+      <c r="BB73" s="2" t="n">
         <f aca="false">ABS(AY73-$AY$81)</f>
         <v>0.000208360682928996</v>
       </c>
@@ -13235,11 +13228,11 @@
         <f aca="false">BH72+BG73</f>
         <v>1.39965326352288</v>
       </c>
-      <c r="BI73" s="6" t="n">
+      <c r="BI73" s="2" t="n">
         <f aca="false">BH73/$BH$80</f>
         <v>0.799622340825377</v>
       </c>
-      <c r="BJ73" s="6" t="n">
+      <c r="BJ73" s="2" t="n">
         <f aca="false">ABS(BG73-$BG$81)</f>
         <v>0.000155037430787999</v>
       </c>
@@ -13264,11 +13257,11 @@
         <f aca="false">S74+T73</f>
         <v>5.80386968013721</v>
       </c>
-      <c r="U74" s="6" t="n">
+      <c r="U74" s="2" t="n">
         <f aca="false">T74/$T$80</f>
         <v>0.828714743210618</v>
       </c>
-      <c r="V74" s="6" t="n">
+      <c r="V74" s="2" t="n">
         <f aca="false">ABS(S74-$S$81)</f>
         <v>0.000877803587277987</v>
       </c>
@@ -13291,11 +13284,11 @@
         <f aca="false">AA74+AB73</f>
         <v>3.62809302305999</v>
       </c>
-      <c r="AC74" s="6" t="n">
+      <c r="AC74" s="2" t="n">
         <f aca="false">AB74/$AB$80</f>
         <v>0.828921682628103</v>
       </c>
-      <c r="AD74" s="6" t="n">
+      <c r="AD74" s="2" t="n">
         <f aca="false">ABS(AA74-$AA$81)</f>
         <v>0.000158706599861003</v>
       </c>
@@ -13318,11 +13311,11 @@
         <f aca="false">AI74+AJ73</f>
         <v>2.63705301362841</v>
       </c>
-      <c r="AK74" s="6" t="n">
+      <c r="AK74" s="2" t="n">
         <f aca="false">AJ74/$AJ$80</f>
         <v>0.828584544991802</v>
       </c>
-      <c r="AL74" s="6" t="n">
+      <c r="AL74" s="2" t="n">
         <f aca="false">ABS(AI74-$AI$81)</f>
         <v>0.000148481046712001</v>
       </c>
@@ -13345,11 +13338,11 @@
         <f aca="false">AQ74+AR73</f>
         <v>2.07254202890313</v>
       </c>
-      <c r="AS74" s="6" t="n">
+      <c r="AS74" s="2" t="n">
         <f aca="false">AR74/$AR$80</f>
         <v>0.828576009588152</v>
       </c>
-      <c r="AT74" s="6" t="n">
+      <c r="AT74" s="2" t="n">
         <f aca="false">ABS(AQ74-$AQ$81)</f>
         <v>0.000101774328959012</v>
       </c>
@@ -13372,11 +13365,11 @@
         <f aca="false">AY74+AZ73</f>
         <v>1.7059192569271</v>
       </c>
-      <c r="BA74" s="6" t="n">
+      <c r="BA74" s="2" t="n">
         <f aca="false">AZ74/$AZ$80</f>
         <v>0.82835913205086</v>
       </c>
-      <c r="BB74" s="6" t="n">
+      <c r="BB74" s="2" t="n">
         <f aca="false">ABS(AY74-$AY$81)</f>
         <v>0.000342165053360002</v>
       </c>
@@ -13399,11 +13392,11 @@
         <f aca="false">BH73+BG74</f>
         <v>1.44947531634177</v>
       </c>
-      <c r="BI74" s="6" t="n">
+      <c r="BI74" s="2" t="n">
         <f aca="false">BH74/$BH$80</f>
         <v>0.828085694956025</v>
       </c>
-      <c r="BJ74" s="6" t="n">
+      <c r="BJ74" s="2" t="n">
         <f aca="false">ABS(BG74-$BG$81)</f>
         <v>0.000189172733201001</v>
       </c>
@@ -13428,11 +13421,11 @@
         <f aca="false">S75+T74</f>
         <v>6.0039315748089</v>
       </c>
-      <c r="U75" s="6" t="n">
+      <c r="U75" s="2" t="n">
         <f aca="false">T75/$T$80</f>
         <v>0.857280898346128</v>
       </c>
-      <c r="V75" s="6" t="n">
+      <c r="V75" s="2" t="n">
         <f aca="false">ABS(S75-$S$81)</f>
         <v>3.69322919520076E-005</v>
       </c>
@@ -13455,11 +13448,11 @@
         <f aca="false">AA75+AB74</f>
         <v>3.75269710242412</v>
       </c>
-      <c r="AC75" s="6" t="n">
+      <c r="AC75" s="2" t="n">
         <f aca="false">AB75/$AB$80</f>
         <v>0.85739036368792</v>
       </c>
-      <c r="AD75" s="6" t="n">
+      <c r="AD75" s="2" t="n">
         <f aca="false">ABS(AA75-$AA$81)</f>
         <v>0.000449713812329014</v>
       </c>
@@ -13482,11 +13475,11 @@
         <f aca="false">AI75+AJ74</f>
         <v>2.72772239187117</v>
       </c>
-      <c r="AK75" s="6" t="n">
+      <c r="AK75" s="2" t="n">
         <f aca="false">AJ75/$AJ$80</f>
         <v>0.857073636840812</v>
       </c>
-      <c r="AL75" s="6" t="n">
+      <c r="AL75" s="2" t="n">
         <f aca="false">ABS(AI75-$AI$81)</f>
         <v>0.000262044836945002</v>
       </c>
@@ -13509,11 +13502,11 @@
         <f aca="false">AQ75+AR74</f>
         <v>2.14370826978077</v>
       </c>
-      <c r="AS75" s="6" t="n">
+      <c r="AS75" s="2" t="n">
         <f aca="false">AR75/$AR$80</f>
         <v>0.857027369831492</v>
       </c>
-      <c r="AT75" s="6" t="n">
+      <c r="AT75" s="2" t="n">
         <f aca="false">ABS(AQ75-$AQ$81)</f>
         <v>0.000300330510930993</v>
       </c>
@@ -13536,11 +13529,11 @@
         <f aca="false">AY75+AZ74</f>
         <v>1.7649265632352</v>
       </c>
-      <c r="BA75" s="6" t="n">
+      <c r="BA75" s="2" t="n">
         <f aca="false">AZ75/$AZ$80</f>
         <v>0.857011860390467</v>
       </c>
-      <c r="BB75" s="6" t="n">
+      <c r="BB75" s="2" t="n">
         <f aca="false">ABS(AY75-$AY$81)</f>
         <v>0.000167428395188005</v>
       </c>
@@ -13563,11 +13556,11 @@
         <f aca="false">BH74+BG75</f>
         <v>1.49914473774238</v>
       </c>
-      <c r="BI75" s="6" t="n">
+      <c r="BI75" s="2" t="n">
         <f aca="false">BH75/$BH$80</f>
         <v>0.856461850710366</v>
       </c>
-      <c r="BJ75" s="6" t="n">
+      <c r="BJ75" s="2" t="n">
         <f aca="false">ABS(BG75-$BG$81)</f>
         <v>0.000341804151484</v>
       </c>
@@ -13592,11 +13585,11 @@
         <f aca="false">S76+T75</f>
         <v>6.20416083772547</v>
       </c>
-      <c r="U76" s="6" t="n">
+      <c r="U76" s="2" t="n">
         <f aca="false">T76/$T$80</f>
         <v>0.885870951422101</v>
       </c>
-      <c r="V76" s="6" t="n">
+      <c r="V76" s="2" t="n">
         <f aca="false">ABS(S76-$S$81)</f>
         <v>0.000130435952927999</v>
       </c>
@@ -13619,11 +13612,11 @@
         <f aca="false">AA76+AB75</f>
         <v>3.87776644445639</v>
       </c>
-      <c r="AC76" s="6" t="n">
+      <c r="AC76" s="2" t="n">
         <f aca="false">AB76/$AB$80</f>
         <v>0.885965344754734</v>
       </c>
-      <c r="AD76" s="6" t="n">
+      <c r="AD76" s="2" t="n">
         <f aca="false">ABS(AA76-$AA$81)</f>
         <v>1.55488558109818E-005</v>
       </c>
@@ -13646,11 +13639,11 @@
         <f aca="false">AI76+AJ75</f>
         <v>2.81820019136822</v>
       </c>
-      <c r="AK76" s="6" t="n">
+      <c r="AK76" s="2" t="n">
         <f aca="false">AJ76/$AJ$80</f>
         <v>0.885502533014186</v>
       </c>
-      <c r="AL76" s="6" t="n">
+      <c r="AL76" s="2" t="n">
         <f aca="false">ABS(AI76-$AI$81)</f>
         <v>0.000453623582651996</v>
       </c>
@@ -13673,11 +13666,11 @@
         <f aca="false">AQ76+AR75</f>
         <v>2.2151355630152</v>
       </c>
-      <c r="AS76" s="6" t="n">
+      <c r="AS76" s="2" t="n">
         <f aca="false">AR76/$AR$80</f>
         <v>0.885583095495201</v>
       </c>
-      <c r="AT76" s="6" t="n">
+      <c r="AT76" s="2" t="n">
         <f aca="false">ABS(AQ76-$AQ$81)</f>
         <v>3.92781541439929E-005</v>
       </c>
@@ -13700,11 +13693,11 @@
         <f aca="false">AY76+AZ75</f>
         <v>1.82378650127737</v>
       </c>
-      <c r="BA76" s="6" t="n">
+      <c r="BA76" s="2" t="n">
         <f aca="false">AZ76/$AZ$80</f>
         <v>0.885593029746047</v>
       </c>
-      <c r="BB76" s="6" t="n">
+      <c r="BB76" s="2" t="n">
         <f aca="false">ABS(AY76-$AY$81)</f>
         <v>2.00601292589947E-005</v>
       </c>
@@ -13727,11 +13720,11 @@
         <f aca="false">BH75+BG76</f>
         <v>1.54922784291806</v>
       </c>
-      <c r="BI76" s="6" t="n">
+      <c r="BI76" s="2" t="n">
         <f aca="false">BH76/$BH$80</f>
         <v>0.885074344132902</v>
       </c>
-      <c r="BJ76" s="6" t="n">
+      <c r="BJ76" s="2" t="n">
         <f aca="false">ABS(BG76-$BG$81)</f>
         <v>7.18796235859992E-005</v>
       </c>
@@ -13756,11 +13749,11 @@
         <f aca="false">S77+T76</f>
         <v>6.4038269433401</v>
       </c>
-      <c r="U77" s="6" t="n">
+      <c r="U77" s="2" t="n">
         <f aca="false">T77/$T$80</f>
         <v>0.914380593188968</v>
       </c>
-      <c r="V77" s="6" t="n">
+      <c r="V77" s="2" t="n">
         <f aca="false">ABS(S77-$S$81)</f>
         <v>0.000432721349012011</v>
       </c>
@@ -13783,11 +13776,11 @@
         <f aca="false">AA77+AB76</f>
         <v>4.00222736607647</v>
       </c>
-      <c r="AC77" s="6" t="n">
+      <c r="AC77" s="2" t="n">
         <f aca="false">AB77/$AB$80</f>
         <v>0.914401318120088</v>
       </c>
-      <c r="AD77" s="6" t="n">
+      <c r="AD77" s="2" t="n">
         <f aca="false">ABS(AA77-$AA$81)</f>
         <v>0.000592871556379007</v>
       </c>
@@ -13810,11 +13803,11 @@
         <f aca="false">AI77+AJ76</f>
         <v>2.90914220090295</v>
       </c>
-      <c r="AK77" s="6" t="n">
+      <c r="AK77" s="2" t="n">
         <f aca="false">AJ77/$AJ$80</f>
         <v>0.914077287940061</v>
       </c>
-      <c r="AL77" s="6" t="n">
+      <c r="AL77" s="2" t="n">
         <f aca="false">ABS(AI77-$AI$81)</f>
         <v>1.05864550219992E-005</v>
       </c>
@@ -13837,11 +13830,11 @@
         <f aca="false">AQ77+AR76</f>
         <v>2.28669127716708</v>
       </c>
-      <c r="AS77" s="6" t="n">
+      <c r="AS77" s="2" t="n">
         <f aca="false">AR77/$AR$80</f>
         <v>0.91419016221248</v>
       </c>
-      <c r="AT77" s="6" t="n">
+      <c r="AT77" s="2" t="n">
         <f aca="false">ABS(AQ77-$AQ$81)</f>
         <v>8.91427633080005E-005</v>
       </c>
@@ -13864,11 +13857,11 @@
         <f aca="false">AY77+AZ76</f>
         <v>1.88258538675223</v>
       </c>
-      <c r="BA77" s="6" t="n">
+      <c r="BA77" s="2" t="n">
         <f aca="false">AZ77/$AZ$80</f>
         <v>0.914144553236817</v>
       </c>
-      <c r="BB77" s="6" t="n">
+      <c r="BB77" s="2" t="n">
         <f aca="false">ABS(AY77-$AY$81)</f>
         <v>4.09924380539994E-005</v>
       </c>
@@ -13891,11 +13884,11 @@
         <f aca="false">BH76+BG77</f>
         <v>1.59924463237407</v>
       </c>
-      <c r="BI77" s="6" t="n">
+      <c r="BI77" s="2" t="n">
         <f aca="false">BH77/$BH$80</f>
         <v>0.913648951364354</v>
       </c>
-      <c r="BJ77" s="6" t="n">
+      <c r="BJ77" s="2" t="n">
         <f aca="false">ABS(BG77-$BG$81)</f>
         <v>5.56390391800304E-006</v>
       </c>
@@ -13920,11 +13913,11 @@
         <f aca="false">S78+T77</f>
         <v>6.60401725892924</v>
       </c>
-      <c r="U78" s="6" t="n">
+      <c r="U78" s="2" t="n">
         <f aca="false">T78/$T$80</f>
         <v>0.942965085108984</v>
       </c>
-      <c r="V78" s="6" t="n">
+      <c r="V78" s="2" t="n">
         <f aca="false">ABS(S78-$S$81)</f>
         <v>9.14886254979874E-005</v>
       </c>
@@ -13947,11 +13940,11 @@
         <f aca="false">AA78+AB77</f>
         <v>4.1270882872755</v>
       </c>
-      <c r="AC78" s="6" t="n">
+      <c r="AC78" s="2" t="n">
         <f aca="false">AB78/$AB$80</f>
         <v>0.942928680631731</v>
       </c>
-      <c r="AD78" s="6" t="n">
+      <c r="AD78" s="2" t="n">
         <f aca="false">ABS(AA78-$AA$81)</f>
         <v>0.00019287197742901</v>
       </c>
@@ -13974,11 +13967,11 @@
         <f aca="false">AI78+AJ77</f>
         <v>2.99993789480222</v>
       </c>
-      <c r="AK78" s="6" t="n">
+      <c r="AK78" s="2" t="n">
         <f aca="false">AJ78/$AJ$80</f>
         <v>0.942606069245533</v>
       </c>
-      <c r="AL78" s="6" t="n">
+      <c r="AL78" s="2" t="n">
         <f aca="false">ABS(AI78-$AI$81)</f>
         <v>0.000135729180435001</v>
       </c>
@@ -14001,11 +13994,11 @@
         <f aca="false">AQ78+AR77</f>
         <v>2.3581006756835</v>
       </c>
-      <c r="AS78" s="6" t="n">
+      <c r="AS78" s="2" t="n">
         <f aca="false">AR78/$AR$80</f>
         <v>0.942738733794954</v>
       </c>
-      <c r="AT78" s="6" t="n">
+      <c r="AT78" s="2" t="n">
         <f aca="false">ABS(AQ78-$AQ$81)</f>
         <v>5.7172872149E-005</v>
       </c>
@@ -14028,11 +14021,11 @@
         <f aca="false">AY78+AZ77</f>
         <v>1.94160321936503</v>
       </c>
-      <c r="BA78" s="6" t="n">
+      <c r="BA78" s="2" t="n">
         <f aca="false">AZ78/$AZ$80</f>
         <v>0.942802392932425</v>
       </c>
-      <c r="BB78" s="6" t="n">
+      <c r="BB78" s="2" t="n">
         <f aca="false">ABS(AY78-$AY$81)</f>
         <v>0.000177954699897002</v>
       </c>
@@ -14055,11 +14048,11 @@
         <f aca="false">BH77+BG78</f>
         <v>1.64988773696027</v>
       </c>
-      <c r="BI78" s="6" t="n">
+      <c r="BI78" s="2" t="n">
         <f aca="false">BH78/$BH$80</f>
         <v>0.942581372622717</v>
       </c>
-      <c r="BJ78" s="6" t="n">
+      <c r="BJ78" s="2" t="n">
         <f aca="false">ABS(BG78-$BG$81)</f>
         <v>0.000631879034112999</v>
       </c>
@@ -14084,11 +14077,11 @@
         <f aca="false">S79+T78</f>
         <v>6.80394546953112</v>
       </c>
-      <c r="U79" s="6" t="n">
+      <c r="U79" s="2" t="n">
         <f aca="false">T79/$T$80</f>
         <v>0.971512151952425</v>
       </c>
-      <c r="V79" s="6" t="n">
+      <c r="V79" s="2" t="n">
         <f aca="false">ABS(S79-$S$81)</f>
         <v>0.000170616361761994</v>
       </c>
@@ -14111,11 +14104,11 @@
         <f aca="false">AA79+AB78</f>
         <v>4.25178078759918</v>
       </c>
-      <c r="AC79" s="6" t="n">
+      <c r="AC79" s="2" t="n">
         <f aca="false">AB79/$AB$80</f>
         <v>0.971417563502831</v>
       </c>
-      <c r="AD79" s="6" t="n">
+      <c r="AD79" s="2" t="n">
         <f aca="false">ABS(AA79-$AA$81)</f>
         <v>0.000361292852779013</v>
       </c>
@@ -14138,11 +14131,11 @@
         <f aca="false">AI79+AJ78</f>
         <v>3.09145148268265</v>
       </c>
-      <c r="AK79" s="6" t="n">
+      <c r="AK79" s="2" t="n">
         <f aca="false">AJ79/$AJ$80</f>
         <v>0.971360418961902</v>
       </c>
-      <c r="AL79" s="6" t="n">
+      <c r="AL79" s="2" t="n">
         <f aca="false">ABS(AI79-$AI$81)</f>
         <v>0.000582164800729007</v>
       </c>
@@ -14165,11 +14158,11 @@
         <f aca="false">AQ79+AR78</f>
         <v>2.42986691592956</v>
       </c>
-      <c r="AS79" s="6" t="n">
+      <c r="AS79" s="2" t="n">
         <f aca="false">AR79/$AR$80</f>
         <v>0.971429966173821</v>
       </c>
-      <c r="AT79" s="6" t="n">
+      <c r="AT79" s="2" t="n">
         <f aca="false">ABS(AQ79-$AQ$81)</f>
         <v>0.000299668857491012</v>
       </c>
@@ -14192,11 +14185,11 @@
         <f aca="false">AY79+AZ78</f>
         <v>2.00042526271025</v>
       </c>
-      <c r="BA79" s="6" t="n">
+      <c r="BA79" s="2" t="n">
         <f aca="false">AZ79/$AZ$80</f>
         <v>0.9713651614064</v>
       </c>
-      <c r="BB79" s="6" t="n">
+      <c r="BB79" s="2" t="n">
         <f aca="false">ABS(AY79-$AY$81)</f>
         <v>1.78345676929981E-005</v>
       </c>
@@ -14219,11 +14212,11 @@
         <f aca="false">BH78+BG79</f>
         <v>1.70022557870991</v>
       </c>
-      <c r="BI79" s="6" t="n">
+      <c r="BI79" s="2" t="n">
         <f aca="false">BH79/$BH$80</f>
         <v>0.971339397128467</v>
       </c>
-      <c r="BJ79" s="6" t="n">
+      <c r="BJ79" s="2" t="n">
         <f aca="false">ABS(BG79-$BG$81)</f>
         <v>0.000326616197546994</v>
       </c>
@@ -14248,11 +14241,11 @@
         <f aca="false">S80+T79</f>
         <v>7.00345894372746</v>
       </c>
-      <c r="U80" s="6" t="n">
+      <c r="U80" s="2" t="n">
         <f aca="false">T80/$T$80</f>
         <v>1</v>
       </c>
-      <c r="V80" s="6" t="n">
+      <c r="V80" s="2" t="n">
         <f aca="false">ABS(S80-$S$81)</f>
         <v>0.000585352767302011</v>
       </c>
@@ -14279,7 +14272,7 @@
         <f aca="false">AB80/$AB$80</f>
         <v>1</v>
       </c>
-      <c r="AD80" s="6" t="n">
+      <c r="AD80" s="2" t="n">
         <f aca="false">ABS(AA80-$AA$81)</f>
         <v>4.81804004109909E-005</v>
       </c>
@@ -14302,11 +14295,11 @@
         <f aca="false">AI80+AJ79</f>
         <v>3.18259980778968</v>
       </c>
-      <c r="AK80" s="6" t="n">
+      <c r="AK80" s="2" t="n">
         <f aca="false">AJ80/$AJ$80</f>
         <v>1</v>
       </c>
-      <c r="AL80" s="6" t="n">
+      <c r="AL80" s="2" t="n">
         <f aca="false">ABS(AI80-$AI$81)</f>
         <v>0.000216902027320998</v>
       </c>
@@ -14329,11 +14322,11 @@
         <f aca="false">AQ80+AR79</f>
         <v>2.5013299986</v>
       </c>
-      <c r="AS80" s="6" t="n">
+      <c r="AS80" s="2" t="n">
         <f aca="false">AR80/$AR$80</f>
         <v>1</v>
       </c>
-      <c r="AT80" s="6" t="n">
+      <c r="AT80" s="2" t="n">
         <f aca="false">ABS(AQ80-$AQ$81)</f>
         <v>3.48871813299345E-006</v>
       </c>
@@ -14356,11 +14349,11 @@
         <f aca="false">AY80+AZ79</f>
         <v>2.05939572695187</v>
       </c>
-      <c r="BA80" s="6" t="n">
+      <c r="BA80" s="2" t="n">
         <f aca="false">AZ80/$AZ$80</f>
         <v>1</v>
       </c>
-      <c r="BB80" s="6" t="n">
+      <c r="BB80" s="2" t="n">
         <f aca="false">ABS(AY80-$AY$81)</f>
         <v>0.000130586328706002</v>
       </c>
@@ -14383,94 +14376,94 @@
         <f aca="false">BH79+BG80</f>
         <v>1.75039289432327</v>
       </c>
-      <c r="BI80" s="6" t="n">
+      <c r="BI80" s="2" t="n">
         <f aca="false">BH80/$BH$80</f>
         <v>1</v>
       </c>
-      <c r="BJ80" s="6" t="n">
+      <c r="BJ80" s="2" t="n">
         <f aca="false">ABS(BG80-$BG$81)</f>
         <v>0.000156090061259002</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S81" s="6" t="n">
+      <c r="S81" s="2" t="n">
         <v>0.200098826963642</v>
       </c>
-      <c r="U81" s="4" t="s">
+      <c r="U81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="9" t="n">
+      <c r="V81" s="7" t="n">
         <f aca="false">SUM(V46:V80)/(35*2*S81)</f>
         <v>0.000871242040811546</v>
       </c>
-      <c r="AA81" s="6" t="n">
+      <c r="AA81" s="2" t="n">
         <v>0.125053793176459</v>
       </c>
-      <c r="AC81" s="4" t="s">
+      <c r="AC81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AD81" s="9" t="n">
+      <c r="AD81" s="7" t="n">
         <f aca="false">SUM(AD46:AD80)/(35*2*AA81)</f>
         <v>0.00117354658017532</v>
       </c>
-      <c r="AI81" s="6" t="n">
+      <c r="AI81" s="2" t="n">
         <v>0.090931423079705</v>
       </c>
-      <c r="AK81" s="4" t="s">
+      <c r="AK81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL81" s="9" t="n">
+      <c r="AL81" s="7" t="n">
         <f aca="false">SUM(AL46:AL80)/(35*2*AI81)</f>
         <v>0.00145497767444408</v>
       </c>
-      <c r="AQ81" s="6" t="n">
+      <c r="AQ81" s="2" t="n">
         <v>0.071466571388572</v>
       </c>
-      <c r="AS81" s="4" t="s">
+      <c r="AS81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AT81" s="9" t="n">
+      <c r="AT81" s="7" t="n">
         <f aca="false">SUM(AT46:AT80)/(35*2*AQ81)</f>
         <v>0.0017095248235204</v>
       </c>
-      <c r="AY81" s="6" t="n">
+      <c r="AY81" s="2" t="n">
         <v>0.058839877912911</v>
       </c>
-      <c r="BA81" s="4" t="s">
+      <c r="BA81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BB81" s="9" t="n">
+      <c r="BB81" s="7" t="n">
         <f aca="false">SUM(BB46:BB80)/(35*2*AY81)</f>
         <v>0.00180793042947932</v>
       </c>
-      <c r="BG81" s="6" t="n">
+      <c r="BG81" s="2" t="n">
         <v>0.050011225552093</v>
       </c>
-      <c r="BI81" s="4" t="s">
+      <c r="BI81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BJ81" s="9" t="n">
+      <c r="BJ81" s="7" t="n">
         <f aca="false">SUM(BJ46:BJ80)/(35*2*BG81)</f>
         <v>0.00192085566091488</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S82" s="8" t="n">
+      <c r="S82" s="6" t="n">
         <v>1.4179597864715E-005</v>
       </c>
-      <c r="AA82" s="8" t="n">
+      <c r="AA82" s="6" t="n">
         <v>1.2306756305239E-005</v>
       </c>
-      <c r="AI82" s="8" t="n">
+      <c r="AI82" s="6" t="n">
         <v>1.19957552431995E-006</v>
       </c>
-      <c r="AQ82" s="8" t="n">
+      <c r="AQ82" s="6" t="n">
         <v>2.85471634035466E-005</v>
       </c>
-      <c r="AY82" s="8" t="n">
+      <c r="AY82" s="6" t="n">
         <v>2.51534924759723E-006</v>
       </c>
-      <c r="BG82" s="8" t="n">
+      <c r="BG82" s="6" t="n">
         <v>3.48594596813201E-006</v>
       </c>
     </row>
@@ -14483,8 +14476,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/excel/insights/throughtputInsights.xlsx
+++ b/excel/insights/throughtputInsights.xlsx
@@ -1389,6 +1389,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1413,13 +1414,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1483,7 +1483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1496,23 +1496,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1680,6 +1672,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1789,6 +1782,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1860,11 +1854,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25683197"/>
-        <c:axId val="52367138"/>
+        <c:axId val="37417436"/>
+        <c:axId val="55862812"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25683197"/>
+        <c:axId val="37417436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +1914,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52367138"/>
+        <c:crossAx val="55862812"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1928,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52367138"/>
+        <c:axId val="55862812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1965,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1993,7 +1987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25683197"/>
+        <c:crossAx val="37417436"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2034,7 +2028,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -2048,11 +2042,11 @@
       <xdr:col>73</xdr:col>
       <xdr:colOff>115560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
@@ -2062,8 +2056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="62274960" y="570960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="62922600" y="571320"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2083,15 +2077,15 @@
   </sheetPr>
   <dimension ref="B2:BS82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BX44" activeCellId="0" sqref="BX44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U42" activeCellId="0" sqref="U42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="29.03"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,7 +2148,6 @@
       <c r="B4" s="0" t="n">
         <v>0.050225210289252</v>
       </c>
-      <c r="C4" s="3"/>
       <c r="H4" s="2"/>
       <c r="J4" s="1"/>
       <c r="O4" s="0" t="s">
@@ -2163,7 +2156,7 @@
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R4" s="0" t="s">
@@ -2196,7 +2189,7 @@
       <c r="AF4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AH4" s="0" t="s">
@@ -2211,7 +2204,7 @@
       <c r="AN4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AP4" s="0" t="s">
@@ -2226,7 +2219,7 @@
       <c r="AV4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="AW4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AX4" s="0" t="s">
@@ -2241,7 +2234,7 @@
       <c r="BD4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BE4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BF4" s="0" t="s">
@@ -2293,11 +2286,11 @@
       <c r="B6" s="0" t="n">
         <v>0.050071526240499</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="4" t="n">
         <f aca="false">C3-H3</f>
         <v>0.0500077396061252</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="4" t="n">
         <f aca="false">C3+H3</f>
         <v>0.0500147114980615</v>
       </c>
@@ -2321,11 +2314,11 @@
         <f aca="false">T5+S6</f>
         <v>1.197860844357</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="2" t="n">
         <f aca="false">T6/$T$40</f>
         <v>0.0285174137008354</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="V6" s="2" t="n">
         <f aca="false">ABS(S6-$S$41)</f>
         <v>0.00226886979217</v>
       </c>
@@ -2348,11 +2341,11 @@
         <f aca="false">AB5+AA6</f>
         <v>0.74850342262798</v>
       </c>
-      <c r="AC6" s="6" t="n">
+      <c r="AC6" s="2" t="n">
         <f aca="false">AB6/$AB$40</f>
         <v>0.0285087929431138</v>
       </c>
-      <c r="AD6" s="6" t="n">
+      <c r="AD6" s="2" t="n">
         <f aca="false">ABS(AA6-$AA$41)</f>
         <v>0.00164450954712914</v>
       </c>
@@ -2375,11 +2368,11 @@
         <f aca="false">AJ5+AI6</f>
         <v>0.54580784651806</v>
       </c>
-      <c r="AK6" s="6" t="n">
+      <c r="AK6" s="2" t="n">
         <f aca="false">AJ6/$AJ$40</f>
         <v>0.0285851240680872</v>
       </c>
-      <c r="AL6" s="6" t="n">
+      <c r="AL6" s="2" t="n">
         <f aca="false">ABS(AI6-$AI$41)</f>
         <v>0.000261503484135006</v>
       </c>
@@ -2402,11 +2395,11 @@
         <f aca="false">AR5+AQ6</f>
         <v>0.42680060336779</v>
       </c>
-      <c r="AS6" s="6" t="n">
+      <c r="AS6" s="2" t="n">
         <f aca="false">AR6/$AR$40</f>
         <v>0.0284478496899765</v>
       </c>
-      <c r="AT6" s="6" t="n">
+      <c r="AT6" s="2" t="n">
         <f aca="false">ABS(AQ6-$AQ$41)</f>
         <v>0.00185404316115401</v>
       </c>
@@ -2429,11 +2422,11 @@
         <f aca="false">AZ5+AY6</f>
         <v>0.35293226007131</v>
       </c>
-      <c r="BA6" s="6" t="n">
+      <c r="BA6" s="2" t="n">
         <f aca="false">AZ6/$AZ$40</f>
         <v>0.0285586301301958</v>
       </c>
-      <c r="BB6" s="6" t="n">
+      <c r="BB6" s="2" t="n">
         <f aca="false">ABS(AY6-$AY$41)</f>
         <v>0.000158165247039987</v>
       </c>
@@ -2456,11 +2449,11 @@
         <f aca="false">BH5+BG6</f>
         <v>0.2988617906718</v>
       </c>
-      <c r="BI6" s="6" t="n">
+      <c r="BI6" s="2" t="n">
         <f aca="false">BH6/$BH$40</f>
         <v>0.0284553497388477</v>
       </c>
-      <c r="BJ6" s="6" t="n">
+      <c r="BJ6" s="2" t="n">
         <f aca="false">ABS(BG6-$BG$41)</f>
         <v>0.00121915661141403</v>
       </c>
@@ -2491,7 +2484,7 @@
       <c r="P7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R7" s="0" t="s">
@@ -2504,11 +2497,11 @@
         <f aca="false">T6+S7</f>
         <v>2.3962153724049</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="2" t="n">
         <f aca="false">T7/$T$40</f>
         <v>0.0570465805048105</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="V7" s="2" t="n">
         <f aca="false">ABS(S7-$S$41)</f>
         <v>0.00177518610127003</v>
       </c>
@@ -2531,11 +2524,11 @@
         <f aca="false">AB6+AA7</f>
         <v>1.49710579252022</v>
       </c>
-      <c r="AC7" s="6" t="n">
+      <c r="AC7" s="2" t="n">
         <f aca="false">AB7/$AB$40</f>
         <v>0.0570213545624738</v>
       </c>
-      <c r="AD7" s="6" t="n">
+      <c r="AD7" s="2" t="n">
         <f aca="false">ABS(AA7-$AA$41)</f>
         <v>0.00154556228286906</v>
       </c>
@@ -2558,11 +2551,11 @@
         <f aca="false">AJ6+AI7</f>
         <v>1.09237042908376</v>
       </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AK7" s="2" t="n">
         <f aca="false">AJ7/$AJ$40</f>
         <v>0.0572097752769037</v>
       </c>
-      <c r="AL7" s="6" t="n">
+      <c r="AL7" s="2" t="n">
         <f aca="false">ABS(AI7-$AI$41)</f>
         <v>0.00101623953177499</v>
       </c>
@@ -2585,11 +2578,11 @@
         <f aca="false">AR6+AQ7</f>
         <v>0.85402857470677</v>
       </c>
-      <c r="AS7" s="6" t="n">
+      <c r="AS7" s="2" t="n">
         <f aca="false">AR7/$AR$40</f>
         <v>0.0569241850468214</v>
       </c>
-      <c r="AT7" s="6" t="n">
+      <c r="AT7" s="2" t="n">
         <f aca="false">ABS(AQ7-$AQ$41)</f>
         <v>0.00142667518996403</v>
       </c>
@@ -2612,11 +2605,11 @@
         <f aca="false">AZ6+AY7</f>
         <v>0.70610346725951</v>
       </c>
-      <c r="BA7" s="6" t="n">
+      <c r="BA7" s="2" t="n">
         <f aca="false">AZ7/$AZ$40</f>
         <v>0.0571365954221322</v>
       </c>
-      <c r="BB7" s="6" t="n">
+      <c r="BB7" s="2" t="n">
         <f aca="false">ABS(AY7-$AY$41)</f>
         <v>8.07818698499996E-005</v>
       </c>
@@ -2639,11 +2632,11 @@
         <f aca="false">BH6+BG7</f>
         <v>0.59800884420122</v>
       </c>
-      <c r="BI7" s="6" t="n">
+      <c r="BI7" s="2" t="n">
         <f aca="false">BH7/$BH$40</f>
         <v>0.0569378600403182</v>
       </c>
-      <c r="BJ7" s="6" t="n">
+      <c r="BJ7" s="2" t="n">
         <f aca="false">ABS(BG7-$BG$41)</f>
         <v>0.000933893753794046</v>
       </c>
@@ -2651,17 +2644,17 @@
         <f aca="false">1/35+BK6</f>
         <v>0.0571428571428571</v>
       </c>
-      <c r="BN7" s="7" t="s">
+      <c r="BN7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BO7" s="7"/>
+      <c r="BO7" s="5"/>
       <c r="BP7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="BQ7" s="6" t="n">
+      <c r="BQ7" s="2" t="n">
         <v>1.20012971414917</v>
       </c>
-      <c r="BR7" s="6" t="n">
+      <c r="BR7" s="2" t="n">
         <v>0.000128911648938</v>
       </c>
       <c r="BS7" s="0" t="n">
@@ -2672,7 +2665,7 @@
       <c r="B8" s="0" t="n">
         <v>0.049898894843269</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="O8" s="0" t="s">
         <v>42</v>
       </c>
@@ -2692,11 +2685,11 @@
         <f aca="false">T7+S8</f>
         <v>3.5946583214123</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="2" t="n">
         <f aca="false">T8/$T$40</f>
         <v>0.0855778523421822</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="V8" s="2" t="n">
         <f aca="false">ABS(S8-$S$41)</f>
         <v>0.00168676514177002</v>
       </c>
@@ -2719,11 +2712,11 @@
         <f aca="false">AB7+AA8</f>
         <v>2.24617553034155</v>
       </c>
-      <c r="AC8" s="6" t="n">
+      <c r="AC8" s="2" t="n">
         <f aca="false">AB8/$AB$40</f>
         <v>0.0855517171632534</v>
       </c>
-      <c r="AD8" s="6" t="n">
+      <c r="AD8" s="2" t="n">
         <f aca="false">ABS(AA8-$AA$41)</f>
         <v>0.00107819435377909</v>
       </c>
@@ -2746,11 +2739,11 @@
         <f aca="false">AJ7+AI8</f>
         <v>1.63820459136359</v>
       </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AK8" s="2" t="n">
         <f aca="false">AJ8/$AJ$40</f>
         <v>0.0857962775577079</v>
       </c>
-      <c r="AL8" s="6" t="n">
+      <c r="AL8" s="2" t="n">
         <f aca="false">ABS(AI8-$AI$41)</f>
         <v>0.00028781924590493</v>
       </c>
@@ -2773,11 +2766,11 @@
         <f aca="false">AR7+AQ8</f>
         <v>1.28146286161805</v>
       </c>
-      <c r="AS8" s="6" t="n">
+      <c r="AS8" s="2" t="n">
         <f aca="false">AR8/$AR$40</f>
         <v>0.085414272104913</v>
       </c>
-      <c r="AT8" s="6" t="n">
+      <c r="AT8" s="2" t="n">
         <f aca="false">ABS(AQ8-$AQ$41)</f>
         <v>0.00122035961766404</v>
       </c>
@@ -2800,11 +2793,11 @@
         <f aca="false">AZ7+AY8</f>
         <v>1.05983783174965</v>
       </c>
-      <c r="BA8" s="6" t="n">
+      <c r="BA8" s="2" t="n">
         <f aca="false">AZ8/$AZ$40</f>
         <v>0.0857601303683925</v>
       </c>
-      <c r="BB8" s="6" t="n">
+      <c r="BB8" s="2" t="n">
         <f aca="false">ABS(AY8-$AY$41)</f>
         <v>0.000643939171790009</v>
       </c>
@@ -2827,11 +2820,11 @@
         <f aca="false">BH7+BG8</f>
         <v>0.89718221349241</v>
       </c>
-      <c r="BI8" s="6" t="n">
+      <c r="BI8" s="2" t="n">
         <f aca="false">BH8/$BH$40</f>
         <v>0.0854228759287462</v>
       </c>
-      <c r="BJ8" s="6" t="n">
+      <c r="BJ8" s="2" t="n">
         <f aca="false">ABS(BG8-$BG$41)</f>
         <v>0.000907577992024067</v>
       </c>
@@ -2839,15 +2832,15 @@
         <f aca="false">1/35+BK7</f>
         <v>0.0857142857142857</v>
       </c>
-      <c r="BN8" s="7"/>
-      <c r="BO8" s="7"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
       <c r="BP8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="BQ8" s="6" t="n">
+      <c r="BQ8" s="2" t="n">
         <v>0.750147932175109</v>
       </c>
-      <c r="BR8" s="8" t="n">
+      <c r="BR8" s="6" t="n">
         <v>9.34370223213494E-005</v>
       </c>
       <c r="BS8" s="0" t="n">
@@ -2864,7 +2857,7 @@
       <c r="P9" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R9" s="0" t="s">
@@ -2877,11 +2870,11 @@
         <f aca="false">T8+S9</f>
         <v>4.793182322966</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="2" t="n">
         <f aca="false">T9/$T$40</f>
         <v>0.114111053793503</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="2" t="n">
         <f aca="false">ABS(S9-$S$41)</f>
         <v>0.00160571259547004</v>
       </c>
@@ -2904,11 +2897,11 @@
         <f aca="false">AB8+AA9</f>
         <v>2.99528000496842</v>
       </c>
-      <c r="AC9" s="6" t="n">
+      <c r="AC9" s="2" t="n">
         <f aca="false">AB9/$AB$40</f>
         <v>0.114083402809949</v>
       </c>
-      <c r="AD9" s="6" t="n">
+      <c r="AD9" s="2" t="n">
         <f aca="false">ABS(AA9-$AA$41)</f>
         <v>0.00104345754823909</v>
       </c>
@@ -2931,11 +2924,11 @@
         <f aca="false">AJ8+AI9</f>
         <v>2.18477664760353</v>
       </c>
-      <c r="AK9" s="6" t="n">
+      <c r="AK9" s="2" t="n">
         <f aca="false">AJ9/$AJ$40</f>
         <v>0.114421424923103</v>
       </c>
-      <c r="AL9" s="6" t="n">
+      <c r="AL9" s="2" t="n">
         <f aca="false">ABS(AI9-$AI$41)</f>
         <v>0.00102571320601497</v>
       </c>
@@ -2958,11 +2951,11 @@
         <f aca="false">AR8+AQ9</f>
         <v>1.70927714812933</v>
       </c>
-      <c r="AS9" s="6" t="n">
+      <c r="AS9" s="2" t="n">
         <f aca="false">AR9/$AR$40</f>
         <v>0.113929687551526</v>
       </c>
-      <c r="AT9" s="6" t="n">
+      <c r="AT9" s="2" t="n">
         <f aca="false">ABS(AQ9-$AQ$41)</f>
         <v>0.000840360017664021</v>
       </c>
@@ -2985,11 +2978,11 @@
         <f aca="false">AZ8+AY9</f>
         <v>1.41325324920711</v>
       </c>
-      <c r="BA9" s="6" t="n">
+      <c r="BA9" s="2" t="n">
         <f aca="false">AZ9/$AZ$40</f>
         <v>0.114357856706691</v>
       </c>
-      <c r="BB9" s="6" t="n">
+      <c r="BB9" s="2" t="n">
         <f aca="false">ABS(AY9-$AY$41)</f>
         <v>0.000324992139110025</v>
       </c>
@@ -3012,11 +3005,11 @@
         <f aca="false">BH8+BG9</f>
         <v>1.19647347739634</v>
       </c>
-      <c r="BI9" s="6" t="n">
+      <c r="BI9" s="2" t="n">
         <f aca="false">BH9/$BH$40</f>
         <v>0.113919116846745</v>
       </c>
-      <c r="BJ9" s="6" t="n">
+      <c r="BJ9" s="2" t="n">
         <f aca="false">ABS(BG9-$BG$41)</f>
         <v>0.000789683379284034</v>
       </c>
@@ -3024,15 +3017,15 @@
         <f aca="false">1/35+BK8</f>
         <v>0.114285714285714</v>
       </c>
-      <c r="BN9" s="7"/>
-      <c r="BO9" s="7"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
       <c r="BP9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="BQ9" s="6" t="n">
+      <c r="BQ9" s="2" t="n">
         <v>0.545546343033925</v>
       </c>
-      <c r="BR9" s="8" t="n">
+      <c r="BR9" s="6" t="n">
         <v>1.48579902907392E-005</v>
       </c>
       <c r="BS9" s="0" t="n">
@@ -3062,11 +3055,11 @@
         <f aca="false">T9+S10</f>
         <v>5.9918431664809</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="U10" s="2" t="n">
         <f aca="false">T10/$T$40</f>
         <v>0.142647513034606</v>
       </c>
-      <c r="V10" s="6" t="n">
+      <c r="V10" s="2" t="n">
         <f aca="false">ABS(S10-$S$41)</f>
         <v>0.00146887063427004</v>
       </c>
@@ -3089,11 +3082,11 @@
         <f aca="false">AB9+AA10</f>
         <v>3.74450132157756</v>
       </c>
-      <c r="AC10" s="6" t="n">
+      <c r="AC10" s="2" t="n">
         <f aca="false">AB10/$AB$40</f>
         <v>0.142619538702</v>
       </c>
-      <c r="AD10" s="6" t="n">
+      <c r="AD10" s="2" t="n">
         <f aca="false">ABS(AA10-$AA$41)</f>
         <v>0.000926615565969069</v>
       </c>
@@ -3116,11 +3109,11 @@
         <f aca="false">AJ9+AI10</f>
         <v>2.73089607274098</v>
       </c>
-      <c r="AK10" s="6" t="n">
+      <c r="AK10" s="2" t="n">
         <f aca="false">AJ10/$AJ$40</f>
         <v>0.143022867029762</v>
       </c>
-      <c r="AL10" s="6" t="n">
+      <c r="AL10" s="2" t="n">
         <f aca="false">ABS(AI10-$AI$41)</f>
         <v>0.000573082103525024</v>
       </c>
@@ -3143,11 +3136,11 @@
         <f aca="false">AR9+AQ10</f>
         <v>2.13714196090321</v>
       </c>
-      <c r="AS10" s="6" t="n">
+      <c r="AS10" s="2" t="n">
         <f aca="false">AR10/$AR$40</f>
         <v>0.142448470761709</v>
       </c>
-      <c r="AT10" s="6" t="n">
+      <c r="AT10" s="2" t="n">
         <f aca="false">ABS(AQ10-$AQ$41)</f>
         <v>0.000789833755064029</v>
       </c>
@@ -3170,11 +3163,11 @@
         <f aca="false">AZ9+AY10</f>
         <v>1.76596235161858</v>
       </c>
-      <c r="BA10" s="6" t="n">
+      <c r="BA10" s="2" t="n">
         <f aca="false">AZ10/$AZ$40</f>
         <v>0.142898429329004</v>
       </c>
-      <c r="BB10" s="6" t="n">
+      <c r="BB10" s="2" t="n">
         <f aca="false">ABS(AY10-$AY$41)</f>
         <v>0.000381322906879977</v>
       </c>
@@ -3197,11 +3190,11 @@
         <f aca="false">BH9+BG10</f>
         <v>1.49578263601828</v>
       </c>
-      <c r="BI10" s="6" t="n">
+      <c r="BI10" s="2" t="n">
         <f aca="false">BH10/$BH$40</f>
         <v>0.142417061563875</v>
       </c>
-      <c r="BJ10" s="6" t="n">
+      <c r="BJ10" s="2" t="n">
         <f aca="false">ABS(BG10-$BG$41)</f>
         <v>0.000771788661274031</v>
       </c>
@@ -3209,15 +3202,15 @@
         <f aca="false">1/35+BK9</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
       <c r="BP10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="BQ10" s="6" t="n">
+      <c r="BQ10" s="2" t="n">
         <v>0.428654646528944</v>
       </c>
-      <c r="BR10" s="6" t="n">
+      <c r="BR10" s="2" t="n">
         <v>0.000105342211321</v>
       </c>
       <c r="BS10" s="0" t="n">
@@ -3234,7 +3227,7 @@
       <c r="P11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="0" t="s">
@@ -3247,11 +3240,11 @@
         <f aca="false">T10+S11</f>
         <v>7.190640851957</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="U11" s="2" t="n">
         <f aca="false">T11/$T$40</f>
         <v>0.171187230065491</v>
       </c>
-      <c r="V11" s="6" t="n">
+      <c r="V11" s="2" t="n">
         <f aca="false">ABS(S11-$S$41)</f>
         <v>0.00133202867307003</v>
       </c>
@@ -3274,11 +3267,11 @@
         <f aca="false">AB10+AA11</f>
         <v>4.4938384275385</v>
       </c>
-      <c r="AC11" s="6" t="n">
+      <c r="AC11" s="2" t="n">
         <f aca="false">AB11/$AB$40</f>
         <v>0.171160084747105</v>
       </c>
-      <c r="AD11" s="6" t="n">
+      <c r="AD11" s="2" t="n">
         <f aca="false">ABS(AA11-$AA$41)</f>
         <v>0.000810826214169058</v>
       </c>
@@ -3301,11 +3294,11 @@
         <f aca="false">AJ10+AI11</f>
         <v>3.27696918213771</v>
       </c>
-      <c r="AK11" s="6" t="n">
+      <c r="AK11" s="2" t="n">
         <f aca="false">AJ11/$AJ$40</f>
         <v>0.171621883482038</v>
       </c>
-      <c r="AL11" s="6" t="n">
+      <c r="AL11" s="2" t="n">
         <f aca="false">ABS(AI11-$AI$41)</f>
         <v>0.00052676636280502</v>
       </c>
@@ -3328,11 +3321,11 @@
         <f aca="false">AR10+AQ11</f>
         <v>2.56504361574357</v>
       </c>
-      <c r="AS11" s="6" t="n">
+      <c r="AS11" s="2" t="n">
         <f aca="false">AR11/$AR$40</f>
         <v>0.170969709632828</v>
       </c>
-      <c r="AT11" s="6" t="n">
+      <c r="AT11" s="2" t="n">
         <f aca="false">ABS(AQ11-$AQ$41)</f>
         <v>0.000752991688584004</v>
       </c>
@@ -3355,11 +3348,11 @@
         <f aca="false">AZ10+AY11</f>
         <v>2.11908197991371</v>
       </c>
-      <c r="BA11" s="6" t="n">
+      <c r="BA11" s="2" t="n">
         <f aca="false">AZ11/$AZ$40</f>
         <v>0.171472220951667</v>
       </c>
-      <c r="BB11" s="6" t="n">
+      <c r="BB11" s="2" t="n">
         <f aca="false">ABS(AY11-$AY$41)</f>
         <v>2.92029767799962E-005</v>
       </c>
@@ -3382,11 +3375,11 @@
         <f aca="false">BH10+BG11</f>
         <v>1.79532021545241</v>
       </c>
-      <c r="BI11" s="6" t="n">
+      <c r="BI11" s="2" t="n">
         <f aca="false">BH11/$BH$40</f>
         <v>0.170936754775799</v>
       </c>
-      <c r="BJ11" s="6" t="n">
+      <c r="BJ11" s="2" t="n">
         <f aca="false">ABS(BG11-$BG$41)</f>
         <v>0.000543367849084042</v>
       </c>
@@ -3394,15 +3387,15 @@
         <f aca="false">1/35+BK10</f>
         <v>0.171428571428571</v>
       </c>
-      <c r="BN11" s="7"/>
-      <c r="BO11" s="7"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
       <c r="BP11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="BQ11" s="6" t="n">
+      <c r="BQ11" s="2" t="n">
         <v>0.35309042531835</v>
       </c>
-      <c r="BR11" s="8" t="n">
+      <c r="BR11" s="6" t="n">
         <v>8.98656364988923E-006</v>
       </c>
       <c r="BS11" s="0" t="n">
@@ -3432,11 +3425,11 @@
         <f aca="false">T11+S12</f>
         <v>8.3896522214187</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="U12" s="2" t="n">
         <f aca="false">T12/$T$40</f>
         <v>0.199732034260421</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="V12" s="2" t="n">
         <f aca="false">ABS(S12-$S$41)</f>
         <v>0.00111834468747007</v>
       </c>
@@ -3459,11 +3452,11 @@
         <f aca="false">AB11+AA12</f>
         <v>5.24321132293545</v>
       </c>
-      <c r="AC12" s="6" t="n">
+      <c r="AC12" s="2" t="n">
         <f aca="false">AB12/$AB$40</f>
         <v>0.199701993930427</v>
       </c>
-      <c r="AD12" s="6" t="n">
+      <c r="AD12" s="2" t="n">
         <f aca="false">ABS(AA12-$AA$41)</f>
         <v>0.000775036778159155</v>
       </c>
@@ -3486,11 +3479,11 @@
         <f aca="false">AJ11+AI12</f>
         <v>3.82255176573499</v>
       </c>
-      <c r="AK12" s="6" t="n">
+      <c r="AK12" s="2" t="n">
         <f aca="false">AJ12/$AJ$40</f>
         <v>0.200195210049266</v>
       </c>
-      <c r="AL12" s="6" t="n">
+      <c r="AL12" s="2" t="n">
         <f aca="false">ABS(AI12-$AI$41)</f>
         <v>3.6240563354939E-005</v>
       </c>
@@ -3513,11 +3506,11 @@
         <f aca="false">AR11+AQ12</f>
         <v>2.99294527058393</v>
       </c>
-      <c r="AS12" s="6" t="n">
+      <c r="AS12" s="2" t="n">
         <f aca="false">AR12/$AR$40</f>
         <v>0.199490948503948</v>
       </c>
-      <c r="AT12" s="6" t="n">
+      <c r="AT12" s="2" t="n">
         <f aca="false">ABS(AQ12-$AQ$41)</f>
         <v>0.000752991688584004</v>
       </c>
@@ -3540,11 +3533,11 @@
         <f aca="false">AZ11+AY12</f>
         <v>2.47284266016563</v>
       </c>
-      <c r="BA12" s="6" t="n">
+      <c r="BA12" s="2" t="n">
         <f aca="false">AZ12/$AZ$40</f>
         <v>0.200097885321027</v>
       </c>
-      <c r="BB12" s="6" t="n">
+      <c r="BB12" s="2" t="n">
         <f aca="false">ABS(AY12-$AY$41)</f>
         <v>0.00067025493356998</v>
       </c>
@@ -3567,11 +3560,11 @@
         <f aca="false">BH11+BG12</f>
         <v>2.09497674212975</v>
       </c>
-      <c r="BI12" s="6" t="n">
+      <c r="BI12" s="2" t="n">
         <f aca="false">BH12/$BH$40</f>
         <v>0.199467773240773</v>
       </c>
-      <c r="BJ12" s="6" t="n">
+      <c r="BJ12" s="2" t="n">
         <f aca="false">ABS(BG12-$BG$41)</f>
         <v>0.000424420605874054</v>
       </c>
@@ -3579,15 +3572,15 @@
         <f aca="false">1/35+BK11</f>
         <v>0.2</v>
       </c>
-      <c r="BN12" s="7"/>
-      <c r="BO12" s="7"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
       <c r="BP12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="BQ12" s="6" t="n">
+      <c r="BQ12" s="2" t="n">
         <v>0.300080947283214</v>
       </c>
-      <c r="BR12" s="8" t="n">
+      <c r="BR12" s="6" t="n">
         <v>6.92695057397411E-005</v>
       </c>
       <c r="BS12" s="0" t="n">
@@ -3604,7 +3597,7 @@
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="0" t="s">
@@ -3617,11 +3610,11 @@
         <f aca="false">T12+S13</f>
         <v>9.5887930644283</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="U13" s="2" t="n">
         <f aca="false">T13/$T$40</f>
         <v>0.228279920825684</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="V13" s="2" t="n">
         <f aca="false">ABS(S13-$S$41)</f>
         <v>0.000988871139570025</v>
       </c>
@@ -3644,11 +3637,11 @@
         <f aca="false">AB12+AA13</f>
         <v>5.99258948148476</v>
       </c>
-      <c r="AC13" s="6" t="n">
+      <c r="AC13" s="2" t="n">
         <f aca="false">AB13/$AB$40</f>
         <v>0.228244103575251</v>
       </c>
-      <c r="AD13" s="6" t="n">
+      <c r="AD13" s="2" t="n">
         <f aca="false">ABS(AA13-$AA$41)</f>
         <v>0.000769773625799108</v>
       </c>
@@ -3671,11 +3664,11 @@
         <f aca="false">AJ12+AI13</f>
         <v>4.36821434924806</v>
       </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AK13" s="2" t="n">
         <f aca="false">AJ13/$AJ$40</f>
         <v>0.228772726383154</v>
       </c>
-      <c r="AL13" s="6" t="n">
+      <c r="AL13" s="2" t="n">
         <f aca="false">ABS(AI13-$AI$41)</f>
         <v>0.000116240479144936</v>
       </c>
@@ -3698,11 +3691,11 @@
         <f aca="false">AR12+AQ13</f>
         <v>3.42091850429632</v>
       </c>
-      <c r="AS13" s="6" t="n">
+      <c r="AS13" s="2" t="n">
         <f aca="false">AR13/$AR$40</f>
         <v>0.22801695837346</v>
       </c>
-      <c r="AT13" s="6" t="n">
+      <c r="AT13" s="2" t="n">
         <f aca="false">ABS(AQ13-$AQ$41)</f>
         <v>0.000681412816554039</v>
       </c>
@@ -3725,11 +3718,11 @@
         <f aca="false">AZ12+AY13</f>
         <v>2.82512439460591</v>
       </c>
-      <c r="BA13" s="6" t="n">
+      <c r="BA13" s="2" t="n">
         <f aca="false">AZ13/$AZ$40</f>
         <v>0.228603876112209</v>
       </c>
-      <c r="BB13" s="6" t="n">
+      <c r="BB13" s="2" t="n">
         <f aca="false">ABS(AY13-$AY$41)</f>
         <v>0.000808690878070006</v>
       </c>
@@ -3752,11 +3745,11 @@
         <f aca="false">BH12+BG13</f>
         <v>2.39463958458992</v>
       </c>
-      <c r="BI13" s="6" t="n">
+      <c r="BI13" s="2" t="n">
         <f aca="false">BH13/$BH$40</f>
         <v>0.227999393046616</v>
       </c>
-      <c r="BJ13" s="6" t="n">
+      <c r="BJ13" s="2" t="n">
         <f aca="false">ABS(BG13-$BG$41)</f>
         <v>0.000418104823044052</v>
       </c>
@@ -3764,17 +3757,17 @@
         <f aca="false">1/35+BK12</f>
         <v>0.228571428571429</v>
       </c>
-      <c r="BN13" s="7" t="s">
+      <c r="BN13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BO13" s="7"/>
+      <c r="BO13" s="5"/>
       <c r="BP13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="BQ13" s="6" t="n">
+      <c r="BQ13" s="2" t="n">
         <v>0.200098826963642</v>
       </c>
-      <c r="BR13" s="8" t="n">
+      <c r="BR13" s="6" t="n">
         <v>1.4179597864715E-005</v>
       </c>
       <c r="BS13" s="0" t="n">
@@ -3804,11 +3797,11 @@
         <f aca="false">T13+S14</f>
         <v>10.787969696874</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="2" t="n">
         <f aca="false">T14/$T$40</f>
         <v>0.256828659428276</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="V14" s="2" t="n">
         <f aca="false">ABS(S14-$S$41)</f>
         <v>0.000953081703469971</v>
       </c>
@@ -3831,11 +3824,11 @@
         <f aca="false">AB13+AA14</f>
         <v>6.74207711360304</v>
       </c>
-      <c r="AC14" s="6" t="n">
+      <c r="AC14" s="2" t="n">
         <f aca="false">AB14/$AB$40</f>
         <v>0.256790382819327</v>
       </c>
-      <c r="AD14" s="6" t="n">
+      <c r="AD14" s="2" t="n">
         <f aca="false">ABS(AA14-$AA$41)</f>
         <v>0.000660300056829155</v>
       </c>
@@ -3858,11 +3851,11 @@
         <f aca="false">AJ13+AI14</f>
         <v>4.91359482779492</v>
       </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AK14" s="2" t="n">
         <f aca="false">AJ14/$AJ$40</f>
         <v>0.257335468276713</v>
       </c>
-      <c r="AL14" s="6" t="n">
+      <c r="AL14" s="2" t="n">
         <f aca="false">ABS(AI14-$AI$41)</f>
         <v>0.000165864487065015</v>
       </c>
@@ -3885,11 +3878,11 @@
         <f aca="false">AR13+AQ14</f>
         <v>3.84892858007519</v>
       </c>
-      <c r="AS14" s="6" t="n">
+      <c r="AS14" s="2" t="n">
         <f aca="false">AR14/$AR$40</f>
         <v>0.256545423903909</v>
       </c>
-      <c r="AT14" s="6" t="n">
+      <c r="AT14" s="2" t="n">
         <f aca="false">ABS(AQ14-$AQ$41)</f>
         <v>0.000644570750074014</v>
       </c>
@@ -3912,11 +3905,11 @@
         <f aca="false">AZ13+AY14</f>
         <v>3.17752086576752</v>
       </c>
-      <c r="BA14" s="6" t="n">
+      <c r="BA14" s="2" t="n">
         <f aca="false">AZ14/$AZ$40</f>
         <v>0.257119151188103</v>
       </c>
-      <c r="BB14" s="6" t="n">
+      <c r="BB14" s="2" t="n">
         <f aca="false">ABS(AY14-$AY$41)</f>
         <v>0.000693954156740007</v>
       </c>
@@ -3939,11 +3932,11 @@
         <f aca="false">BH13+BG14</f>
         <v>2.69432769018139</v>
       </c>
-      <c r="BI14" s="6" t="n">
+      <c r="BI14" s="2" t="n">
         <f aca="false">BH14/$BH$40</f>
         <v>0.256533418215939</v>
       </c>
-      <c r="BJ14" s="6" t="n">
+      <c r="BJ14" s="2" t="n">
         <f aca="false">ABS(BG14-$BG$41)</f>
         <v>0.000392841691744028</v>
       </c>
@@ -3951,15 +3944,15 @@
         <f aca="false">1/35+BK13</f>
         <v>0.257142857142857</v>
       </c>
-      <c r="BN14" s="7"/>
-      <c r="BO14" s="7"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
       <c r="BP14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="BQ14" s="6" t="n">
+      <c r="BQ14" s="2" t="n">
         <v>0.125053793176459</v>
       </c>
-      <c r="BR14" s="8" t="n">
+      <c r="BR14" s="6" t="n">
         <v>1.2306756305239E-005</v>
       </c>
       <c r="BS14" s="0" t="n">
@@ -3976,7 +3969,7 @@
       <c r="P15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="0" t="s">
@@ -3989,11 +3982,11 @@
         <f aca="false">T14+S15</f>
         <v>11.9872915923246</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="2" t="n">
         <f aca="false">T15/$T$40</f>
         <v>0.28538085630002</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="V15" s="2" t="n">
         <f aca="false">ABS(S15-$S$41)</f>
         <v>0.000807818698570051</v>
       </c>
@@ -4016,11 +4009,11 @@
         <f aca="false">AB14+AA15</f>
         <v>7.49174579816232</v>
       </c>
-      <c r="AC15" s="6" t="n">
+      <c r="AC15" s="2" t="n">
         <f aca="false">AB15/$AB$40</f>
         <v>0.285343557939088</v>
       </c>
-      <c r="AD15" s="6" t="n">
+      <c r="AD15" s="2" t="n">
         <f aca="false">ABS(AA15-$AA$41)</f>
         <v>0.00047924761582907</v>
       </c>
@@ -4043,11 +4036,11 @@
         <f aca="false">AJ14+AI15</f>
         <v>5.45974056869414</v>
       </c>
-      <c r="AK15" s="6" t="n">
+      <c r="AK15" s="2" t="n">
         <f aca="false">AJ15/$AJ$40</f>
         <v>0.285938288596089</v>
       </c>
-      <c r="AL15" s="6" t="n">
+      <c r="AL15" s="2" t="n">
         <f aca="false">ABS(AI15-$AI$41)</f>
         <v>0.000599397865294948</v>
       </c>
@@ -4070,11 +4063,11 @@
         <f aca="false">AR14+AQ15</f>
         <v>4.27710602409893</v>
       </c>
-      <c r="AS15" s="6" t="n">
+      <c r="AS15" s="2" t="n">
         <f aca="false">AR15/$AR$40</f>
         <v>0.285085045151185</v>
       </c>
-      <c r="AT15" s="6" t="n">
+      <c r="AT15" s="2" t="n">
         <f aca="false">ABS(AQ15-$AQ$41)</f>
         <v>0.000477202505204055</v>
       </c>
@@ -4097,11 +4090,11 @@
         <f aca="false">AZ14+AY15</f>
         <v>3.53107101992525</v>
       </c>
-      <c r="BA15" s="6" t="n">
+      <c r="BA15" s="2" t="n">
         <f aca="false">AZ15/$AZ$40</f>
         <v>0.285727780172669</v>
       </c>
-      <c r="BB15" s="6" t="n">
+      <c r="BB15" s="2" t="n">
         <f aca="false">ABS(AY15-$AY$41)</f>
         <v>0.000459728839380003</v>
       </c>
@@ -4124,11 +4117,11 @@
         <f aca="false">BH14+BG15</f>
         <v>2.99401895366427</v>
       </c>
-      <c r="BI15" s="6" t="n">
+      <c r="BI15" s="2" t="n">
         <f aca="false">BH15/$BH$40</f>
         <v>0.285067744055696</v>
       </c>
-      <c r="BJ15" s="6" t="n">
+      <c r="BJ15" s="2" t="n">
         <f aca="false">ABS(BG15-$BG$41)</f>
         <v>0.000389683800334051</v>
       </c>
@@ -4136,15 +4129,15 @@
         <f aca="false">1/35+BK14</f>
         <v>0.285714285714286</v>
       </c>
-      <c r="BN15" s="7"/>
-      <c r="BO15" s="7"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
       <c r="BP15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="BQ15" s="6" t="n">
+      <c r="BQ15" s="2" t="n">
         <v>0.090931423079705</v>
       </c>
-      <c r="BR15" s="8" t="n">
+      <c r="BR15" s="6" t="n">
         <v>1.19957552431995E-006</v>
       </c>
       <c r="BS15" s="0" t="n">
@@ -4174,11 +4167,11 @@
         <f aca="false">T15+S16</f>
         <v>13.186984013701</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="2" t="n">
         <f aca="false">T16/$T$40</f>
         <v>0.3139418742641</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="V16" s="2" t="n">
         <f aca="false">ABS(S16-$S$41)</f>
         <v>0.000437292772770048</v>
       </c>
@@ -4201,11 +4194,11 @@
         <f aca="false">AB15+AA16</f>
         <v>8.2414723773975</v>
       </c>
-      <c r="AC16" s="6" t="n">
+      <c r="AC16" s="2" t="n">
         <f aca="false">AB16/$AB$40</f>
         <v>0.313898938135375</v>
       </c>
-      <c r="AD16" s="6" t="n">
+      <c r="AD16" s="2" t="n">
         <f aca="false">ABS(AA16-$AA$41)</f>
         <v>0.000421352939929065</v>
       </c>
@@ -4228,11 +4221,11 @@
         <f aca="false">AJ15+AI16</f>
         <v>6.005483152123</v>
       </c>
-      <c r="AK16" s="6" t="n">
+      <c r="AK16" s="2" t="n">
         <f aca="false">AJ16/$AJ$40</f>
         <v>0.314519994696638</v>
       </c>
-      <c r="AL16" s="6" t="n">
+      <c r="AL16" s="2" t="n">
         <f aca="false">ABS(AI16-$AI$41)</f>
         <v>0.000196240394934932</v>
       </c>
@@ -4255,11 +4248,11 @@
         <f aca="false">AR15+AQ16</f>
         <v>4.70530873125398</v>
       </c>
-      <c r="AS16" s="6" t="n">
+      <c r="AS16" s="2" t="n">
         <f aca="false">AR16/$AR$40</f>
         <v>0.313626350280247</v>
       </c>
-      <c r="AT16" s="6" t="n">
+      <c r="AT16" s="2" t="n">
         <f aca="false">ABS(AQ16-$AQ$41)</f>
         <v>0.000451939373894039</v>
       </c>
@@ -4282,11 +4275,11 @@
         <f aca="false">AZ15+AY16</f>
         <v>3.8842369639611</v>
       </c>
-      <c r="BA16" s="6" t="n">
+      <c r="BA16" s="2" t="n">
         <f aca="false">AZ16/$AZ$40</f>
         <v>0.314305319579986</v>
       </c>
-      <c r="BB16" s="6" t="n">
+      <c r="BB16" s="2" t="n">
         <f aca="false">ABS(AY16-$AY$41)</f>
         <v>7.55187175000005E-005</v>
       </c>
@@ -4309,11 +4302,11 @@
         <f aca="false">BH15+BG16</f>
         <v>3.29371232240809</v>
       </c>
-      <c r="BI16" s="6" t="n">
+      <c r="BI16" s="2" t="n">
         <f aca="false">BH16/$BH$40</f>
         <v>0.31360227034241</v>
       </c>
-      <c r="BJ16" s="6" t="n">
+      <c r="BJ16" s="2" t="n">
         <f aca="false">ABS(BG16-$BG$41)</f>
         <v>0.000387578539394029</v>
       </c>
@@ -4321,15 +4314,15 @@
         <f aca="false">1/35+BK15</f>
         <v>0.314285714285714</v>
       </c>
-      <c r="BN16" s="7"/>
-      <c r="BO16" s="7"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
       <c r="BP16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="BQ16" s="6" t="n">
+      <c r="BQ16" s="2" t="n">
         <v>0.071466571388572</v>
       </c>
-      <c r="BR16" s="8" t="n">
+      <c r="BR16" s="6" t="n">
         <v>2.85471634035466E-005</v>
       </c>
       <c r="BS16" s="0" t="n">
@@ -4346,7 +4339,7 @@
       <c r="P17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="0" t="s">
@@ -4359,11 +4352,11 @@
         <f aca="false">T16+S17</f>
         <v>14.3867048561001</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="U17" s="2" t="n">
         <f aca="false">T17/$T$40</f>
         <v>0.342503568846057</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="V17" s="2" t="n">
         <f aca="false">ABS(S17-$S$41)</f>
         <v>0.000408871750070094</v>
       </c>
@@ -4386,11 +4379,11 @@
         <f aca="false">AB16+AA17</f>
         <v>8.99124632500387</v>
       </c>
-      <c r="AC17" s="6" t="n">
+      <c r="AC17" s="2" t="n">
         <f aca="false">AB17/$AB$40</f>
         <v>0.342456122485186</v>
       </c>
-      <c r="AD17" s="6" t="n">
+      <c r="AD17" s="2" t="n">
         <f aca="false">ABS(AA17-$AA$41)</f>
         <v>0.000373984568739161</v>
       </c>
@@ -4413,11 +4406,11 @@
         <f aca="false">AJ16+AI17</f>
         <v>6.55136257751308</v>
       </c>
-      <c r="AK17" s="6" t="n">
+      <c r="AK17" s="2" t="n">
         <f aca="false">AJ17/$AJ$40</f>
         <v>0.343108867503315</v>
       </c>
-      <c r="AL17" s="6" t="n">
+      <c r="AL17" s="2" t="n">
         <f aca="false">ABS(AI17-$AI$41)</f>
         <v>0.000333082356155034</v>
       </c>
@@ -4440,11 +4433,11 @@
         <f aca="false">AR16+AQ17</f>
         <v>5.13358091202011</v>
       </c>
-      <c r="AS17" s="6" t="n">
+      <c r="AS17" s="2" t="n">
         <f aca="false">AR17/$AR$40</f>
         <v>0.342172286084219</v>
       </c>
-      <c r="AT17" s="6" t="n">
+      <c r="AT17" s="2" t="n">
         <f aca="false">ABS(AQ17-$AQ$41)</f>
         <v>0.000382465762814033</v>
       </c>
@@ -4467,11 +4460,11 @@
         <f aca="false">AZ16+AY17</f>
         <v>4.2358555412047</v>
       </c>
-      <c r="BA17" s="6" t="n">
+      <c r="BA17" s="2" t="n">
         <f aca="false">AZ17/$AZ$40</f>
         <v>0.342757648909067</v>
       </c>
-      <c r="BB17" s="6" t="n">
+      <c r="BB17" s="2" t="n">
         <f aca="false">ABS(AY17-$AY$41)</f>
         <v>0.00147184807474998</v>
       </c>
@@ -4494,11 +4487,11 @@
         <f aca="false">BH16+BG17</f>
         <v>3.59344463847934</v>
       </c>
-      <c r="BI17" s="6" t="n">
+      <c r="BI17" s="2" t="n">
         <f aca="false">BH17/$BH$40</f>
         <v>0.342140504897822</v>
       </c>
-      <c r="BJ17" s="6" t="n">
+      <c r="BJ17" s="2" t="n">
         <f aca="false">ABS(BG17-$BG$41)</f>
         <v>0.000348631211964046</v>
       </c>
@@ -4506,15 +4499,15 @@
         <f aca="false">1/35+BK16</f>
         <v>0.342857142857143</v>
       </c>
-      <c r="BN17" s="7"/>
-      <c r="BO17" s="7"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
       <c r="BP17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="BQ17" s="6" t="n">
+      <c r="BQ17" s="2" t="n">
         <v>0.058839877912911</v>
       </c>
-      <c r="BR17" s="8" t="n">
+      <c r="BR17" s="6" t="n">
         <v>2.51534924759723E-006</v>
       </c>
       <c r="BS17" s="0" t="n">
@@ -4544,11 +4537,11 @@
         <f aca="false">T17+S18</f>
         <v>15.5866120140926</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="U18" s="2" t="n">
         <f aca="false">T18/$T$40</f>
         <v>0.371069699034104</v>
       </c>
-      <c r="V18" s="6" t="n">
+      <c r="V18" s="2" t="n">
         <f aca="false">ABS(S18-$S$41)</f>
         <v>0.000222556156669995</v>
       </c>
@@ -4571,11 +4564,11 @@
         <f aca="false">AB17+AA18</f>
         <v>9.74106658835096</v>
       </c>
-      <c r="AC18" s="6" t="n">
+      <c r="AC18" s="2" t="n">
         <f aca="false">AB18/$AB$40</f>
         <v>0.371015070896217</v>
       </c>
-      <c r="AD18" s="6" t="n">
+      <c r="AD18" s="2" t="n">
         <f aca="false">ABS(AA18-$AA$41)</f>
         <v>0.000327668828019156</v>
       </c>
@@ -4598,11 +4591,11 @@
         <f aca="false">AJ17+AI18</f>
         <v>7.09631884598017</v>
       </c>
-      <c r="AK18" s="6" t="n">
+      <c r="AK18" s="2" t="n">
         <f aca="false">AJ18/$AJ$40</f>
         <v>0.371649392607874</v>
       </c>
-      <c r="AL18" s="6" t="n">
+      <c r="AL18" s="2" t="n">
         <f aca="false">ABS(AI18-$AI$41)</f>
         <v>0.000590074566835019</v>
       </c>
@@ -4625,11 +4618,11 @@
         <f aca="false">AR17+AQ18</f>
         <v>5.56192782954967</v>
       </c>
-      <c r="AS18" s="6" t="n">
+      <c r="AS18" s="2" t="n">
         <f aca="false">AR18/$AR$40</f>
         <v>0.370723203371805</v>
       </c>
-      <c r="AT18" s="6" t="n">
+      <c r="AT18" s="2" t="n">
         <f aca="false">ABS(AQ18-$AQ$41)</f>
         <v>0.000307728999384027</v>
       </c>
@@ -4652,11 +4645,11 @@
         <f aca="false">AZ17+AY18</f>
         <v>4.58952780049706</v>
       </c>
-      <c r="BA18" s="6" t="n">
+      <c r="BA18" s="2" t="n">
         <f aca="false">AZ18/$AZ$40</f>
         <v>0.371376158416813</v>
       </c>
-      <c r="BB18" s="6" t="n">
+      <c r="BB18" s="2" t="n">
         <f aca="false">ABS(AY18-$AY$41)</f>
         <v>0.000581833974010015</v>
       </c>
@@ -4679,11 +4672,11 @@
         <f aca="false">BH17+BG18</f>
         <v>3.89324011237884</v>
       </c>
-      <c r="BI18" s="6" t="n">
+      <c r="BI18" s="2" t="n">
         <f aca="false">BH18/$BH$40</f>
         <v>0.370684752861932</v>
       </c>
-      <c r="BJ18" s="6" t="n">
+      <c r="BJ18" s="2" t="n">
         <f aca="false">ABS(BG18-$BG$41)</f>
         <v>0.000285473383714041</v>
       </c>
@@ -4691,15 +4684,15 @@
         <f aca="false">1/35+BK17</f>
         <v>0.371428571428571</v>
       </c>
-      <c r="BN18" s="7"/>
-      <c r="BO18" s="7"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
       <c r="BP18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="BQ18" s="6" t="n">
+      <c r="BQ18" s="2" t="n">
         <v>0.050011225552093</v>
       </c>
-      <c r="BR18" s="8" t="n">
+      <c r="BR18" s="6" t="n">
         <v>3.48594596813201E-006</v>
       </c>
       <c r="BS18" s="0" t="n">
@@ -4716,7 +4709,7 @@
       <c r="P19" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R19" s="0" t="s">
@@ -4729,11 +4722,11 @@
         <f aca="false">T18+S19</f>
         <v>16.7866696982424</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="U19" s="2" t="n">
         <f aca="false">T19/$T$40</f>
         <v>0.399639412790911</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="V19" s="2" t="n">
         <f aca="false">ABS(S19-$S$41)</f>
         <v>7.20299993699491E-005</v>
       </c>
@@ -4756,11 +4749,11 @@
         <f aca="false">AB18+AA19</f>
         <v>10.4909763252881</v>
       </c>
-      <c r="AC19" s="6" t="n">
+      <c r="AC19" s="2" t="n">
         <f aca="false">AB19/$AB$40</f>
         <v>0.399577427152791</v>
       </c>
-      <c r="AD19" s="6" t="n">
+      <c r="AD19" s="2" t="n">
         <f aca="false">ABS(AA19-$AA$41)</f>
         <v>0.000238195237989069</v>
       </c>
@@ -4783,11 +4776,11 @@
         <f aca="false">AJ18+AI19</f>
         <v>7.64200985051595</v>
       </c>
-      <c r="AK19" s="6" t="n">
+      <c r="AK19" s="2" t="n">
         <f aca="false">AJ19/$AJ$40</f>
         <v>0.400228397411496</v>
       </c>
-      <c r="AL19" s="6" t="n">
+      <c r="AL19" s="2" t="n">
         <f aca="false">ABS(AI19-$AI$41)</f>
         <v>0.000144661501854992</v>
       </c>
@@ -4810,11 +4803,11 @@
         <f aca="false">AR18+AQ19</f>
         <v>5.99049474684765</v>
       </c>
-      <c r="AS19" s="6" t="n">
+      <c r="AS19" s="2" t="n">
         <f aca="false">AR19/$AR$40</f>
         <v>0.399288784463272</v>
       </c>
-      <c r="AT19" s="6" t="n">
+      <c r="AT19" s="2" t="n">
         <f aca="false">ABS(AQ19-$AQ$41)</f>
         <v>8.77292309640065E-005</v>
       </c>
@@ -4837,11 +4830,11 @@
         <f aca="false">AZ18+AY19</f>
         <v>4.94292111271463</v>
       </c>
-      <c r="BA19" s="6" t="n">
+      <c r="BA19" s="2" t="n">
         <f aca="false">AZ19/$AZ$40</f>
         <v>0.399972096039708</v>
       </c>
-      <c r="BB19" s="6" t="n">
+      <c r="BB19" s="2" t="n">
         <f aca="false">ABS(AY19-$AY$41)</f>
         <v>0.000302886899219978</v>
       </c>
@@ -4864,11 +4857,11 @@
         <f aca="false">BH18+BG19</f>
         <v>4.19309453358471</v>
       </c>
-      <c r="BI19" s="6" t="n">
+      <c r="BI19" s="2" t="n">
         <f aca="false">BH19/$BH$40</f>
         <v>0.399234613340828</v>
       </c>
-      <c r="BJ19" s="6" t="n">
+      <c r="BJ19" s="2" t="n">
         <f aca="false">ABS(BG19-$BG$41)</f>
         <v>0.000226526077344025</v>
       </c>
@@ -4900,11 +4893,11 @@
         <f aca="false">T19+S20</f>
         <v>17.9868010665252</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="2" t="n">
         <f aca="false">T20/$T$40</f>
         <v>0.428210880742217</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="V20" s="2" t="n">
         <f aca="false">ABS(S20-$S$41)</f>
         <v>1.65413363006905E-006</v>
       </c>
@@ -4927,11 +4920,11 @@
         <f aca="false">AB19+AA20</f>
         <v>11.240912377987</v>
       </c>
-      <c r="AC20" s="6" t="n">
+      <c r="AC20" s="2" t="n">
         <f aca="false">AB20/$AB$40</f>
         <v>0.428140785716878</v>
       </c>
-      <c r="AD20" s="6" t="n">
+      <c r="AD20" s="2" t="n">
         <f aca="false">ABS(AA20-$AA$41)</f>
         <v>0.000211879476219146</v>
       </c>
@@ -4954,11 +4947,11 @@
         <f aca="false">AJ19+AI20</f>
         <v>8.18611875145395</v>
       </c>
-      <c r="AK20" s="6" t="n">
+      <c r="AK20" s="2" t="n">
         <f aca="false">AJ20/$AJ$40</f>
         <v>0.42872454406656</v>
       </c>
-      <c r="AL20" s="6" t="n">
+      <c r="AL20" s="2" t="n">
         <f aca="false">ABS(AI20-$AI$41)</f>
         <v>0.001437442095925</v>
       </c>
@@ -4981,11 +4974,11 @@
         <f aca="false">AR19+AQ20</f>
         <v>6.41907324308081</v>
       </c>
-      <c r="AS20" s="6" t="n">
+      <c r="AS20" s="2" t="n">
         <f aca="false">AR20/$AR$40</f>
         <v>0.42785513733389</v>
       </c>
-      <c r="AT20" s="6" t="n">
+      <c r="AT20" s="2" t="n">
         <f aca="false">ABS(AQ20-$AQ$41)</f>
         <v>7.61502957840054E-005</v>
       </c>
@@ -5008,11 +5001,11 @@
         <f aca="false">AZ19+AY20</f>
         <v>5.29579232021862</v>
       </c>
-      <c r="BA20" s="6" t="n">
+      <c r="BA20" s="2" t="n">
         <f aca="false">AZ20/$AZ$40</f>
         <v>0.428525785908313</v>
       </c>
-      <c r="BB20" s="6" t="n">
+      <c r="BB20" s="2" t="n">
         <f aca="false">ABS(AY20-$AY$41)</f>
         <v>0.000219217814360018</v>
       </c>
@@ -5035,11 +5028,11 @@
         <f aca="false">BH19+BG20</f>
         <v>4.49296053372576</v>
       </c>
-      <c r="BI20" s="6" t="n">
+      <c r="BI20" s="2" t="n">
         <f aca="false">BH20/$BH$40</f>
         <v>0.427785576277985</v>
       </c>
-      <c r="BJ20" s="6" t="n">
+      <c r="BJ20" s="2" t="n">
         <f aca="false">ABS(BG20-$BG$41)</f>
         <v>0.000214947142164024</v>
       </c>
@@ -5058,7 +5051,7 @@
       <c r="P21" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="0" t="s">
@@ -5071,11 +5064,11 @@
         <f aca="false">T20+S21</f>
         <v>19.1869471716346</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="U21" s="2" t="n">
         <f aca="false">T21/$T$40</f>
         <v>0.456782699532422</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="V21" s="2" t="n">
         <f aca="false">ABS(S21-$S$41)</f>
         <v>1.63909602299839E-005</v>
       </c>
@@ -5098,11 +5091,11 @@
         <f aca="false">AB20+AA21</f>
         <v>11.9909168516665</v>
       </c>
-      <c r="AC21" s="6" t="n">
+      <c r="AC21" s="2" t="n">
         <f aca="false">AB21/$AB$40</f>
         <v>0.456706750280496</v>
       </c>
-      <c r="AD21" s="6" t="n">
+      <c r="AD21" s="2" t="n">
         <f aca="false">ABS(AA21-$AA$41)</f>
         <v>0.000143458495609039</v>
       </c>
@@ -5125,11 +5118,11 @@
         <f aca="false">AJ20+AI21</f>
         <v>8.73047502055261</v>
       </c>
-      <c r="AK21" s="6" t="n">
+      <c r="AK21" s="2" t="n">
         <f aca="false">AJ21/$AJ$40</f>
         <v>0.457233645921166</v>
       </c>
-      <c r="AL21" s="6" t="n">
+      <c r="AL21" s="2" t="n">
         <f aca="false">ABS(AI21-$AI$41)</f>
         <v>0.00119007393526505</v>
       </c>
@@ -5152,11 +5145,11 @@
         <f aca="false">AR20+AQ21</f>
         <v>6.84791279167076</v>
       </c>
-      <c r="AS21" s="6" t="n">
+      <c r="AS21" s="2" t="n">
         <f aca="false">AR21/$AR$40</f>
         <v>0.456438890316291</v>
       </c>
-      <c r="AT21" s="6" t="n">
+      <c r="AT21" s="2" t="n">
         <f aca="false">ABS(AQ21-$AQ$41)</f>
         <v>0.000184902061005965</v>
       </c>
@@ -5179,11 +5172,11 @@
         <f aca="false">AZ20+AY21</f>
         <v>5.64846247530267</v>
       </c>
-      <c r="BA21" s="6" t="n">
+      <c r="BA21" s="2" t="n">
         <f aca="false">AZ21/$AZ$40</f>
         <v>0.45706320698444</v>
       </c>
-      <c r="BB21" s="6" t="n">
+      <c r="BB21" s="2" t="n">
         <f aca="false">ABS(AY21-$AY$41)</f>
         <v>0.000420270234300024</v>
       </c>
@@ -5206,11 +5199,11 @@
         <f aca="false">BH20+BG21</f>
         <v>4.79283284964964</v>
       </c>
-      <c r="BI21" s="6" t="n">
+      <c r="BI21" s="2" t="n">
         <f aca="false">BH21/$BH$40</f>
         <v>0.456337140556012</v>
       </c>
-      <c r="BJ21" s="6" t="n">
+      <c r="BJ21" s="2" t="n">
         <f aca="false">ABS(BG21-$BG$41)</f>
         <v>0.000208631359334077</v>
       </c>
@@ -5242,11 +5235,11 @@
         <f aca="false">T21+S22</f>
         <v>20.3872353818575</v>
       </c>
-      <c r="U22" s="6" t="n">
+      <c r="U22" s="2" t="n">
         <f aca="false">T22/$T$40</f>
         <v>0.485357901412016</v>
       </c>
-      <c r="V22" s="6" t="n">
+      <c r="V22" s="2" t="n">
         <f aca="false">ABS(S22-$S$41)</f>
         <v>0.000158496073729975</v>
       </c>
@@ -5269,11 +5262,11 @@
         <f aca="false">AB21+AA22</f>
         <v>12.7409234306069</v>
       </c>
-      <c r="AC22" s="6" t="n">
+      <c r="AC22" s="2" t="n">
         <f aca="false">AB22/$AB$40</f>
         <v>0.485272795028715</v>
       </c>
-      <c r="AD22" s="6" t="n">
+      <c r="AD22" s="2" t="n">
         <f aca="false">ABS(AA22-$AA$41)</f>
         <v>0.000141353234669128</v>
       </c>
@@ -5296,11 +5289,11 @@
         <f aca="false">AJ21+AI22</f>
         <v>9.27642181429283</v>
       </c>
-      <c r="AK22" s="6" t="n">
+      <c r="AK22" s="2" t="n">
         <f aca="false">AJ22/$AJ$40</f>
         <v>0.4858260469524</v>
       </c>
-      <c r="AL22" s="6" t="n">
+      <c r="AL22" s="2" t="n">
         <f aca="false">ABS(AI22-$AI$41)</f>
         <v>0.000400450706295019</v>
       </c>
@@ -5323,11 +5316,11 @@
         <f aca="false">AR21+AQ22</f>
         <v>7.27679549811002</v>
       </c>
-      <c r="AS22" s="6" t="n">
+      <c r="AS22" s="2" t="n">
         <f aca="false">AR22/$AR$40</f>
         <v>0.485025519930074</v>
       </c>
-      <c r="AT22" s="6" t="n">
+      <c r="AT22" s="2" t="n">
         <f aca="false">ABS(AQ22-$AQ$41)</f>
         <v>0.000228059910315992</v>
       </c>
@@ -5350,11 +5343,11 @@
         <f aca="false">AZ21+AY22</f>
         <v>6.0021431556388</v>
       </c>
-      <c r="BA22" s="6" t="n">
+      <c r="BA22" s="2" t="n">
         <f aca="false">AZ22/$AZ$40</f>
         <v>0.485682397907578</v>
       </c>
-      <c r="BB22" s="6" t="n">
+      <c r="BB22" s="2" t="n">
         <f aca="false">ABS(AY22-$AY$41)</f>
         <v>0.000590255017779984</v>
       </c>
@@ -5377,11 +5370,11 @@
         <f aca="false">BH21+BG22</f>
         <v>5.09274832342283</v>
       </c>
-      <c r="BI22" s="6" t="n">
+      <c r="BI22" s="2" t="n">
         <f aca="false">BH22/$BH$40</f>
         <v>0.48489281399665</v>
       </c>
-      <c r="BJ22" s="6" t="n">
+      <c r="BJ22" s="2" t="n">
         <f aca="false">ABS(BG22-$BG$41)</f>
         <v>0.00016547351002405</v>
       </c>
@@ -5400,7 +5393,7 @@
       <c r="P23" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="0" t="s">
@@ -5413,11 +5406,11 @@
         <f aca="false">T22+S23</f>
         <v>21.5875425394289</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="U23" s="2" t="n">
         <f aca="false">T23/$T$40</f>
         <v>0.513933554370195</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="V23" s="2" t="n">
         <f aca="false">ABS(S23-$S$41)</f>
         <v>0.000177443422229917</v>
       </c>
@@ -5440,11 +5433,11 @@
         <f aca="false">AB22+AA23</f>
         <v>13.4910952725313</v>
       </c>
-      <c r="AC23" s="6" t="n">
+      <c r="AC23" s="2" t="n">
         <f aca="false">AB23/$AB$40</f>
         <v>0.513845134268112</v>
       </c>
-      <c r="AD23" s="6" t="n">
+      <c r="AD23" s="2" t="n">
         <f aca="false">ABS(AA23-$AA$41)</f>
         <v>2.39097492709117E-005</v>
       </c>
@@ -5467,11 +5460,11 @@
         <f aca="false">AJ22+AI23</f>
         <v>9.82275913393776</v>
       </c>
-      <c r="AK23" s="6" t="n">
+      <c r="AK23" s="2" t="n">
         <f aca="false">AJ23/$AJ$40</f>
         <v>0.514438900660357</v>
       </c>
-      <c r="AL23" s="6" t="n">
+      <c r="AL23" s="2" t="n">
         <f aca="false">ABS(AI23-$AI$41)</f>
         <v>0.000790976611005023</v>
       </c>
@@ -5494,11 +5487,11 @@
         <f aca="false">AR22+AQ23</f>
         <v>7.70569294137587</v>
       </c>
-      <c r="AS23" s="6" t="n">
+      <c r="AS23" s="2" t="n">
         <f aca="false">AR23/$AR$40</f>
         <v>0.513613131808233</v>
       </c>
-      <c r="AT23" s="6" t="n">
+      <c r="AT23" s="2" t="n">
         <f aca="false">ABS(AQ23-$AQ$41)</f>
         <v>0.00024279673690597</v>
       </c>
@@ -5521,11 +5514,11 @@
         <f aca="false">AZ22+AY23</f>
         <v>6.35532699439265</v>
       </c>
-      <c r="BA23" s="6" t="n">
+      <c r="BA23" s="2" t="n">
         <f aca="false">AZ23/$AZ$40</f>
         <v>0.514261385322602</v>
       </c>
-      <c r="BB23" s="6" t="n">
+      <c r="BB23" s="2" t="n">
         <f aca="false">ABS(AY23-$AY$41)</f>
         <v>9.34134355000116E-005</v>
       </c>
@@ -5548,11 +5541,11 @@
         <f aca="false">BH22+BG23</f>
         <v>5.39275432341651</v>
       </c>
-      <c r="BI23" s="6" t="n">
+      <c r="BI23" s="2" t="n">
         <f aca="false">BH23/$BH$40</f>
         <v>0.513457106656423</v>
       </c>
-      <c r="BJ23" s="6" t="n">
+      <c r="BJ23" s="2" t="n">
         <f aca="false">ABS(BG23-$BG$41)</f>
         <v>7.49472895340553E-005</v>
       </c>
@@ -5584,11 +5577,11 @@
         <f aca="false">T23+S24</f>
         <v>22.7878496970003</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="U24" s="2" t="n">
         <f aca="false">T24/$T$40</f>
         <v>0.542509207328375</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="V24" s="2" t="n">
         <f aca="false">ABS(S24-$S$41)</f>
         <v>0.000177443422229917</v>
       </c>
@@ -5611,11 +5604,11 @@
         <f aca="false">AB23+AA24</f>
         <v>14.2413913248512</v>
       </c>
-      <c r="AC24" s="6" t="n">
+      <c r="AC24" s="2" t="n">
         <f aca="false">AB24/$AB$40</f>
         <v>0.542422204398967</v>
       </c>
-      <c r="AD24" s="6" t="n">
+      <c r="AD24" s="2" t="n">
         <f aca="false">ABS(AA24-$AA$41)</f>
         <v>0.000148120144830899</v>
       </c>
@@ -5638,11 +5631,11 @@
         <f aca="false">AJ23+AI24</f>
         <v>10.3679627705655</v>
       </c>
-      <c r="AK24" s="6" t="n">
+      <c r="AK24" s="2" t="n">
         <f aca="false">AJ24/$AJ$40</f>
         <v>0.542992380964457</v>
       </c>
-      <c r="AL24" s="6" t="n">
+      <c r="AL24" s="2" t="n">
         <f aca="false">ABS(AI24-$AI$41)</f>
         <v>0.000342706406175064</v>
       </c>
@@ -5665,11 +5658,11 @@
         <f aca="false">AR23+AQ24</f>
         <v>8.1346345951215</v>
       </c>
-      <c r="AS24" s="6" t="n">
+      <c r="AS24" s="2" t="n">
         <f aca="false">AR24/$AR$40</f>
         <v>0.542203690479515</v>
       </c>
-      <c r="AT24" s="6" t="n">
+      <c r="AT24" s="2" t="n">
         <f aca="false">ABS(AQ24-$AQ$41)</f>
         <v>0.000287007216685953</v>
       </c>
@@ -5692,11 +5685,11 @@
         <f aca="false">AZ23+AY24</f>
         <v>6.70735504488944</v>
       </c>
-      <c r="BA24" s="6" t="n">
+      <c r="BA24" s="2" t="n">
         <f aca="false">AZ24/$AZ$40</f>
         <v>0.542746848475108</v>
       </c>
-      <c r="BB24" s="6" t="n">
+      <c r="BB24" s="2" t="n">
         <f aca="false">ABS(AY24-$AY$41)</f>
         <v>0.00106237482156002</v>
       </c>
@@ -5719,11 +5712,11 @@
         <f aca="false">BH23+BG24</f>
         <v>5.69276137604067</v>
       </c>
-      <c r="BI24" s="6" t="n">
+      <c r="BI24" s="2" t="n">
         <f aca="false">BH24/$BH$40</f>
         <v>0.542021499539674</v>
       </c>
-      <c r="BJ24" s="6" t="n">
+      <c r="BJ24" s="2" t="n">
         <f aca="false">ABS(BG24-$BG$41)</f>
         <v>7.38946590540523E-005</v>
       </c>
@@ -5742,7 +5735,7 @@
       <c r="P25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="0" t="s">
@@ -5755,11 +5748,11 @@
         <f aca="false">T24+S25</f>
         <v>23.9882136966171</v>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="U25" s="2" t="n">
         <f aca="false">T25/$T$40</f>
         <v>0.571086213522309</v>
       </c>
-      <c r="V25" s="6" t="n">
+      <c r="V25" s="2" t="n">
         <f aca="false">ABS(S25-$S$41)</f>
         <v>0.000234285467630047</v>
       </c>
@@ -5782,11 +5775,11 @@
         <f aca="false">AB24+AA25</f>
         <v>14.991783166544</v>
       </c>
-      <c r="AC25" s="6" t="n">
+      <c r="AC25" s="2" t="n">
         <f aca="false">AB25/$AB$40</f>
         <v>0.571002922929168</v>
       </c>
-      <c r="AD25" s="6" t="n">
+      <c r="AD25" s="2" t="n">
         <f aca="false">ABS(AA25-$AA$41)</f>
         <v>0.000243909517690932</v>
       </c>
@@ -5809,11 +5802,11 @@
         <f aca="false">AJ24+AI25</f>
         <v>10.9138190380852</v>
       </c>
-      <c r="AK25" s="6" t="n">
+      <c r="AK25" s="2" t="n">
         <f aca="false">AJ25/$AJ$40</f>
         <v>0.571580040943944</v>
       </c>
-      <c r="AL25" s="6" t="n">
+      <c r="AL25" s="2" t="n">
         <f aca="false">ABS(AI25-$AI$41)</f>
         <v>0.000309924485795032</v>
       </c>
@@ -5836,11 +5829,11 @@
         <f aca="false">AR24+AQ25</f>
         <v>8.56360151199843</v>
       </c>
-      <c r="AS25" s="6" t="n">
+      <c r="AS25" s="2" t="n">
         <f aca="false">AR25/$AR$40</f>
         <v>0.570795933032583</v>
       </c>
-      <c r="AT25" s="6" t="n">
+      <c r="AT25" s="2" t="n">
         <f aca="false">ABS(AQ25-$AQ$41)</f>
         <v>0.000312270347985977</v>
       </c>
@@ -5863,11 +5856,11 @@
         <f aca="false">AZ24+AY25</f>
         <v>7.06106730413969</v>
       </c>
-      <c r="BA25" s="6" t="n">
+      <c r="BA25" s="2" t="n">
         <f aca="false">AZ25/$AZ$40</f>
         <v>0.571368594705964</v>
       </c>
-      <c r="BB25" s="6" t="n">
+      <c r="BB25" s="2" t="n">
         <f aca="false">ABS(AY25-$AY$41)</f>
         <v>0.000621833931900018</v>
       </c>
@@ -5890,11 +5883,11 @@
         <f aca="false">BH24+BG25</f>
         <v>5.99278632338283</v>
       </c>
-      <c r="BI25" s="6" t="n">
+      <c r="BI25" s="2" t="n">
         <f aca="false">BH25/$BH$40</f>
         <v>0.570587596222057</v>
       </c>
-      <c r="BJ25" s="6" t="n">
+      <c r="BJ25" s="2" t="n">
         <f aca="false">ABS(BG25-$BG$41)</f>
         <v>5.59999410540413E-005</v>
       </c>
@@ -5926,11 +5919,11 @@
         <f aca="false">T25+S26</f>
         <v>25.1886429593231</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="U26" s="2" t="n">
         <f aca="false">T26/$T$40</f>
         <v>0.599664773431371</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="V26" s="2" t="n">
         <f aca="false">ABS(S26-$S$41)</f>
         <v>0.000299548556830009</v>
       </c>
@@ -5953,11 +5946,11 @@
         <f aca="false">AB25+AA26</f>
         <v>15.7421897450634</v>
       </c>
-      <c r="AC26" s="6" t="n">
+      <c r="AC26" s="2" t="n">
         <f aca="false">AB26/$AB$40</f>
         <v>0.599584202751575</v>
       </c>
-      <c r="AD26" s="6" t="n">
+      <c r="AD26" s="2" t="n">
         <f aca="false">ABS(AA26-$AA$41)</f>
         <v>0.000258646344280855</v>
       </c>
@@ -5980,11 +5973,11 @@
         <f aca="false">AJ25+AI26</f>
         <v>11.4588437275329</v>
       </c>
-      <c r="AK26" s="6" t="n">
+      <c r="AK26" s="2" t="n">
         <f aca="false">AJ26/$AJ$40</f>
         <v>0.600124149401567</v>
       </c>
-      <c r="AL26" s="6" t="n">
+      <c r="AL26" s="2" t="n">
         <f aca="false">ABS(AI26-$AI$41)</f>
         <v>0.000521653586225024</v>
       </c>
@@ -6007,11 +6000,11 @@
         <f aca="false">AR25+AQ26</f>
         <v>8.99263369196456</v>
       </c>
-      <c r="AS26" s="6" t="n">
+      <c r="AS26" s="2" t="n">
         <f aca="false">AR26/$AR$40</f>
         <v>0.599392525613597</v>
       </c>
-      <c r="AT26" s="6" t="n">
+      <c r="AT26" s="2" t="n">
         <f aca="false">ABS(AQ26-$AQ$41)</f>
         <v>0.000377533437185995</v>
       </c>
@@ -6034,11 +6027,11 @@
         <f aca="false">AZ25+AY26</f>
         <v>7.41425324815449</v>
       </c>
-      <c r="BA26" s="6" t="n">
+      <c r="BA26" s="2" t="n">
         <f aca="false">AZ26/$AZ$40</f>
         <v>0.599947752474837</v>
       </c>
-      <c r="BB26" s="6" t="n">
+      <c r="BB26" s="2" t="n">
         <f aca="false">ABS(AY26-$AY$41)</f>
         <v>9.55186964500254E-005</v>
       </c>
@@ -6061,11 +6054,11 @@
         <f aca="false">BH25+BG26</f>
         <v>6.2929775863394</v>
       </c>
-      <c r="BI26" s="6" t="n">
+      <c r="BI26" s="2" t="n">
         <f aca="false">BH26/$BH$40</f>
         <v>0.599169528214013</v>
       </c>
-      <c r="BJ26" s="6" t="n">
+      <c r="BJ26" s="2" t="n">
         <f aca="false">ABS(BG26-$BG$41)</f>
         <v>0.000110315673355954</v>
       </c>
@@ -6084,7 +6077,7 @@
       <c r="P27" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="0" t="s">
@@ -6097,11 +6090,11 @@
         <f aca="false">T26+S27</f>
         <v>26.3891595903582</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="U27" s="2" t="n">
         <f aca="false">T27/$T$40</f>
         <v>0.62824541331391</v>
       </c>
-      <c r="V27" s="6" t="n">
+      <c r="V27" s="2" t="n">
         <f aca="false">ABS(S27-$S$41)</f>
         <v>0.000386916885930066</v>
       </c>
@@ -6124,11 +6117,11 @@
         <f aca="false">AB26+AA27</f>
         <v>16.4926026393656</v>
       </c>
-      <c r="AC27" s="6" t="n">
+      <c r="AC27" s="2" t="n">
         <f aca="false">AB27/$AB$40</f>
         <v>0.628165723127785</v>
       </c>
-      <c r="AD27" s="6" t="n">
+      <c r="AD27" s="2" t="n">
         <f aca="false">ABS(AA27-$AA$41)</f>
         <v>0.000264962127110913</v>
       </c>
@@ -6151,11 +6144,11 @@
         <f aca="false">AJ26+AI27</f>
         <v>12.0050978893707</v>
       </c>
-      <c r="AK27" s="6" t="n">
+      <c r="AK27" s="2" t="n">
         <f aca="false">AJ27/$AJ$40</f>
         <v>0.628732647957338</v>
       </c>
-      <c r="AL27" s="6" t="n">
+      <c r="AL27" s="2" t="n">
         <f aca="false">ABS(AI27-$AI$41)</f>
         <v>0.000707818803795002</v>
       </c>
@@ -6178,11 +6171,11 @@
         <f aca="false">AR26+AQ27</f>
         <v>9.42168376664869</v>
       </c>
-      <c r="AS27" s="6" t="n">
+      <c r="AS27" s="2" t="n">
         <f aca="false">AR27/$AR$40</f>
         <v>0.627990310944208</v>
       </c>
-      <c r="AT27" s="6" t="n">
+      <c r="AT27" s="2" t="n">
         <f aca="false">ABS(AQ27-$AQ$41)</f>
         <v>0.000395428155185951</v>
       </c>
@@ -6205,11 +6198,11 @@
         <f aca="false">AZ26+AY27</f>
         <v>7.76804234942912</v>
       </c>
-      <c r="BA27" s="6" t="n">
+      <c r="BA27" s="2" t="n">
         <f aca="false">AZ27/$AZ$40</f>
         <v>0.628575716621144</v>
       </c>
-      <c r="BB27" s="6" t="n">
+      <c r="BB27" s="2" t="n">
         <f aca="false">ABS(AY27-$AY$41)</f>
         <v>0.000698675956279982</v>
       </c>
@@ -6232,11 +6225,11 @@
         <f aca="false">BH26+BG27</f>
         <v>6.59322779660234</v>
       </c>
-      <c r="BI27" s="6" t="n">
+      <c r="BI27" s="2" t="n">
         <f aca="false">BH27/$BH$40</f>
         <v>0.627757072720754</v>
       </c>
-      <c r="BJ27" s="6" t="n">
+      <c r="BJ27" s="2" t="n">
         <f aca="false">ABS(BG27-$BG$41)</f>
         <v>0.00016926297972597</v>
       </c>
@@ -6268,11 +6261,11 @@
         <f aca="false">T27+S28</f>
         <v>27.5897435897435</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="U28" s="2" t="n">
         <f aca="false">T28/$T$40</f>
         <v>0.65682765703142</v>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="V28" s="2" t="n">
         <f aca="false">ABS(S28-$S$41)</f>
         <v>0.000454285236130003</v>
       </c>
@@ -6295,11 +6288,11 @@
         <f aca="false">AB27+AA28</f>
         <v>17.2430492178429</v>
       </c>
-      <c r="AC28" s="6" t="n">
+      <c r="AC28" s="2" t="n">
         <f aca="false">AB28/$AB$40</f>
         <v>0.656748526457611</v>
       </c>
-      <c r="AD28" s="6" t="n">
+      <c r="AD28" s="2" t="n">
         <f aca="false">ABS(AA28-$AA$41)</f>
         <v>0.000298646302180905</v>
       </c>
@@ -6322,11 +6315,11 @@
         <f aca="false">AJ27+AI28</f>
         <v>12.5502457365834</v>
       </c>
-      <c r="AK28" s="6" t="n">
+      <c r="AK28" s="2" t="n">
         <f aca="false">AJ28/$AJ$40</f>
         <v>0.657283206450477</v>
       </c>
-      <c r="AL28" s="6" t="n">
+      <c r="AL28" s="2" t="n">
         <f aca="false">ABS(AI28-$AI$41)</f>
         <v>0.000398495821135048</v>
       </c>
@@ -6349,11 +6342,11 @@
         <f aca="false">AR27+AQ28</f>
         <v>9.85075910446412</v>
       </c>
-      <c r="AS28" s="6" t="n">
+      <c r="AS28" s="2" t="n">
         <f aca="false">AR28/$AR$40</f>
         <v>0.656589780156604</v>
       </c>
-      <c r="AT28" s="6" t="n">
+      <c r="AT28" s="2" t="n">
         <f aca="false">ABS(AQ28-$AQ$41)</f>
         <v>0.000420691286485975</v>
       </c>
@@ -6376,11 +6369,11 @@
         <f aca="false">AZ27+AY28</f>
         <v>8.12063355722785</v>
       </c>
-      <c r="BA28" s="6" t="n">
+      <c r="BA28" s="2" t="n">
         <f aca="false">AZ28/$AZ$40</f>
         <v>0.657106749427973</v>
       </c>
-      <c r="BB28" s="6" t="n">
+      <c r="BB28" s="2" t="n">
         <f aca="false">ABS(AY28-$AY$41)</f>
         <v>0.00049921751962001</v>
       </c>
@@ -6403,11 +6396,11 @@
         <f aca="false">BH27+BG28</f>
         <v>6.89356537519436</v>
       </c>
-      <c r="BI28" s="6" t="n">
+      <c r="BI28" s="2" t="n">
         <f aca="false">BH28/$BH$40</f>
         <v>0.656352935776195</v>
       </c>
-      <c r="BJ28" s="6" t="n">
+      <c r="BJ28" s="2" t="n">
         <f aca="false">ABS(BG28-$BG$41)</f>
         <v>0.000256631308805932</v>
       </c>
@@ -6426,7 +6419,7 @@
       <c r="P29" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R29" s="0" t="s">
@@ -6439,11 +6432,11 @@
         <f aca="false">T28+S29</f>
         <v>28.7903717996085</v>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="U29" s="2" t="n">
         <f aca="false">T29/$T$40</f>
         <v>0.685410953265627</v>
       </c>
-      <c r="V29" s="6" t="n">
+      <c r="V29" s="2" t="n">
         <f aca="false">ABS(S29-$S$41)</f>
         <v>0.00049849571583005</v>
       </c>
@@ -6466,11 +6459,11 @@
         <f aca="false">AB28+AA29</f>
         <v>17.9935379015391</v>
       </c>
-      <c r="AC29" s="6" t="n">
+      <c r="AC29" s="2" t="n">
         <f aca="false">AB29/$AB$40</f>
         <v>0.685332933479457</v>
       </c>
-      <c r="AD29" s="6" t="n">
+      <c r="AD29" s="2" t="n">
         <f aca="false">ABS(AA29-$AA$41)</f>
         <v>0.000340751521010874</v>
       </c>
@@ -6493,11 +6486,11 @@
         <f aca="false">AJ28+AI29</f>
         <v>13.0950356894361</v>
       </c>
-      <c r="AK29" s="6" t="n">
+      <c r="AK29" s="2" t="n">
         <f aca="false">AJ29/$AJ$40</f>
         <v>0.685815021250662</v>
       </c>
-      <c r="AL29" s="6" t="n">
+      <c r="AL29" s="2" t="n">
         <f aca="false">ABS(AI29-$AI$41)</f>
         <v>0.00075639018124507</v>
       </c>
@@ -6520,11 +6513,11 @@
         <f aca="false">AR28+AQ29</f>
         <v>10.2798481264757</v>
       </c>
-      <c r="AS29" s="6" t="n">
+      <c r="AS29" s="2" t="n">
         <f aca="false">AR29/$AR$40</f>
         <v>0.685190161471634</v>
       </c>
-      <c r="AT29" s="6" t="n">
+      <c r="AT29" s="2" t="n">
         <f aca="false">ABS(AQ29-$AQ$41)</f>
         <v>0.00043437548261599</v>
       </c>
@@ -6547,11 +6540,11 @@
         <f aca="false">AZ28+AY29</f>
         <v>8.47457634255123</v>
       </c>
-      <c r="BA29" s="6" t="n">
+      <c r="BA29" s="2" t="n">
         <f aca="false">AZ29/$AZ$40</f>
         <v>0.68574714940518</v>
       </c>
-      <c r="BB29" s="6" t="n">
+      <c r="BB29" s="2" t="n">
         <f aca="false">ABS(AY29-$AY$41)</f>
         <v>0.000852360005030028</v>
       </c>
@@ -6574,11 +6567,11 @@
         <f aca="false">BH28+BG29</f>
         <v>7.19397979581076</v>
       </c>
-      <c r="BI29" s="6" t="n">
+      <c r="BI29" s="2" t="n">
         <f aca="false">BH29/$BH$40</f>
         <v>0.684956115145553</v>
       </c>
-      <c r="BJ29" s="6" t="n">
+      <c r="BJ29" s="2" t="n">
         <f aca="false">ABS(BG29-$BG$41)</f>
         <v>0.000333473333185952</v>
       </c>
@@ -6610,11 +6603,11 @@
         <f aca="false">T29+S30</f>
         <v>29.9910989567378</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="U30" s="2" t="n">
         <f aca="false">T30/$T$40</f>
         <v>0.713996605132447</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="V30" s="2" t="n">
         <f aca="false">ABS(S30-$S$41)</f>
         <v>0.00059744298012987</v>
       </c>
@@ -6637,11 +6630,11 @@
         <f aca="false">AB29+AA30</f>
         <v>18.7440907956939</v>
       </c>
-      <c r="AC30" s="6" t="n">
+      <c r="AC30" s="2" t="n">
         <f aca="false">AB30/$AB$40</f>
         <v>0.713919786131633</v>
       </c>
-      <c r="AD30" s="6" t="n">
+      <c r="AD30" s="2" t="n">
         <f aca="false">ABS(AA30-$AA$41)</f>
         <v>0.000404961979740937</v>
       </c>
@@ -6664,11 +6657,11 @@
         <f aca="false">AJ29+AI30</f>
         <v>13.6414035353647</v>
       </c>
-      <c r="AK30" s="6" t="n">
+      <c r="AK30" s="2" t="n">
         <f aca="false">AJ30/$AJ$40</f>
         <v>0.714429473685371</v>
       </c>
-      <c r="AL30" s="6" t="n">
+      <c r="AL30" s="2" t="n">
         <f aca="false">ABS(AI30-$AI$41)</f>
         <v>0.000821502894654991</v>
       </c>
@@ -6691,11 +6684,11 @@
         <f aca="false">AR29+AQ30</f>
         <v>10.7089403063787</v>
       </c>
-      <c r="AS30" s="6" t="n">
+      <c r="AS30" s="2" t="n">
         <f aca="false">AR30/$AR$40</f>
         <v>0.713790753271888</v>
       </c>
-      <c r="AT30" s="6" t="n">
+      <c r="AT30" s="2" t="n">
         <f aca="false">ABS(AQ30-$AQ$41)</f>
         <v>0.000437533374025967</v>
       </c>
@@ -6718,11 +6711,11 @@
         <f aca="false">AZ29+AY30</f>
         <v>8.82883386438542</v>
       </c>
-      <c r="BA30" s="6" t="n">
+      <c r="BA30" s="2" t="n">
         <f aca="false">AZ30/$AZ$40</f>
         <v>0.714413017282654</v>
       </c>
-      <c r="BB30" s="6" t="n">
+      <c r="BB30" s="2" t="n">
         <f aca="false">ABS(AY30-$AY$41)</f>
         <v>0.00116709651584002</v>
       </c>
@@ -6745,11 +6738,11 @@
         <f aca="false">BH29+BG30</f>
         <v>7.49441211114516</v>
       </c>
-      <c r="BI30" s="6" t="n">
+      <c r="BI30" s="2" t="n">
         <f aca="false">BH30/$BH$40</f>
         <v>0.713560998314041</v>
       </c>
-      <c r="BJ30" s="6" t="n">
+      <c r="BJ30" s="2" t="n">
         <f aca="false">ABS(BG30-$BG$41)</f>
         <v>0.000351368051185963</v>
       </c>
@@ -6768,7 +6761,7 @@
       <c r="P31" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="0" t="s">
@@ -6781,11 +6774,11 @@
         <f aca="false">T30+S31</f>
         <v>31.1919366400666</v>
       </c>
-      <c r="U31" s="6" t="n">
+      <c r="U31" s="2" t="n">
         <f aca="false">T31/$T$40</f>
         <v>0.742584888291016</v>
       </c>
-      <c r="V31" s="6" t="n">
+      <c r="V31" s="2" t="n">
         <f aca="false">ABS(S31-$S$41)</f>
         <v>0.000707969179629897</v>
       </c>
@@ -6808,11 +6801,11 @@
         <f aca="false">AB30+AA31</f>
         <v>19.4947710581357</v>
       </c>
-      <c r="AC31" s="6" t="n">
+      <c r="AC31" s="2" t="n">
         <f aca="false">AB31/$AB$40</f>
         <v>0.742511489952168</v>
       </c>
-      <c r="AD31" s="6" t="n">
+      <c r="AD31" s="2" t="n">
         <f aca="false">ABS(AA31-$AA$41)</f>
         <v>0.000532330266720837</v>
       </c>
@@ -6835,11 +6828,11 @@
         <f aca="false">AJ30+AI31</f>
         <v>14.1863787511803</v>
       </c>
-      <c r="AK31" s="6" t="n">
+      <c r="AK31" s="2" t="n">
         <f aca="false">AJ31/$AJ$40</f>
         <v>0.742970991103086</v>
       </c>
-      <c r="AL31" s="6" t="n">
+      <c r="AL31" s="2" t="n">
         <f aca="false">ABS(AI31-$AI$41)</f>
         <v>0.000571127218365053</v>
       </c>
@@ -6862,11 +6855,11 @@
         <f aca="false">AR30+AQ31</f>
         <v>11.1380524862606</v>
       </c>
-      <c r="AS31" s="6" t="n">
+      <c r="AS31" s="2" t="n">
         <f aca="false">AR31/$AR$40</f>
         <v>0.742392678145222</v>
       </c>
-      <c r="AT31" s="6" t="n">
+      <c r="AT31" s="2" t="n">
         <f aca="false">ABS(AQ31-$AQ$41)</f>
         <v>0.000457533352975992</v>
       </c>
@@ -6889,11 +6882,11 @@
         <f aca="false">AZ30+AY31</f>
         <v>9.18247138687224</v>
       </c>
-      <c r="BA31" s="6" t="n">
+      <c r="BA31" s="2" t="n">
         <f aca="false">AZ31/$AZ$40</f>
         <v>0.743028715951909</v>
       </c>
-      <c r="BB31" s="6" t="n">
+      <c r="BB31" s="2" t="n">
         <f aca="false">ABS(AY31-$AY$41)</f>
         <v>0.000547097168470012</v>
       </c>
@@ -6916,11 +6909,11 @@
         <f aca="false">BH30+BG31</f>
         <v>7.79489600537264</v>
       </c>
-      <c r="BI31" s="6" t="n">
+      <c r="BI31" s="2" t="n">
         <f aca="false">BH31/$BH$40</f>
         <v>0.742170792432968</v>
       </c>
-      <c r="BJ31" s="6" t="n">
+      <c r="BJ31" s="2" t="n">
         <f aca="false">ABS(BG31-$BG$41)</f>
         <v>0.000402946944265958</v>
       </c>
@@ -6952,11 +6945,11 @@
         <f aca="false">T31+S32</f>
         <v>32.3928522180502</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="U32" s="2" t="n">
         <f aca="false">T32/$T$40</f>
         <v>0.771175025883767</v>
       </c>
-      <c r="V32" s="6" t="n">
+      <c r="V32" s="2" t="n">
         <f aca="false">ABS(S32-$S$41)</f>
         <v>0.000785863834430023</v>
       </c>
@@ -6979,11 +6972,11 @@
         <f aca="false">AB31+AA32</f>
         <v>20.245452373208</v>
       </c>
-      <c r="AC32" s="6" t="n">
+      <c r="AC32" s="2" t="n">
         <f aca="false">AB32/$AB$40</f>
         <v>0.771103233865004</v>
       </c>
-      <c r="AD32" s="6" t="n">
+      <c r="AD32" s="2" t="n">
         <f aca="false">ABS(AA32-$AA$41)</f>
         <v>0.000533382897190959</v>
       </c>
@@ -7006,11 +6999,11 @@
         <f aca="false">AJ31+AI32</f>
         <v>14.7304581784651</v>
       </c>
-      <c r="AK32" s="6" t="n">
+      <c r="AK32" s="2" t="n">
         <f aca="false">AJ32/$AJ$40</f>
         <v>0.771465594159906</v>
       </c>
-      <c r="AL32" s="6" t="n">
+      <c r="AL32" s="2" t="n">
         <f aca="false">ABS(AI32-$AI$41)</f>
         <v>0.00146691574911506</v>
       </c>
@@ -7033,11 +7026,11 @@
         <f aca="false">AR31+AQ32</f>
         <v>11.5672457186888</v>
       </c>
-      <c r="AS32" s="6" t="n">
+      <c r="AS32" s="2" t="n">
         <f aca="false">AR32/$AR$40</f>
         <v>0.771000005472617</v>
       </c>
-      <c r="AT32" s="6" t="n">
+      <c r="AT32" s="2" t="n">
         <f aca="false">ABS(AQ32-$AQ$41)</f>
         <v>0.000538585899235999</v>
       </c>
@@ -7060,11 +7053,11 @@
         <f aca="false">AZ31+AY32</f>
         <v>9.53542575218343</v>
       </c>
-      <c r="BA32" s="6" t="n">
+      <c r="BA32" s="2" t="n">
         <f aca="false">AZ32/$AZ$40</f>
         <v>0.771589134797507</v>
       </c>
-      <c r="BB32" s="6" t="n">
+      <c r="BB32" s="2" t="n">
         <f aca="false">ABS(AY32-$AY$41)</f>
         <v>0.000136060007159988</v>
       </c>
@@ -7087,11 +7080,11 @@
         <f aca="false">BH31+BG32</f>
         <v>8.09549884684333</v>
       </c>
-      <c r="BI32" s="6" t="n">
+      <c r="BI32" s="2" t="n">
         <f aca="false">BH32/$BH$40</f>
         <v>0.770791911804943</v>
       </c>
-      <c r="BJ32" s="6" t="n">
+      <c r="BJ32" s="2" t="n">
         <f aca="false">ABS(BG32-$BG$41)</f>
         <v>0.000521894187475946</v>
       </c>
@@ -7110,7 +7103,7 @@
       <c r="P33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="0" t="s">
@@ -7123,11 +7116,11 @@
         <f aca="false">T32+S33</f>
         <v>33.593777269708</v>
       </c>
-      <c r="U33" s="6" t="n">
+      <c r="U33" s="2" t="n">
         <f aca="false">T33/$T$40</f>
         <v>0.79976538901581</v>
       </c>
-      <c r="V33" s="6" t="n">
+      <c r="V33" s="2" t="n">
         <f aca="false">ABS(S33-$S$41)</f>
         <v>0.000795337508630034</v>
       </c>
@@ -7150,11 +7143,11 @@
         <f aca="false">AB32+AA33</f>
         <v>20.9961568461507</v>
       </c>
-      <c r="AC33" s="6" t="n">
+      <c r="AC33" s="2" t="n">
         <f aca="false">AB33/$AB$40</f>
         <v>0.799695859808451</v>
       </c>
-      <c r="AD33" s="6" t="n">
+      <c r="AD33" s="2" t="n">
         <f aca="false">ABS(AA33-$AA$41)</f>
         <v>0.000556540767550851</v>
       </c>
@@ -7177,11 +7170,11 @@
         <f aca="false">AJ32+AI33</f>
         <v>15.2761554987837</v>
       </c>
-      <c r="AK33" s="6" t="n">
+      <c r="AK33" s="2" t="n">
         <f aca="false">AJ33/$AJ$40</f>
         <v>0.800044929734581</v>
       </c>
-      <c r="AL33" s="6" t="n">
+      <c r="AL33" s="2" t="n">
         <f aca="false">ABS(AI33-$AI$41)</f>
         <v>0.000150977284684939</v>
       </c>
@@ -7204,11 +7197,11 @@
         <f aca="false">AR32+AQ33</f>
         <v>11.9964473721607</v>
       </c>
-      <c r="AS33" s="6" t="n">
+      <c r="AS33" s="2" t="n">
         <f aca="false">AR33/$AR$40</f>
         <v>0.799607894093939</v>
       </c>
-      <c r="AT33" s="6" t="n">
+      <c r="AT33" s="2" t="n">
         <f aca="false">ABS(AQ33-$AQ$41)</f>
         <v>0.000547006942995976</v>
       </c>
@@ -7231,11 +7224,11 @@
         <f aca="false">AZ32+AY33</f>
         <v>9.88840327536498</v>
       </c>
-      <c r="BA33" s="6" t="n">
+      <c r="BA33" s="2" t="n">
         <f aca="false">AZ33/$AZ$40</f>
         <v>0.800151427535433</v>
       </c>
-      <c r="BB33" s="6" t="n">
+      <c r="BB33" s="2" t="n">
         <f aca="false">ABS(AY33-$AY$41)</f>
         <v>0.000112902136799986</v>
       </c>
@@ -7258,11 +7251,11 @@
         <f aca="false">BH32+BG33</f>
         <v>8.39616695140322</v>
       </c>
-      <c r="BI33" s="6" t="n">
+      <c r="BI33" s="2" t="n">
         <f aca="false">BH33/$BH$40</f>
         <v>0.799419245032574</v>
       </c>
-      <c r="BJ33" s="6" t="n">
+      <c r="BJ33" s="2" t="n">
         <f aca="false">ABS(BG33-$BG$41)</f>
         <v>0.000587157276675965</v>
       </c>
@@ -7294,11 +7287,11 @@
         <f aca="false">T33+S34</f>
         <v>34.7947086371487</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="U34" s="2" t="n">
         <f aca="false">T34/$T$40</f>
         <v>0.828355902507384</v>
       </c>
-      <c r="V34" s="6" t="n">
+      <c r="V34" s="2" t="n">
         <f aca="false">ABS(S34-$S$41)</f>
         <v>0.000801653291530036</v>
       </c>
@@ -7321,11 +7314,11 @@
         <f aca="false">AB33+AA34</f>
         <v>21.7470318452296</v>
       </c>
-      <c r="AC34" s="6" t="n">
+      <c r="AC34" s="2" t="n">
         <f aca="false">AB34/$AB$40</f>
         <v>0.828294980704579</v>
       </c>
-      <c r="AD34" s="6" t="n">
+      <c r="AD34" s="2" t="n">
         <f aca="false">ABS(AA34-$AA$41)</f>
         <v>0.000727066903840834</v>
       </c>
@@ -7348,11 +7341,11 @@
         <f aca="false">AJ33+AI34</f>
         <v>15.8226486077383</v>
       </c>
-      <c r="AK34" s="6" t="n">
+      <c r="AK34" s="2" t="n">
         <f aca="false">AJ34/$AJ$40</f>
         <v>0.828665942461824</v>
       </c>
-      <c r="AL34" s="6" t="n">
+      <c r="AL34" s="2" t="n">
         <f aca="false">ABS(AI34-$AI$41)</f>
         <v>0.000946765920694981</v>
       </c>
@@ -7375,11 +7368,11 @@
         <f aca="false">AR33+AQ34</f>
         <v>12.4257100782</v>
       </c>
-      <c r="AS34" s="6" t="n">
+      <c r="AS34" s="2" t="n">
         <f aca="false">AR34/$AR$40</f>
         <v>0.828219852096244</v>
       </c>
-      <c r="AT34" s="6" t="n">
+      <c r="AT34" s="2" t="n">
         <f aca="false">ABS(AQ34-$AQ$41)</f>
         <v>0.00060805951031595</v>
       </c>
@@ -7402,11 +7395,11 @@
         <f aca="false">AZ33+AY34</f>
         <v>10.2406492203693</v>
       </c>
-      <c r="BA34" s="6" t="n">
+      <c r="BA34" s="2" t="n">
         <f aca="false">AZ34/$AZ$40</f>
         <v>0.8286545223112</v>
       </c>
-      <c r="BB34" s="6" t="n">
+      <c r="BB34" s="2" t="n">
         <f aca="false">ABS(AY34-$AY$41)</f>
         <v>0.000844480314080021</v>
       </c>
@@ -7429,11 +7422,11 @@
         <f aca="false">BH33+BG34</f>
         <v>8.69688031907336</v>
       </c>
-      <c r="BI34" s="6" t="n">
+      <c r="BI34" s="2" t="n">
         <f aca="false">BH34/$BH$40</f>
         <v>0.828050887869772</v>
       </c>
-      <c r="BJ34" s="6" t="n">
+      <c r="BJ34" s="2" t="n">
         <f aca="false">ABS(BG34-$BG$41)</f>
         <v>0.000632420386925958</v>
       </c>
@@ -7452,7 +7445,7 @@
       <c r="P35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="0" t="s">
@@ -7465,11 +7458,11 @@
         <f aca="false">T34+S35</f>
         <v>35.9956494782636</v>
       </c>
-      <c r="U35" s="6" t="n">
+      <c r="U35" s="2" t="n">
         <f aca="false">T35/$T$40</f>
         <v>0.856946641538249</v>
       </c>
-      <c r="V35" s="6" t="n">
+      <c r="V35" s="2" t="n">
         <f aca="false">ABS(S35-$S$41)</f>
         <v>0.000811126965730047</v>
       </c>
@@ -7492,11 +7485,11 @@
         <f aca="false">AB34+AA35</f>
         <v>22.4980100020947</v>
       </c>
-      <c r="AC35" s="6" t="n">
+      <c r="AC35" s="2" t="n">
         <f aca="false">AB35/$AB$40</f>
         <v>0.856898030646154</v>
       </c>
-      <c r="AD35" s="6" t="n">
+      <c r="AD35" s="2" t="n">
         <f aca="false">ABS(AA35-$AA$41)</f>
         <v>0.000830224689990944</v>
       </c>
@@ -7519,11 +7512,11 @@
         <f aca="false">AJ34+AI35</f>
         <v>16.3678396128004</v>
       </c>
-      <c r="AK35" s="6" t="n">
+      <c r="AK35" s="2" t="n">
         <f aca="false">AJ35/$AJ$40</f>
         <v>0.85721876122382</v>
       </c>
-      <c r="AL35" s="6" t="n">
+      <c r="AL35" s="2" t="n">
         <f aca="false">ABS(AI35-$AI$41)</f>
         <v>0.000355337971824965</v>
       </c>
@@ -7546,11 +7539,11 @@
         <f aca="false">AR34+AQ35</f>
         <v>12.854979100022</v>
       </c>
-      <c r="AS35" s="6" t="n">
+      <c r="AS35" s="2" t="n">
         <f aca="false">AR35/$AR$40</f>
         <v>0.856832231068994</v>
       </c>
-      <c r="AT35" s="6" t="n">
+      <c r="AT35" s="2" t="n">
         <f aca="false">ABS(AQ35-$AQ$41)</f>
         <v>0.00061437529313596</v>
       </c>
@@ -7573,11 +7566,11 @@
         <f aca="false">AZ34+AY35</f>
         <v>10.5946309530201</v>
       </c>
-      <c r="BA35" s="6" t="n">
+      <c r="BA35" s="2" t="n">
         <f aca="false">AZ35/$AZ$40</f>
         <v>0.857298073834594</v>
       </c>
-      <c r="BB35" s="6" t="n">
+      <c r="BB35" s="2" t="n">
         <f aca="false">ABS(AY35-$AY$41)</f>
         <v>0.000891307332460012</v>
       </c>
@@ -7600,11 +7593,11 @@
         <f aca="false">BH34+BG35</f>
         <v>8.99759894989585</v>
       </c>
-      <c r="BI35" s="6" t="n">
+      <c r="BI35" s="2" t="n">
         <f aca="false">BH35/$BH$40</f>
         <v>0.856683031824362</v>
       </c>
-      <c r="BJ35" s="6" t="n">
+      <c r="BJ35" s="2" t="n">
         <f aca="false">ABS(BG35-$BG$41)</f>
         <v>0.000637683539275957</v>
       </c>
@@ -7636,11 +7629,11 @@
         <f aca="false">T35+S36</f>
         <v>37.1969766347613</v>
       </c>
-      <c r="U36" s="6" t="n">
+      <c r="U36" s="2" t="n">
         <f aca="false">T36/$T$40</f>
         <v>0.885546577560269</v>
       </c>
-      <c r="V36" s="6" t="n">
+      <c r="V36" s="2" t="n">
         <f aca="false">ABS(S36-$S$41)</f>
         <v>0.00119744234852992</v>
       </c>
@@ -7663,11 +7656,11 @@
         <f aca="false">AB35+AA36</f>
         <v>23.249073422028</v>
       </c>
-      <c r="AC36" s="6" t="n">
+      <c r="AC36" s="2" t="n">
         <f aca="false">AB36/$AB$40</f>
         <v>0.88550432806407</v>
       </c>
-      <c r="AD36" s="6" t="n">
+      <c r="AD36" s="2" t="n">
         <f aca="false">ABS(AA36-$AA$41)</f>
         <v>0.000915487758130884</v>
       </c>
@@ -7690,11 +7683,11 @@
         <f aca="false">AJ35+AI36</f>
         <v>16.912361144883</v>
       </c>
-      <c r="AK36" s="6" t="n">
+      <c r="AK36" s="2" t="n">
         <f aca="false">AJ36/$AJ$40</f>
         <v>0.885736518254289</v>
       </c>
-      <c r="AL36" s="6" t="n">
+      <c r="AL36" s="2" t="n">
         <f aca="false">ABS(AI36-$AI$41)</f>
         <v>0.00102481095132501</v>
       </c>
@@ -7717,11 +7710,11 @@
         <f aca="false">AR35+AQ36</f>
         <v>13.2844186479804</v>
       </c>
-      <c r="AS36" s="6" t="n">
+      <c r="AS36" s="2" t="n">
         <f aca="false">AR36/$AR$40</f>
         <v>0.885455976243796</v>
       </c>
-      <c r="AT36" s="6" t="n">
+      <c r="AT36" s="2" t="n">
         <f aca="false">ABS(AQ36-$AQ$41)</f>
         <v>0.000784901429425999</v>
       </c>
@@ -7744,11 +7737,11 @@
         <f aca="false">AZ35+AY36</f>
         <v>10.9474674237185</v>
       </c>
-      <c r="BA36" s="6" t="n">
+      <c r="BA36" s="2" t="n">
         <f aca="false">AZ36/$AZ$40</f>
         <v>0.885848952864708</v>
       </c>
-      <c r="BB36" s="6" t="n">
+      <c r="BB36" s="2" t="n">
         <f aca="false">ABS(AY36-$AY$41)</f>
         <v>0.000253954619900021</v>
       </c>
@@ -7771,11 +7764,11 @@
         <f aca="false">BH35+BG36</f>
         <v>9.29835968593718</v>
       </c>
-      <c r="BI36" s="6" t="n">
+      <c r="BI36" s="2" t="n">
         <f aca="false">BH36/$BH$40</f>
         <v>0.885319184718084</v>
       </c>
-      <c r="BJ36" s="6" t="n">
+      <c r="BJ36" s="2" t="n">
         <f aca="false">ABS(BG36-$BG$41)</f>
         <v>0.000679788758115973</v>
       </c>
@@ -7794,7 +7787,7 @@
       <c r="P37" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="0" t="s">
@@ -7807,11 +7800,11 @@
         <f aca="false">T36+S37</f>
         <v>38.3983374754341</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="U37" s="2" t="n">
         <f aca="false">T37/$T$40</f>
         <v>0.914147315499775</v>
       </c>
-      <c r="V37" s="6" t="n">
+      <c r="V37" s="2" t="n">
         <f aca="false">ABS(S37-$S$41)</f>
         <v>0.00123112652363</v>
       </c>
@@ -7834,11 +7827,11 @@
         <f aca="false">AB36+AA37</f>
         <v>24.0004915784299</v>
       </c>
-      <c r="AC37" s="6" t="n">
+      <c r="AC37" s="2" t="n">
         <f aca="false">AB37/$AB$40</f>
         <v>0.914124136587252</v>
       </c>
-      <c r="AD37" s="6" t="n">
+      <c r="AD37" s="2" t="n">
         <f aca="false">ABS(AA37-$AA$41)</f>
         <v>0.00127022422683087</v>
       </c>
@@ -7861,11 +7854,11 @@
         <f aca="false">AJ36+AI37</f>
         <v>17.4583068859928</v>
       </c>
-      <c r="AK37" s="6" t="n">
+      <c r="AK37" s="2" t="n">
         <f aca="false">AJ37/$AJ$40</f>
         <v>0.914328864157015</v>
       </c>
-      <c r="AL37" s="6" t="n">
+      <c r="AL37" s="2" t="n">
         <f aca="false">ABS(AI37-$AI$41)</f>
         <v>0.000399398075825008</v>
       </c>
@@ -7888,11 +7881,11 @@
         <f aca="false">AR36+AQ37</f>
         <v>13.7139624063554</v>
       </c>
-      <c r="AS37" s="6" t="n">
+      <c r="AS37" s="2" t="n">
         <f aca="false">AR37/$AR$40</f>
         <v>0.914086667430962</v>
       </c>
-      <c r="AT37" s="6" t="n">
+      <c r="AT37" s="2" t="n">
         <f aca="false">ABS(AQ37-$AQ$41)</f>
         <v>0.000889111846045953</v>
       </c>
@@ -7915,11 +7908,11 @@
         <f aca="false">AZ36+AY37</f>
         <v>11.2996670529821</v>
       </c>
-      <c r="BA37" s="6" t="n">
+      <c r="BA37" s="2" t="n">
         <f aca="false">AZ37/$AZ$40</f>
         <v>0.914348299855821</v>
       </c>
-      <c r="BB37" s="6" t="n">
+      <c r="BB37" s="2" t="n">
         <f aca="false">ABS(AY37-$AY$41)</f>
         <v>0.000890796054800025</v>
       </c>
@@ -7942,11 +7935,11 @@
         <f aca="false">BH36+BG37</f>
         <v>9.59913094828322</v>
       </c>
-      <c r="BI37" s="6" t="n">
+      <c r="BI37" s="2" t="n">
         <f aca="false">BH37/$BH$40</f>
         <v>0.91395633984659</v>
       </c>
-      <c r="BJ37" s="6" t="n">
+      <c r="BJ37" s="2" t="n">
         <f aca="false">ABS(BG37-$BG$41)</f>
         <v>0.000690315062825964</v>
       </c>
@@ -7962,7 +7955,7 @@
       <c r="P38" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="0" t="s">
@@ -7975,11 +7968,11 @@
         <f aca="false">T37+S38</f>
         <v>39.6000572630975</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="U38" s="2" t="n">
         <f aca="false">T38/$T$40</f>
         <v>0.94275659887248</v>
       </c>
-      <c r="V38" s="6" t="n">
+      <c r="V38" s="2" t="n">
         <f aca="false">ABS(S38-$S$41)</f>
         <v>0.00159007351423002</v>
       </c>
@@ -8002,11 +7995,11 @@
         <f aca="false">AB37+AA38</f>
         <v>24.7519255242889</v>
       </c>
-      <c r="AC38" s="6" t="n">
+      <c r="AC38" s="2" t="n">
         <f aca="false">AB38/$AB$40</f>
         <v>0.942744546494941</v>
       </c>
-      <c r="AD38" s="6" t="n">
+      <c r="AD38" s="2" t="n">
         <f aca="false">ABS(AA38-$AA$41)</f>
         <v>0.00128601368389092</v>
       </c>
@@ -8029,11 +8022,11 @@
         <f aca="false">AJ37+AI38</f>
         <v>18.002532628913</v>
       </c>
-      <c r="AK38" s="6" t="n">
+      <c r="AK38" s="2" t="n">
         <f aca="false">AJ38/$AJ$40</f>
         <v>0.942831130076543</v>
       </c>
-      <c r="AL38" s="6" t="n">
+      <c r="AL38" s="2" t="n">
         <f aca="false">ABS(AI38-$AI$41)</f>
         <v>0.00132060011365498</v>
       </c>
@@ -8056,11 +8049,11 @@
         <f aca="false">AR37+AQ38</f>
         <v>14.1435598488844</v>
       </c>
-      <c r="AS38" s="6" t="n">
+      <c r="AS38" s="2" t="n">
         <f aca="false">AR38/$AR$40</f>
         <v>0.942720936866922</v>
       </c>
-      <c r="AT38" s="6" t="n">
+      <c r="AT38" s="2" t="n">
         <f aca="false">ABS(AQ38-$AQ$41)</f>
         <v>0.000942796000065971</v>
       </c>
@@ -8083,11 +8076,11 @@
         <f aca="false">AZ37+AY38</f>
         <v>11.6526572077293</v>
       </c>
-      <c r="BA38" s="6" t="n">
+      <c r="BA38" s="2" t="n">
         <f aca="false">AZ38/$AZ$40</f>
         <v>0.942911614716835</v>
       </c>
-      <c r="BB38" s="6" t="n">
+      <c r="BB38" s="2" t="n">
         <f aca="false">ABS(AY38-$AY$41)</f>
         <v>0.000100270571139982</v>
       </c>
@@ -8110,11 +8103,11 @@
         <f aca="false">BH37+BG38</f>
         <v>9.90025484183702</v>
       </c>
-      <c r="BI38" s="6" t="n">
+      <c r="BI38" s="2" t="n">
         <f aca="false">BH38/$BH$40</f>
         <v>0.94262706984033</v>
       </c>
-      <c r="BJ38" s="6" t="n">
+      <c r="BJ38" s="2" t="n">
         <f aca="false">ABS(BG38-$BG$41)</f>
         <v>0.00104294627058593</v>
       </c>
@@ -8143,11 +8136,11 @@
         <f aca="false">T38+S39</f>
         <v>40.8021412609038</v>
       </c>
-      <c r="U39" s="6" t="n">
+      <c r="U39" s="2" t="n">
         <f aca="false">T39/$T$40</f>
         <v>0.97137455297799</v>
       </c>
-      <c r="V39" s="6" t="n">
+      <c r="V39" s="2" t="n">
         <f aca="false">ABS(S39-$S$41)</f>
         <v>0.00195428365713002</v>
       </c>
@@ -8170,11 +8163,11 @@
         <f aca="false">AB38+AA39</f>
         <v>25.5033773648659</v>
       </c>
-      <c r="AC39" s="6" t="n">
+      <c r="AC39" s="2" t="n">
         <f aca="false">AB39/$AB$40</f>
         <v>0.971365637971739</v>
       </c>
-      <c r="AD39" s="6" t="n">
+      <c r="AD39" s="2" t="n">
         <f aca="false">ABS(AA39-$AA$41)</f>
         <v>0.00130390840190087</v>
       </c>
@@ -8197,11 +8190,11 @@
         <f aca="false">AJ38+AI39</f>
         <v>18.5487320539663</v>
       </c>
-      <c r="AK39" s="6" t="n">
+      <c r="AK39" s="2" t="n">
         <f aca="false">AJ39/$AJ$40</f>
         <v>0.971436761949862</v>
       </c>
-      <c r="AL39" s="6" t="n">
+      <c r="AL39" s="2" t="n">
         <f aca="false">ABS(AI39-$AI$41)</f>
         <v>0.000653082019315021</v>
       </c>
@@ -8224,11 +8217,11 @@
         <f aca="false">AR38+AQ39</f>
         <v>14.5731951861104</v>
       </c>
-      <c r="AS39" s="6" t="n">
+      <c r="AS39" s="2" t="n">
         <f aca="false">AR39/$AR$40</f>
         <v>0.97135773212556</v>
       </c>
-      <c r="AT39" s="6" t="n">
+      <c r="AT39" s="2" t="n">
         <f aca="false">ABS(AQ39-$AQ$41)</f>
         <v>0.000980690697015951</v>
       </c>
@@ -8251,11 +8244,11 @@
         <f aca="false">AZ38+AY39</f>
         <v>12.0046999950527</v>
       </c>
-      <c r="BA39" s="6" t="n">
+      <c r="BA39" s="2" t="n">
         <f aca="false">AZ39/$AZ$40</f>
         <v>0.971398270346275</v>
       </c>
-      <c r="BB39" s="6" t="n">
+      <c r="BB39" s="2" t="n">
         <f aca="false">ABS(AY39-$AY$41)</f>
         <v>0.00104763799496999</v>
       </c>
@@ -8278,11 +8271,11 @@
         <f aca="false">BH38+BG39</f>
         <v>10.2014492616324</v>
       </c>
-      <c r="BI39" s="6" t="n">
+      <c r="BI39" s="2" t="n">
         <f aca="false">BH39/$BH$40</f>
         <v>0.971304514807117</v>
       </c>
-      <c r="BJ39" s="6" t="n">
+      <c r="BJ39" s="2" t="n">
         <f aca="false">ABS(BG39-$BG$41)</f>
         <v>0.00111347251213595</v>
       </c>
@@ -8298,7 +8291,7 @@
       <c r="P40" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R40" s="0" t="s">
@@ -8311,11 +8304,11 @@
         <f aca="false">T39+S40</f>
         <v>42.0045399952209</v>
       </c>
-      <c r="U40" s="6" t="n">
+      <c r="U40" s="2" t="n">
         <f aca="false">T40/$T$40</f>
         <v>1</v>
       </c>
-      <c r="V40" s="6" t="n">
+      <c r="V40" s="2" t="n">
         <f aca="false">ABS(S40-$S$41)</f>
         <v>0.00226902016793007</v>
       </c>
@@ -8338,11 +8331,11 @@
         <f aca="false">AB39+AA40</f>
         <v>26.2551776261288</v>
       </c>
-      <c r="AC40" s="6" t="n">
+      <c r="AC40" s="2" t="n">
         <f aca="false">AB40/$AB$40</f>
         <v>1</v>
       </c>
-      <c r="AD40" s="6" t="n">
+      <c r="AD40" s="2" t="n">
         <f aca="false">ABS(AA40-$AA$41)</f>
         <v>0.00165232908777091</v>
       </c>
@@ -8365,11 +8358,11 @@
         <f aca="false">AJ39+AI40</f>
         <v>19.0941220061874</v>
       </c>
-      <c r="AK40" s="6" t="n">
+      <c r="AK40" s="2" t="n">
         <f aca="false">AJ40/$AJ$40</f>
         <v>1</v>
       </c>
-      <c r="AL40" s="6" t="n">
+      <c r="AL40" s="2" t="n">
         <f aca="false">ABS(AI40-$AI$41)</f>
         <v>0.000156390812825036</v>
       </c>
@@ -8392,11 +8385,11 @@
         <f aca="false">AR39+AQ40</f>
         <v>15.0029126285131</v>
       </c>
-      <c r="AS40" s="6" t="n">
+      <c r="AS40" s="2" t="n">
         <f aca="false">AR40/$AR$40</f>
         <v>1</v>
       </c>
-      <c r="AT40" s="6" t="n">
+      <c r="AT40" s="2" t="n">
         <f aca="false">ABS(AQ40-$AQ$41)</f>
         <v>0.00106279587374597</v>
       </c>
@@ -8419,11 +8412,11 @@
         <f aca="false">AZ39+AY40</f>
         <v>12.3581648861422</v>
       </c>
-      <c r="BA40" s="6" t="n">
+      <c r="BA40" s="2" t="n">
         <f aca="false">AZ40/$AZ$40</f>
         <v>1</v>
       </c>
-      <c r="BB40" s="6" t="n">
+      <c r="BB40" s="2" t="n">
         <f aca="false">ABS(AY40-$AY$41)</f>
         <v>0.000374465771240007</v>
       </c>
@@ -8446,11 +8439,11 @@
         <f aca="false">BH39+BG40</f>
         <v>10.5028331549125</v>
       </c>
-      <c r="BI40" s="6" t="n">
+      <c r="BI40" s="2" t="n">
         <f aca="false">BH40/$BH$40</f>
         <v>1</v>
       </c>
-      <c r="BJ40" s="6" t="n">
+      <c r="BJ40" s="2" t="n">
         <f aca="false">ABS(BG40-$BG$41)</f>
         <v>0.00130294599689595</v>
       </c>
@@ -8460,85 +8453,85 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S41" s="6" t="n">
+      <c r="S41" s="2" t="n">
         <v>1.20012971414917</v>
       </c>
       <c r="U41" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="9" t="n">
+      <c r="V41" s="7" t="n">
         <f aca="false">SUM(V6:V40)/(35*2*S41)</f>
         <v>0.000360587209089266</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="AA41" s="6" t="n">
+      <c r="X41" s="3"/>
+      <c r="AA41" s="2" t="n">
         <v>0.750147932175109</v>
       </c>
-      <c r="AC41" s="4" t="s">
+      <c r="AC41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AD41" s="9" t="n">
+      <c r="AD41" s="7" t="n">
         <f aca="false">SUM(AD6:AD40)/(35*2*AA41)</f>
         <v>0.000441490685570712</v>
       </c>
-      <c r="AI41" s="6" t="n">
+      <c r="AI41" s="2" t="n">
         <v>0.545546343033925</v>
       </c>
-      <c r="AK41" s="4" t="s">
+      <c r="AK41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL41" s="9" t="n">
+      <c r="AL41" s="7" t="n">
         <f aca="false">SUM(AL6:AL40)/(35*2*AI41)</f>
         <v>0.000539322200498958</v>
       </c>
-      <c r="AQ41" s="6" t="n">
+      <c r="AQ41" s="2" t="n">
         <v>0.428654646528944</v>
       </c>
-      <c r="AS41" s="4" t="s">
+      <c r="AS41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AT41" s="9" t="n">
+      <c r="AT41" s="7" t="n">
         <f aca="false">SUM(AT6:AT40)/(35*2*AQ41)</f>
         <v>0.000716291237538187</v>
       </c>
-      <c r="AY41" s="6" t="n">
+      <c r="AY41" s="2" t="n">
         <v>0.35309042531835</v>
       </c>
-      <c r="BA41" s="4" t="s">
+      <c r="BA41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BB41" s="9" t="n">
+      <c r="BB41" s="7" t="n">
         <f aca="false">SUM(BB6:BB40)/(35*2*AY41)</f>
         <v>0.00073644941915046</v>
       </c>
-      <c r="BG41" s="6" t="n">
+      <c r="BG41" s="2" t="n">
         <v>0.300080947283214</v>
       </c>
-      <c r="BI41" s="4" t="s">
+      <c r="BI41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BJ41" s="9" t="n">
+      <c r="BJ41" s="7" t="n">
         <f aca="false">SUM(BJ6:BJ40)/(35*2*BG41)</f>
         <v>0.000840975206514998</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S42" s="6" t="n">
+      <c r="S42" s="2" t="n">
         <v>0.000128911648938</v>
       </c>
-      <c r="AA42" s="8" t="n">
+      <c r="AA42" s="6" t="n">
         <v>9.34370223213494E-005</v>
       </c>
-      <c r="AI42" s="8" t="n">
+      <c r="AI42" s="6" t="n">
         <v>1.48579902907392E-005</v>
       </c>
-      <c r="AQ42" s="6" t="n">
+      <c r="AQ42" s="2" t="n">
         <v>0.000105342211321</v>
       </c>
-      <c r="AY42" s="8" t="n">
+      <c r="AY42" s="6" t="n">
         <v>8.98656364988923E-006</v>
       </c>
-      <c r="BG42" s="8" t="n">
+      <c r="BG42" s="6" t="n">
         <v>6.92695057397411E-005</v>
       </c>
     </row>
@@ -8549,7 +8542,7 @@
       <c r="P45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="R45" s="0" t="s">
@@ -8567,7 +8560,7 @@
       <c r="X45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Y45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Z45" s="0" t="s">
@@ -8585,7 +8578,7 @@
       <c r="AF45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AG45" s="4" t="s">
+      <c r="AG45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AH45" s="0" t="s">
@@ -8603,7 +8596,7 @@
       <c r="AN45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AO45" s="4" t="s">
+      <c r="AO45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AP45" s="0" t="s">
@@ -8621,7 +8614,7 @@
       <c r="AV45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AW45" s="4" t="s">
+      <c r="AW45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AX45" s="0" t="s">
@@ -8639,7 +8632,7 @@
       <c r="BD45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="BE45" s="4" t="s">
+      <c r="BE45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="BF45" s="0" t="s">
@@ -8672,11 +8665,11 @@
         <f aca="false">S46+T45</f>
         <v>0.19984926331656</v>
       </c>
-      <c r="U46" s="6" t="n">
+      <c r="U46" s="2" t="n">
         <f aca="false">T46/$T$80</f>
         <v>0.0285357942300143</v>
       </c>
-      <c r="V46" s="6" t="n">
+      <c r="V46" s="2" t="n">
         <f aca="false">ABS(S46-$S$81)</f>
         <v>0.000249563647082007</v>
       </c>
@@ -8699,11 +8692,11 @@
         <f aca="false">AA46+AB45</f>
         <v>0.12527039445222</v>
       </c>
-      <c r="AC46" s="6" t="n">
+      <c r="AC46" s="2" t="n">
         <f aca="false">AB46/$AB$80</f>
         <v>0.0286209161377127</v>
       </c>
-      <c r="AD46" s="6" t="n">
+      <c r="AD46" s="2" t="n">
         <f aca="false">ABS(AA46-$AA$81)</f>
         <v>0.00021660127576098</v>
       </c>
@@ -8726,11 +8719,11 @@
         <f aca="false">AI46+AJ45</f>
         <v>0.090952535839436</v>
       </c>
-      <c r="AK46" s="6" t="n">
+      <c r="AK46" s="2" t="n">
         <f aca="false">AJ46/$AJ$80</f>
         <v>0.0285780623805802</v>
       </c>
-      <c r="AL46" s="6" t="n">
+      <c r="AL46" s="2" t="n">
         <f aca="false">ABS(AI46-$AI$81)</f>
         <v>2.1112759731004E-005</v>
       </c>
@@ -8753,11 +8746,11 @@
         <f aca="false">AQ46+AR45</f>
         <v>0.070964135827225</v>
       </c>
-      <c r="AS46" s="6" t="n">
+      <c r="AS46" s="2" t="n">
         <f aca="false">AR46/$AR$80</f>
         <v>0.0283705612082147</v>
       </c>
-      <c r="AT46" s="6" t="n">
+      <c r="AT46" s="2" t="n">
         <f aca="false">ABS(AQ46-$AQ$81)</f>
         <v>0.000502435561346992</v>
       </c>
@@ -8780,11 +8773,11 @@
         <f aca="false">AY46+AZ45</f>
         <v>0.058884148543002</v>
       </c>
-      <c r="BA46" s="6" t="n">
+      <c r="BA46" s="2" t="n">
         <f aca="false">AZ46/$AZ$80</f>
         <v>0.0285929254743851</v>
       </c>
-      <c r="BB46" s="6" t="n">
+      <c r="BB46" s="2" t="n">
         <f aca="false">ABS(AY46-$AY$81)</f>
         <v>4.42706300909992E-005</v>
       </c>
@@ -8807,11 +8800,11 @@
         <f aca="false">BH45+BG46</f>
         <v>0.05007257887097</v>
       </c>
-      <c r="BI46" s="6" t="n">
+      <c r="BI46" s="2" t="n">
         <f aca="false">BH46/$BH$80</f>
         <v>0.028606479741412</v>
       </c>
-      <c r="BJ46" s="6" t="n">
+      <c r="BJ46" s="2" t="n">
         <f aca="false">ABS(BG46-$BG$81)</f>
         <v>6.13533188769944E-005</v>
       </c>
@@ -8836,11 +8829,11 @@
         <f aca="false">S47+T46</f>
         <v>0.39935957962149</v>
       </c>
-      <c r="U47" s="6" t="n">
+      <c r="U47" s="2" t="n">
         <f aca="false">T47/$T$80</f>
         <v>0.0570231913730529</v>
       </c>
-      <c r="V47" s="6" t="n">
+      <c r="V47" s="2" t="n">
         <f aca="false">ABS(S47-$S$81)</f>
         <v>0.000588510658712016</v>
       </c>
@@ -8863,11 +8856,11 @@
         <f aca="false">AA47+AB46</f>
         <v>0.24923763238144</v>
       </c>
-      <c r="AC47" s="6" t="n">
+      <c r="AC47" s="2" t="n">
         <f aca="false">AB47/$AB$80</f>
         <v>0.0569440960567267</v>
       </c>
-      <c r="AD47" s="6" t="n">
+      <c r="AD47" s="2" t="n">
         <f aca="false">ABS(AA47-$AA$81)</f>
         <v>0.00108655524723901</v>
       </c>
@@ -8890,11 +8883,11 @@
         <f aca="false">AI47+AJ46</f>
         <v>0.181898755896046</v>
       </c>
-      <c r="AK47" s="6" t="n">
+      <c r="AK47" s="2" t="n">
         <f aca="false">AJ47/$AJ$80</f>
         <v>0.0571541402883371</v>
       </c>
-      <c r="AL47" s="6" t="n">
+      <c r="AL47" s="2" t="n">
         <f aca="false">ABS(AI47-$AI$81)</f>
         <v>1.47969769049988E-005</v>
       </c>
@@ -8917,11 +8910,11 @@
         <f aca="false">AQ47+AR46</f>
         <v>0.141750377104866</v>
       </c>
-      <c r="AS47" s="6" t="n">
+      <c r="AS47" s="2" t="n">
         <f aca="false">AR47/$AR$80</f>
         <v>0.0566700024323875</v>
       </c>
-      <c r="AT47" s="6" t="n">
+      <c r="AT47" s="2" t="n">
         <f aca="false">ABS(AQ47-$AQ$81)</f>
         <v>0.000680330110930993</v>
       </c>
@@ -8944,11 +8937,11 @@
         <f aca="false">AY47+AZ46</f>
         <v>0.117914612721461</v>
       </c>
-      <c r="BA47" s="6" t="n">
+      <c r="BA47" s="2" t="n">
         <f aca="false">AZ47/$AZ$80</f>
         <v>0.057256898797196</v>
       </c>
-      <c r="BB47" s="6" t="n">
+      <c r="BB47" s="2" t="n">
         <f aca="false">ABS(AY47-$AY$81)</f>
         <v>0.000190586265548</v>
       </c>
@@ -8971,11 +8964,11 @@
         <f aca="false">BH46+BG47</f>
         <v>0.100297789160222</v>
       </c>
-      <c r="BI47" s="6" t="n">
+      <c r="BI47" s="2" t="n">
         <f aca="false">BH47/$BH$80</f>
         <v>0.0573001578591296</v>
       </c>
-      <c r="BJ47" s="6" t="n">
+      <c r="BJ47" s="2" t="n">
         <f aca="false">ABS(BG47-$BG$81)</f>
         <v>0.000213984737159001</v>
       </c>
@@ -9000,11 +8993,11 @@
         <f aca="false">S48+T47</f>
         <v>0.59925831657019</v>
       </c>
-      <c r="U48" s="6" t="n">
+      <c r="U48" s="2" t="n">
         <f aca="false">T48/$T$80</f>
         <v>0.0855660497741486</v>
       </c>
-      <c r="V48" s="6" t="n">
+      <c r="V48" s="2" t="n">
         <f aca="false">ABS(S48-$S$81)</f>
         <v>0.000200090014942006</v>
       </c>
@@ -9027,11 +9020,11 @@
         <f aca="false">AA48+AB47</f>
         <v>0.37441013219986</v>
       </c>
-      <c r="AC48" s="6" t="n">
+      <c r="AC48" s="2" t="n">
         <f aca="false">AB48/$AB$80</f>
         <v>0.0855426459033729</v>
       </c>
-      <c r="AD48" s="6" t="n">
+      <c r="AD48" s="2" t="n">
         <f aca="false">ABS(AA48-$AA$81)</f>
         <v>0.000118706641960981</v>
       </c>
@@ -9054,11 +9047,11 @@
         <f aca="false">AI48+AJ47</f>
         <v>0.272740765536036</v>
       </c>
-      <c r="AK48" s="6" t="n">
+      <c r="AK48" s="2" t="n">
         <f aca="false">AJ48/$AJ$80</f>
         <v>0.0856974743945124</v>
       </c>
-      <c r="AL48" s="6" t="n">
+      <c r="AL48" s="2" t="n">
         <f aca="false">ABS(AI48-$AI$81)</f>
         <v>8.9413439714997E-005</v>
       </c>
@@ -9081,11 +9074,11 @@
         <f aca="false">AQ48+AR47</f>
         <v>0.213469248979738</v>
       </c>
-      <c r="AS48" s="6" t="n">
+      <c r="AS48" s="2" t="n">
         <f aca="false">AR48/$AR$80</f>
         <v>0.0853422975373969</v>
       </c>
-      <c r="AT48" s="6" t="n">
+      <c r="AT48" s="2" t="n">
         <f aca="false">ABS(AQ48-$AQ$81)</f>
         <v>0.000252300486300011</v>
       </c>
@@ -9108,11 +9101,11 @@
         <f aca="false">AY48+AZ47</f>
         <v>0.177468234243965</v>
       </c>
-      <c r="BA48" s="6" t="n">
+      <c r="BA48" s="2" t="n">
         <f aca="false">AZ48/$AZ$80</f>
         <v>0.0861749065132991</v>
       </c>
-      <c r="BB48" s="6" t="n">
+      <c r="BB48" s="2" t="n">
         <f aca="false">ABS(AY48-$AY$81)</f>
         <v>0.000713743609593004</v>
       </c>
@@ -9135,11 +9128,11 @@
         <f aca="false">BH47+BG48</f>
         <v>0.150002999996842</v>
       </c>
-      <c r="BI48" s="6" t="n">
+      <c r="BI48" s="2" t="n">
         <f aca="false">BH48/$BH$80</f>
         <v>0.0856967601292942</v>
       </c>
-      <c r="BJ48" s="6" t="n">
+      <c r="BJ48" s="2" t="n">
         <f aca="false">ABS(BG48-$BG$81)</f>
         <v>0.000306014715473001</v>
       </c>
@@ -9164,11 +9157,11 @@
         <f aca="false">S49+T48</f>
         <v>0.8003654732995</v>
       </c>
-      <c r="U49" s="6" t="n">
+      <c r="U49" s="2" t="n">
         <f aca="false">T49/$T$80</f>
         <v>0.114281454311421</v>
       </c>
-      <c r="V49" s="6" t="n">
+      <c r="V49" s="2" t="n">
         <f aca="false">ABS(S49-$S$81)</f>
         <v>0.001008329765668</v>
       </c>
@@ -9191,11 +9184,11 @@
         <f aca="false">AA49+AB48</f>
         <v>0.49998894738005</v>
       </c>
-      <c r="AC49" s="6" t="n">
+      <c r="AC49" s="2" t="n">
         <f aca="false">AB49/$AB$80</f>
         <v>0.114234027882827</v>
       </c>
-      <c r="AD49" s="6" t="n">
+      <c r="AD49" s="2" t="n">
         <f aca="false">ABS(AA49-$AA$81)</f>
         <v>0.000525022003731002</v>
       </c>
@@ -9218,11 +9211,11 @@
         <f aca="false">AI49+AJ48</f>
         <v>0.363583827806497</v>
       </c>
-      <c r="AK49" s="6" t="n">
+      <c r="AK49" s="2" t="n">
         <f aca="false">AJ49/$AJ$80</f>
         <v>0.114241139246158</v>
       </c>
-      <c r="AL49" s="6" t="n">
+      <c r="AL49" s="2" t="n">
         <f aca="false">ABS(AI49-$AI$81)</f>
         <v>8.83608092440008E-005</v>
       </c>
@@ -9245,11 +9238,11 @@
         <f aca="false">AQ49+AR48</f>
         <v>0.28462496355267</v>
       </c>
-      <c r="AS49" s="6" t="n">
+      <c r="AS49" s="2" t="n">
         <f aca="false">AR49/$AR$80</f>
         <v>0.113789449497657</v>
       </c>
-      <c r="AT49" s="6" t="n">
+      <c r="AT49" s="2" t="n">
         <f aca="false">ABS(AQ49-$AQ$81)</f>
         <v>0.000310856815639998</v>
       </c>
@@ -9272,11 +9265,11 @@
         <f aca="false">AY49+AZ48</f>
         <v>0.236335540699432</v>
       </c>
-      <c r="BA49" s="6" t="n">
+      <c r="BA49" s="2" t="n">
         <f aca="false">AZ49/$AZ$80</f>
         <v>0.114759653818081</v>
       </c>
-      <c r="BB49" s="6" t="n">
+      <c r="BB49" s="2" t="n">
         <f aca="false">ABS(AY49-$AY$81)</f>
         <v>2.74285425560031E-005</v>
       </c>
@@ -9299,11 +9292,11 @@
         <f aca="false">BH48+BG49</f>
         <v>0.200074526237341</v>
       </c>
-      <c r="BI49" s="6" t="n">
+      <c r="BI49" s="2" t="n">
         <f aca="false">BH49/$BH$80</f>
         <v>0.114302638502594</v>
       </c>
-      <c r="BJ49" s="6" t="n">
+      <c r="BJ49" s="2" t="n">
         <f aca="false">ABS(BG49-$BG$81)</f>
         <v>6.03006884059981E-005</v>
       </c>
@@ -9328,11 +9321,11 @@
         <f aca="false">S50+T49</f>
         <v>1.00091894640111</v>
       </c>
-      <c r="U50" s="6" t="n">
+      <c r="U50" s="2" t="n">
         <f aca="false">T50/$T$80</f>
         <v>0.142917800253197</v>
       </c>
-      <c r="V50" s="6" t="n">
+      <c r="V50" s="2" t="n">
         <f aca="false">ABS(S50-$S$81)</f>
         <v>0.000454646137968001</v>
       </c>
@@ -9355,11 +9348,11 @@
         <f aca="false">AA50+AB49</f>
         <v>0.62539302590207</v>
       </c>
-      <c r="AC50" s="6" t="n">
+      <c r="AC50" s="2" t="n">
         <f aca="false">AB50/$AB$80</f>
         <v>0.142885487235219</v>
       </c>
-      <c r="AD50" s="6" t="n">
+      <c r="AD50" s="2" t="n">
         <f aca="false">ABS(AA50-$AA$81)</f>
         <v>0.000350285345561002</v>
       </c>
@@ -9382,11 +9375,11 @@
         <f aca="false">AI50+AJ49</f>
         <v>0.454695310847041</v>
       </c>
-      <c r="AK50" s="6" t="n">
+      <c r="AK50" s="2" t="n">
         <f aca="false">AJ50/$AJ$80</f>
         <v>0.142869144192787</v>
       </c>
-      <c r="AL50" s="6" t="n">
+      <c r="AL50" s="2" t="n">
         <f aca="false">ABS(AI50-$AI$81)</f>
         <v>0.000180059960839002</v>
       </c>
@@ -9409,11 +9402,11 @@
         <f aca="false">AQ50+AR49</f>
         <v>0.356201730313968</v>
       </c>
-      <c r="AS50" s="6" t="n">
+      <c r="AS50" s="2" t="n">
         <f aca="false">AR50/$AR$80</f>
         <v>0.142404932781094</v>
       </c>
-      <c r="AT50" s="6" t="n">
+      <c r="AT50" s="2" t="n">
         <f aca="false">ABS(AQ50-$AQ$81)</f>
         <v>0.00011019537272601</v>
       </c>
@@ -9436,11 +9429,11 @@
         <f aca="false">AY50+AZ49</f>
         <v>0.295528109970412</v>
       </c>
-      <c r="BA50" s="6" t="n">
+      <c r="BA50" s="2" t="n">
         <f aca="false">AZ50/$AZ$80</f>
         <v>0.143502342023321</v>
       </c>
-      <c r="BB50" s="6" t="n">
+      <c r="BB50" s="2" t="n">
         <f aca="false">ABS(AY50-$AY$81)</f>
         <v>0.000352691358069</v>
       </c>
@@ -9463,11 +9456,11 @@
         <f aca="false">BH49+BG50</f>
         <v>0.250408157465098</v>
       </c>
-      <c r="BI50" s="6" t="n">
+      <c r="BI50" s="2" t="n">
         <f aca="false">BH50/$BH$80</f>
         <v>0.143058257535895</v>
       </c>
-      <c r="BJ50" s="6" t="n">
+      <c r="BJ50" s="2" t="n">
         <f aca="false">ABS(BG50-$BG$81)</f>
         <v>0.000322405675664002</v>
       </c>
@@ -9492,11 +9485,11 @@
         <f aca="false">S51+T50</f>
         <v>1.2012776828656</v>
       </c>
-      <c r="U51" s="6" t="n">
+      <c r="U51" s="2" t="n">
         <f aca="false">T51/$T$80</f>
         <v>0.17152634041519</v>
       </c>
-      <c r="V51" s="6" t="n">
+      <c r="V51" s="2" t="n">
         <f aca="false">ABS(S51-$S$81)</f>
         <v>0.000259909500848005</v>
       </c>
@@ -9519,11 +9512,11 @@
         <f aca="false">AA51+AB50</f>
         <v>0.7504097364108</v>
       </c>
-      <c r="AC51" s="6" t="n">
+      <c r="AC51" s="2" t="n">
         <f aca="false">AB51/$AB$80</f>
         <v>0.171448443414365</v>
       </c>
-      <c r="AD51" s="6" t="n">
+      <c r="AD51" s="2" t="n">
         <f aca="false">ABS(AA51-$AA$81)</f>
         <v>3.70826677290048E-005</v>
       </c>
@@ -9546,11 +9539,11 @@
         <f aca="false">AI51+AJ50</f>
         <v>0.544716268719717</v>
       </c>
-      <c r="AK51" s="6" t="n">
+      <c r="AK51" s="2" t="n">
         <f aca="false">AJ51/$AJ$80</f>
         <v>0.171154496831954</v>
       </c>
-      <c r="AL51" s="6" t="n">
+      <c r="AL51" s="2" t="n">
         <f aca="false">ABS(AI51-$AI$81)</f>
         <v>0.00091046520702899</v>
       </c>
@@ -9573,11 +9566,11 @@
         <f aca="false">AQ51+AR50</f>
         <v>0.427512181566125</v>
       </c>
-      <c r="AS51" s="6" t="n">
+      <c r="AS51" s="2" t="n">
         <f aca="false">AR51/$AR$80</f>
         <v>0.170913946502622</v>
       </c>
-      <c r="AT51" s="6" t="n">
+      <c r="AT51" s="2" t="n">
         <f aca="false">ABS(AQ51-$AQ$81)</f>
         <v>0.000156120136415</v>
       </c>
@@ -9600,11 +9593,11 @@
         <f aca="false">AY51+AZ50</f>
         <v>0.354026995761059</v>
       </c>
-      <c r="BA51" s="6" t="n">
+      <c r="BA51" s="2" t="n">
         <f aca="false">AZ51/$AZ$80</f>
         <v>0.171908191868038</v>
       </c>
-      <c r="BB51" s="6" t="n">
+      <c r="BB51" s="2" t="n">
         <f aca="false">ABS(AY51-$AY$81)</f>
         <v>0.000340992122263996</v>
       </c>
@@ -9627,11 +9620,11 @@
         <f aca="false">BH50+BG51</f>
         <v>0.300307052308367</v>
       </c>
-      <c r="BI51" s="6" t="n">
+      <c r="BI51" s="2" t="n">
         <f aca="false">BH51/$BH$80</f>
         <v>0.171565511538751</v>
       </c>
-      <c r="BJ51" s="6" t="n">
+      <c r="BJ51" s="2" t="n">
         <f aca="false">ABS(BG51-$BG$81)</f>
         <v>0.000112330708824</v>
       </c>
@@ -9656,11 +9649,11 @@
         <f aca="false">S52+T51</f>
         <v>1.40115326194394</v>
       </c>
-      <c r="U52" s="6" t="n">
+      <c r="U52" s="2" t="n">
         <f aca="false">T52/$T$80</f>
         <v>0.200065892183014</v>
       </c>
-      <c r="V52" s="6" t="n">
+      <c r="V52" s="2" t="n">
         <f aca="false">ABS(S52-$S$81)</f>
         <v>0.000223247885302008</v>
       </c>
@@ -9683,11 +9676,11 @@
         <f aca="false">AA52+AB51</f>
         <v>0.8757748676054</v>
       </c>
-      <c r="AC52" s="6" t="n">
+      <c r="AC52" s="2" t="n">
         <f aca="false">AB52/$AB$80</f>
         <v>0.200091004349882</v>
       </c>
-      <c r="AD52" s="6" t="n">
+      <c r="AD52" s="2" t="n">
         <f aca="false">ABS(AA52-$AA$81)</f>
         <v>0.000311338018140983</v>
       </c>
@@ -9710,11 +9703,11 @@
         <f aca="false">AI52+AJ51</f>
         <v>0.635789857063308</v>
       </c>
-      <c r="AK52" s="6" t="n">
+      <c r="AK52" s="2" t="n">
         <f aca="false">AJ52/$AJ$80</f>
         <v>0.199770594941645</v>
       </c>
-      <c r="AL52" s="6" t="n">
+      <c r="AL52" s="2" t="n">
         <f aca="false">ABS(AI52-$AI$81)</f>
         <v>0.00014216526388601</v>
       </c>
@@ -9737,11 +9730,11 @@
         <f aca="false">AQ52+AR51</f>
         <v>0.498824738079223</v>
       </c>
-      <c r="AS52" s="6" t="n">
+      <c r="AS52" s="2" t="n">
         <f aca="false">AR52/$AR$80</f>
         <v>0.199423801880766</v>
       </c>
-      <c r="AT52" s="6" t="n">
+      <c r="AT52" s="2" t="n">
         <f aca="false">ABS(AQ52-$AQ$81)</f>
         <v>0.000154014875473993</v>
       </c>
@@ -9764,11 +9757,11 @@
         <f aca="false">AY52+AZ51</f>
         <v>0.412465881614863</v>
       </c>
-      <c r="BA52" s="6" t="n">
+      <c r="BA52" s="2" t="n">
         <f aca="false">AZ52/$AZ$80</f>
         <v>0.200284906983544</v>
       </c>
-      <c r="BB52" s="6" t="n">
+      <c r="BB52" s="2" t="n">
         <f aca="false">ABS(AY52-$AY$81)</f>
         <v>0.000400992059107</v>
       </c>
@@ -9791,11 +9784,11 @@
         <f aca="false">BH51+BG52</f>
         <v>0.35005015784194</v>
       </c>
-      <c r="BI52" s="6" t="n">
+      <c r="BI52" s="2" t="n">
         <f aca="false">BH52/$BH$80</f>
         <v>0.199983763060964</v>
       </c>
-      <c r="BJ52" s="6" t="n">
+      <c r="BJ52" s="2" t="n">
         <f aca="false">ABS(BG52-$BG$81)</f>
         <v>0.000268120018520002</v>
       </c>
@@ -9820,11 +9813,11 @@
         <f aca="false">S53+T52</f>
         <v>1.6019004190522</v>
       </c>
-      <c r="U53" s="6" t="n">
+      <c r="U53" s="2" t="n">
         <f aca="false">T53/$T$80</f>
         <v>0.228729893603063</v>
       </c>
-      <c r="V53" s="6" t="n">
+      <c r="V53" s="2" t="n">
         <f aca="false">ABS(S53-$S$81)</f>
         <v>0.000648330144617987</v>
       </c>
@@ -9847,11 +9840,11 @@
         <f aca="false">AA53+AB52</f>
         <v>1.00065473615291</v>
       </c>
-      <c r="AC53" s="6" t="n">
+      <c r="AC53" s="2" t="n">
         <f aca="false">AB53/$AB$80</f>
         <v>0.228622695821087</v>
       </c>
-      <c r="AD53" s="6" t="n">
+      <c r="AD53" s="2" t="n">
         <f aca="false">ABS(AA53-$AA$81)</f>
         <v>0.00017392462894901</v>
       </c>
@@ -9874,11 +9867,11 @@
         <f aca="false">AI53+AJ52</f>
         <v>0.726745550794157</v>
       </c>
-      <c r="AK53" s="6" t="n">
+      <c r="AK53" s="2" t="n">
         <f aca="false">AJ53/$AJ$80</f>
         <v>0.228349649558637</v>
       </c>
-      <c r="AL53" s="6" t="n">
+      <c r="AL53" s="2" t="n">
         <f aca="false">ABS(AI53-$AI$81)</f>
         <v>2.42706511440066E-005</v>
       </c>
@@ -9901,11 +9894,11 @@
         <f aca="false">AQ53+AR52</f>
         <v>0.570915188510328</v>
       </c>
-      <c r="AS53" s="6" t="n">
+      <c r="AS53" s="2" t="n">
         <f aca="false">AR53/$AR$80</f>
         <v>0.228244649378479</v>
       </c>
-      <c r="AT53" s="6" t="n">
+      <c r="AT53" s="2" t="n">
         <f aca="false">ABS(AQ53-$AQ$81)</f>
         <v>0.000623879042532999</v>
       </c>
@@ -9928,11 +9921,11 @@
         <f aca="false">AY53+AZ52</f>
         <v>0.471299503895261</v>
       </c>
-      <c r="BA53" s="6" t="n">
+      <c r="BA53" s="2" t="n">
         <f aca="false">AZ53/$AZ$80</f>
         <v>0.22885329794912</v>
       </c>
-      <c r="BB53" s="6" t="n">
+      <c r="BB53" s="2" t="n">
         <f aca="false">ABS(AY53-$AY$81)</f>
         <v>6.25563251299699E-006</v>
       </c>
@@ -9955,11 +9948,11 @@
         <f aca="false">BH52+BG53</f>
         <v>0.399694316111247</v>
       </c>
-      <c r="BI53" s="6" t="n">
+      <c r="BI53" s="2" t="n">
         <f aca="false">BH53/$BH$80</f>
         <v>0.228345485980607</v>
       </c>
-      <c r="BJ53" s="6" t="n">
+      <c r="BJ53" s="2" t="n">
         <f aca="false">ABS(BG53-$BG$81)</f>
         <v>0.000367067282786002</v>
       </c>
@@ -9984,11 +9977,11 @@
         <f aca="false">S54+T53</f>
         <v>1.80186652435104</v>
       </c>
-      <c r="U54" s="6" t="n">
+      <c r="U54" s="2" t="n">
         <f aca="false">T54/$T$80</f>
         <v>0.257282371300949</v>
       </c>
-      <c r="V54" s="6" t="n">
+      <c r="V54" s="2" t="n">
         <f aca="false">ABS(S54-$S$81)</f>
         <v>0.000132721664801994</v>
       </c>
@@ -10011,11 +10004,11 @@
         <f aca="false">AA54+AB53</f>
         <v>1.12557986781067</v>
       </c>
-      <c r="AC54" s="6" t="n">
+      <c r="AC54" s="2" t="n">
         <f aca="false">AB54/$AB$80</f>
         <v>0.257164728695687</v>
       </c>
-      <c r="AD54" s="6" t="n">
+      <c r="AD54" s="2" t="n">
         <f aca="false">ABS(AA54-$AA$81)</f>
         <v>0.000128661518699016</v>
       </c>
@@ -10038,11 +10031,11 @@
         <f aca="false">AI54+AJ53</f>
         <v>0.817691770850767</v>
       </c>
-      <c r="AK54" s="6" t="n">
+      <c r="AK54" s="2" t="n">
         <f aca="false">AJ54/$AJ$80</f>
         <v>0.256925727466393</v>
       </c>
-      <c r="AL54" s="6" t="n">
+      <c r="AL54" s="2" t="n">
         <f aca="false">ABS(AI54-$AI$81)</f>
         <v>1.47969769049988E-005</v>
       </c>
@@ -10065,11 +10058,11 @@
         <f aca="false">AQ54+AR53</f>
         <v>0.642303534417332</v>
       </c>
-      <c r="AS54" s="6" t="n">
+      <c r="AS54" s="2" t="n">
         <f aca="false">AR54/$AR$80</f>
         <v>0.256784804394794</v>
       </c>
-      <c r="AT54" s="6" t="n">
+      <c r="AT54" s="2" t="n">
         <f aca="false">ABS(AQ54-$AQ$81)</f>
         <v>7.8225481567995E-005</v>
       </c>
@@ -10092,11 +10085,11 @@
         <f aca="false">AY54+AZ53</f>
         <v>0.530367862770673</v>
       </c>
-      <c r="BA54" s="6" t="n">
+      <c r="BA54" s="2" t="n">
         <f aca="false">AZ54/$AZ$80</f>
         <v>0.257535672153538</v>
       </c>
-      <c r="BB54" s="6" t="n">
+      <c r="BB54" s="2" t="n">
         <f aca="false">ABS(AY54-$AY$81)</f>
         <v>0.000228480962500999</v>
       </c>
@@ -10119,11 +10112,11 @@
         <f aca="false">BH53+BG54</f>
         <v>0.449746895003269</v>
       </c>
-      <c r="BI54" s="6" t="n">
+      <c r="BI54" s="2" t="n">
         <f aca="false">BH54/$BH$80</f>
         <v>0.256940539727882</v>
       </c>
-      <c r="BJ54" s="6" t="n">
+      <c r="BJ54" s="2" t="n">
         <f aca="false">ABS(BG54-$BG$81)</f>
         <v>4.13533399290025E-005</v>
       </c>
@@ -10148,11 +10141,11 @@
         <f aca="false">S55+T54</f>
         <v>2.00180315599669</v>
       </c>
-      <c r="U55" s="6" t="n">
+      <c r="U55" s="2" t="n">
         <f aca="false">T55/$T$80</f>
         <v>0.285830640556489</v>
       </c>
-      <c r="V55" s="6" t="n">
+      <c r="V55" s="2" t="n">
         <f aca="false">ABS(S55-$S$81)</f>
         <v>0.000162195317991998</v>
       </c>
@@ -10175,11 +10168,11 @@
         <f aca="false">AA55+AB54</f>
         <v>1.25053447312161</v>
       </c>
-      <c r="AC55" s="6" t="n">
+      <c r="AC55" s="2" t="n">
         <f aca="false">AB55/$AB$80</f>
         <v>0.285713495507382</v>
       </c>
-      <c r="AD55" s="6" t="n">
+      <c r="AD55" s="2" t="n">
         <f aca="false">ABS(AA55-$AA$81)</f>
         <v>9.91878655190043E-005</v>
       </c>
@@ -10202,11 +10195,11 @@
         <f aca="false">AI55+AJ54</f>
         <v>0.908363254354469</v>
       </c>
-      <c r="AK55" s="6" t="n">
+      <c r="AK55" s="2" t="n">
         <f aca="false">AJ55/$AJ$80</f>
         <v>0.285415480806344</v>
       </c>
-      <c r="AL55" s="6" t="n">
+      <c r="AL55" s="2" t="n">
         <f aca="false">ABS(AI55-$AI$81)</f>
         <v>0.000259939576002996</v>
       </c>
@@ -10229,11 +10222,11 @@
         <f aca="false">AQ55+AR54</f>
         <v>0.713772932870597</v>
       </c>
-      <c r="AS55" s="6" t="n">
+      <c r="AS55" s="2" t="n">
         <f aca="false">AR55/$AR$80</f>
         <v>0.285357363190821</v>
       </c>
-      <c r="AT55" s="6" t="n">
+      <c r="AT55" s="2" t="n">
         <f aca="false">ABS(AQ55-$AQ$81)</f>
         <v>2.82706469301175E-006</v>
       </c>
@@ -10256,11 +10249,11 @@
         <f aca="false">AY55+AZ54</f>
         <v>0.589655168784035</v>
       </c>
-      <c r="BA55" s="6" t="n">
+      <c r="BA55" s="2" t="n">
         <f aca="false">AZ55/$AZ$80</f>
         <v>0.286324362562794</v>
       </c>
-      <c r="BB55" s="6" t="n">
+      <c r="BB55" s="2" t="n">
         <f aca="false">ABS(AY55-$AY$81)</f>
         <v>0.000447428100451001</v>
       </c>
@@ -10283,11 +10276,11 @@
         <f aca="false">BH54+BG55</f>
         <v>0.499524737342382</v>
       </c>
-      <c r="BI55" s="6" t="n">
+      <c r="BI55" s="2" t="n">
         <f aca="false">BH55/$BH$80</f>
         <v>0.285378636397806</v>
       </c>
-      <c r="BJ55" s="6" t="n">
+      <c r="BJ55" s="2" t="n">
         <f aca="false">ABS(BG55-$BG$81)</f>
         <v>0.000233383212979998</v>
       </c>
@@ -10312,11 +10305,11 @@
         <f aca="false">S56+T55</f>
         <v>2.20177136655647</v>
       </c>
-      <c r="U56" s="6" t="n">
+      <c r="U56" s="2" t="n">
         <f aca="false">T56/$T$80</f>
         <v>0.314383418857399</v>
       </c>
-      <c r="V56" s="6" t="n">
+      <c r="V56" s="2" t="n">
         <f aca="false">ABS(S56-$S$81)</f>
         <v>0.000130616403861999</v>
       </c>
@@ -10339,11 +10332,11 @@
         <f aca="false">AA56+AB55</f>
         <v>1.37578170970347</v>
       </c>
-      <c r="AC56" s="6" t="n">
+      <c r="AC56" s="2" t="n">
         <f aca="false">AB56/$AB$80</f>
         <v>0.31432912069452</v>
       </c>
-      <c r="AD56" s="6" t="n">
+      <c r="AD56" s="2" t="n">
         <f aca="false">ABS(AA56-$AA$81)</f>
         <v>0.000193443405400978</v>
       </c>
@@ -10366,11 +10359,11 @@
         <f aca="false">AI56+AJ55</f>
         <v>0.99880421178504</v>
       </c>
-      <c r="AK56" s="6" t="n">
+      <c r="AK56" s="2" t="n">
         <f aca="false">AJ56/$AJ$80</f>
         <v>0.31383280088825</v>
       </c>
-      <c r="AL56" s="6" t="n">
+      <c r="AL56" s="2" t="n">
         <f aca="false">ABS(AI56-$AI$81)</f>
         <v>0.000490465649133992</v>
       </c>
@@ -10393,11 +10386,11 @@
         <f aca="false">AQ56+AR55</f>
         <v>0.784986542119429</v>
       </c>
-      <c r="AS56" s="6" t="n">
+      <c r="AS56" s="2" t="n">
         <f aca="false">AR56/$AR$80</f>
         <v>0.313827660708018</v>
       </c>
-      <c r="AT56" s="6" t="n">
+      <c r="AT56" s="2" t="n">
         <f aca="false">ABS(AQ56-$AQ$81)</f>
         <v>0.000252962139739993</v>
       </c>
@@ -10420,11 +10413,11 @@
         <f aca="false">AY56+AZ55</f>
         <v>0.648764580247812</v>
       </c>
-      <c r="BA56" s="6" t="n">
+      <c r="BA56" s="2" t="n">
         <f aca="false">AZ56/$AZ$80</f>
         <v>0.315026671055618</v>
       </c>
-      <c r="BB56" s="6" t="n">
+      <c r="BB56" s="2" t="n">
         <f aca="false">ABS(AY56-$AY$81)</f>
         <v>0.000269533550866001</v>
       </c>
@@ -10447,11 +10440,11 @@
         <f aca="false">BH55+BG56</f>
         <v>0.549462579513074</v>
       </c>
-      <c r="BI56" s="6" t="n">
+      <c r="BI56" s="2" t="n">
         <f aca="false">BH56/$BH$80</f>
         <v>0.313908141020823</v>
       </c>
-      <c r="BJ56" s="6" t="n">
+      <c r="BJ56" s="2" t="n">
         <f aca="false">ABS(BG56-$BG$81)</f>
         <v>7.33833814009974E-005</v>
       </c>
@@ -10476,11 +10469,11 @@
         <f aca="false">S57+T56</f>
         <v>2.40089115695669</v>
       </c>
-      <c r="U57" s="6" t="n">
+      <c r="U57" s="2" t="n">
         <f aca="false">T57/$T$80</f>
         <v>0.342815054139357</v>
       </c>
-      <c r="V57" s="6" t="n">
+      <c r="V57" s="2" t="n">
         <f aca="false">ABS(S57-$S$81)</f>
         <v>0.00097903656342202</v>
       </c>
@@ -10503,11 +10496,11 @@
         <f aca="false">AA57+AB56</f>
         <v>1.50062999933685</v>
       </c>
-      <c r="AC57" s="6" t="n">
+      <c r="AC57" s="2" t="n">
         <f aca="false">AB57/$AB$80</f>
         <v>0.342853597233122</v>
       </c>
-      <c r="AD57" s="6" t="n">
+      <c r="AD57" s="2" t="n">
         <f aca="false">ABS(AA57-$AA$81)</f>
         <v>0.000205503543079008</v>
       </c>
@@ -10530,11 +10523,11 @@
         <f aca="false">AI57+AJ56</f>
         <v>1.08963358985938</v>
       </c>
-      <c r="AK57" s="6" t="n">
+      <c r="AK57" s="2" t="n">
         <f aca="false">AJ57/$AJ$80</f>
         <v>0.342372166048779</v>
       </c>
-      <c r="AL57" s="6" t="n">
+      <c r="AL57" s="2" t="n">
         <f aca="false">ABS(AI57-$AI$81)</f>
         <v>0.000102045005365994</v>
       </c>
@@ -10557,11 +10550,11 @@
         <f aca="false">AQ57+AR56</f>
         <v>0.856210677672971</v>
       </c>
-      <c r="AS57" s="6" t="n">
+      <c r="AS57" s="2" t="n">
         <f aca="false">AR57/$AR$80</f>
         <v>0.342302166508295</v>
       </c>
-      <c r="AT57" s="6" t="n">
+      <c r="AT57" s="2" t="n">
         <f aca="false">ABS(AQ57-$AQ$81)</f>
         <v>0.000242435835029989</v>
       </c>
@@ -10584,11 +10577,11 @@
         <f aca="false">AY57+AZ56</f>
         <v>0.70733399228001</v>
       </c>
-      <c r="BA57" s="6" t="n">
+      <c r="BA57" s="2" t="n">
         <f aca="false">AZ57/$AZ$80</f>
         <v>0.343466766985548</v>
       </c>
-      <c r="BB57" s="6" t="n">
+      <c r="BB57" s="2" t="n">
         <f aca="false">ABS(AY57-$AY$81)</f>
         <v>0.000270465880713</v>
       </c>
@@ -10611,11 +10604,11 @@
         <f aca="false">BH56+BG57</f>
         <v>0.599290948114791</v>
       </c>
-      <c r="BI57" s="6" t="n">
+      <c r="BI57" s="2" t="n">
         <f aca="false">BH57/$BH$80</f>
         <v>0.342375103360145</v>
       </c>
-      <c r="BJ57" s="6" t="n">
+      <c r="BJ57" s="2" t="n">
         <f aca="false">ABS(BG57-$BG$81)</f>
         <v>0.000182856950376002</v>
       </c>
@@ -10640,11 +10633,11 @@
         <f aca="false">S58+T57</f>
         <v>2.60118147244057</v>
       </c>
-      <c r="U58" s="6" t="n">
+      <c r="U58" s="2" t="n">
         <f aca="false">T58/$T$80</f>
         <v>0.371413824703046</v>
       </c>
-      <c r="V58" s="6" t="n">
+      <c r="V58" s="2" t="n">
         <f aca="false">ABS(S58-$S$81)</f>
         <v>0.000191488520237981</v>
       </c>
@@ -10667,11 +10660,11 @@
         <f aca="false">AA58+AB57</f>
         <v>1.62571302556524</v>
       </c>
-      <c r="AC58" s="6" t="n">
+      <c r="AC58" s="2" t="n">
         <f aca="false">AB58/$AB$80</f>
         <v>0.37143170477073</v>
       </c>
-      <c r="AD58" s="6" t="n">
+      <c r="AD58" s="2" t="n">
         <f aca="false">ABS(AA58-$AA$81)</f>
         <v>2.92330519309769E-005</v>
       </c>
@@ -10694,11 +10687,11 @@
         <f aca="false">AI58+AJ57</f>
         <v>1.18032191545062</v>
       </c>
-      <c r="AK58" s="6" t="n">
+      <c r="AK58" s="2" t="n">
         <f aca="false">AJ58/$AJ$80</f>
         <v>0.370867211316258</v>
       </c>
-      <c r="AL58" s="6" t="n">
+      <c r="AL58" s="2" t="n">
         <f aca="false">ABS(AI58-$AI$81)</f>
         <v>0.000243097488468999</v>
       </c>
@@ -10721,11 +10714,11 @@
         <f aca="false">AQ58+AR57</f>
         <v>0.927467444771111</v>
       </c>
-      <c r="AS58" s="6" t="n">
+      <c r="AS58" s="2" t="n">
         <f aca="false">AR58/$AR$80</f>
         <v>0.370789717986118</v>
       </c>
-      <c r="AT58" s="6" t="n">
+      <c r="AT58" s="2" t="n">
         <f aca="false">ABS(AQ58-$AQ$81)</f>
         <v>0.000209804290432006</v>
       </c>
@@ -10748,11 +10741,11 @@
         <f aca="false">AY58+AZ57</f>
         <v>0.765823404396418</v>
       </c>
-      <c r="BA58" s="6" t="n">
+      <c r="BA58" s="2" t="n">
         <f aca="false">AZ58/$AZ$80</f>
         <v>0.371868016609863</v>
       </c>
-      <c r="BB58" s="6" t="n">
+      <c r="BB58" s="2" t="n">
         <f aca="false">ABS(AY58-$AY$81)</f>
         <v>0.000350465796502997</v>
       </c>
@@ -10775,11 +10768,11 @@
         <f aca="false">BH57+BG58</f>
         <v>0.649193000849472</v>
       </c>
-      <c r="BI58" s="6" t="n">
+      <c r="BI58" s="2" t="n">
         <f aca="false">BH58/$BH$80</f>
         <v>0.370884161467338</v>
       </c>
-      <c r="BJ58" s="6" t="n">
+      <c r="BJ58" s="2" t="n">
         <f aca="false">ABS(BG58-$BG$81)</f>
         <v>0.000109172817411997</v>
       </c>
@@ -10804,11 +10797,11 @@
         <f aca="false">S59+T58</f>
         <v>2.80149494579481</v>
       </c>
-      <c r="U59" s="6" t="n">
+      <c r="U59" s="2" t="n">
         <f aca="false">T59/$T$80</f>
         <v>0.400015901900007</v>
       </c>
-      <c r="V59" s="6" t="n">
+      <c r="V59" s="2" t="n">
         <f aca="false">ABS(S59-$S$81)</f>
         <v>0.000214646390597983</v>
       </c>
@@ -10831,11 +10824,11 @@
         <f aca="false">AA59+AB58</f>
         <v>1.75086763066566</v>
       </c>
-      <c r="AC59" s="6" t="n">
+      <c r="AC59" s="2" t="n">
         <f aca="false">AB59/$AB$80</f>
         <v>0.40002616615557</v>
       </c>
-      <c r="AD59" s="6" t="n">
+      <c r="AD59" s="2" t="n">
         <f aca="false">ABS(AA59-$AA$81)</f>
         <v>0.000100811923960997</v>
       </c>
@@ -10858,11 +10851,11 @@
         <f aca="false">AI59+AJ58</f>
         <v>1.27193339796484</v>
       </c>
-      <c r="AK59" s="6" t="n">
+      <c r="AK59" s="2" t="n">
         <f aca="false">AJ59/$AJ$80</f>
         <v>0.399652320361386</v>
       </c>
-      <c r="AL59" s="6" t="n">
+      <c r="AL59" s="2" t="n">
         <f aca="false">ABS(AI59-$AI$81)</f>
         <v>0.000680059434523997</v>
       </c>
@@ -10885,11 +10878,11 @@
         <f aca="false">AQ59+AR58</f>
         <v>0.99880315915457</v>
       </c>
-      <c r="AS59" s="6" t="n">
+      <c r="AS59" s="2" t="n">
         <f aca="false">AR59/$AR$80</f>
         <v>0.399308831587036</v>
       </c>
-      <c r="AT59" s="6" t="n">
+      <c r="AT59" s="2" t="n">
         <f aca="false">ABS(AQ59-$AQ$81)</f>
         <v>0.000130857005112991</v>
       </c>
@@ -10912,11 +10905,11 @@
         <f aca="false">AY59+AZ58</f>
         <v>0.824709658200361</v>
       </c>
-      <c r="BA59" s="6" t="n">
+      <c r="BA59" s="2" t="n">
         <f aca="false">AZ59/$AZ$80</f>
         <v>0.400461964355448</v>
       </c>
-      <c r="BB59" s="6" t="n">
+      <c r="BB59" s="2" t="n">
         <f aca="false">ABS(AY59-$AY$81)</f>
         <v>4.63758910319995E-005</v>
       </c>
@@ -10939,11 +10932,11 @@
         <f aca="false">BH58+BG59</f>
         <v>0.699419263769195</v>
       </c>
-      <c r="BI59" s="6" t="n">
+      <c r="BI59" s="2" t="n">
         <f aca="false">BH59/$BH$80</f>
         <v>0.399578440953168</v>
       </c>
-      <c r="BJ59" s="6" t="n">
+      <c r="BJ59" s="2" t="n">
         <f aca="false">ABS(BG59-$BG$81)</f>
         <v>0.000215037367630004</v>
       </c>
@@ -10968,11 +10961,11 @@
         <f aca="false">S60+T59</f>
         <v>3.00133684069808</v>
       </c>
-      <c r="U60" s="6" t="n">
+      <c r="U60" s="2" t="n">
         <f aca="false">T60/$T$80</f>
         <v>0.428550644019436</v>
       </c>
-      <c r="V60" s="6" t="n">
+      <c r="V60" s="2" t="n">
         <f aca="false">ABS(S60-$S$81)</f>
         <v>0.000256932060372</v>
       </c>
@@ -10995,11 +10988,11 @@
         <f aca="false">AA60+AB59</f>
         <v>1.87622855133838</v>
       </c>
-      <c r="AC60" s="6" t="n">
+      <c r="AC60" s="2" t="n">
         <f aca="false">AB60/$AB$80</f>
         <v>0.428667765100074</v>
       </c>
-      <c r="AD60" s="6" t="n">
+      <c r="AD60" s="2" t="n">
         <f aca="false">ABS(AA60-$AA$81)</f>
         <v>0.000307127496260995</v>
       </c>
@@ -11022,11 +11015,11 @@
         <f aca="false">AI60+AJ59</f>
         <v>1.36353540680484</v>
       </c>
-      <c r="AK60" s="6" t="n">
+      <c r="AK60" s="2" t="n">
         <f aca="false">AJ60/$AJ$80</f>
         <v>0.428434452697279</v>
       </c>
-      <c r="AL60" s="6" t="n">
+      <c r="AL60" s="2" t="n">
         <f aca="false">ABS(AI60-$AI$81)</f>
         <v>0.000670585760286002</v>
       </c>
@@ -11049,11 +11042,11 @@
         <f aca="false">AQ60+AR59</f>
         <v>1.07109781989703</v>
       </c>
-      <c r="AS60" s="6" t="n">
+      <c r="AS60" s="2" t="n">
         <f aca="false">AR60/$AR$80</f>
         <v>0.42821131977649</v>
       </c>
-      <c r="AT60" s="6" t="n">
+      <c r="AT60" s="2" t="n">
         <f aca="false">ABS(AQ60-$AQ$81)</f>
         <v>0.000828089353890005</v>
       </c>
@@ -11076,11 +11069,11 @@
         <f aca="false">AY60+AZ59</f>
         <v>0.883193807164415</v>
       </c>
-      <c r="BA60" s="6" t="n">
+      <c r="BA60" s="2" t="n">
         <f aca="false">AZ60/$AZ$80</f>
         <v>0.428860658301762</v>
       </c>
-      <c r="BB60" s="6" t="n">
+      <c r="BB60" s="2" t="n">
         <f aca="false">ABS(AY60-$AY$81)</f>
         <v>0.000355728948856999</v>
       </c>
@@ -11103,11 +11096,11 @@
         <f aca="false">BH59+BG60</f>
         <v>0.749275000763156</v>
       </c>
-      <c r="BI60" s="6" t="n">
+      <c r="BI60" s="2" t="n">
         <f aca="false">BH60/$BH$80</f>
         <v>0.428061038863414</v>
       </c>
-      <c r="BJ60" s="6" t="n">
+      <c r="BJ60" s="2" t="n">
         <f aca="false">ABS(BG60-$BG$81)</f>
         <v>0.000155488558132001</v>
       </c>
@@ -11132,11 +11125,11 @@
         <f aca="false">S61+T60</f>
         <v>3.20124715658196</v>
       </c>
-      <c r="U61" s="6" t="n">
+      <c r="U61" s="2" t="n">
         <f aca="false">T61/$T$80</f>
         <v>0.457095155737167</v>
       </c>
-      <c r="V61" s="6" t="n">
+      <c r="V61" s="2" t="n">
         <f aca="false">ABS(S61-$S$81)</f>
         <v>0.000188511079762005</v>
       </c>
@@ -11159,11 +11152,11 @@
         <f aca="false">AA61+AB60</f>
         <v>2.00170631399337</v>
       </c>
-      <c r="AC61" s="6" t="n">
+      <c r="AC61" s="2" t="n">
         <f aca="false">AB61/$AB$80</f>
         <v>0.457336059295205</v>
       </c>
-      <c r="AD61" s="6" t="n">
+      <c r="AD61" s="2" t="n">
         <f aca="false">ABS(AA61-$AA$81)</f>
         <v>0.000423969478530989</v>
       </c>
@@ -11186,11 +11179,11 @@
         <f aca="false">AI61+AJ60</f>
         <v>1.45533636280383</v>
       </c>
-      <c r="AK61" s="6" t="n">
+      <c r="AK61" s="2" t="n">
         <f aca="false">AJ61/$AJ$80</f>
         <v>0.457279095927101</v>
       </c>
-      <c r="AL61" s="6" t="n">
+      <c r="AL61" s="2" t="n">
         <f aca="false">ABS(AI61-$AI$81)</f>
         <v>0.000869532919288998</v>
       </c>
@@ -11213,11 +11206,11 @@
         <f aca="false">AQ61+AR60</f>
         <v>1.14239669221401</v>
       </c>
-      <c r="AS61" s="6" t="n">
+      <c r="AS61" s="2" t="n">
         <f aca="false">AR61/$AR$80</f>
         <v>0.45671570438663</v>
       </c>
-      <c r="AT61" s="6" t="n">
+      <c r="AT61" s="2" t="n">
         <f aca="false">ABS(AQ61-$AQ$81)</f>
         <v>0.000167699071595001</v>
       </c>
@@ -11240,11 +11233,11 @@
         <f aca="false">AY61+AZ60</f>
         <v>0.941889534853123</v>
       </c>
-      <c r="BA61" s="6" t="n">
+      <c r="BA61" s="2" t="n">
         <f aca="false">AZ61/$AZ$80</f>
         <v>0.457362090503714</v>
       </c>
-      <c r="BB61" s="6" t="n">
+      <c r="BB61" s="2" t="n">
         <f aca="false">ABS(AY61-$AY$81)</f>
         <v>0.000144150224202999</v>
       </c>
@@ -11267,11 +11260,11 @@
         <f aca="false">BH60+BG61</f>
         <v>0.799451790050746</v>
       </c>
-      <c r="BI61" s="6" t="n">
+      <c r="BI61" s="2" t="n">
         <f aca="false">BH61/$BH$80</f>
         <v>0.456727054047959</v>
       </c>
-      <c r="BJ61" s="6" t="n">
+      <c r="BJ61" s="2" t="n">
         <f aca="false">ABS(BG61-$BG$81)</f>
         <v>0.000165563735496997</v>
       </c>
@@ -11296,11 +11289,11 @@
         <f aca="false">S62+T61</f>
         <v>3.40173010344202</v>
       </c>
-      <c r="U62" s="6" t="n">
+      <c r="U62" s="2" t="n">
         <f aca="false">T62/$T$80</f>
         <v>0.485721431477617</v>
       </c>
-      <c r="V62" s="6" t="n">
+      <c r="V62" s="2" t="n">
         <f aca="false">ABS(S62-$S$81)</f>
         <v>0.000384119896417984</v>
       </c>
@@ -11323,11 +11316,11 @@
         <f aca="false">AA62+AB61</f>
         <v>2.12653565627827</v>
       </c>
-      <c r="AC62" s="6" t="n">
+      <c r="AC62" s="2" t="n">
         <f aca="false">AB62/$AB$80</f>
         <v>0.485856206874246</v>
       </c>
-      <c r="AD62" s="6" t="n">
+      <c r="AD62" s="2" t="n">
         <f aca="false">ABS(AA62-$AA$81)</f>
         <v>0.000224450891559008</v>
       </c>
@@ -11350,11 +11343,11 @@
         <f aca="false">AI62+AJ61</f>
         <v>1.54607205676626</v>
       </c>
-      <c r="AK62" s="6" t="n">
+      <c r="AK62" s="2" t="n">
         <f aca="false">AJ62/$AJ$80</f>
         <v>0.485789024740753</v>
       </c>
-      <c r="AL62" s="6" t="n">
+      <c r="AL62" s="2" t="n">
         <f aca="false">ABS(AI62-$AI$81)</f>
         <v>0.000195729117277998</v>
       </c>
@@ -11377,11 +11370,11 @@
         <f aca="false">AQ62+AR61</f>
         <v>1.21376714340301</v>
       </c>
-      <c r="AS62" s="6" t="n">
+      <c r="AS62" s="2" t="n">
         <f aca="false">AR62/$AR$80</f>
         <v>0.485248705321711</v>
       </c>
-      <c r="AT62" s="6" t="n">
+      <c r="AT62" s="2" t="n">
         <f aca="false">ABS(AQ62-$AQ$81)</f>
         <v>9.61201995729882E-005</v>
       </c>
@@ -11404,11 +11397,11 @@
         <f aca="false">AY62+AZ61</f>
         <v>1.00080315704931</v>
       </c>
-      <c r="BA62" s="6" t="n">
+      <c r="BA62" s="2" t="n">
         <f aca="false">AZ62/$AZ$80</f>
         <v>0.485969327774904</v>
       </c>
-      <c r="BB62" s="6" t="n">
+      <c r="BB62" s="2" t="n">
         <f aca="false">ABS(AY62-$AY$81)</f>
         <v>7.37442832760005E-005</v>
       </c>
@@ -11431,11 +11424,11 @@
         <f aca="false">BH61+BG62</f>
         <v>0.849687526644707</v>
       </c>
-      <c r="BI62" s="6" t="n">
+      <c r="BI62" s="2" t="n">
         <f aca="false">BH62/$BH$80</f>
         <v>0.485426745846801</v>
       </c>
-      <c r="BJ62" s="6" t="n">
+      <c r="BJ62" s="2" t="n">
         <f aca="false">ABS(BG62-$BG$81)</f>
         <v>0.000224511041867999</v>
       </c>
@@ -11460,11 +11453,11 @@
         <f aca="false">S63+T62</f>
         <v>3.60239199748213</v>
       </c>
-      <c r="U63" s="6" t="n">
+      <c r="U63" s="2" t="n">
         <f aca="false">T63/$T$80</f>
         <v>0.514373258475165</v>
       </c>
-      <c r="V63" s="6" t="n">
+      <c r="V63" s="2" t="n">
         <f aca="false">ABS(S63-$S$81)</f>
         <v>0.000563067076467999</v>
       </c>
@@ -11487,11 +11480,11 @@
         <f aca="false">AA63+AB62</f>
         <v>2.25117973560029</v>
       </c>
-      <c r="AC63" s="6" t="n">
+      <c r="AC63" s="2" t="n">
         <f aca="false">AB63/$AB$80</f>
         <v>0.51433402684869</v>
       </c>
-      <c r="AD63" s="6" t="n">
+      <c r="AD63" s="2" t="n">
         <f aca="false">ABS(AA63-$AA$81)</f>
         <v>0.000409713854439012</v>
       </c>
@@ -11514,11 +11507,11 @@
         <f aca="false">AI63+AJ62</f>
         <v>1.636687750855</v>
       </c>
-      <c r="AK63" s="6" t="n">
+      <c r="AK63" s="2" t="n">
         <f aca="false">AJ63/$AJ$80</f>
         <v>0.514261248570766</v>
       </c>
-      <c r="AL63" s="6" t="n">
+      <c r="AL63" s="2" t="n">
         <f aca="false">ABS(AI63-$AI$81)</f>
         <v>0.000315728990961994</v>
       </c>
@@ -11541,11 +11534,11 @@
         <f aca="false">AQ63+AR62</f>
         <v>1.28530917335877</v>
       </c>
-      <c r="AS63" s="6" t="n">
+      <c r="AS63" s="2" t="n">
         <f aca="false">AR63/$AR$80</f>
         <v>0.513850301270986</v>
       </c>
-      <c r="AT63" s="6" t="n">
+      <c r="AT63" s="2" t="n">
         <f aca="false">ABS(AQ63-$AQ$81)</f>
         <v>7.5458567186007E-005</v>
       </c>
@@ -11568,11 +11561,11 @@
         <f aca="false">AY63+AZ62</f>
         <v>1.0593799374948</v>
       </c>
-      <c r="BA63" s="6" t="n">
+      <c r="BA63" s="2" t="n">
         <f aca="false">AZ63/$AZ$80</f>
         <v>0.514413001654035</v>
       </c>
-      <c r="BB63" s="6" t="n">
+      <c r="BB63" s="2" t="n">
         <f aca="false">ABS(AY63-$AY$81)</f>
         <v>0.000263097467416998</v>
       </c>
@@ -11595,11 +11588,11 @@
         <f aca="false">BH62+BG63</f>
         <v>0.899439053222047</v>
       </c>
-      <c r="BI63" s="6" t="n">
+      <c r="BI63" s="2" t="n">
         <f aca="false">BH63/$BH$80</f>
         <v>0.513849808313913</v>
       </c>
-      <c r="BJ63" s="6" t="n">
+      <c r="BJ63" s="2" t="n">
         <f aca="false">ABS(BG63-$BG$81)</f>
         <v>0.000259698974753003</v>
       </c>
@@ -11624,11 +11617,11 @@
         <f aca="false">S64+T63</f>
         <v>3.8028707338203</v>
       </c>
-      <c r="U64" s="6" t="n">
+      <c r="U64" s="2" t="n">
         <f aca="false">T64/$T$80</f>
         <v>0.542998933009564</v>
       </c>
-      <c r="V64" s="6" t="n">
+      <c r="V64" s="2" t="n">
         <f aca="false">ABS(S64-$S$81)</f>
         <v>0.000379909374528004</v>
       </c>
@@ -11651,11 +11644,11 @@
         <f aca="false">AA64+AB63</f>
         <v>2.37627644602481</v>
       </c>
-      <c r="AC64" s="6" t="n">
+      <c r="AC64" s="2" t="n">
         <f aca="false">AB64/$AB$80</f>
         <v>0.542915260857093</v>
       </c>
-      <c r="AD64" s="6" t="n">
+      <c r="AD64" s="2" t="n">
         <f aca="false">ABS(AA64-$AA$81)</f>
         <v>4.29172480609918E-005</v>
       </c>
@@ -11678,11 +11671,11 @@
         <f aca="false">AI64+AJ63</f>
         <v>1.72784765489721</v>
       </c>
-      <c r="AK64" s="6" t="n">
+      <c r="AK64" s="2" t="n">
         <f aca="false">AJ64/$AJ$80</f>
         <v>0.542904467809039</v>
       </c>
-      <c r="AL64" s="6" t="n">
+      <c r="AL64" s="2" t="n">
         <f aca="false">ABS(AI64-$AI$81)</f>
         <v>0.000228480962500999</v>
       </c>
@@ -11705,11 +11698,11 @@
         <f aca="false">AQ64+AR63</f>
         <v>1.35699225579763</v>
       </c>
-      <c r="AS64" s="6" t="n">
+      <c r="AS64" s="2" t="n">
         <f aca="false">AR64/$AR$80</f>
         <v>0.542508288213525</v>
       </c>
-      <c r="AT64" s="6" t="n">
+      <c r="AT64" s="2" t="n">
         <f aca="false">ABS(AQ64-$AQ$81)</f>
         <v>0.000216511050289012</v>
       </c>
@@ -11732,11 +11725,11 @@
         <f aca="false">AY64+AZ63</f>
         <v>1.11789040222063</v>
       </c>
-      <c r="BA64" s="6" t="n">
+      <c r="BA64" s="2" t="n">
         <f aca="false">AZ64/$AZ$80</f>
         <v>0.542824473990354</v>
       </c>
-      <c r="BB64" s="6" t="n">
+      <c r="BB64" s="2" t="n">
         <f aca="false">ABS(AY64-$AY$81)</f>
         <v>0.000329413187083995</v>
       </c>
@@ -11759,11 +11752,11 @@
         <f aca="false">BH63+BG64</f>
         <v>0.949369526979443</v>
       </c>
-      <c r="BI64" s="6" t="n">
+      <c r="BI64" s="2" t="n">
         <f aca="false">BH64/$BH$80</f>
         <v>0.542375103360144</v>
       </c>
-      <c r="BJ64" s="6" t="n">
+      <c r="BJ64" s="2" t="n">
         <f aca="false">ABS(BG64-$BG$81)</f>
         <v>8.07517946969996E-005</v>
       </c>
@@ -11788,11 +11781,11 @@
         <f aca="false">S65+T64</f>
         <v>4.00288210222939</v>
       </c>
-      <c r="U65" s="6" t="n">
+      <c r="U65" s="2" t="n">
         <f aca="false">T65/$T$80</f>
         <v>0.571557873672482</v>
       </c>
-      <c r="V65" s="6" t="n">
+      <c r="V65" s="2" t="n">
         <f aca="false">ABS(S65-$S$81)</f>
         <v>8.74585545520001E-005</v>
       </c>
@@ -11815,11 +11808,11 @@
         <f aca="false">AA65+AB64</f>
         <v>2.50143736690805</v>
       </c>
-      <c r="AC65" s="6" t="n">
+      <c r="AC65" s="2" t="n">
         <f aca="false">AB65/$AB$80</f>
         <v>0.571511165228452</v>
       </c>
-      <c r="AD65" s="6" t="n">
+      <c r="AD65" s="2" t="n">
         <f aca="false">ABS(AA65-$AA$81)</f>
         <v>0.00010712770678098</v>
       </c>
@@ -11842,11 +11835,11 @@
         <f aca="false">AI65+AJ64</f>
         <v>1.81854334890174</v>
       </c>
-      <c r="AK65" s="6" t="n">
+      <c r="AK65" s="2" t="n">
         <f aca="false">AJ65/$AJ$80</f>
         <v>0.571401828294812</v>
       </c>
-      <c r="AL65" s="6" t="n">
+      <c r="AL65" s="2" t="n">
         <f aca="false">ABS(AI65-$AI$81)</f>
         <v>0.000235729075171998</v>
       </c>
@@ -11869,11 +11862,11 @@
         <f aca="false">AQ65+AR64</f>
         <v>1.42830375968025</v>
       </c>
-      <c r="AS65" s="6" t="n">
+      <c r="AS65" s="2" t="n">
         <f aca="false">AR65/$AR$80</f>
         <v>0.571017722763361</v>
       </c>
-      <c r="AT65" s="6" t="n">
+      <c r="AT65" s="2" t="n">
         <f aca="false">ABS(AQ65-$AQ$81)</f>
         <v>0.000155067505944989</v>
       </c>
@@ -11896,11 +11889,11 @@
         <f aca="false">AY65+AZ64</f>
         <v>1.17687244539743</v>
       </c>
-      <c r="BA65" s="6" t="n">
+      <c r="BA65" s="2" t="n">
         <f aca="false">AZ65/$AZ$80</f>
         <v>0.571464935075556</v>
       </c>
-      <c r="BB65" s="6" t="n">
+      <c r="BB65" s="2" t="n">
         <f aca="false">ABS(AY65-$AY$81)</f>
         <v>0.000142165263886003</v>
       </c>
@@ -11923,11 +11916,11 @@
         <f aca="false">BH64+BG65</f>
         <v>0.999685263489194</v>
       </c>
-      <c r="BI65" s="6" t="n">
+      <c r="BI65" s="2" t="n">
         <f aca="false">BH65/$BH$80</f>
         <v>0.571120499135533</v>
       </c>
-      <c r="BJ65" s="6" t="n">
+      <c r="BJ65" s="2" t="n">
         <f aca="false">ABS(BG65-$BG$81)</f>
         <v>0.000304510957658002</v>
       </c>
@@ -11952,11 +11945,11 @@
         <f aca="false">S66+T65</f>
         <v>4.20292294429166</v>
       </c>
-      <c r="U66" s="6" t="n">
+      <c r="U66" s="2" t="n">
         <f aca="false">T66/$T$80</f>
         <v>0.600121022777744</v>
       </c>
-      <c r="V66" s="6" t="n">
+      <c r="V66" s="2" t="n">
         <f aca="false">ABS(S66-$S$81)</f>
         <v>5.79849013720157E-005</v>
       </c>
@@ -11979,11 +11972,11 @@
         <f aca="false">AA66+AB65</f>
         <v>2.62641618271982</v>
       </c>
-      <c r="AC66" s="6" t="n">
+      <c r="AC66" s="2" t="n">
         <f aca="false">AB66/$AB$80</f>
         <v>0.600065463488474</v>
       </c>
-      <c r="AD66" s="6" t="n">
+      <c r="AD66" s="2" t="n">
         <f aca="false">ABS(AA66-$AA$81)</f>
         <v>7.49773646890051E-005</v>
       </c>
@@ -12006,11 +11999,11 @@
         <f aca="false">AI66+AJ65</f>
         <v>1.90932430597442</v>
       </c>
-      <c r="AK66" s="6" t="n">
+      <c r="AK66" s="2" t="n">
         <f aca="false">AJ66/$AJ$80</f>
         <v>0.599925979163697</v>
       </c>
-      <c r="AL66" s="6" t="n">
+      <c r="AL66" s="2" t="n">
         <f aca="false">ABS(AI66-$AI$81)</f>
         <v>0.000150466007027991</v>
       </c>
@@ -12033,11 +12026,11 @@
         <f aca="false">AQ66+AR65</f>
         <v>1.50029526284709</v>
       </c>
-      <c r="AS66" s="6" t="n">
+      <c r="AS66" s="2" t="n">
         <f aca="false">AR66/$AR$80</f>
         <v>0.599799012400127</v>
       </c>
-      <c r="AT66" s="6" t="n">
+      <c r="AT66" s="2" t="n">
         <f aca="false">ABS(AQ66-$AQ$81)</f>
         <v>0.000524931778266999</v>
       </c>
@@ -12060,11 +12053,11 @@
         <f aca="false">AY66+AZ65</f>
         <v>1.23572606765677</v>
       </c>
-      <c r="BA66" s="6" t="n">
+      <c r="BA66" s="2" t="n">
         <f aca="false">AZ66/$AZ$80</f>
         <v>0.600043037617536</v>
       </c>
-      <c r="BB66" s="6" t="n">
+      <c r="BB66" s="2" t="n">
         <f aca="false">ABS(AY66-$AY$81)</f>
         <v>1.37443464340026E-005</v>
       </c>
@@ -12087,11 +12080,11 @@
         <f aca="false">BH65+BG66</f>
         <v>1.04948836895961</v>
       </c>
-      <c r="BI66" s="6" t="n">
+      <c r="BI66" s="2" t="n">
         <f aca="false">BH66/$BH$80</f>
         <v>0.599573028640156</v>
       </c>
-      <c r="BJ66" s="6" t="n">
+      <c r="BJ66" s="2" t="n">
         <f aca="false">ABS(BG66-$BG$81)</f>
         <v>0.000208120081677997</v>
       </c>
@@ -12116,11 +12109,11 @@
         <f aca="false">S67+T66</f>
         <v>4.40329115443039</v>
       </c>
-      <c r="U67" s="6" t="n">
+      <c r="U67" s="2" t="n">
         <f aca="false">T67/$T$80</f>
         <v>0.628730915653347</v>
       </c>
-      <c r="V67" s="6" t="n">
+      <c r="V67" s="2" t="n">
         <f aca="false">ABS(S67-$S$81)</f>
         <v>0.000269383175087984</v>
       </c>
@@ -12143,11 +12136,11 @@
         <f aca="false">AA67+AB66</f>
         <v>2.75199605053049</v>
       </c>
-      <c r="AC67" s="6" t="n">
+      <c r="AC67" s="2" t="n">
         <f aca="false">AB67/$AB$80</f>
         <v>0.628757085965684</v>
       </c>
-      <c r="AD67" s="6" t="n">
+      <c r="AD67" s="2" t="n">
         <f aca="false">ABS(AA67-$AA$81)</f>
         <v>0.000526074634210977</v>
       </c>
@@ -12170,11 +12163,11 @@
         <f aca="false">AI67+AJ66</f>
         <v>2.00035999962105</v>
       </c>
-      <c r="AK67" s="6" t="n">
+      <c r="AK67" s="2" t="n">
         <f aca="false">AJ67/$AJ$80</f>
         <v>0.628530170436448</v>
       </c>
-      <c r="AL67" s="6" t="n">
+      <c r="AL67" s="2" t="n">
         <f aca="false">ABS(AI67-$AI$81)</f>
         <v>0.000104270566933004</v>
       </c>
@@ -12197,11 +12190,11 @@
         <f aca="false">AQ67+AR66</f>
         <v>1.57150045105216</v>
       </c>
-      <c r="AS67" s="6" t="n">
+      <c r="AS67" s="2" t="n">
         <f aca="false">AR67/$AR$80</f>
         <v>0.628265943290861</v>
       </c>
-      <c r="AT67" s="6" t="n">
+      <c r="AT67" s="2" t="n">
         <f aca="false">ABS(AQ67-$AQ$81)</f>
         <v>0.000261383183506991</v>
       </c>
@@ -12224,11 +12217,11 @@
         <f aca="false">AY67+AZ66</f>
         <v>1.29421337451224</v>
       </c>
-      <c r="BA67" s="6" t="n">
+      <c r="BA67" s="2" t="n">
         <f aca="false">AZ67/$AZ$80</f>
         <v>0.628443264970651</v>
       </c>
-      <c r="BB67" s="6" t="n">
+      <c r="BB67" s="2" t="n">
         <f aca="false">ABS(AY67-$AY$81)</f>
         <v>0.000352571057444996</v>
       </c>
@@ -12251,11 +12244,11 @@
         <f aca="false">BH66+BG67</f>
         <v>1.09931357966991</v>
       </c>
-      <c r="BI67" s="6" t="n">
+      <c r="BI67" s="2" t="n">
         <f aca="false">BH67/$BH$80</f>
         <v>0.62803818687514</v>
       </c>
-      <c r="BJ67" s="6" t="n">
+      <c r="BJ67" s="2" t="n">
         <f aca="false">ABS(BG67-$BG$81)</f>
         <v>0.000186014841787999</v>
       </c>
@@ -12280,11 +12273,11 @@
         <f aca="false">S68+T67</f>
         <v>4.60320673346662</v>
       </c>
-      <c r="U68" s="6" t="n">
+      <c r="U68" s="2" t="n">
         <f aca="false">T68/$T$80</f>
         <v>0.65727617887864</v>
       </c>
-      <c r="V68" s="6" t="n">
+      <c r="V68" s="2" t="n">
         <f aca="false">ABS(S68-$S$81)</f>
         <v>0.000183247927412006</v>
       </c>
@@ -12307,11 +12300,11 @@
         <f aca="false">AA68+AB67</f>
         <v>2.87688223486082</v>
       </c>
-      <c r="AC68" s="6" t="n">
+      <c r="AC68" s="2" t="n">
         <f aca="false">AB68/$AB$80</f>
         <v>0.657290220423408</v>
       </c>
-      <c r="AD68" s="6" t="n">
+      <c r="AD68" s="2" t="n">
         <f aca="false">ABS(AA68-$AA$81)</f>
         <v>0.000167608846129014</v>
       </c>
@@ -12334,11 +12327,11 @@
         <f aca="false">AI68+AJ67</f>
         <v>2.09095464110038</v>
       </c>
-      <c r="AK68" s="6" t="n">
+      <c r="AK68" s="2" t="n">
         <f aca="false">AJ68/$AJ$80</f>
         <v>0.656995779357051</v>
       </c>
-      <c r="AL68" s="6" t="n">
+      <c r="AL68" s="2" t="n">
         <f aca="false">ABS(AI68-$AI$81)</f>
         <v>0.00033678160037999</v>
       </c>
@@ -12361,11 +12354,11 @@
         <f aca="false">AQ68+AR67</f>
         <v>1.64256669203506</v>
       </c>
-      <c r="AS68" s="6" t="n">
+      <c r="AS68" s="2" t="n">
         <f aca="false">AR68/$AR$80</f>
         <v>0.656677324844946</v>
       </c>
-      <c r="AT68" s="6" t="n">
+      <c r="AT68" s="2" t="n">
         <f aca="false">ABS(AQ68-$AQ$81)</f>
         <v>0.00040033040566799</v>
       </c>
@@ -12388,11 +12381,11 @@
         <f aca="false">AY68+AZ67</f>
         <v>1.35295120741978</v>
       </c>
-      <c r="BA68" s="6" t="n">
+      <c r="BA68" s="2" t="n">
         <f aca="false">AZ68/$AZ$80</f>
         <v>0.65696514259661</v>
       </c>
-      <c r="BB68" s="6" t="n">
+      <c r="BB68" s="2" t="n">
         <f aca="false">ABS(AY68-$AY$81)</f>
         <v>0.000102045005367001</v>
       </c>
@@ -12415,11 +12408,11 @@
         <f aca="false">BH67+BG68</f>
         <v>1.14912089566221</v>
       </c>
-      <c r="BI68" s="6" t="n">
+      <c r="BI68" s="2" t="n">
         <f aca="false">BH68/$BH$80</f>
         <v>0.656493121852213</v>
       </c>
-      <c r="BJ68" s="6" t="n">
+      <c r="BJ68" s="2" t="n">
         <f aca="false">ABS(BG68-$BG$81)</f>
         <v>0.000203909559793998</v>
       </c>
@@ -12444,11 +12437,11 @@
         <f aca="false">S69+T68</f>
         <v>4.80346547003637</v>
       </c>
-      <c r="U69" s="6" t="n">
+      <c r="U69" s="2" t="n">
         <f aca="false">T69/$T$80</f>
         <v>0.685870440396958</v>
       </c>
-      <c r="V69" s="6" t="n">
+      <c r="V69" s="2" t="n">
         <f aca="false">ABS(S69-$S$81)</f>
         <v>0.000159909606107983</v>
       </c>
@@ -12471,11 +12464,11 @@
         <f aca="false">AA69+AB68</f>
         <v>3.00279052337841</v>
       </c>
-      <c r="AC69" s="6" t="n">
+      <c r="AC69" s="2" t="n">
         <f aca="false">AB69/$AB$80</f>
         <v>0.686056878199674</v>
       </c>
-      <c r="AD69" s="6" t="n">
+      <c r="AD69" s="2" t="n">
         <f aca="false">ABS(AA69-$AA$81)</f>
         <v>0.000854495341130995</v>
       </c>
@@ -12498,11 +12491,11 @@
         <f aca="false">AI69+AJ68</f>
         <v>2.18203138733538</v>
       </c>
-      <c r="AK69" s="6" t="n">
+      <c r="AK69" s="2" t="n">
         <f aca="false">AJ69/$AJ$80</f>
         <v>0.685612869703153</v>
       </c>
-      <c r="AL69" s="6" t="n">
+      <c r="AL69" s="2" t="n">
         <f aca="false">ABS(AI69-$AI$81)</f>
         <v>0.000145323155298999</v>
       </c>
@@ -12525,11 +12518,11 @@
         <f aca="false">AQ69+AR68</f>
         <v>1.71458030044179</v>
       </c>
-      <c r="AS69" s="6" t="n">
+      <c r="AS69" s="2" t="n">
         <f aca="false">AR69/$AR$80</f>
         <v>0.685467451876179</v>
       </c>
-      <c r="AT69" s="6" t="n">
+      <c r="AT69" s="2" t="n">
         <f aca="false">ABS(AQ69-$AQ$81)</f>
         <v>0.000547037018156005</v>
       </c>
@@ -12552,11 +12545,11 @@
         <f aca="false">AY69+AZ68</f>
         <v>1.41212377671181</v>
       </c>
-      <c r="BA69" s="6" t="n">
+      <c r="BA69" s="2" t="n">
         <f aca="false">AZ69/$AZ$80</f>
         <v>0.685698119225445</v>
       </c>
-      <c r="BB69" s="6" t="n">
+      <c r="BB69" s="2" t="n">
         <f aca="false">ABS(AY69-$AY$81)</f>
         <v>0.000332691379121001</v>
       </c>
@@ -12579,11 +12572,11 @@
         <f aca="false">BH68+BG69</f>
         <v>1.19915979035811</v>
       </c>
-      <c r="BI69" s="6" t="n">
+      <c r="BI69" s="2" t="n">
         <f aca="false">BH69/$BH$80</f>
         <v>0.685080357814026</v>
       </c>
-      <c r="BJ69" s="6" t="n">
+      <c r="BJ69" s="2" t="n">
         <f aca="false">ABS(BG69-$BG$81)</f>
         <v>2.7669143807002E-005</v>
       </c>
@@ -12608,11 +12601,11 @@
         <f aca="false">S70+T69</f>
         <v>5.00251052367316</v>
       </c>
-      <c r="U70" s="6" t="n">
+      <c r="U70" s="2" t="n">
         <f aca="false">T70/$T$80</f>
         <v>0.71429140427154</v>
       </c>
-      <c r="V70" s="6" t="n">
+      <c r="V70" s="2" t="n">
         <f aca="false">ABS(S70-$S$81)</f>
         <v>0.001053773326852</v>
       </c>
@@ -12635,11 +12628,11 @@
         <f aca="false">AA70+AB69</f>
         <v>3.12812197039794</v>
       </c>
-      <c r="AC70" s="6" t="n">
+      <c r="AC70" s="2" t="n">
         <f aca="false">AB70/$AB$80</f>
         <v>0.714691743207083</v>
       </c>
-      <c r="AD70" s="6" t="n">
+      <c r="AD70" s="2" t="n">
         <f aca="false">ABS(AA70-$AA$81)</f>
         <v>0.000277653843070991</v>
       </c>
@@ -12662,11 +12655,11 @@
         <f aca="false">AI70+AJ69</f>
         <v>2.27260181831388</v>
       </c>
-      <c r="AK70" s="6" t="n">
+      <c r="AK70" s="2" t="n">
         <f aca="false">AJ70/$AJ$80</f>
         <v>0.714070871477933</v>
       </c>
-      <c r="AL70" s="6" t="n">
+      <c r="AL70" s="2" t="n">
         <f aca="false">ABS(AI70-$AI$81)</f>
         <v>0.000360992101211002</v>
       </c>
@@ -12689,11 +12682,11 @@
         <f aca="false">AQ70+AR69</f>
         <v>1.78596969897927</v>
       </c>
-      <c r="AS70" s="6" t="n">
+      <c r="AS70" s="2" t="n">
         <f aca="false">AR70/$AR$80</f>
         <v>0.714008027720802</v>
       </c>
-      <c r="AT70" s="6" t="n">
+      <c r="AT70" s="2" t="n">
         <f aca="false">ABS(AQ70-$AQ$81)</f>
         <v>7.71728510969988E-005</v>
       </c>
@@ -12716,11 +12709,11 @@
         <f aca="false">AY70+AZ69</f>
         <v>1.47096582003598</v>
       </c>
-      <c r="BA70" s="6" t="n">
+      <c r="BA70" s="2" t="n">
         <f aca="false">AZ70/$AZ$80</f>
         <v>0.714270599275823</v>
       </c>
-      <c r="BB70" s="6" t="n">
+      <c r="BB70" s="2" t="n">
         <f aca="false">ABS(AY70-$AY$81)</f>
         <v>2.16541125400149E-006</v>
       </c>
@@ -12743,11 +12736,11 @@
         <f aca="false">BH69+BG70</f>
         <v>1.24941973745291</v>
       </c>
-      <c r="BI70" s="6" t="n">
+      <c r="BI70" s="2" t="n">
         <f aca="false">BH70/$BH$80</f>
         <v>0.713793881079456</v>
       </c>
-      <c r="BJ70" s="6" t="n">
+      <c r="BJ70" s="2" t="n">
         <f aca="false">ABS(BG70-$BG$81)</f>
         <v>0.000248721542700003</v>
       </c>
@@ -12772,11 +12765,11 @@
         <f aca="false">S71+T70</f>
         <v>5.20289662852989</v>
       </c>
-      <c r="U71" s="6" t="n">
+      <c r="U71" s="2" t="n">
         <f aca="false">T71/$T$80</f>
         <v>0.742903852272852</v>
       </c>
-      <c r="V71" s="6" t="n">
+      <c r="V71" s="2" t="n">
         <f aca="false">ABS(S71-$S$81)</f>
         <v>0.000287277893087995</v>
       </c>
@@ -12799,11 +12792,11 @@
         <f aca="false">AA71+AB70</f>
         <v>3.25265447089004</v>
       </c>
-      <c r="AC71" s="6" t="n">
+      <c r="AC71" s="2" t="n">
         <f aca="false">AB71/$AB$80</f>
         <v>0.743144070419667</v>
       </c>
-      <c r="AD71" s="6" t="n">
+      <c r="AD71" s="2" t="n">
         <f aca="false">ABS(AA71-$AA$81)</f>
         <v>0.000521292684359007</v>
       </c>
@@ -12826,11 +12819,11 @@
         <f aca="false">AI71+AJ70</f>
         <v>2.36367224876605</v>
       </c>
-      <c r="AK71" s="6" t="n">
+      <c r="AK71" s="2" t="n">
         <f aca="false">AJ71/$AJ$80</f>
         <v>0.742685977351211</v>
       </c>
-      <c r="AL71" s="6" t="n">
+      <c r="AL71" s="2" t="n">
         <f aca="false">ABS(AI71-$AI$81)</f>
         <v>0.000139007372473007</v>
       </c>
@@ -12853,11 +12846,11 @@
         <f aca="false">AQ71+AR70</f>
         <v>1.85779278127076</v>
       </c>
-      <c r="AS71" s="6" t="n">
+      <c r="AS71" s="2" t="n">
         <f aca="false">AR71/$AR$80</f>
         <v>0.742721984828298</v>
       </c>
-      <c r="AT71" s="6" t="n">
+      <c r="AT71" s="2" t="n">
         <f aca="false">ABS(AQ71-$AQ$81)</f>
         <v>0.000356510902920007</v>
       </c>
@@ -12880,11 +12873,11 @@
         <f aca="false">AY71+AZ70</f>
         <v>1.52948891632746</v>
       </c>
-      <c r="BA71" s="6" t="n">
+      <c r="BA71" s="2" t="n">
         <f aca="false">AZ71/$AZ$80</f>
         <v>0.742688205239344</v>
       </c>
-      <c r="BB71" s="6" t="n">
+      <c r="BB71" s="2" t="n">
         <f aca="false">ABS(AY71-$AY$81)</f>
         <v>0.000316781621432997</v>
       </c>
@@ -12907,11 +12900,11 @@
         <f aca="false">BH70+BG71</f>
         <v>1.29934600068842</v>
       </c>
-      <c r="BI71" s="6" t="n">
+      <c r="BI71" s="2" t="n">
         <f aca="false">BH71/$BH$80</f>
         <v>0.742316770653236</v>
       </c>
-      <c r="BJ71" s="6" t="n">
+      <c r="BJ71" s="2" t="n">
         <f aca="false">ABS(BG71-$BG$81)</f>
         <v>8.49623165809985E-005</v>
       </c>
@@ -12936,11 +12929,11 @@
         <f aca="false">S72+T71</f>
         <v>5.40261326040712</v>
       </c>
-      <c r="U72" s="6" t="n">
+      <c r="U72" s="2" t="n">
         <f aca="false">T72/$T$80</f>
         <v>0.771420708512311</v>
       </c>
-      <c r="V72" s="6" t="n">
+      <c r="V72" s="2" t="n">
         <f aca="false">ABS(S72-$S$81)</f>
         <v>0.000382195086412018</v>
       </c>
@@ -12963,11 +12956,11 @@
         <f aca="false">AA72+AB71</f>
         <v>3.37823749659212</v>
       </c>
-      <c r="AC72" s="6" t="n">
+      <c r="AC72" s="2" t="n">
         <f aca="false">AB72/$AB$80</f>
         <v>0.771836414390136</v>
       </c>
-      <c r="AD72" s="6" t="n">
+      <c r="AD72" s="2" t="n">
         <f aca="false">ABS(AA72-$AA$81)</f>
         <v>0.000529232525620982</v>
       </c>
@@ -12990,11 +12983,11 @@
         <f aca="false">AI72+AJ71</f>
         <v>2.45467636349856</v>
       </c>
-      <c r="AK72" s="6" t="n">
+      <c r="AK72" s="2" t="n">
         <f aca="false">AJ72/$AJ$80</f>
         <v>0.771280246259847</v>
       </c>
-      <c r="AL72" s="6" t="n">
+      <c r="AL72" s="2" t="n">
         <f aca="false">ABS(AI72-$AI$81)</f>
         <v>7.26916528060034E-005</v>
       </c>
@@ -13017,11 +13010,11 @@
         <f aca="false">AQ72+AR71</f>
         <v>1.9294474426869</v>
       </c>
-      <c r="AS72" s="6" t="n">
+      <c r="AS72" s="2" t="n">
         <f aca="false">AR72/$AR$80</f>
         <v>0.771368609406523</v>
       </c>
-      <c r="AT72" s="6" t="n">
+      <c r="AT72" s="2" t="n">
         <f aca="false">ABS(AQ72-$AQ$81)</f>
         <v>0.000188090027574001</v>
       </c>
@@ -13044,11 +13037,11 @@
         <f aca="false">AY72+AZ71</f>
         <v>1.58810569673085</v>
       </c>
-      <c r="BA72" s="6" t="n">
+      <c r="BA72" s="2" t="n">
         <f aca="false">AZ72/$AZ$80</f>
         <v>0.771151302271282</v>
       </c>
-      <c r="BB72" s="6" t="n">
+      <c r="BB72" s="2" t="n">
         <f aca="false">ABS(AY72-$AY$81)</f>
         <v>0.000223097509521999</v>
       </c>
@@ -13071,11 +13064,11 @@
         <f aca="false">BH71+BG72</f>
         <v>1.34948700054</v>
       </c>
-      <c r="BI72" s="6" t="n">
+      <c r="BI72" s="2" t="n">
         <f aca="false">BH72/$BH$80</f>
         <v>0.770962339321957</v>
       </c>
-      <c r="BJ72" s="6" t="n">
+      <c r="BJ72" s="2" t="n">
         <f aca="false">ABS(BG72-$BG$81)</f>
         <v>0.000129774299486005</v>
       </c>
@@ -13100,11 +13093,11 @@
         <f aca="false">S73+T72</f>
         <v>5.60289304958629</v>
       </c>
-      <c r="U73" s="6" t="n">
+      <c r="U73" s="2" t="n">
         <f aca="false">T73/$T$80</f>
         <v>0.800017976060877</v>
       </c>
-      <c r="V73" s="6" t="n">
+      <c r="V73" s="2" t="n">
         <f aca="false">ABS(S73-$S$81)</f>
         <v>0.000180962215527991</v>
       </c>
@@ -13127,11 +13120,11 @@
         <f aca="false">AA73+AB72</f>
         <v>3.50288052328367</v>
       </c>
-      <c r="AC73" s="6" t="n">
+      <c r="AC73" s="2" t="n">
         <f aca="false">AB73/$AB$80</f>
         <v>0.800313993866827</v>
       </c>
-      <c r="AD73" s="6" t="n">
+      <c r="AD73" s="2" t="n">
         <f aca="false">ABS(AA73-$AA$81)</f>
         <v>0.000410766484909009</v>
       </c>
@@ -13154,11 +13147,11 @@
         <f aca="false">AI73+AJ72</f>
         <v>2.54597310950199</v>
       </c>
-      <c r="AK73" s="6" t="n">
+      <c r="AK73" s="2" t="n">
         <f aca="false">AJ73/$AJ$80</f>
         <v>0.799966462409289</v>
       </c>
-      <c r="AL73" s="6" t="n">
+      <c r="AL73" s="2" t="n">
         <f aca="false">ABS(AI73-$AI$81)</f>
         <v>0.000365322923720004</v>
       </c>
@@ -13181,11 +13174,11 @@
         <f aca="false">AQ73+AR72</f>
         <v>2.0009736831856</v>
       </c>
-      <c r="AS73" s="6" t="n">
+      <c r="AS73" s="2" t="n">
         <f aca="false">AR73/$AR$80</f>
         <v>0.799963892931178</v>
       </c>
-      <c r="AT73" s="6" t="n">
+      <c r="AT73" s="2" t="n">
         <f aca="false">ABS(AQ73-$AQ$81)</f>
         <v>5.9669110122007E-005</v>
       </c>
@@ -13208,11 +13201,11 @@
         <f aca="false">AY73+AZ72</f>
         <v>1.64673721396083</v>
       </c>
-      <c r="BA73" s="6" t="n">
+      <c r="BA73" s="2" t="n">
         <f aca="false">AZ73/$AZ$80</f>
         <v>0.799621555201622</v>
       </c>
-      <c r="BB73" s="6" t="n">
+      <c r="BB73" s="2" t="n">
         <f aca="false">ABS(AY73-$AY$81)</f>
         <v>0.000208360682928996</v>
       </c>
@@ -13235,11 +13228,11 @@
         <f aca="false">BH72+BG73</f>
         <v>1.39965326352288</v>
       </c>
-      <c r="BI73" s="6" t="n">
+      <c r="BI73" s="2" t="n">
         <f aca="false">BH73/$BH$80</f>
         <v>0.799622340825377</v>
       </c>
-      <c r="BJ73" s="6" t="n">
+      <c r="BJ73" s="2" t="n">
         <f aca="false">ABS(BG73-$BG$81)</f>
         <v>0.000155037430787999</v>
       </c>
@@ -13264,11 +13257,11 @@
         <f aca="false">S74+T73</f>
         <v>5.80386968013721</v>
       </c>
-      <c r="U74" s="6" t="n">
+      <c r="U74" s="2" t="n">
         <f aca="false">T74/$T$80</f>
         <v>0.828714743210618</v>
       </c>
-      <c r="V74" s="6" t="n">
+      <c r="V74" s="2" t="n">
         <f aca="false">ABS(S74-$S$81)</f>
         <v>0.000877803587277987</v>
       </c>
@@ -13291,11 +13284,11 @@
         <f aca="false">AA74+AB73</f>
         <v>3.62809302305999</v>
       </c>
-      <c r="AC74" s="6" t="n">
+      <c r="AC74" s="2" t="n">
         <f aca="false">AB74/$AB$80</f>
         <v>0.828921682628103</v>
       </c>
-      <c r="AD74" s="6" t="n">
+      <c r="AD74" s="2" t="n">
         <f aca="false">ABS(AA74-$AA$81)</f>
         <v>0.000158706599861003</v>
       </c>
@@ -13318,11 +13311,11 @@
         <f aca="false">AI74+AJ73</f>
         <v>2.63705301362841</v>
       </c>
-      <c r="AK74" s="6" t="n">
+      <c r="AK74" s="2" t="n">
         <f aca="false">AJ74/$AJ$80</f>
         <v>0.828584544991802</v>
       </c>
-      <c r="AL74" s="6" t="n">
+      <c r="AL74" s="2" t="n">
         <f aca="false">ABS(AI74-$AI$81)</f>
         <v>0.000148481046712001</v>
       </c>
@@ -13345,11 +13338,11 @@
         <f aca="false">AQ74+AR73</f>
         <v>2.07254202890313</v>
       </c>
-      <c r="AS74" s="6" t="n">
+      <c r="AS74" s="2" t="n">
         <f aca="false">AR74/$AR$80</f>
         <v>0.828576009588152</v>
       </c>
-      <c r="AT74" s="6" t="n">
+      <c r="AT74" s="2" t="n">
         <f aca="false">ABS(AQ74-$AQ$81)</f>
         <v>0.000101774328959012</v>
       </c>
@@ -13372,11 +13365,11 @@
         <f aca="false">AY74+AZ73</f>
         <v>1.7059192569271</v>
       </c>
-      <c r="BA74" s="6" t="n">
+      <c r="BA74" s="2" t="n">
         <f aca="false">AZ74/$AZ$80</f>
         <v>0.82835913205086</v>
       </c>
-      <c r="BB74" s="6" t="n">
+      <c r="BB74" s="2" t="n">
         <f aca="false">ABS(AY74-$AY$81)</f>
         <v>0.000342165053360002</v>
       </c>
@@ -13399,11 +13392,11 @@
         <f aca="false">BH73+BG74</f>
         <v>1.44947531634177</v>
       </c>
-      <c r="BI74" s="6" t="n">
+      <c r="BI74" s="2" t="n">
         <f aca="false">BH74/$BH$80</f>
         <v>0.828085694956025</v>
       </c>
-      <c r="BJ74" s="6" t="n">
+      <c r="BJ74" s="2" t="n">
         <f aca="false">ABS(BG74-$BG$81)</f>
         <v>0.000189172733201001</v>
       </c>
@@ -13428,11 +13421,11 @@
         <f aca="false">S75+T74</f>
         <v>6.0039315748089</v>
       </c>
-      <c r="U75" s="6" t="n">
+      <c r="U75" s="2" t="n">
         <f aca="false">T75/$T$80</f>
         <v>0.857280898346128</v>
       </c>
-      <c r="V75" s="6" t="n">
+      <c r="V75" s="2" t="n">
         <f aca="false">ABS(S75-$S$81)</f>
         <v>3.69322919520076E-005</v>
       </c>
@@ -13455,11 +13448,11 @@
         <f aca="false">AA75+AB74</f>
         <v>3.75269710242412</v>
       </c>
-      <c r="AC75" s="6" t="n">
+      <c r="AC75" s="2" t="n">
         <f aca="false">AB75/$AB$80</f>
         <v>0.85739036368792</v>
       </c>
-      <c r="AD75" s="6" t="n">
+      <c r="AD75" s="2" t="n">
         <f aca="false">ABS(AA75-$AA$81)</f>
         <v>0.000449713812329014</v>
       </c>
@@ -13482,11 +13475,11 @@
         <f aca="false">AI75+AJ74</f>
         <v>2.72772239187117</v>
       </c>
-      <c r="AK75" s="6" t="n">
+      <c r="AK75" s="2" t="n">
         <f aca="false">AJ75/$AJ$80</f>
         <v>0.857073636840812</v>
       </c>
-      <c r="AL75" s="6" t="n">
+      <c r="AL75" s="2" t="n">
         <f aca="false">ABS(AI75-$AI$81)</f>
         <v>0.000262044836945002</v>
       </c>
@@ -13509,11 +13502,11 @@
         <f aca="false">AQ75+AR74</f>
         <v>2.14370826978077</v>
       </c>
-      <c r="AS75" s="6" t="n">
+      <c r="AS75" s="2" t="n">
         <f aca="false">AR75/$AR$80</f>
         <v>0.857027369831492</v>
       </c>
-      <c r="AT75" s="6" t="n">
+      <c r="AT75" s="2" t="n">
         <f aca="false">ABS(AQ75-$AQ$81)</f>
         <v>0.000300330510930993</v>
       </c>
@@ -13536,11 +13529,11 @@
         <f aca="false">AY75+AZ74</f>
         <v>1.7649265632352</v>
       </c>
-      <c r="BA75" s="6" t="n">
+      <c r="BA75" s="2" t="n">
         <f aca="false">AZ75/$AZ$80</f>
         <v>0.857011860390467</v>
       </c>
-      <c r="BB75" s="6" t="n">
+      <c r="BB75" s="2" t="n">
         <f aca="false">ABS(AY75-$AY$81)</f>
         <v>0.000167428395188005</v>
       </c>
@@ -13563,11 +13556,11 @@
         <f aca="false">BH74+BG75</f>
         <v>1.49914473774238</v>
       </c>
-      <c r="BI75" s="6" t="n">
+      <c r="BI75" s="2" t="n">
         <f aca="false">BH75/$BH$80</f>
         <v>0.856461850710366</v>
       </c>
-      <c r="BJ75" s="6" t="n">
+      <c r="BJ75" s="2" t="n">
         <f aca="false">ABS(BG75-$BG$81)</f>
         <v>0.000341804151484</v>
       </c>
@@ -13592,11 +13585,11 @@
         <f aca="false">S76+T75</f>
         <v>6.20416083772547</v>
       </c>
-      <c r="U76" s="6" t="n">
+      <c r="U76" s="2" t="n">
         <f aca="false">T76/$T$80</f>
         <v>0.885870951422101</v>
       </c>
-      <c r="V76" s="6" t="n">
+      <c r="V76" s="2" t="n">
         <f aca="false">ABS(S76-$S$81)</f>
         <v>0.000130435952927999</v>
       </c>
@@ -13619,11 +13612,11 @@
         <f aca="false">AA76+AB75</f>
         <v>3.87776644445639</v>
       </c>
-      <c r="AC76" s="6" t="n">
+      <c r="AC76" s="2" t="n">
         <f aca="false">AB76/$AB$80</f>
         <v>0.885965344754734</v>
       </c>
-      <c r="AD76" s="6" t="n">
+      <c r="AD76" s="2" t="n">
         <f aca="false">ABS(AA76-$AA$81)</f>
         <v>1.55488558109818E-005</v>
       </c>
@@ -13646,11 +13639,11 @@
         <f aca="false">AI76+AJ75</f>
         <v>2.81820019136822</v>
       </c>
-      <c r="AK76" s="6" t="n">
+      <c r="AK76" s="2" t="n">
         <f aca="false">AJ76/$AJ$80</f>
         <v>0.885502533014186</v>
       </c>
-      <c r="AL76" s="6" t="n">
+      <c r="AL76" s="2" t="n">
         <f aca="false">ABS(AI76-$AI$81)</f>
         <v>0.000453623582651996</v>
       </c>
@@ -13673,11 +13666,11 @@
         <f aca="false">AQ76+AR75</f>
         <v>2.2151355630152</v>
       </c>
-      <c r="AS76" s="6" t="n">
+      <c r="AS76" s="2" t="n">
         <f aca="false">AR76/$AR$80</f>
         <v>0.885583095495201</v>
       </c>
-      <c r="AT76" s="6" t="n">
+      <c r="AT76" s="2" t="n">
         <f aca="false">ABS(AQ76-$AQ$81)</f>
         <v>3.92781541439929E-005</v>
       </c>
@@ -13700,11 +13693,11 @@
         <f aca="false">AY76+AZ75</f>
         <v>1.82378650127737</v>
       </c>
-      <c r="BA76" s="6" t="n">
+      <c r="BA76" s="2" t="n">
         <f aca="false">AZ76/$AZ$80</f>
         <v>0.885593029746047</v>
       </c>
-      <c r="BB76" s="6" t="n">
+      <c r="BB76" s="2" t="n">
         <f aca="false">ABS(AY76-$AY$81)</f>
         <v>2.00601292589947E-005</v>
       </c>
@@ -13727,11 +13720,11 @@
         <f aca="false">BH75+BG76</f>
         <v>1.54922784291806</v>
       </c>
-      <c r="BI76" s="6" t="n">
+      <c r="BI76" s="2" t="n">
         <f aca="false">BH76/$BH$80</f>
         <v>0.885074344132902</v>
       </c>
-      <c r="BJ76" s="6" t="n">
+      <c r="BJ76" s="2" t="n">
         <f aca="false">ABS(BG76-$BG$81)</f>
         <v>7.18796235859992E-005</v>
       </c>
@@ -13756,11 +13749,11 @@
         <f aca="false">S77+T76</f>
         <v>6.4038269433401</v>
       </c>
-      <c r="U77" s="6" t="n">
+      <c r="U77" s="2" t="n">
         <f aca="false">T77/$T$80</f>
         <v>0.914380593188968</v>
       </c>
-      <c r="V77" s="6" t="n">
+      <c r="V77" s="2" t="n">
         <f aca="false">ABS(S77-$S$81)</f>
         <v>0.000432721349012011</v>
       </c>
@@ -13783,11 +13776,11 @@
         <f aca="false">AA77+AB76</f>
         <v>4.00222736607647</v>
       </c>
-      <c r="AC77" s="6" t="n">
+      <c r="AC77" s="2" t="n">
         <f aca="false">AB77/$AB$80</f>
         <v>0.914401318120088</v>
       </c>
-      <c r="AD77" s="6" t="n">
+      <c r="AD77" s="2" t="n">
         <f aca="false">ABS(AA77-$AA$81)</f>
         <v>0.000592871556379007</v>
       </c>
@@ -13810,11 +13803,11 @@
         <f aca="false">AI77+AJ76</f>
         <v>2.90914220090295</v>
       </c>
-      <c r="AK77" s="6" t="n">
+      <c r="AK77" s="2" t="n">
         <f aca="false">AJ77/$AJ$80</f>
         <v>0.914077287940061</v>
       </c>
-      <c r="AL77" s="6" t="n">
+      <c r="AL77" s="2" t="n">
         <f aca="false">ABS(AI77-$AI$81)</f>
         <v>1.05864550219992E-005</v>
       </c>
@@ -13837,11 +13830,11 @@
         <f aca="false">AQ77+AR76</f>
         <v>2.28669127716708</v>
       </c>
-      <c r="AS77" s="6" t="n">
+      <c r="AS77" s="2" t="n">
         <f aca="false">AR77/$AR$80</f>
         <v>0.91419016221248</v>
       </c>
-      <c r="AT77" s="6" t="n">
+      <c r="AT77" s="2" t="n">
         <f aca="false">ABS(AQ77-$AQ$81)</f>
         <v>8.91427633080005E-005</v>
       </c>
@@ -13864,11 +13857,11 @@
         <f aca="false">AY77+AZ76</f>
         <v>1.88258538675223</v>
       </c>
-      <c r="BA77" s="6" t="n">
+      <c r="BA77" s="2" t="n">
         <f aca="false">AZ77/$AZ$80</f>
         <v>0.914144553236817</v>
       </c>
-      <c r="BB77" s="6" t="n">
+      <c r="BB77" s="2" t="n">
         <f aca="false">ABS(AY77-$AY$81)</f>
         <v>4.09924380539994E-005</v>
       </c>
@@ -13891,11 +13884,11 @@
         <f aca="false">BH76+BG77</f>
         <v>1.59924463237407</v>
       </c>
-      <c r="BI77" s="6" t="n">
+      <c r="BI77" s="2" t="n">
         <f aca="false">BH77/$BH$80</f>
         <v>0.913648951364354</v>
       </c>
-      <c r="BJ77" s="6" t="n">
+      <c r="BJ77" s="2" t="n">
         <f aca="false">ABS(BG77-$BG$81)</f>
         <v>5.56390391800304E-006</v>
       </c>
@@ -13920,11 +13913,11 @@
         <f aca="false">S78+T77</f>
         <v>6.60401725892924</v>
       </c>
-      <c r="U78" s="6" t="n">
+      <c r="U78" s="2" t="n">
         <f aca="false">T78/$T$80</f>
         <v>0.942965085108984</v>
       </c>
-      <c r="V78" s="6" t="n">
+      <c r="V78" s="2" t="n">
         <f aca="false">ABS(S78-$S$81)</f>
         <v>9.14886254979874E-005</v>
       </c>
@@ -13947,11 +13940,11 @@
         <f aca="false">AA78+AB77</f>
         <v>4.1270882872755</v>
       </c>
-      <c r="AC78" s="6" t="n">
+      <c r="AC78" s="2" t="n">
         <f aca="false">AB78/$AB$80</f>
         <v>0.942928680631731</v>
       </c>
-      <c r="AD78" s="6" t="n">
+      <c r="AD78" s="2" t="n">
         <f aca="false">ABS(AA78-$AA$81)</f>
         <v>0.00019287197742901</v>
       </c>
@@ -13974,11 +13967,11 @@
         <f aca="false">AI78+AJ77</f>
         <v>2.99993789480222</v>
       </c>
-      <c r="AK78" s="6" t="n">
+      <c r="AK78" s="2" t="n">
         <f aca="false">AJ78/$AJ$80</f>
         <v>0.942606069245533</v>
       </c>
-      <c r="AL78" s="6" t="n">
+      <c r="AL78" s="2" t="n">
         <f aca="false">ABS(AI78-$AI$81)</f>
         <v>0.000135729180435001</v>
       </c>
@@ -14001,11 +13994,11 @@
         <f aca="false">AQ78+AR77</f>
         <v>2.3581006756835</v>
       </c>
-      <c r="AS78" s="6" t="n">
+      <c r="AS78" s="2" t="n">
         <f aca="false">AR78/$AR$80</f>
         <v>0.942738733794954</v>
       </c>
-      <c r="AT78" s="6" t="n">
+      <c r="AT78" s="2" t="n">
         <f aca="false">ABS(AQ78-$AQ$81)</f>
         <v>5.7172872149E-005</v>
       </c>
@@ -14028,11 +14021,11 @@
         <f aca="false">AY78+AZ77</f>
         <v>1.94160321936503</v>
       </c>
-      <c r="BA78" s="6" t="n">
+      <c r="BA78" s="2" t="n">
         <f aca="false">AZ78/$AZ$80</f>
         <v>0.942802392932425</v>
       </c>
-      <c r="BB78" s="6" t="n">
+      <c r="BB78" s="2" t="n">
         <f aca="false">ABS(AY78-$AY$81)</f>
         <v>0.000177954699897002</v>
       </c>
@@ -14055,11 +14048,11 @@
         <f aca="false">BH77+BG78</f>
         <v>1.64988773696027</v>
       </c>
-      <c r="BI78" s="6" t="n">
+      <c r="BI78" s="2" t="n">
         <f aca="false">BH78/$BH$80</f>
         <v>0.942581372622717</v>
       </c>
-      <c r="BJ78" s="6" t="n">
+      <c r="BJ78" s="2" t="n">
         <f aca="false">ABS(BG78-$BG$81)</f>
         <v>0.000631879034112999</v>
       </c>
@@ -14084,11 +14077,11 @@
         <f aca="false">S79+T78</f>
         <v>6.80394546953112</v>
       </c>
-      <c r="U79" s="6" t="n">
+      <c r="U79" s="2" t="n">
         <f aca="false">T79/$T$80</f>
         <v>0.971512151952425</v>
       </c>
-      <c r="V79" s="6" t="n">
+      <c r="V79" s="2" t="n">
         <f aca="false">ABS(S79-$S$81)</f>
         <v>0.000170616361761994</v>
       </c>
@@ -14111,11 +14104,11 @@
         <f aca="false">AA79+AB78</f>
         <v>4.25178078759918</v>
       </c>
-      <c r="AC79" s="6" t="n">
+      <c r="AC79" s="2" t="n">
         <f aca="false">AB79/$AB$80</f>
         <v>0.971417563502831</v>
       </c>
-      <c r="AD79" s="6" t="n">
+      <c r="AD79" s="2" t="n">
         <f aca="false">ABS(AA79-$AA$81)</f>
         <v>0.000361292852779013</v>
       </c>
@@ -14138,11 +14131,11 @@
         <f aca="false">AI79+AJ78</f>
         <v>3.09145148268265</v>
       </c>
-      <c r="AK79" s="6" t="n">
+      <c r="AK79" s="2" t="n">
         <f aca="false">AJ79/$AJ$80</f>
         <v>0.971360418961902</v>
       </c>
-      <c r="AL79" s="6" t="n">
+      <c r="AL79" s="2" t="n">
         <f aca="false">ABS(AI79-$AI$81)</f>
         <v>0.000582164800729007</v>
       </c>
@@ -14165,11 +14158,11 @@
         <f aca="false">AQ79+AR78</f>
         <v>2.42986691592956</v>
       </c>
-      <c r="AS79" s="6" t="n">
+      <c r="AS79" s="2" t="n">
         <f aca="false">AR79/$AR$80</f>
         <v>0.971429966173821</v>
       </c>
-      <c r="AT79" s="6" t="n">
+      <c r="AT79" s="2" t="n">
         <f aca="false">ABS(AQ79-$AQ$81)</f>
         <v>0.000299668857491012</v>
       </c>
@@ -14192,11 +14185,11 @@
         <f aca="false">AY79+AZ78</f>
         <v>2.00042526271025</v>
       </c>
-      <c r="BA79" s="6" t="n">
+      <c r="BA79" s="2" t="n">
         <f aca="false">AZ79/$AZ$80</f>
         <v>0.9713651614064</v>
       </c>
-      <c r="BB79" s="6" t="n">
+      <c r="BB79" s="2" t="n">
         <f aca="false">ABS(AY79-$AY$81)</f>
         <v>1.78345676929981E-005</v>
       </c>
@@ -14219,11 +14212,11 @@
         <f aca="false">BH78+BG79</f>
         <v>1.70022557870991</v>
       </c>
-      <c r="BI79" s="6" t="n">
+      <c r="BI79" s="2" t="n">
         <f aca="false">BH79/$BH$80</f>
         <v>0.971339397128467</v>
       </c>
-      <c r="BJ79" s="6" t="n">
+      <c r="BJ79" s="2" t="n">
         <f aca="false">ABS(BG79-$BG$81)</f>
         <v>0.000326616197546994</v>
       </c>
@@ -14248,11 +14241,11 @@
         <f aca="false">S80+T79</f>
         <v>7.00345894372746</v>
       </c>
-      <c r="U80" s="6" t="n">
+      <c r="U80" s="2" t="n">
         <f aca="false">T80/$T$80</f>
         <v>1</v>
       </c>
-      <c r="V80" s="6" t="n">
+      <c r="V80" s="2" t="n">
         <f aca="false">ABS(S80-$S$81)</f>
         <v>0.000585352767302011</v>
       </c>
@@ -14279,7 +14272,7 @@
         <f aca="false">AB80/$AB$80</f>
         <v>1</v>
       </c>
-      <c r="AD80" s="6" t="n">
+      <c r="AD80" s="2" t="n">
         <f aca="false">ABS(AA80-$AA$81)</f>
         <v>4.81804004109909E-005</v>
       </c>
@@ -14302,11 +14295,11 @@
         <f aca="false">AI80+AJ79</f>
         <v>3.18259980778968</v>
       </c>
-      <c r="AK80" s="6" t="n">
+      <c r="AK80" s="2" t="n">
         <f aca="false">AJ80/$AJ$80</f>
         <v>1</v>
       </c>
-      <c r="AL80" s="6" t="n">
+      <c r="AL80" s="2" t="n">
         <f aca="false">ABS(AI80-$AI$81)</f>
         <v>0.000216902027320998</v>
       </c>
@@ -14329,11 +14322,11 @@
         <f aca="false">AQ80+AR79</f>
         <v>2.5013299986</v>
       </c>
-      <c r="AS80" s="6" t="n">
+      <c r="AS80" s="2" t="n">
         <f aca="false">AR80/$AR$80</f>
         <v>1</v>
       </c>
-      <c r="AT80" s="6" t="n">
+      <c r="AT80" s="2" t="n">
         <f aca="false">ABS(AQ80-$AQ$81)</f>
         <v>3.48871813299345E-006</v>
       </c>
@@ -14356,11 +14349,11 @@
         <f aca="false">AY80+AZ79</f>
         <v>2.05939572695187</v>
       </c>
-      <c r="BA80" s="6" t="n">
+      <c r="BA80" s="2" t="n">
         <f aca="false">AZ80/$AZ$80</f>
         <v>1</v>
       </c>
-      <c r="BB80" s="6" t="n">
+      <c r="BB80" s="2" t="n">
         <f aca="false">ABS(AY80-$AY$81)</f>
         <v>0.000130586328706002</v>
       </c>
@@ -14383,94 +14376,94 @@
         <f aca="false">BH79+BG80</f>
         <v>1.75039289432327</v>
       </c>
-      <c r="BI80" s="6" t="n">
+      <c r="BI80" s="2" t="n">
         <f aca="false">BH80/$BH$80</f>
         <v>1</v>
       </c>
-      <c r="BJ80" s="6" t="n">
+      <c r="BJ80" s="2" t="n">
         <f aca="false">ABS(BG80-$BG$81)</f>
         <v>0.000156090061259002</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S81" s="6" t="n">
+      <c r="S81" s="2" t="n">
         <v>0.200098826963642</v>
       </c>
-      <c r="U81" s="4" t="s">
+      <c r="U81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="9" t="n">
+      <c r="V81" s="7" t="n">
         <f aca="false">SUM(V46:V80)/(35*2*S81)</f>
         <v>0.000871242040811546</v>
       </c>
-      <c r="AA81" s="6" t="n">
+      <c r="AA81" s="2" t="n">
         <v>0.125053793176459</v>
       </c>
-      <c r="AC81" s="4" t="s">
+      <c r="AC81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AD81" s="9" t="n">
+      <c r="AD81" s="7" t="n">
         <f aca="false">SUM(AD46:AD80)/(35*2*AA81)</f>
         <v>0.00117354658017532</v>
       </c>
-      <c r="AI81" s="6" t="n">
+      <c r="AI81" s="2" t="n">
         <v>0.090931423079705</v>
       </c>
-      <c r="AK81" s="4" t="s">
+      <c r="AK81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL81" s="9" t="n">
+      <c r="AL81" s="7" t="n">
         <f aca="false">SUM(AL46:AL80)/(35*2*AI81)</f>
         <v>0.00145497767444408</v>
       </c>
-      <c r="AQ81" s="6" t="n">
+      <c r="AQ81" s="2" t="n">
         <v>0.071466571388572</v>
       </c>
-      <c r="AS81" s="4" t="s">
+      <c r="AS81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AT81" s="9" t="n">
+      <c r="AT81" s="7" t="n">
         <f aca="false">SUM(AT46:AT80)/(35*2*AQ81)</f>
         <v>0.0017095248235204</v>
       </c>
-      <c r="AY81" s="6" t="n">
+      <c r="AY81" s="2" t="n">
         <v>0.058839877912911</v>
       </c>
-      <c r="BA81" s="4" t="s">
+      <c r="BA81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BB81" s="9" t="n">
+      <c r="BB81" s="7" t="n">
         <f aca="false">SUM(BB46:BB80)/(35*2*AY81)</f>
         <v>0.00180793042947932</v>
       </c>
-      <c r="BG81" s="6" t="n">
+      <c r="BG81" s="2" t="n">
         <v>0.050011225552093</v>
       </c>
-      <c r="BI81" s="4" t="s">
+      <c r="BI81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BJ81" s="9" t="n">
+      <c r="BJ81" s="7" t="n">
         <f aca="false">SUM(BJ46:BJ80)/(35*2*BG81)</f>
         <v>0.00192085566091488</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S82" s="8" t="n">
+      <c r="S82" s="6" t="n">
         <v>1.4179597864715E-005</v>
       </c>
-      <c r="AA82" s="8" t="n">
+      <c r="AA82" s="6" t="n">
         <v>1.2306756305239E-005</v>
       </c>
-      <c r="AI82" s="8" t="n">
+      <c r="AI82" s="6" t="n">
         <v>1.19957552431995E-006</v>
       </c>
-      <c r="AQ82" s="8" t="n">
+      <c r="AQ82" s="6" t="n">
         <v>2.85471634035466E-005</v>
       </c>
-      <c r="AY82" s="8" t="n">
+      <c r="AY82" s="6" t="n">
         <v>2.51534924759723E-006</v>
       </c>
-      <c r="BG82" s="8" t="n">
+      <c r="BG82" s="6" t="n">
         <v>3.48594596813201E-006</v>
       </c>
     </row>
